--- a/ecobay/src/main/webapp/resources/db/분석설계.xlsx
+++ b/ecobay/src/main/webapp/resources/db/분석설계.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="9585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="분석" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="332">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -860,9 +860,6 @@
     <t>VARCHAR(14)</t>
   </si>
   <si>
-    <t>PRODUCT_NM</t>
-  </si>
-  <si>
     <t>CONTENT</t>
   </si>
   <si>
@@ -901,9 +898,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MONEY_FIRST</t>
-  </si>
-  <si>
     <t>시작가</t>
   </si>
   <si>
@@ -916,15 +910,9 @@
     <t>최종입찰가</t>
   </si>
   <si>
-    <t>MONEY_UNIT</t>
-  </si>
-  <si>
     <t>입찰단위</t>
   </si>
   <si>
-    <t>AUCTDATE_UNIT</t>
-  </si>
-  <si>
     <t>경매기간</t>
   </si>
   <si>
@@ -943,15 +931,9 @@
     <t>경매종료일</t>
   </si>
   <si>
-    <t>BAYNOW_YN</t>
-  </si>
-  <si>
     <t>즉시구매여부</t>
   </si>
   <si>
-    <t>BAYNOW_MONEY</t>
-  </si>
-  <si>
     <t>즉시구매가</t>
   </si>
   <si>
@@ -997,9 +979,6 @@
     <t>입찰금액</t>
   </si>
   <si>
-    <t>DELI_DIV_CD</t>
-  </si>
-  <si>
     <t>배송구분코드</t>
   </si>
   <si>
@@ -1127,9 +1106,6 @@
   </si>
   <si>
     <t>QNA_IDX</t>
-  </si>
-  <si>
-    <t>ADMIN_ID</t>
   </si>
   <si>
     <t>BAY_MEMBER_ID</t>
@@ -1293,6 +1269,94 @@
     <t>[[(2018-09-12 결정사항]]
 1. 대/중분류명을 분류명으로 단일로 통합하기로 함.
 2. 대분류인 경우 중분류를 'XX'으로 기본값 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONEY_UNIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUCTDATE_UNIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONEY_FIRST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAYNOW_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAYNOW_MONEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELI_DIV_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용(답변)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QNA답변 : QNAREPLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QNARP_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK/FK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11682,8 +11746,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="E34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12014,7 +12078,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:8" ht="273" customHeight="1">
+    <row r="20" spans="1:8" ht="280.5">
       <c r="A20" s="12"/>
       <c r="B20" s="13" t="s">
         <v>73</v>
@@ -12027,13 +12091,13 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="258.75" customHeight="1">
@@ -12531,10 +12595,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K171" sqref="K171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12574,7 +12638,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>3</v>
@@ -12910,7 +12974,7 @@
     </row>
     <row r="21" spans="1:9" ht="17.25" thickBot="1">
       <c r="A21" s="22" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="17.25" thickBot="1">
@@ -12927,7 +12991,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F22" s="35" t="s">
         <v>3</v>
@@ -12947,7 +13011,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>127</v>
@@ -12956,7 +13020,7 @@
         <v>201</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F23" s="38" t="s">
         <v>171</v>
@@ -12970,7 +13034,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>202</v>
+        <v>310</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>129</v>
@@ -13000,7 +13064,7 @@
         <v>170</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F25" s="26" t="s">
         <v>171</v>
@@ -13014,7 +13078,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>130</v>
@@ -13023,7 +13087,7 @@
         <v>183</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F26" s="26" t="s">
         <v>171</v>
@@ -13037,7 +13101,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>131</v>
@@ -13046,7 +13110,7 @@
         <v>183</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F27" s="26" t="s">
         <v>171</v>
@@ -13060,13 +13124,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>203</v>
+        <v>311</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>132</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="26" t="s">
@@ -13081,7 +13145,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>133</v>
@@ -13102,7 +13166,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>134</v>
@@ -13213,13 +13277,13 @@
         <v>13</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>136</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="30" t="s">
@@ -13240,7 +13304,7 @@
     </row>
     <row r="38" spans="1:9" ht="17.25" thickBot="1">
       <c r="A38" s="22" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="17.25" thickBot="1">
@@ -13257,7 +13321,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F39" s="35" t="s">
         <v>3</v>
@@ -13277,16 +13341,16 @@
         <v>1</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C40" s="38" t="s">
         <v>137</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F40" s="38" t="s">
         <v>171</v>
@@ -13300,16 +13364,16 @@
         <v>2</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>138</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F41" s="26" t="s">
         <v>171</v>
@@ -13323,7 +13387,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>127</v>
@@ -13332,7 +13396,7 @@
         <v>201</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F42" s="26" t="s">
         <v>171</v>
@@ -13346,13 +13410,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>139</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E43" s="25"/>
       <c r="F43" s="26" t="s">
@@ -13367,13 +13431,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>140</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="26" t="s">
@@ -13430,7 +13494,7 @@
     </row>
     <row r="48" spans="1:9" ht="17.25" thickBot="1">
       <c r="A48" s="22" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="17.25" thickBot="1">
@@ -13447,7 +13511,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F49" s="35" t="s">
         <v>3</v>
@@ -13465,39 +13529,39 @@
     <row r="50" spans="1:9">
       <c r="A50" s="37"/>
       <c r="B50" s="42" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F50" s="42" t="s">
         <v>171</v>
       </c>
       <c r="G50" s="39"/>
       <c r="H50" s="38" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="I50" s="40"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="24"/>
       <c r="B51" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>171</v>
@@ -13509,16 +13573,16 @@
     <row r="52" spans="1:9">
       <c r="A52" s="24"/>
       <c r="B52" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>183</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>171</v>
@@ -13533,13 +13597,13 @@
         <v>195</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>171</v>
@@ -13551,10 +13615,10 @@
     <row r="54" spans="1:9">
       <c r="A54" s="24"/>
       <c r="B54" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>180</v>
@@ -13570,13 +13634,13 @@
     <row r="55" spans="1:9">
       <c r="A55" s="24"/>
       <c r="B55" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="E55" s="25"/>
       <c r="F55" s="1" t="s">
@@ -13620,7 +13684,7 @@
     </row>
     <row r="59" spans="1:9" ht="17.25" thickBot="1">
       <c r="A59" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="17.25" thickBot="1">
@@ -13637,7 +13701,7 @@
         <v>4</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F60" s="35" t="s">
         <v>3</v>
@@ -13657,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C61" s="38" t="s">
         <v>127</v>
@@ -13666,7 +13730,7 @@
         <v>201</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F61" s="38" t="s">
         <v>171</v>
@@ -13680,13 +13744,13 @@
         <v>2</v>
       </c>
       <c r="B62" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" s="26" t="s">
         <v>214</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>216</v>
       </c>
       <c r="E62" s="25"/>
       <c r="F62" s="26" t="s">
@@ -13701,13 +13765,13 @@
         <v>3</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E63" s="25"/>
       <c r="F63" s="26" t="s">
@@ -13722,13 +13786,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>219</v>
+        <v>312</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E64" s="25"/>
       <c r="F64" s="26" t="s">
@@ -13743,13 +13807,13 @@
         <v>5</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E65" s="25"/>
       <c r="F65" s="26" t="s">
@@ -13764,10 +13828,10 @@
         <v>6</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D66" s="26" t="s">
         <v>190</v>
@@ -13778,7 +13842,7 @@
       </c>
       <c r="G66" s="25"/>
       <c r="H66" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I66" s="27"/>
     </row>
@@ -13787,10 +13851,10 @@
         <v>7</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>190</v>
@@ -13801,7 +13865,7 @@
       </c>
       <c r="G67" s="25"/>
       <c r="H67" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I67" s="27"/>
     </row>
@@ -13810,10 +13874,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>228</v>
+        <v>315</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D68" s="26" t="s">
         <v>183</v>
@@ -13823,7 +13887,7 @@
         <v>171</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H68" s="26"/>
       <c r="I68" s="27"/>
@@ -13833,13 +13897,13 @@
         <v>9</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="26" t="s">
@@ -13877,16 +13941,16 @@
         <v>11</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D71" s="30" t="s">
         <v>170</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F71" s="30" t="s">
         <v>193</v>
@@ -13899,7 +13963,7 @@
     </row>
     <row r="74" spans="1:9" ht="17.25" thickBot="1">
       <c r="A74" s="22" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="17.25" thickBot="1">
@@ -13916,7 +13980,7 @@
         <v>4</v>
       </c>
       <c r="E75" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F75" s="35" t="s">
         <v>3</v>
@@ -13936,7 +14000,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C76" s="38" t="s">
         <v>127</v>
@@ -13945,7 +14009,7 @@
         <v>201</v>
       </c>
       <c r="E76" s="39" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F76" s="38" t="s">
         <v>171</v>
@@ -13968,7 +14032,7 @@
         <v>170</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F77" s="26" t="s">
         <v>171</v>
@@ -13982,13 +14046,13 @@
         <v>3</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="26" t="s">
@@ -14023,7 +14087,7 @@
     </row>
     <row r="82" spans="1:9" ht="17.25" thickBot="1">
       <c r="A82" s="22" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="17.25" thickBot="1">
@@ -14040,7 +14104,7 @@
         <v>4</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F83" s="35" t="s">
         <v>3</v>
@@ -14060,7 +14124,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C84" s="38" t="s">
         <v>127</v>
@@ -14069,7 +14133,7 @@
         <v>201</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F84" s="38" t="s">
         <v>171</v>
@@ -14083,10 +14147,10 @@
         <v>2</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>244</v>
+        <v>317</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D85" s="26" t="s">
         <v>183</v>
@@ -14104,10 +14168,10 @@
         <v>3</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D86" s="26" t="s">
         <v>174</v>
@@ -14145,7 +14209,7 @@
     </row>
     <row r="90" spans="1:9" ht="17.25" thickBot="1">
       <c r="A90" s="22" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="17.25" thickBot="1">
@@ -14162,7 +14226,7 @@
         <v>4</v>
       </c>
       <c r="E91" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F91" s="35" t="s">
         <v>3</v>
@@ -14179,10 +14243,10 @@
     </row>
     <row r="92" spans="1:9" ht="17.25" thickBot="1">
       <c r="A92" s="37" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C92" s="38" t="s">
         <v>130</v>
@@ -14191,7 +14255,7 @@
         <v>183</v>
       </c>
       <c r="E92" s="39" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F92" s="38" t="s">
         <v>171</v>
@@ -14202,10 +14266,10 @@
     </row>
     <row r="93" spans="1:9" ht="17.25" thickBot="1">
       <c r="A93" s="37" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>131</v>
@@ -14214,26 +14278,26 @@
         <v>183</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F93" s="26" t="s">
         <v>171</v>
       </c>
       <c r="G93" s="26" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="H93" s="26"/>
       <c r="I93" s="27"/>
     </row>
     <row r="94" spans="1:9" ht="17.25" thickBot="1">
       <c r="A94" s="37" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D94" s="26" t="s">
         <v>170</v>
@@ -14248,10 +14312,10 @@
     </row>
     <row r="95" spans="1:9" ht="17.25" thickBot="1">
       <c r="A95" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C95" s="26" t="s">
         <v>141</v>
@@ -14269,7 +14333,7 @@
     </row>
     <row r="96" spans="1:9" ht="17.25" thickBot="1">
       <c r="A96" s="37" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B96" s="26" t="s">
         <v>189</v>
@@ -14292,7 +14356,7 @@
     </row>
     <row r="97" spans="1:9" ht="17.25" thickBot="1">
       <c r="A97" s="37" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B97" s="26" t="s">
         <v>191</v>
@@ -14315,7 +14379,7 @@
     </row>
     <row r="98" spans="1:9" ht="17.25" thickBot="1">
       <c r="A98" s="37" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B98" s="26" t="s">
         <v>192</v>
@@ -14336,7 +14400,7 @@
     </row>
     <row r="99" spans="1:9" ht="17.25" thickBot="1">
       <c r="A99" s="43" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>187</v>
@@ -14352,14 +14416,14 @@
         <v>171</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H99" s="30"/>
       <c r="I99" s="31"/>
     </row>
     <row r="102" spans="1:9" ht="17.25" thickBot="1">
       <c r="A102" s="22" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="17.25" thickBot="1">
@@ -14376,7 +14440,7 @@
         <v>4</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F103" s="35" t="s">
         <v>3</v>
@@ -14393,10 +14457,10 @@
     </row>
     <row r="104" spans="1:9" ht="17.25" thickBot="1">
       <c r="A104" s="37" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B104" s="42" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C104" s="42" t="s">
         <v>127</v>
@@ -14405,7 +14469,7 @@
         <v>201</v>
       </c>
       <c r="E104" s="39" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F104" s="42" t="s">
         <v>171</v>
@@ -14416,16 +14480,16 @@
     </row>
     <row r="105" spans="1:9" ht="17.25" thickBot="1">
       <c r="A105" s="37" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E105" s="25"/>
       <c r="F105" s="1" t="s">
@@ -14437,13 +14501,13 @@
     </row>
     <row r="106" spans="1:9" ht="17.25" thickBot="1">
       <c r="A106" s="37" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>183</v>
@@ -14453,20 +14517,20 @@
         <v>171</v>
       </c>
       <c r="G106" s="26" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H106" s="26"/>
       <c r="I106" s="27"/>
     </row>
     <row r="107" spans="1:9" ht="17.25" thickBot="1">
       <c r="A107" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>183</v>
@@ -14476,14 +14540,14 @@
         <v>171</v>
       </c>
       <c r="G107" s="26" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H107" s="26"/>
       <c r="I107" s="27"/>
     </row>
     <row r="108" spans="1:9" ht="17.25" thickBot="1">
       <c r="A108" s="37" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>189</v>
@@ -14517,7 +14581,7 @@
     </row>
     <row r="111" spans="1:9" ht="17.25" thickBot="1">
       <c r="A111" s="22" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="17.25" thickBot="1">
@@ -14534,7 +14598,7 @@
         <v>4</v>
       </c>
       <c r="E112" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F112" s="35" t="s">
         <v>3</v>
@@ -14551,10 +14615,10 @@
     </row>
     <row r="113" spans="1:9" ht="17.25" thickBot="1">
       <c r="A113" s="37" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B113" s="42" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C113" s="42" t="s">
         <v>127</v>
@@ -14563,7 +14627,7 @@
         <v>201</v>
       </c>
       <c r="E113" s="39" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F113" s="42" t="s">
         <v>171</v>
@@ -14574,13 +14638,13 @@
     </row>
     <row r="114" spans="1:9" ht="17.25" thickBot="1">
       <c r="A114" s="37" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>170</v>
@@ -14595,13 +14659,13 @@
     </row>
     <row r="115" spans="1:9" ht="17.25" thickBot="1">
       <c r="A115" s="37" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>178</v>
@@ -14616,13 +14680,13 @@
     </row>
     <row r="116" spans="1:9" ht="17.25" thickBot="1">
       <c r="A116" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>180</v>
@@ -14637,13 +14701,13 @@
     </row>
     <row r="117" spans="1:9" ht="17.25" thickBot="1">
       <c r="A117" s="37" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>180</v>
@@ -14658,7 +14722,7 @@
     </row>
     <row r="118" spans="1:9" ht="17.25" thickBot="1">
       <c r="A118" s="37" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>189</v>
@@ -14681,7 +14745,7 @@
     </row>
     <row r="121" spans="1:9" ht="17.25" thickBot="1">
       <c r="A121" s="22" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="17.25" thickBot="1">
@@ -14698,7 +14762,7 @@
         <v>4</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F122" s="35" t="s">
         <v>3</v>
@@ -14715,19 +14779,19 @@
     </row>
     <row r="123" spans="1:9" ht="17.25" thickBot="1">
       <c r="A123" s="37" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B123" s="42" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C123" s="42" t="s">
         <v>138</v>
       </c>
       <c r="D123" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E123" s="39" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F123" s="42" t="s">
         <v>171</v>
@@ -14738,13 +14802,13 @@
     </row>
     <row r="124" spans="1:9" ht="17.25" thickBot="1">
       <c r="A124" s="37" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>180</v>
@@ -14759,16 +14823,16 @@
     </row>
     <row r="125" spans="1:9" ht="17.25" thickBot="1">
       <c r="A125" s="37" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="E125" s="25"/>
       <c r="F125" s="1" t="s">
@@ -14780,7 +14844,7 @@
     </row>
     <row r="126" spans="1:9" ht="17.25" thickBot="1">
       <c r="A126" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>189</v>
@@ -14803,13 +14867,13 @@
     </row>
     <row r="127" spans="1:9" ht="17.25" thickBot="1">
       <c r="A127" s="37" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>190</v>
@@ -14826,7 +14890,7 @@
     </row>
     <row r="128" spans="1:9" ht="17.25" thickBot="1">
       <c r="A128" s="37" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>192</v>
@@ -14847,7 +14911,7 @@
     </row>
     <row r="129" spans="1:9" ht="17.25" thickBot="1">
       <c r="A129" s="37" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>187</v>
@@ -14870,7 +14934,7 @@
     </row>
     <row r="132" spans="1:9" ht="17.25" thickBot="1">
       <c r="A132" s="22" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="17.25" thickBot="1">
@@ -14887,7 +14951,7 @@
         <v>4</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F133" s="35" t="s">
         <v>3</v>
@@ -14904,19 +14968,19 @@
     </row>
     <row r="134" spans="1:9" ht="17.25" thickBot="1">
       <c r="A134" s="37" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B134" s="42" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C134" s="42" t="s">
         <v>137</v>
       </c>
       <c r="D134" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E134" s="39" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F134" s="42" t="s">
         <v>171</v>
@@ -14927,19 +14991,19 @@
     </row>
     <row r="135" spans="1:9" ht="17.25" thickBot="1">
       <c r="A135" s="37" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>171</v>
@@ -14950,19 +15014,19 @@
     </row>
     <row r="136" spans="1:9" ht="17.25" thickBot="1">
       <c r="A136" s="37" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>171</v>
@@ -14973,16 +15037,16 @@
     </row>
     <row r="137" spans="1:9" ht="17.25" thickBot="1">
       <c r="A137" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E137" s="25"/>
       <c r="F137" s="1" t="s">
@@ -14994,16 +15058,16 @@
     </row>
     <row r="138" spans="1:9" ht="17.25" thickBot="1">
       <c r="A138" s="37" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E138" s="25"/>
       <c r="F138" s="1" t="s">
@@ -15015,7 +15079,7 @@
     </row>
     <row r="139" spans="1:9" ht="17.25" thickBot="1">
       <c r="A139" s="37" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>189</v>
@@ -15041,7 +15105,7 @@
     </row>
     <row r="142" spans="1:9" ht="17.25" thickBot="1">
       <c r="A142" s="22" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="17.25" thickBot="1">
@@ -15058,7 +15122,7 @@
         <v>4</v>
       </c>
       <c r="E143" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F143" s="35" t="s">
         <v>3</v>
@@ -15075,19 +15139,19 @@
     </row>
     <row r="144" spans="1:9" ht="17.25" thickBot="1">
       <c r="A144" s="37" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B144" s="42" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C144" s="42" t="s">
         <v>138</v>
       </c>
       <c r="D144" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E144" s="39" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F144" s="42" t="s">
         <v>171</v>
@@ -15098,13 +15162,13 @@
     </row>
     <row r="145" spans="1:9" ht="17.25" thickBot="1">
       <c r="A145" s="37" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>180</v>
@@ -15119,16 +15183,16 @@
     </row>
     <row r="146" spans="1:9" ht="17.25" thickBot="1">
       <c r="A146" s="37" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="E146" s="25"/>
       <c r="F146" s="1" t="s">
@@ -15140,7 +15204,7 @@
     </row>
     <row r="147" spans="1:9" ht="17.25" thickBot="1">
       <c r="A147" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>189</v>
@@ -15163,13 +15227,13 @@
     </row>
     <row r="148" spans="1:9" ht="17.25" thickBot="1">
       <c r="A148" s="37" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>190</v>
@@ -15186,7 +15250,7 @@
     </row>
     <row r="151" spans="1:9" ht="17.25" thickBot="1">
       <c r="A151" s="22" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="17.25" thickBot="1">
@@ -15203,7 +15267,7 @@
         <v>4</v>
       </c>
       <c r="E152" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F152" s="35" t="s">
         <v>3</v>
@@ -15220,19 +15284,19 @@
     </row>
     <row r="153" spans="1:9" ht="17.25" thickBot="1">
       <c r="A153" s="37" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B153" s="42" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C153" s="42" t="s">
         <v>138</v>
       </c>
       <c r="D153" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E153" s="39" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F153" s="42" t="s">
         <v>171</v>
@@ -15243,7 +15307,7 @@
     </row>
     <row r="154" spans="1:9" ht="17.25" thickBot="1">
       <c r="A154" s="37" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>194</v>
@@ -15255,7 +15319,7 @@
         <v>170</v>
       </c>
       <c r="E154" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>171</v>
@@ -15266,13 +15330,13 @@
     </row>
     <row r="155" spans="1:9" ht="17.25" thickBot="1">
       <c r="A155" s="37" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>180</v>
@@ -15287,16 +15351,16 @@
     </row>
     <row r="156" spans="1:9" ht="17.25" thickBot="1">
       <c r="A156" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="E156" s="25"/>
       <c r="F156" s="1" t="s">
@@ -15308,7 +15372,7 @@
     </row>
     <row r="157" spans="1:9" ht="17.25" thickBot="1">
       <c r="A157" s="37" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>189</v>
@@ -15331,7 +15395,7 @@
     </row>
     <row r="160" spans="1:9" ht="17.25" thickBot="1">
       <c r="A160" s="22" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="17.25" thickBot="1">
@@ -15348,7 +15412,7 @@
         <v>4</v>
       </c>
       <c r="E161" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F161" s="35" t="s">
         <v>3</v>
@@ -15365,19 +15429,19 @@
     </row>
     <row r="162" spans="1:9" ht="17.25" thickBot="1">
       <c r="A162" s="37" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B162" s="42" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C162" s="42" t="s">
         <v>137</v>
       </c>
       <c r="D162" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E162" s="39" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F162" s="42" t="s">
         <v>171</v>
@@ -15388,19 +15452,19 @@
     </row>
     <row r="163" spans="1:9" ht="17.25" thickBot="1">
       <c r="A163" s="37" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>171</v>
@@ -15411,19 +15475,19 @@
     </row>
     <row r="164" spans="1:9" ht="17.25" thickBot="1">
       <c r="A164" s="37" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E164" s="25" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>171</v>
@@ -15434,16 +15498,16 @@
     </row>
     <row r="165" spans="1:9" ht="17.25" thickBot="1">
       <c r="A165" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E165" s="25"/>
       <c r="F165" s="1" t="s">
@@ -15455,16 +15519,16 @@
     </row>
     <row r="166" spans="1:9" ht="17.25" thickBot="1">
       <c r="A166" s="37" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E166" s="25"/>
       <c r="F166" s="1" t="s">
@@ -15476,7 +15540,7 @@
     </row>
     <row r="167" spans="1:9" ht="17.25" thickBot="1">
       <c r="A167" s="37" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>189</v>
@@ -15499,7 +15563,7 @@
     </row>
     <row r="170" spans="1:9" ht="17.25" thickBot="1">
       <c r="A170" s="22" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="17.25" thickBot="1">
@@ -15516,7 +15580,7 @@
         <v>4</v>
       </c>
       <c r="E171" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F171" s="35" t="s">
         <v>3</v>
@@ -15531,21 +15595,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" ht="17.25" thickBot="1">
       <c r="A172" s="37" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B172" s="42" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="C172" s="42" t="s">
-        <v>114</v>
+        <v>319</v>
       </c>
       <c r="D172" s="42" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="E172" s="39" t="s">
-        <v>237</v>
+        <v>324</v>
       </c>
       <c r="F172" s="42" t="s">
         <v>171</v>
@@ -15555,29 +15619,177 @@
       <c r="I172" s="40"/>
     </row>
     <row r="173" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A173" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C173" s="2" t="s">
+      <c r="A173" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B173" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D173" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E173" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G173" s="26"/>
+      <c r="H173" s="26"/>
+      <c r="I173" s="27"/>
+    </row>
+    <row r="174" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A174" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E174" s="25"/>
+      <c r="F174" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G174" s="26"/>
+      <c r="H174" s="26"/>
+      <c r="I174" s="27"/>
+    </row>
+    <row r="175" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A175" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E175" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G175" s="26"/>
+      <c r="H175" s="26"/>
+      <c r="I175" s="27"/>
+    </row>
+    <row r="176" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A176" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E176" s="29"/>
+      <c r="F176" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G176" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H176" s="30"/>
+      <c r="I176" s="31"/>
+    </row>
+    <row r="179" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A179" s="22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A180" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D180" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E180" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="F180" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G180" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H180" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I180" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="B181" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="C181" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D181" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="E181" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="F181" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="G181" s="38"/>
+      <c r="H181" s="38"/>
+      <c r="I181" s="40"/>
+    </row>
+    <row r="182" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A182" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D182" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E173" s="29"/>
-      <c r="F173" s="2" t="s">
+      <c r="E182" s="29"/>
+      <c r="F182" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G173" s="30"/>
-      <c r="H173" s="30"/>
-      <c r="I173" s="31"/>
+      <c r="G182" s="30"/>
+      <c r="H182" s="30"/>
+      <c r="I182" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ecobay/src/main/webapp/resources/db/분석설계.xlsx
+++ b/ecobay/src/main/webapp/resources/db/분석설계.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="332">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1877,11 +1877,11 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12595,10 +12595,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I182"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K171" sqref="K171"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14777,7 +14777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="17.25" thickBot="1">
+    <row r="123" spans="1:9">
       <c r="A123" s="37" t="s">
         <v>290</v>
       </c>
@@ -14800,8 +14800,8 @@
       <c r="H123" s="38"/>
       <c r="I123" s="40"/>
     </row>
-    <row r="124" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A124" s="37" t="s">
+    <row r="124" spans="1:9">
+      <c r="A124" s="24" t="s">
         <v>283</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -14821,8 +14821,8 @@
       <c r="H124" s="26"/>
       <c r="I124" s="27"/>
     </row>
-    <row r="125" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A125" s="37" t="s">
+    <row r="125" spans="1:9">
+      <c r="A125" s="24" t="s">
         <v>284</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -14842,8 +14842,8 @@
       <c r="H125" s="26"/>
       <c r="I125" s="27"/>
     </row>
-    <row r="126" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A126" s="37" t="s">
+    <row r="126" spans="1:9">
+      <c r="A126" s="24" t="s">
         <v>285</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -14865,8 +14865,8 @@
       <c r="H126" s="26"/>
       <c r="I126" s="27"/>
     </row>
-    <row r="127" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A127" s="37" t="s">
+    <row r="127" spans="1:9">
+      <c r="A127" s="24" t="s">
         <v>286</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -14888,8 +14888,8 @@
       <c r="H127" s="26"/>
       <c r="I127" s="27"/>
     </row>
-    <row r="128" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A128" s="37" t="s">
+    <row r="128" spans="1:9">
+      <c r="A128" s="24" t="s">
         <v>287</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -14909,124 +14909,124 @@
       <c r="H128" s="26"/>
       <c r="I128" s="27"/>
     </row>
-    <row r="129" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A129" s="37" t="s">
+    <row r="129" spans="1:9">
+      <c r="A129" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E129" s="25"/>
+      <c r="F129" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="G129" s="25">
+        <v>0</v>
+      </c>
+      <c r="H129" s="26"/>
+      <c r="I129" s="27"/>
+    </row>
+    <row r="130" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A130" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E129" s="29"/>
-      <c r="F129" s="2" t="s">
+      <c r="E130" s="29"/>
+      <c r="F130" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G129" s="4" t="s">
+      <c r="G130" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H129" s="30"/>
-      <c r="I129" s="31"/>
-    </row>
-    <row r="132" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A132" s="22" t="s">
+      <c r="H130" s="30"/>
+      <c r="I130" s="31"/>
+    </row>
+    <row r="133" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A133" s="22" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A133" s="34" t="s">
+    <row r="134" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A134" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="35" t="s">
+      <c r="B134" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C133" s="35" t="s">
+      <c r="C134" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D133" s="35" t="s">
+      <c r="D134" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E133" s="35" t="s">
+      <c r="E134" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="F133" s="35" t="s">
+      <c r="F134" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G133" s="35" t="s">
+      <c r="G134" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H133" s="35" t="s">
+      <c r="H134" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I133" s="36" t="s">
+      <c r="I134" s="36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A134" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="B134" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="C134" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D134" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E134" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="F134" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G134" s="38"/>
-      <c r="H134" s="38"/>
-      <c r="I134" s="40"/>
     </row>
     <row r="135" spans="1:9" ht="17.25" thickBot="1">
       <c r="A135" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D135" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B135" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C135" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D135" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="E135" s="25" t="s">
+      <c r="E135" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F135" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="G135" s="26"/>
-      <c r="H135" s="26"/>
-      <c r="I135" s="27"/>
+      <c r="G135" s="38"/>
+      <c r="H135" s="38"/>
+      <c r="I135" s="40"/>
     </row>
     <row r="136" spans="1:9" ht="17.25" thickBot="1">
       <c r="A136" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>207</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>171</v>
@@ -15037,20 +15037,22 @@
     </row>
     <row r="137" spans="1:9" ht="17.25" thickBot="1">
       <c r="A137" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E137" s="25"/>
+        <v>207</v>
+      </c>
+      <c r="E137" s="25" t="s">
+        <v>226</v>
+      </c>
       <c r="F137" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="G137" s="26"/>
       <c r="H137" s="26"/>
@@ -15058,16 +15060,16 @@
     </row>
     <row r="138" spans="1:9" ht="17.25" thickBot="1">
       <c r="A138" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E138" s="25"/>
       <c r="F138" s="1" t="s">
@@ -15079,124 +15081,124 @@
     </row>
     <row r="139" spans="1:9" ht="17.25" thickBot="1">
       <c r="A139" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E139" s="25"/>
+      <c r="F139" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G139" s="26"/>
+      <c r="H139" s="26"/>
+      <c r="I139" s="27"/>
+    </row>
+    <row r="140" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A140" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B140" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D140" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E139" s="29"/>
-      <c r="F139" s="2" t="s">
+      <c r="E140" s="29"/>
+      <c r="F140" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G139" s="29" t="s">
+      <c r="G140" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="H139" s="30"/>
-      <c r="I139" s="31"/>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="F140"/>
-    </row>
-    <row r="142" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A142" s="22" t="s">
+      <c r="H140" s="30"/>
+      <c r="I140" s="31"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="F141"/>
+    </row>
+    <row r="143" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A143" s="22" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A143" s="34" t="s">
+    <row r="144" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A144" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B143" s="35" t="s">
+      <c r="B144" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C143" s="35" t="s">
+      <c r="C144" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D143" s="35" t="s">
+      <c r="D144" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E143" s="35" t="s">
+      <c r="E144" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="F143" s="35" t="s">
+      <c r="F144" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G143" s="35" t="s">
+      <c r="G144" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H143" s="35" t="s">
+      <c r="H144" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I143" s="36" t="s">
+      <c r="I144" s="36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A144" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="B144" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="C144" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D144" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E144" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="F144" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G144" s="38"/>
-      <c r="H144" s="38"/>
-      <c r="I144" s="40"/>
     </row>
     <row r="145" spans="1:9" ht="17.25" thickBot="1">
       <c r="A145" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E145" s="25"/>
-      <c r="F145" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B145" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="C145" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D145" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E145" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="F145" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="G145" s="26"/>
-      <c r="H145" s="26"/>
-      <c r="I145" s="27"/>
+      <c r="G145" s="38"/>
+      <c r="H145" s="38"/>
+      <c r="I145" s="40"/>
     </row>
     <row r="146" spans="1:9" ht="17.25" thickBot="1">
       <c r="A146" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E146" s="25"/>
       <c r="F146" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="G146" s="26"/>
       <c r="H146" s="26"/>
@@ -15204,144 +15206,144 @@
     </row>
     <row r="147" spans="1:9" ht="17.25" thickBot="1">
       <c r="A147" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>124</v>
+        <v>263</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="E147" s="25"/>
       <c r="F147" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G147" s="25" t="s">
-        <v>197</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G147" s="26"/>
       <c r="H147" s="26"/>
       <c r="I147" s="27"/>
     </row>
     <row r="148" spans="1:9" ht="17.25" thickBot="1">
       <c r="A148" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E148" s="25"/>
+      <c r="F148" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G148" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="H148" s="26"/>
+      <c r="I148" s="27"/>
+    </row>
+    <row r="149" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A149" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B149" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E148" s="29"/>
-      <c r="F148" s="2" t="s">
+      <c r="E149" s="29"/>
+      <c r="F149" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G148" s="29" t="s">
+      <c r="G149" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="H148" s="30"/>
-      <c r="I148" s="31"/>
-    </row>
-    <row r="151" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A151" s="22" t="s">
+      <c r="H149" s="30"/>
+      <c r="I149" s="31"/>
+    </row>
+    <row r="152" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A152" s="22" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A152" s="34" t="s">
+    <row r="153" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A153" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B152" s="35" t="s">
+      <c r="B153" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C152" s="35" t="s">
+      <c r="C153" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D152" s="35" t="s">
+      <c r="D153" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E152" s="35" t="s">
+      <c r="E153" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="F152" s="35" t="s">
+      <c r="F153" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G152" s="35" t="s">
+      <c r="G153" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H152" s="35" t="s">
+      <c r="H153" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I152" s="36" t="s">
+      <c r="I153" s="36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A153" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="B153" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="C153" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D153" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E153" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="F153" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G153" s="38"/>
-      <c r="H153" s="38"/>
-      <c r="I153" s="40"/>
     </row>
     <row r="154" spans="1:9" ht="17.25" thickBot="1">
       <c r="A154" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E154" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="F154" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B154" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="C154" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D154" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E154" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="F154" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="G154" s="26"/>
-      <c r="H154" s="26"/>
-      <c r="I154" s="27"/>
+      <c r="G154" s="38"/>
+      <c r="H154" s="38"/>
+      <c r="I154" s="40"/>
     </row>
     <row r="155" spans="1:9" ht="17.25" thickBot="1">
       <c r="A155" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>262</v>
+        <v>128</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E155" s="25"/>
+        <v>170</v>
+      </c>
+      <c r="E155" s="25" t="s">
+        <v>211</v>
+      </c>
       <c r="F155" s="1" t="s">
         <v>171</v>
       </c>
@@ -15351,20 +15353,20 @@
     </row>
     <row r="156" spans="1:9" ht="17.25" thickBot="1">
       <c r="A156" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E156" s="25"/>
       <c r="F156" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="G156" s="26"/>
       <c r="H156" s="26"/>
@@ -15372,122 +15374,120 @@
     </row>
     <row r="157" spans="1:9" ht="17.25" thickBot="1">
       <c r="A157" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E157" s="25"/>
+      <c r="F157" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G157" s="26"/>
+      <c r="H157" s="26"/>
+      <c r="I157" s="27"/>
+    </row>
+    <row r="158" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A158" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E157" s="29"/>
-      <c r="F157" s="2" t="s">
+      <c r="E158" s="29"/>
+      <c r="F158" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G157" s="29" t="s">
+      <c r="G158" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="H157" s="30"/>
-      <c r="I157" s="31"/>
-    </row>
-    <row r="160" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A160" s="22" t="s">
+      <c r="H158" s="30"/>
+      <c r="I158" s="31"/>
+    </row>
+    <row r="161" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A161" s="22" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A161" s="34" t="s">
+    <row r="162" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A162" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B161" s="35" t="s">
+      <c r="B162" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C161" s="35" t="s">
+      <c r="C162" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D161" s="35" t="s">
+      <c r="D162" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E161" s="35" t="s">
+      <c r="E162" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="F161" s="35" t="s">
+      <c r="F162" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G161" s="35" t="s">
+      <c r="G162" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H161" s="35" t="s">
+      <c r="H162" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I161" s="36" t="s">
+      <c r="I162" s="36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A162" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="B162" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="C162" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D162" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E162" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="F162" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G162" s="38"/>
-      <c r="H162" s="38"/>
-      <c r="I162" s="40"/>
     </row>
     <row r="163" spans="1:9" ht="17.25" thickBot="1">
       <c r="A163" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D163" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B163" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C163" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D163" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="E163" s="25" t="s">
+      <c r="E163" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="F163" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="G163" s="26"/>
-      <c r="H163" s="26"/>
-      <c r="I163" s="27"/>
+      <c r="G163" s="38"/>
+      <c r="H163" s="38"/>
+      <c r="I163" s="40"/>
     </row>
     <row r="164" spans="1:9" ht="17.25" thickBot="1">
       <c r="A164" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>281</v>
+        <v>138</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>207</v>
       </c>
       <c r="E164" s="25" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>171</v>
@@ -15498,18 +15498,20 @@
     </row>
     <row r="165" spans="1:9" ht="17.25" thickBot="1">
       <c r="A165" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>139</v>
+        <v>281</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E165" s="25"/>
+        <v>207</v>
+      </c>
+      <c r="E165" s="25" t="s">
+        <v>226</v>
+      </c>
       <c r="F165" s="1" t="s">
         <v>171</v>
       </c>
@@ -15519,16 +15521,16 @@
     </row>
     <row r="166" spans="1:9" ht="17.25" thickBot="1">
       <c r="A166" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E166" s="25"/>
       <c r="F166" s="1" t="s">
@@ -15540,123 +15542,123 @@
     </row>
     <row r="167" spans="1:9" ht="17.25" thickBot="1">
       <c r="A167" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E167" s="25"/>
+      <c r="F167" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G167" s="26"/>
+      <c r="H167" s="26"/>
+      <c r="I167" s="27"/>
+    </row>
+    <row r="168" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A168" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C168" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D168" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E167" s="29"/>
-      <c r="F167" s="2" t="s">
+      <c r="E168" s="29"/>
+      <c r="F168" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G167" s="29" t="s">
+      <c r="G168" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="H167" s="30"/>
-      <c r="I167" s="31"/>
-    </row>
-    <row r="170" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A170" s="22" t="s">
+      <c r="H168" s="30"/>
+      <c r="I168" s="31"/>
+    </row>
+    <row r="171" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A171" s="22" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A171" s="34" t="s">
+    <row r="172" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A172" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B171" s="35" t="s">
+      <c r="B172" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C171" s="35" t="s">
+      <c r="C172" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D171" s="35" t="s">
+      <c r="D172" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E171" s="35" t="s">
+      <c r="E172" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="F171" s="35" t="s">
+      <c r="F172" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G171" s="35" t="s">
+      <c r="G172" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H171" s="35" t="s">
+      <c r="H172" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I171" s="36" t="s">
+      <c r="I172" s="36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A172" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="B172" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="C172" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="D172" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E172" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="F172" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G172" s="38"/>
-      <c r="H172" s="38"/>
-      <c r="I172" s="40"/>
     </row>
     <row r="173" spans="1:9" ht="17.25" thickBot="1">
       <c r="A173" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B173" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>281</v>
+        <v>330</v>
+      </c>
+      <c r="C173" s="42" t="s">
+        <v>319</v>
       </c>
       <c r="D173" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="E173" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="F173" s="1" t="s">
+      <c r="E173" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="F173" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="G173" s="26"/>
-      <c r="H173" s="26"/>
-      <c r="I173" s="27"/>
+      <c r="G173" s="38"/>
+      <c r="H173" s="38"/>
+      <c r="I173" s="40"/>
     </row>
     <row r="174" spans="1:9" ht="17.25" thickBot="1">
       <c r="A174" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>202</v>
+        <v>283</v>
+      </c>
+      <c r="B174" s="42" t="s">
+        <v>277</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E174" s="25"/>
+        <v>281</v>
+      </c>
+      <c r="D174" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E174" s="25" t="s">
+        <v>331</v>
+      </c>
       <c r="F174" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="G174" s="26"/>
       <c r="H174" s="26"/>
@@ -15664,127 +15666,148 @@
     </row>
     <row r="175" spans="1:9" ht="17.25" thickBot="1">
       <c r="A175" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>318</v>
+        <v>202</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E175" s="25" t="s">
-        <v>320</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="E175" s="25"/>
       <c r="F175" s="1" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="G175" s="26"/>
       <c r="H175" s="26"/>
       <c r="I175" s="27"/>
     </row>
     <row r="176" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A176" s="43" t="s">
+      <c r="A176" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E176" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G176" s="26"/>
+      <c r="H176" s="26"/>
+      <c r="I176" s="27"/>
+    </row>
+    <row r="177" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A177" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C177" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D177" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E176" s="29"/>
-      <c r="F176" s="2" t="s">
+      <c r="E177" s="29"/>
+      <c r="F177" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G176" s="29" t="s">
+      <c r="G177" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="H176" s="30"/>
-      <c r="I176" s="31"/>
-    </row>
-    <row r="179" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A179" s="22" t="s">
+      <c r="H177" s="30"/>
+      <c r="I177" s="31"/>
+    </row>
+    <row r="180" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A180" s="22" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A180" s="34" t="s">
+    <row r="181" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A181" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B180" s="35" t="s">
+      <c r="B181" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C180" s="35" t="s">
+      <c r="C181" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D180" s="35" t="s">
+      <c r="D181" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E180" s="35" t="s">
+      <c r="E181" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="F180" s="35" t="s">
+      <c r="F181" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G180" s="35" t="s">
+      <c r="G181" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H180" s="35" t="s">
+      <c r="H181" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I180" s="36" t="s">
+      <c r="I181" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
-      <c r="A181" s="37" t="s">
+    <row r="182" spans="1:9">
+      <c r="A182" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="B181" s="42" t="s">
+      <c r="B182" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="C181" s="42" t="s">
+      <c r="C182" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="D181" s="42" t="s">
+      <c r="D182" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="E181" s="39" t="s">
+      <c r="E182" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="F181" s="42" t="s">
+      <c r="F182" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="G181" s="38"/>
-      <c r="H181" s="38"/>
-      <c r="I181" s="40"/>
-    </row>
-    <row r="182" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A182" s="28" t="s">
+      <c r="G182" s="38"/>
+      <c r="H182" s="38"/>
+      <c r="I182" s="40"/>
+    </row>
+    <row r="183" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A183" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B183" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C183" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D183" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E182" s="29"/>
-      <c r="F182" s="2" t="s">
+      <c r="E183" s="29"/>
+      <c r="F183" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G182" s="30"/>
-      <c r="H182" s="30"/>
-      <c r="I182" s="31"/>
+      <c r="G183" s="30"/>
+      <c r="H183" s="30"/>
+      <c r="I183" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16045,8 +16068,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10243" r:id="rId4" name="ComboBox1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="10241" r:id="rId4" name="TextBox1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10241" r:id="rId4" name="TextBox1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10243" r:id="rId6" name="ComboBox1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16065,32 +16113,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10243" r:id="rId4" name="ComboBox1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId6" name="TextBox1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10241" r:id="rId6" name="TextBox1"/>
+        <control shapeId="10243" r:id="rId6" name="ComboBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">

--- a/ecobay/src/main/webapp/resources/db/분석설계.xlsx
+++ b/ecobay/src/main/webapp/resources/db/분석설계.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="338">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -517,10 +517,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리자 : 아이디, 비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>논리명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -607,25 +603,6 @@
   </si>
   <si>
     <t>분류구분</t>
-  </si>
-  <si>
-    <t>회원(member) - ID, 이름, 비밀번호, 생년월일, 주소(우편번호,주소1, 주소2), 성별, 폰번호, 가입완료여부, 등록일시, 변경일시, 삭제일시, 사용여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 회원정보
-- ID, 이름, 비밀번호, 생년월일, 주소(우편번호,주소1, 주소2), 성별, 폰번호, 가입완료여부
-  -&gt; ID : 이메일 형식(중복체크) - ajax 사용 - 고정
-  -&gt; 이름 : 회원이름 - 고정
-  -&gt; 비밀번호 : 비번확인 부분 추가, 8~16자리까지 가능
-  -&gt; 성별 : 라디오버튼 또는 콤보박스로 남/여 선택만 가능하도록 함. - 고정
-  -&gt; 생년월일 : datepicker 또는 캘린더 방식으로 입력(직접 입력 안됨) - 고정
-  -&gt; 폰번호 : 앞자리(3자리 콤보) - 필드1 - 필드2
-  -&gt; 주소 : 우편번호  / 주소1 (직접입력 안됨 - API연동) / 주소2(직접입력)
-  -&gt; 정규식처리 : ID, 이름, 비밀번호, 생년월일, 폰번호
-- 가입완료 버튼 클릭시 ID(이메일)로 가입인증 메일 발송 -&gt; 메일에서 확인클릭시 최종가입완료처리됨. 
-   -&gt; 가입완료여부가 기본적으로 false가 되었다가 확인하면 true로 변경되어 로그인할 수 있도록 함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>- 배송정보 입력과 결재정보 입력을 한 페이지에서 구분에서 출력.
@@ -1357,6 +1334,96 @@
   </si>
   <si>
     <t>PK/FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>관리자 : 아이디, 비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 테이블 삭제(2018-09-14)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">회원(member) - ID, 이름, 비밀번호, 생년월일, 주소(우편번호,주소1, 주소2), 성별, 폰번호, 가입완료여부, 등록일시, 변경일시, 삭제일시, 사용여부, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회원구분(M_type)  - 2018-09-14 추가</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* 회원정보
+- ID, 이름, 비밀번호, 생년월일, 주소(우편번호,주소1, 주소2), 성별, 폰번호, 가입완료여부
+  -&gt; ID : 이메일 형식(중복체크) - ajax 사용 - 고정
+  -&gt; 이름 : 회원이름 - 고정
+  -&gt; 비밀번호 : 비번확인 부분 추가, 8~16자리까지 가능
+  -&gt; 성별 : 라디오버튼 또는 콤보박스로 남/여 선택만 가능하도록 함. - 고정
+  -&gt; 생년월일 : datepicker 또는 캘린더 방식으로 입력(직접 입력 안됨) - 고정
+  -&gt; 폰번호 : 앞자리(3자리 콤보) - 필드1 - 필드2
+  -&gt; 주소 : 우편번호  / 주소1 (직접입력 안됨 - API연동) / 주소2(직접입력)
+  -&gt; 정규식처리 : ID, 이름, 비밀번호, 생년월일, 폰번호
+- 가입완료 버튼 클릭시 ID(이메일)로 가입인증 메일 발송 -&gt; 메일에서 확인클릭시 최종가입완료처리됨. 
+   -&gt; 가입완료여부가 기본적으로 false가 되었다가 확인하면 true로 변경되어 로그인할 수 있도록 함.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 회원구분(M_type) : 회원/관리자 구분(1(ROLE_USER), 2(ROLE_ADMIN) - int(1)) - 2018-09-14 추가</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원구분(M_type) : 회원/관리자 구분(1(ROLE_USER), 2(ROLE_ADMIN) - int(1)) - 2018-09-14 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1720,7 +1787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1844,9 +1911,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1877,11 +1941,11 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11746,8 +11810,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="E34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11797,10 +11861,10 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H2" s="11"/>
     </row>
@@ -11812,7 +11876,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -11934,7 +11998,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" ht="201.75" customHeight="1">
+    <row r="11" spans="1:8" ht="224.25" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
@@ -11943,10 +12007,10 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>143</v>
+        <v>331</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>142</v>
+        <v>330</v>
       </c>
       <c r="H11" s="14"/>
     </row>
@@ -12057,7 +12121,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="14"/>
@@ -12091,13 +12155,13 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="258.75" customHeight="1">
@@ -12109,10 +12173,10 @@
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H21" s="16"/>
     </row>
@@ -12230,7 +12294,7 @@
         <v>100</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H28" s="14"/>
     </row>
@@ -12266,7 +12330,7 @@
         <v>98</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H30" s="14"/>
     </row>
@@ -12296,7 +12360,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
-        <v>112</v>
+        <v>329</v>
       </c>
       <c r="H32" s="14"/>
     </row>
@@ -12311,7 +12375,7 @@
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="14"/>
@@ -12327,7 +12391,7 @@
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="14"/>
@@ -12341,7 +12405,7 @@
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="14"/>
@@ -12355,11 +12419,11 @@
         <v>73</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="14"/>
@@ -12369,11 +12433,11 @@
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="14"/>
@@ -12391,7 +12455,7 @@
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="14"/>
@@ -12400,14 +12464,14 @@
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="14"/>
@@ -12416,14 +12480,14 @@
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="14"/>
@@ -12433,14 +12497,14 @@
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H41" s="14"/>
     </row>
@@ -12455,7 +12519,7 @@
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>34</v>
@@ -12555,35 +12619,35 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -12595,10 +12659,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I183"/>
+  <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12609,7 +12673,7 @@
     <col min="5" max="5" width="9" style="23"/>
     <col min="6" max="6" width="12" style="22" customWidth="1"/>
     <col min="7" max="7" width="9" style="22"/>
-    <col min="8" max="8" width="47" style="22" customWidth="1"/>
+    <col min="8" max="8" width="46.875" style="22" customWidth="1"/>
     <col min="9" max="9" width="16.5" style="22" customWidth="1"/>
     <col min="10" max="16384" width="9" style="22"/>
   </cols>
@@ -12621,7 +12685,7 @@
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1">
       <c r="A3" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1">
@@ -12632,13 +12696,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>3</v>
@@ -12658,23 +12722,23 @@
         <v>1</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I5" s="40"/>
     </row>
@@ -12683,17 +12747,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="26"/>
@@ -12704,17 +12768,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="26"/>
@@ -12725,17 +12789,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="26"/>
@@ -12746,17 +12810,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="26"/>
@@ -12767,17 +12831,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="26"/>
@@ -12788,17 +12852,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
@@ -12809,20 +12873,20 @@
         <v>8</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="27"/>
@@ -12832,17 +12896,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="26"/>
@@ -12853,20 +12917,20 @@
         <v>10</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="27"/>
@@ -12876,20 +12940,20 @@
         <v>11</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="27"/>
@@ -12899,22 +12963,24 @@
         <v>12</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>189</v>
+        <v>337</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>124</v>
+        <v>332</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="26" t="s">
-        <v>171</v>
+        <v>334</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="H16" s="26"/>
+        <v>335</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>336</v>
+      </c>
       <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9">
@@ -12922,152 +12988,152 @@
         <v>13</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A18" s="41">
+    <row r="18" spans="1:9">
+      <c r="A18" s="24">
         <v>14</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="30" t="s">
+      <c r="B18" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A19" s="28">
+        <v>15</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-    </row>
-    <row r="21" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A21" s="22" t="s">
-        <v>301</v>
-      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A23" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B23" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="35" t="s">
+      <c r="C23" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F22" s="35" t="s">
+      <c r="E23" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G23" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H23" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I22" s="36" t="s">
+      <c r="I23" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="37">
+    <row r="24" spans="1:9">
+      <c r="A24" s="37">
         <v>1</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="40"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="24">
-        <v>2</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
+      <c r="B24" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="40"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>194</v>
+        <v>307</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>128</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>210</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E25" s="25"/>
       <c r="F25" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="26"/>
@@ -13075,22 +13141,22 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>273</v>
+        <v>191</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="26"/>
@@ -13098,22 +13164,22 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
@@ -13121,20 +13187,22 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="E28" s="25"/>
+        <v>180</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>208</v>
+      </c>
       <c r="F28" s="26" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="26"/>
@@ -13142,20 +13210,20 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>204</v>
+        <v>308</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="26" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
@@ -13163,20 +13231,20 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
@@ -13184,222 +13252,220 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>197</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G31" s="25"/>
       <c r="H31" s="26"/>
       <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="27"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="G33" s="25"/>
+        <v>168</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>194</v>
+      </c>
       <c r="H33" s="26"/>
       <c r="I33" s="27"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>187</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>183</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>188</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G34" s="25"/>
       <c r="H34" s="26"/>
       <c r="I34" s="27"/>
     </row>
-    <row r="35" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A35" s="28">
+    <row r="35" spans="1:9">
+      <c r="A35" s="24">
+        <v>12</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
+    </row>
+    <row r="36" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A36" s="28">
         <v>13</v>
       </c>
-      <c r="B35" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="C35" s="30" t="s">
+      <c r="B36" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" s="29">
+        <v>0</v>
+      </c>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="33"/>
+      <c r="E37" s="32"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+    </row>
+    <row r="39" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A39" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="37">
+        <v>1</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C41" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G35" s="29">
-        <v>0</v>
-      </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="31"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="33"/>
-      <c r="E36" s="32"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-    </row>
-    <row r="38" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A38" s="22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A39" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="37">
-        <v>1</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G40" s="39"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="40"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="24">
-        <v>2</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="27"/>
+      <c r="D41" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" s="39"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="40"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G42" s="25"/>
       <c r="H42" s="26"/>
@@ -13407,20 +13473,22 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="E43" s="25"/>
+        <v>198</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>229</v>
+      </c>
       <c r="F43" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G43" s="25"/>
       <c r="H43" s="26"/>
@@ -13428,58 +13496,68 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G44" s="25"/>
       <c r="H44" s="26"/>
       <c r="I44" s="27"/>
     </row>
-    <row r="45" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A45" s="28">
+    <row r="45" spans="1:9">
+      <c r="A45" s="24">
+        <v>5</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="27"/>
+    </row>
+    <row r="46" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A46" s="28">
         <v>6</v>
       </c>
-      <c r="B45" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G45" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
+      <c r="B46" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" s="29"/>
+      <c r="F46" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H46" s="30"/>
+      <c r="I46" s="31"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="33"/>
@@ -13492,100 +13570,90 @@
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
     </row>
-    <row r="48" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A48" s="22" t="s">
-        <v>293</v>
-      </c>
+    <row r="48" spans="1:9">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
     </row>
     <row r="49" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A50" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B50" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="35" t="s">
+      <c r="C50" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F49" s="35" t="s">
+      <c r="E50" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="35" t="s">
+      <c r="G50" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="35" t="s">
+      <c r="H50" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I49" s="36" t="s">
+      <c r="I50" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="37"/>
-      <c r="B50" s="42" t="s">
-        <v>298</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="D50" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E50" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="F50" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G50" s="39"/>
-      <c r="H50" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="I50" s="40"/>
-    </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="24"/>
-      <c r="B51" s="1" t="s">
+      <c r="A51" s="37"/>
+      <c r="B51" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" s="39"/>
+      <c r="H51" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="27"/>
+      <c r="I51" s="40"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="24"/>
       <c r="B52" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="26"/>
@@ -13594,19 +13662,19 @@
     <row r="53" spans="1:9">
       <c r="A53" s="24"/>
       <c r="B53" s="1" t="s">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="26"/>
@@ -13615,17 +13683,19 @@
     <row r="54" spans="1:9">
       <c r="A54" s="24"/>
       <c r="B54" s="1" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E54" s="25"/>
+        <v>167</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>208</v>
+      </c>
       <c r="F54" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="26"/>
@@ -13634,148 +13704,146 @@
     <row r="55" spans="1:9">
       <c r="A55" s="24"/>
       <c r="B55" s="1" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="E55" s="25"/>
       <c r="F55" s="1" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="26"/>
       <c r="I55" s="27"/>
     </row>
-    <row r="56" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A56" s="28"/>
-      <c r="B56" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D56" s="2" t="s">
+    <row r="56" spans="1:9">
+      <c r="A56" s="24"/>
+      <c r="B56" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" s="25"/>
+      <c r="F56" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G56" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="H56" s="30"/>
-      <c r="I56" s="31"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-    </row>
-    <row r="59" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A59" s="22" t="s">
-        <v>212</v>
-      </c>
+      <c r="G56" s="25"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="27"/>
+    </row>
+    <row r="57" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A57" s="28"/>
+      <c r="B57" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57" s="29"/>
+      <c r="F57" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H57" s="30"/>
+      <c r="I57" s="31"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
     </row>
     <row r="60" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A61" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B61" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="35" t="s">
+      <c r="C61" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F60" s="35" t="s">
+      <c r="E61" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F61" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="35" t="s">
+      <c r="G61" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="35" t="s">
+      <c r="H61" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I60" s="36" t="s">
+      <c r="I61" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="37">
+    <row r="62" spans="1:9">
+      <c r="A62" s="37">
         <v>1</v>
       </c>
-      <c r="B61" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="E61" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="F61" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G61" s="39"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="40"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="24">
-        <v>2</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="E62" s="25"/>
-      <c r="F62" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="G62" s="25"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="27"/>
+      <c r="B62" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G62" s="39"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="40"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>215</v>
+        <v>311</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E63" s="25"/>
       <c r="F63" s="26" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G63" s="25"/>
       <c r="H63" s="26"/>
@@ -13783,20 +13851,20 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E64" s="25"/>
       <c r="F64" s="26" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="G64" s="25"/>
       <c r="H64" s="26"/>
@@ -13804,20 +13872,20 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E65" s="25"/>
       <c r="F65" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G65" s="25"/>
       <c r="H65" s="26"/>
@@ -13825,507 +13893,507 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>219</v>
+        <v>310</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="26" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G66" s="25"/>
-      <c r="H66" s="26" t="s">
-        <v>221</v>
-      </c>
+      <c r="H66" s="26"/>
       <c r="I66" s="27"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E67" s="25"/>
       <c r="F67" s="26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G67" s="25"/>
       <c r="H67" s="26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I67" s="27"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>315</v>
+        <v>219</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E68" s="25"/>
       <c r="F68" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="H68" s="26"/>
+        <v>190</v>
+      </c>
+      <c r="G68" s="25"/>
+      <c r="H68" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="I68" s="27"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="G69" s="25"/>
+        <v>168</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>230</v>
+      </c>
       <c r="H69" s="26"/>
       <c r="I69" s="27"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E70" s="25"/>
       <c r="F70" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="G70" s="25" t="s">
-        <v>197</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G70" s="25"/>
       <c r="H70" s="26"/>
       <c r="I70" s="27"/>
     </row>
-    <row r="71" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A71" s="28">
+    <row r="71" spans="1:9">
+      <c r="A71" s="24">
+        <v>10</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E71" s="25"/>
+      <c r="F71" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="H71" s="26"/>
+      <c r="I71" s="27"/>
+    </row>
+    <row r="72" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A72" s="28">
         <v>11</v>
       </c>
-      <c r="B71" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="F71" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="G71" s="29"/>
-      <c r="H71" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="I71" s="31"/>
-    </row>
-    <row r="74" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A74" s="22" t="s">
-        <v>234</v>
-      </c>
+      <c r="B72" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="G72" s="29"/>
+      <c r="H72" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="I72" s="31"/>
     </row>
     <row r="75" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A75" s="34" t="s">
+      <c r="A75" s="22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A76" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="35" t="s">
+      <c r="B76" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D75" s="35" t="s">
+      <c r="C76" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F75" s="35" t="s">
+      <c r="E76" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F76" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G75" s="35" t="s">
+      <c r="G76" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H75" s="35" t="s">
+      <c r="H76" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I75" s="36" t="s">
+      <c r="I76" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="37">
+    <row r="77" spans="1:9">
+      <c r="A77" s="37">
         <v>1</v>
       </c>
-      <c r="B76" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="C76" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="E76" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="F76" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G76" s="39"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="40"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="24">
-        <v>2</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E77" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="F77" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="G77" s="25"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="27"/>
+      <c r="B77" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C77" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E77" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="F77" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G77" s="39"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="40"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>237</v>
+        <v>127</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="E78" s="25"/>
+        <v>167</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>207</v>
+      </c>
       <c r="F78" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G78" s="25"/>
       <c r="H78" s="26"/>
       <c r="I78" s="27"/>
     </row>
-    <row r="79" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A79" s="28">
+    <row r="79" spans="1:9">
+      <c r="A79" s="24">
+        <v>3</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E79" s="25"/>
+      <c r="F79" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G79" s="25"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="27"/>
+    </row>
+    <row r="80" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A80" s="28">
         <v>4</v>
       </c>
-      <c r="B79" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E79" s="29"/>
-      <c r="F79" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G79" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="H79" s="30"/>
-      <c r="I79" s="31"/>
-    </row>
-    <row r="82" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A82" s="22" t="s">
-        <v>235</v>
-      </c>
+      <c r="B80" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80" s="29"/>
+      <c r="F80" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G80" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H80" s="30"/>
+      <c r="I80" s="31"/>
     </row>
     <row r="83" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A83" s="34" t="s">
+      <c r="A83" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A84" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="35" t="s">
+      <c r="B84" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D83" s="35" t="s">
+      <c r="C84" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F83" s="35" t="s">
+      <c r="E84" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F84" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="35" t="s">
+      <c r="G84" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H83" s="35" t="s">
+      <c r="H84" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I83" s="36" t="s">
+      <c r="I84" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="37">
+    <row r="85" spans="1:9">
+      <c r="A85" s="37">
         <v>1</v>
       </c>
-      <c r="B84" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="C84" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D84" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="E84" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="F84" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G84" s="39"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="40"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="24">
-        <v>2</v>
-      </c>
-      <c r="B85" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="E85" s="25"/>
-      <c r="F85" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="G85" s="25"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="27"/>
+      <c r="B85" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D85" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="F85" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G85" s="39"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="40"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>239</v>
+        <v>314</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E86" s="25"/>
       <c r="F86" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G86" s="25"/>
       <c r="H86" s="26"/>
       <c r="I86" s="27"/>
     </row>
-    <row r="87" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A87" s="28">
+    <row r="87" spans="1:9">
+      <c r="A87" s="24">
+        <v>3</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E87" s="25"/>
+      <c r="F87" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G87" s="25"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="27"/>
+    </row>
+    <row r="88" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A88" s="28">
         <v>4</v>
       </c>
-      <c r="B87" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="C87" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D87" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E87" s="29"/>
-      <c r="F87" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G87" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="H87" s="30"/>
-      <c r="I87" s="31"/>
-    </row>
-    <row r="90" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A90" s="22" t="s">
-        <v>241</v>
-      </c>
+      <c r="B88" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E88" s="29"/>
+      <c r="F88" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G88" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H88" s="30"/>
+      <c r="I88" s="31"/>
     </row>
     <row r="91" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A92" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="35" t="s">
+      <c r="B92" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D91" s="35" t="s">
+      <c r="C92" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F91" s="35" t="s">
+      <c r="E92" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F92" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="35" t="s">
+      <c r="G92" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H91" s="35" t="s">
+      <c r="H92" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I91" s="36" t="s">
+      <c r="I92" s="36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A92" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="B92" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="C92" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D92" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="E92" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="F92" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="40"/>
     </row>
     <row r="93" spans="1:9" ht="17.25" thickBot="1">
       <c r="A93" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="E93" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="F93" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="G93" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="H93" s="26"/>
-      <c r="I93" s="27"/>
+        <v>279</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E93" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F93" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="40"/>
     </row>
     <row r="94" spans="1:9" ht="17.25" thickBot="1">
       <c r="A94" s="37" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>304</v>
+        <v>130</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E94" s="25"/>
+        <v>180</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>228</v>
+      </c>
       <c r="F94" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="G94" s="26"/>
+        <v>168</v>
+      </c>
+      <c r="G94" s="26" t="s">
+        <v>303</v>
+      </c>
       <c r="H94" s="26"/>
       <c r="I94" s="27"/>
     </row>
     <row r="95" spans="1:9" ht="17.25" thickBot="1">
       <c r="A95" s="37" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>141</v>
+        <v>301</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E95" s="25"/>
       <c r="F95" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G95" s="26"/>
       <c r="H95" s="26"/>
@@ -14333,346 +14401,346 @@
     </row>
     <row r="96" spans="1:9" ht="17.25" thickBot="1">
       <c r="A96" s="37" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E96" s="25"/>
       <c r="F96" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="G96" s="25" t="s">
-        <v>197</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G96" s="26"/>
       <c r="H96" s="26"/>
       <c r="I96" s="27"/>
     </row>
     <row r="97" spans="1:9" ht="17.25" thickBot="1">
       <c r="A97" s="37" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E97" s="25"/>
       <c r="F97" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G97" s="25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H97" s="26"/>
       <c r="I97" s="27"/>
     </row>
     <row r="98" spans="1:9" ht="17.25" thickBot="1">
       <c r="A98" s="37" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E98" s="25"/>
       <c r="F98" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="G98" s="26"/>
+        <v>168</v>
+      </c>
+      <c r="G98" s="25" t="s">
+        <v>194</v>
+      </c>
       <c r="H98" s="26"/>
       <c r="I98" s="27"/>
     </row>
     <row r="99" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A99" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="B99" s="30" t="s">
+      <c r="A99" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D99" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C99" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D99" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="E99" s="29"/>
-      <c r="F99" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G99" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="H99" s="30"/>
-      <c r="I99" s="31"/>
-    </row>
-    <row r="102" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A102" s="22" t="s">
-        <v>244</v>
-      </c>
+      <c r="E99" s="25"/>
+      <c r="F99" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="27"/>
+    </row>
+    <row r="100" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A100" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E100" s="29"/>
+      <c r="F100" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G100" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="H100" s="30"/>
+      <c r="I100" s="31"/>
     </row>
     <row r="103" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A103" s="34" t="s">
+      <c r="A103" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A104" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="35" t="s">
+      <c r="B104" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D103" s="35" t="s">
+      <c r="C104" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E103" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F103" s="35" t="s">
+      <c r="E104" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F104" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G103" s="35" t="s">
+      <c r="G104" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H103" s="35" t="s">
+      <c r="H104" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I103" s="36" t="s">
+      <c r="I104" s="36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A104" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="B104" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="C104" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="D104" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="E104" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="F104" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G104" s="38"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="40"/>
     </row>
     <row r="105" spans="1:9" ht="17.25" thickBot="1">
       <c r="A105" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E105" s="25"/>
-      <c r="F105" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G105" s="26"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="27"/>
+        <v>287</v>
+      </c>
+      <c r="B105" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="C105" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D105" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="F105" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G105" s="38"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="40"/>
     </row>
     <row r="106" spans="1:9" ht="17.25" thickBot="1">
       <c r="A106" s="37" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="E106" s="25"/>
       <c r="F106" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G106" s="26" t="s">
-        <v>233</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G106" s="26"/>
       <c r="H106" s="26"/>
       <c r="I106" s="27"/>
     </row>
     <row r="107" spans="1:9" ht="17.25" thickBot="1">
       <c r="A107" s="37" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E107" s="25"/>
       <c r="F107" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G107" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H107" s="26"/>
       <c r="I107" s="27"/>
     </row>
     <row r="108" spans="1:9" ht="17.25" thickBot="1">
       <c r="A108" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E108" s="29"/>
-      <c r="F108" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G108" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="H108" s="30"/>
-      <c r="I108" s="31"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="33"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="32"/>
-      <c r="H109" s="33"/>
-      <c r="I109" s="33"/>
-    </row>
-    <row r="111" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A111" s="22" t="s">
-        <v>251</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E108" s="25"/>
+      <c r="F108" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G108" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="H108" s="26"/>
+      <c r="I108" s="27"/>
+    </row>
+    <row r="109" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A109" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E109" s="29"/>
+      <c r="F109" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G109" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H109" s="30"/>
+      <c r="I109" s="31"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="33"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="33"/>
     </row>
     <row r="112" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A112" s="34" t="s">
+      <c r="A112" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A113" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="35" t="s">
+      <c r="B113" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D112" s="35" t="s">
+      <c r="C113" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D113" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E112" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F112" s="35" t="s">
+      <c r="E113" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F113" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G112" s="35" t="s">
+      <c r="G113" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H112" s="35" t="s">
+      <c r="H113" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I112" s="36" t="s">
+      <c r="I113" s="36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A113" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="B113" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="C113" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="D113" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="E113" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="F113" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G113" s="38"/>
-      <c r="H113" s="38"/>
-      <c r="I113" s="40"/>
     </row>
     <row r="114" spans="1:9" ht="17.25" thickBot="1">
       <c r="A114" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E114" s="25"/>
-      <c r="F114" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="27"/>
+        <v>287</v>
+      </c>
+      <c r="B114" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="C114" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D114" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="E114" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="F114" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G114" s="38"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="40"/>
     </row>
     <row r="115" spans="1:9" ht="17.25" thickBot="1">
       <c r="A115" s="37" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E115" s="25"/>
       <c r="F115" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G115" s="26"/>
       <c r="H115" s="26"/>
@@ -14680,20 +14748,20 @@
     </row>
     <row r="116" spans="1:9" ht="17.25" thickBot="1">
       <c r="A116" s="37" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E116" s="25"/>
       <c r="F116" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G116" s="26"/>
       <c r="H116" s="26"/>
@@ -14701,20 +14769,20 @@
     </row>
     <row r="117" spans="1:9" ht="17.25" thickBot="1">
       <c r="A117" s="37" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E117" s="25"/>
       <c r="F117" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G117" s="26"/>
       <c r="H117" s="26"/>
@@ -14722,121 +14790,121 @@
     </row>
     <row r="118" spans="1:9" ht="17.25" thickBot="1">
       <c r="A118" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E118" s="25"/>
+      <c r="F118" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G118" s="26"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="27"/>
+    </row>
+    <row r="119" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A119" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E119" s="29"/>
+      <c r="F119" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G119" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H119" s="30"/>
+      <c r="I119" s="31"/>
+    </row>
+    <row r="122" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A122" s="22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A123" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D123" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F123" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G123" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I123" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E118" s="29"/>
-      <c r="F118" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G118" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="H118" s="30"/>
-      <c r="I118" s="31"/>
-    </row>
-    <row r="121" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A121" s="22" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A122" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C122" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D122" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E122" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F122" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G122" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I122" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="B123" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="C123" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D123" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E123" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="F123" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G123" s="38"/>
-      <c r="H123" s="38"/>
-      <c r="I123" s="40"/>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E124" s="25"/>
-      <c r="F124" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G124" s="26"/>
-      <c r="H124" s="26"/>
-      <c r="I124" s="27"/>
+      <c r="B124" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="C124" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D124" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E124" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F124" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G124" s="38"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="40"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="24" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="E125" s="25"/>
       <c r="F125" s="1" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G125" s="26"/>
       <c r="H125" s="26"/>
@@ -14844,215 +14912,213 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E126" s="25"/>
       <c r="F126" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G126" s="25" t="s">
-        <v>197</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G126" s="26"/>
       <c r="H126" s="26"/>
       <c r="I126" s="27"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="24" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>264</v>
+        <v>123</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E127" s="25"/>
       <c r="F127" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G127" s="25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H127" s="26"/>
       <c r="I127" s="27"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="24" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E128" s="25"/>
       <c r="F128" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G128" s="26"/>
+        <v>168</v>
+      </c>
+      <c r="G128" s="25" t="s">
+        <v>194</v>
+      </c>
       <c r="H128" s="26"/>
       <c r="I128" s="27"/>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="B129" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C129" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="D129" s="26" t="s">
-        <v>207</v>
+        <v>284</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="E129" s="25"/>
-      <c r="F129" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="G129" s="25">
-        <v>0</v>
-      </c>
+      <c r="F129" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G129" s="26"/>
       <c r="H129" s="26"/>
       <c r="I129" s="27"/>
     </row>
-    <row r="130" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A130" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E130" s="29"/>
-      <c r="F130" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H130" s="30"/>
-      <c r="I130" s="31"/>
-    </row>
-    <row r="133" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A133" s="22" t="s">
-        <v>265</v>
-      </c>
+    <row r="130" spans="1:9">
+      <c r="A130" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B130" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D130" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E130" s="25"/>
+      <c r="F130" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G130" s="25">
+        <v>0</v>
+      </c>
+      <c r="H130" s="26"/>
+      <c r="I130" s="27"/>
+    </row>
+    <row r="131" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A131" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E131" s="29"/>
+      <c r="F131" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H131" s="30"/>
+      <c r="I131" s="31"/>
     </row>
     <row r="134" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A134" s="34" t="s">
+      <c r="A134" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A135" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="35" t="s">
+      <c r="B135" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C134" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D134" s="35" t="s">
+      <c r="C135" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D135" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E134" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F134" s="35" t="s">
+      <c r="E135" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F135" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G134" s="35" t="s">
+      <c r="G135" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H134" s="35" t="s">
+      <c r="H135" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I134" s="36" t="s">
+      <c r="I135" s="36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A135" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="B135" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="C135" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D135" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E135" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="F135" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G135" s="38"/>
-      <c r="H135" s="38"/>
-      <c r="I135" s="40"/>
     </row>
     <row r="136" spans="1:9" ht="17.25" thickBot="1">
       <c r="A136" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E136" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G136" s="26"/>
-      <c r="H136" s="26"/>
-      <c r="I136" s="27"/>
+        <v>287</v>
+      </c>
+      <c r="B136" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="C136" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D136" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E136" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F136" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G136" s="38"/>
+      <c r="H136" s="38"/>
+      <c r="I136" s="40"/>
     </row>
     <row r="137" spans="1:9" ht="17.25" thickBot="1">
       <c r="A137" s="37" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>280</v>
+        <v>137</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E137" s="25" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G137" s="26"/>
       <c r="H137" s="26"/>
@@ -15060,20 +15126,22 @@
     </row>
     <row r="138" spans="1:9" ht="17.25" thickBot="1">
       <c r="A138" s="37" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>139</v>
+        <v>277</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E138" s="25"/>
+        <v>204</v>
+      </c>
+      <c r="E138" s="25" t="s">
+        <v>223</v>
+      </c>
       <c r="F138" s="1" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G138" s="26"/>
       <c r="H138" s="26"/>
@@ -15081,20 +15149,20 @@
     </row>
     <row r="139" spans="1:9" ht="17.25" thickBot="1">
       <c r="A139" s="37" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E139" s="25"/>
       <c r="F139" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G139" s="26"/>
       <c r="H139" s="26"/>
@@ -15102,124 +15170,124 @@
     </row>
     <row r="140" spans="1:9" ht="17.25" thickBot="1">
       <c r="A140" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D140" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E140" s="25"/>
+      <c r="F140" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E140" s="29"/>
-      <c r="F140" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G140" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="H140" s="30"/>
-      <c r="I140" s="31"/>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="F141"/>
-    </row>
-    <row r="143" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A143" s="22" t="s">
-        <v>266</v>
-      </c>
+      <c r="G140" s="26"/>
+      <c r="H140" s="26"/>
+      <c r="I140" s="27"/>
+    </row>
+    <row r="141" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A141" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E141" s="29"/>
+      <c r="F141" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G141" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H141" s="30"/>
+      <c r="I141" s="31"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="F142"/>
     </row>
     <row r="144" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A144" s="34" t="s">
+      <c r="A144" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A145" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="35" t="s">
+      <c r="B145" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C144" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D144" s="35" t="s">
+      <c r="C145" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D145" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E144" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F144" s="35" t="s">
+      <c r="E145" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F145" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G144" s="35" t="s">
+      <c r="G145" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H144" s="35" t="s">
+      <c r="H145" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I144" s="36" t="s">
+      <c r="I145" s="36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A145" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="B145" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="C145" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D145" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E145" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="F145" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G145" s="38"/>
-      <c r="H145" s="38"/>
-      <c r="I145" s="40"/>
     </row>
     <row r="146" spans="1:9" ht="17.25" thickBot="1">
       <c r="A146" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E146" s="25"/>
-      <c r="F146" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G146" s="26"/>
-      <c r="H146" s="26"/>
-      <c r="I146" s="27"/>
+        <v>287</v>
+      </c>
+      <c r="B146" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="C146" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D146" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E146" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F146" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G146" s="38"/>
+      <c r="H146" s="38"/>
+      <c r="I146" s="40"/>
     </row>
     <row r="147" spans="1:9" ht="17.25" thickBot="1">
       <c r="A147" s="37" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="E147" s="25"/>
       <c r="F147" s="1" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G147" s="26"/>
       <c r="H147" s="26"/>
@@ -15227,146 +15295,146 @@
     </row>
     <row r="148" spans="1:9" ht="17.25" thickBot="1">
       <c r="A148" s="37" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E148" s="25"/>
       <c r="F148" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G148" s="25" t="s">
-        <v>197</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G148" s="26"/>
       <c r="H148" s="26"/>
       <c r="I148" s="27"/>
     </row>
     <row r="149" spans="1:9" ht="17.25" thickBot="1">
       <c r="A149" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C149" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E149" s="25"/>
+      <c r="F149" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G149" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="H149" s="26"/>
+      <c r="I149" s="27"/>
+    </row>
+    <row r="150" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A150" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E150" s="29"/>
+      <c r="F150" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G150" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H150" s="30"/>
+      <c r="I150" s="31"/>
+    </row>
+    <row r="153" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A153" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E149" s="29"/>
-      <c r="F149" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G149" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="H149" s="30"/>
-      <c r="I149" s="31"/>
-    </row>
-    <row r="152" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A152" s="22" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A153" s="34" t="s">
+    </row>
+    <row r="154" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A154" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="35" t="s">
+      <c r="B154" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C153" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D153" s="35" t="s">
+      <c r="C154" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D154" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E153" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F153" s="35" t="s">
+      <c r="E154" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F154" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G153" s="35" t="s">
+      <c r="G154" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H153" s="35" t="s">
+      <c r="H154" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I153" s="36" t="s">
+      <c r="I154" s="36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A154" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="B154" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="C154" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D154" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E154" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="F154" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G154" s="38"/>
-      <c r="H154" s="38"/>
-      <c r="I154" s="40"/>
     </row>
     <row r="155" spans="1:9" ht="17.25" thickBot="1">
       <c r="A155" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E155" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G155" s="26"/>
-      <c r="H155" s="26"/>
-      <c r="I155" s="27"/>
+        <v>287</v>
+      </c>
+      <c r="B155" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C155" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D155" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E155" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F155" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G155" s="38"/>
+      <c r="H155" s="38"/>
+      <c r="I155" s="40"/>
     </row>
     <row r="156" spans="1:9" ht="17.25" thickBot="1">
       <c r="A156" s="37" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>261</v>
+        <v>191</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>262</v>
+        <v>127</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E156" s="25"/>
+        <v>167</v>
+      </c>
+      <c r="E156" s="25" t="s">
+        <v>208</v>
+      </c>
       <c r="F156" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G156" s="26"/>
       <c r="H156" s="26"/>
@@ -15374,20 +15442,20 @@
     </row>
     <row r="157" spans="1:9" ht="17.25" thickBot="1">
       <c r="A157" s="37" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="E157" s="25"/>
       <c r="F157" s="1" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G157" s="26"/>
       <c r="H157" s="26"/>
@@ -15395,125 +15463,123 @@
     </row>
     <row r="158" spans="1:9" ht="17.25" thickBot="1">
       <c r="A158" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D158" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E158" s="25"/>
+      <c r="F158" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E158" s="29"/>
-      <c r="F158" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G158" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="H158" s="30"/>
-      <c r="I158" s="31"/>
-    </row>
-    <row r="161" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A161" s="22" t="s">
-        <v>268</v>
-      </c>
+      <c r="G158" s="26"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="27"/>
+    </row>
+    <row r="159" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A159" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E159" s="29"/>
+      <c r="F159" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G159" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H159" s="30"/>
+      <c r="I159" s="31"/>
     </row>
     <row r="162" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A162" s="34" t="s">
+      <c r="A162" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A163" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="35" t="s">
+      <c r="B163" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C162" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D162" s="35" t="s">
+      <c r="C163" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D163" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E162" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F162" s="35" t="s">
+      <c r="E163" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F163" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G162" s="35" t="s">
+      <c r="G163" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H162" s="35" t="s">
+      <c r="H163" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I162" s="36" t="s">
+      <c r="I163" s="36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A163" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="B163" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="C163" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D163" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E163" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="F163" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G163" s="38"/>
-      <c r="H163" s="38"/>
-      <c r="I163" s="40"/>
     </row>
     <row r="164" spans="1:9" ht="17.25" thickBot="1">
       <c r="A164" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E164" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G164" s="26"/>
-      <c r="H164" s="26"/>
-      <c r="I164" s="27"/>
+        <v>279</v>
+      </c>
+      <c r="B164" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="C164" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D164" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E164" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F164" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G164" s="38"/>
+      <c r="H164" s="38"/>
+      <c r="I164" s="40"/>
     </row>
     <row r="165" spans="1:9" ht="17.25" thickBot="1">
       <c r="A165" s="37" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>281</v>
+        <v>137</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G165" s="26"/>
       <c r="H165" s="26"/>
@@ -15521,20 +15587,22 @@
     </row>
     <row r="166" spans="1:9" ht="17.25" thickBot="1">
       <c r="A166" s="37" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E166" s="25"/>
+        <v>204</v>
+      </c>
+      <c r="E166" s="25" t="s">
+        <v>223</v>
+      </c>
       <c r="F166" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G166" s="26"/>
       <c r="H166" s="26"/>
@@ -15542,20 +15610,20 @@
     </row>
     <row r="167" spans="1:9" ht="17.25" thickBot="1">
       <c r="A167" s="37" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E167" s="25"/>
       <c r="F167" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G167" s="26"/>
       <c r="H167" s="26"/>
@@ -15563,123 +15631,123 @@
     </row>
     <row r="168" spans="1:9" ht="17.25" thickBot="1">
       <c r="A168" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E168" s="29"/>
-      <c r="F168" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G168" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="H168" s="30"/>
-      <c r="I168" s="31"/>
-    </row>
-    <row r="171" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A171" s="22" t="s">
-        <v>329</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E168" s="25"/>
+      <c r="F168" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G168" s="26"/>
+      <c r="H168" s="26"/>
+      <c r="I168" s="27"/>
+    </row>
+    <row r="169" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A169" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E169" s="29"/>
+      <c r="F169" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G169" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H169" s="30"/>
+      <c r="I169" s="31"/>
     </row>
     <row r="172" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A172" s="34" t="s">
+      <c r="A172" s="22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A173" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B172" s="35" t="s">
+      <c r="B173" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C172" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D172" s="35" t="s">
+      <c r="C173" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D173" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E172" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F172" s="35" t="s">
+      <c r="E173" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F173" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G172" s="35" t="s">
+      <c r="G173" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H172" s="35" t="s">
+      <c r="H173" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I172" s="36" t="s">
+      <c r="I173" s="36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A173" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="B173" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="C173" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="D173" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E173" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="F173" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G173" s="38"/>
-      <c r="H173" s="38"/>
-      <c r="I173" s="40"/>
     </row>
     <row r="174" spans="1:9" ht="17.25" thickBot="1">
       <c r="A174" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B174" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D174" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E174" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G174" s="26"/>
-      <c r="H174" s="26"/>
-      <c r="I174" s="27"/>
+        <v>279</v>
+      </c>
+      <c r="B174" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="C174" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="D174" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E174" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="F174" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G174" s="38"/>
+      <c r="H174" s="38"/>
+      <c r="I174" s="40"/>
     </row>
     <row r="175" spans="1:9" ht="17.25" thickBot="1">
       <c r="A175" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>202</v>
+        <v>280</v>
+      </c>
+      <c r="B175" s="41" t="s">
+        <v>274</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E175" s="25"/>
+        <v>278</v>
+      </c>
+      <c r="D175" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E175" s="25" t="s">
+        <v>328</v>
+      </c>
       <c r="F175" s="1" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G175" s="26"/>
       <c r="H175" s="26"/>
@@ -15687,127 +15755,148 @@
     </row>
     <row r="176" spans="1:9" ht="17.25" thickBot="1">
       <c r="A176" s="37" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E176" s="25" t="s">
-        <v>320</v>
-      </c>
+      <c r="E176" s="25"/>
       <c r="F176" s="1" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="G176" s="26"/>
       <c r="H176" s="26"/>
       <c r="I176" s="27"/>
     </row>
     <row r="177" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A177" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C177" s="2" t="s">
+      <c r="A177" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E177" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G177" s="26"/>
+      <c r="H177" s="26"/>
+      <c r="I177" s="27"/>
+    </row>
+    <row r="178" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A178" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E178" s="29"/>
+      <c r="F178" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G178" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H178" s="30"/>
+      <c r="I178" s="31"/>
+    </row>
+    <row r="181" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A181" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A182" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D182" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E182" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F182" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G182" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H182" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I182" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="B183" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="C183" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D183" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="D177" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E177" s="29"/>
-      <c r="F177" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G177" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="H177" s="30"/>
-      <c r="I177" s="31"/>
-    </row>
-    <row r="180" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A180" s="22" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A181" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B181" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C181" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D181" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E181" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F181" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G181" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H181" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I181" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
-      <c r="A182" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="B182" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="C182" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D182" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="E182" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="F182" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G182" s="38"/>
-      <c r="H182" s="38"/>
-      <c r="I182" s="40"/>
-    </row>
-    <row r="183" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A183" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E183" s="29"/>
-      <c r="F183" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G183" s="30"/>
-      <c r="H183" s="30"/>
-      <c r="I183" s="31"/>
+      <c r="E183" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F183" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G183" s="38"/>
+      <c r="H183" s="38"/>
+      <c r="I183" s="40"/>
+    </row>
+    <row r="184" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A184" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E184" s="29"/>
+      <c r="F184" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G184" s="30"/>
+      <c r="H184" s="30"/>
+      <c r="I184" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16068,8 +16157,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId4" name="TextBox1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="10243" r:id="rId4" name="ComboBox1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10243" r:id="rId4" name="ComboBox1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10241" r:id="rId6" name="TextBox1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -16088,32 +16202,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10241" r:id="rId4" name="TextBox1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10243" r:id="rId6" name="ComboBox1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10243" r:id="rId6" name="ComboBox1"/>
+        <control shapeId="10241" r:id="rId6" name="TextBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">

--- a/ecobay/src/main/webapp/resources/db/분석설계.xlsx
+++ b/ecobay/src/main/webapp/resources/db/분석설계.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="9585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="9585"/>
   </bookViews>
   <sheets>
     <sheet name="분석" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="342">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -783,15 +783,9 @@
     <t>JOIN_YN</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>USE_YN</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>REGDATE</t>
   </si>
   <si>
@@ -938,10 +932,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입찰내역 : BIDINFO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -972,10 +962,6 @@
     <t>CLASS_DIV</t>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품결제 : PAYMENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1171,10 +1157,6 @@
   </si>
   <si>
     <t>AUTO_INCREMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 : ADMINS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1355,6 +1337,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>회원구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">회원(member) - ID, 이름, 비밀번호, 생년월일, 주소(우편번호,주소1, 주소2), 성별, 폰번호, 가입완료여부, 등록일시, 변경일시, 삭제일시, 사용여부, </t>
     </r>
@@ -1368,7 +1362,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>회원구분(M_type)  - 2018-09-14 추가</t>
+      <t>회원구분(M_type)  - 2018-09-14 추가 - 기본값 : 'ROLE_USER'(VARCHAR(50))</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1398,32 +1392,57 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>- 회원구분(M_type) : 회원/관리자 구분(1(ROLE_USER), 2(ROLE_ADMIN) - int(1)) - 2018-09-14 추가</t>
+      <t>- 회원구분(M_type) : 회원/관리자 구분('ROLE_USER', 'ROLE_ADMIN' - VARCHAR(50)) - 2018-09-17추가
+-  가입완료여부(기본값:FALSE) / 사용여부(기본값:TRUE) - BOOLEAN형으로 변경(보안처리를 위해 변경함) - 2018-09-17 반영 - 다른 테이블에 들어있는 YN컬럼은 모두 BOOLEAN형으로 변경</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원구분(M_type) : 회원/관리자 구분(1(ROLE_USER), 2(ROLE_ADMIN) - int(1)) - 2018-09-14 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_TYPE</t>
+    <t>회원구분(M_type) : 회원/관리자 구분('ROLE_USER', 'ROLE_ADMIN' - VARCHAR(50) - 2018-09-17 변경반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5) -&gt; BOOLEAN 형변경 - 2018-09-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 : ADMINS : 시큐리티 처리를 위해서 관리자정보를 회원정보와 통합처리하기로 함(2018-09-17 삭제).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1431,7 +1450,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1482,6 +1501,25 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1787,7 +1825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1914,7 +1952,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1941,11 +2024,11 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11810,8 +11893,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11998,7 +12081,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" ht="224.25" customHeight="1">
+    <row r="11" spans="1:8" ht="264">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
@@ -12007,10 +12090,10 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H11" s="14"/>
     </row>
@@ -12155,13 +12238,13 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="258.75" customHeight="1">
@@ -12360,7 +12443,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H32" s="14"/>
     </row>
@@ -12661,8 +12744,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12672,7 +12755,7 @@
     <col min="4" max="4" width="14.625" style="22" customWidth="1"/>
     <col min="5" max="5" width="9" style="23"/>
     <col min="6" max="6" width="12" style="22" customWidth="1"/>
-    <col min="7" max="7" width="9" style="22"/>
+    <col min="7" max="7" width="11.375" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46.875" style="22" customWidth="1"/>
     <col min="9" max="9" width="16.5" style="22" customWidth="1"/>
     <col min="10" max="16384" width="9" style="22"/>
@@ -12685,7 +12768,7 @@
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1">
       <c r="A3" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1">
@@ -12702,7 +12785,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>3</v>
@@ -12722,10 +12805,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>167</v>
@@ -12738,7 +12821,7 @@
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I5" s="40"/>
     </row>
@@ -12886,7 +12969,7 @@
         <v>168</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="27"/>
@@ -12923,16 +13006,18 @@
         <v>122</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>180</v>
+        <v>336</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="26" t="s">
         <v>168</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="26"/>
+        <v>339</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>333</v>
+      </c>
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9">
@@ -12940,22 +13025,24 @@
         <v>11</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>125</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>180</v>
+        <v>336</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="26" t="s">
         <v>168</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="H15" s="26"/>
+        <v>335</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>333</v>
+      </c>
       <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9">
@@ -12963,23 +13050,23 @@
         <v>12</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>333</v>
+        <v>171</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="26" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>336</v>
+        <v>331</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>330</v>
       </c>
       <c r="I16" s="27"/>
     </row>
@@ -12988,20 +13075,20 @@
         <v>13</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>123</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="26" t="s">
         <v>168</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="27"/>
@@ -13011,20 +13098,20 @@
         <v>14</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>124</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="26" t="s">
         <v>168</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="27"/>
@@ -13034,17 +13121,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>134</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30"/>
@@ -13063,7 +13150,7 @@
     </row>
     <row r="22" spans="1:9" ht="17.25" thickBot="1">
       <c r="A22" s="22" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17.25" thickBot="1">
@@ -13080,7 +13167,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>3</v>
@@ -13100,16 +13187,16 @@
         <v>1</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F24" s="38" t="s">
         <v>168</v>
@@ -13123,7 +13210,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>128</v>
@@ -13144,7 +13231,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>127</v>
@@ -13153,7 +13240,7 @@
         <v>167</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F26" s="26" t="s">
         <v>168</v>
@@ -13167,7 +13254,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>129</v>
@@ -13176,7 +13263,7 @@
         <v>180</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F27" s="26" t="s">
         <v>168</v>
@@ -13190,7 +13277,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>130</v>
@@ -13199,7 +13286,7 @@
         <v>180</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F28" s="26" t="s">
         <v>168</v>
@@ -13213,17 +13300,17 @@
         <v>6</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>131</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
@@ -13234,7 +13321,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>132</v>
@@ -13255,7 +13342,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>133</v>
@@ -13276,20 +13363,20 @@
         <v>9</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>123</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="26" t="s">
         <v>168</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="27"/>
@@ -13299,20 +13386,20 @@
         <v>10</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>124</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="26" t="s">
         <v>168</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="27"/>
@@ -13322,17 +13409,17 @@
         <v>11</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>134</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="26"/>
@@ -13343,7 +13430,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>125</v>
@@ -13356,9 +13443,11 @@
         <v>168</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="H35" s="26"/>
+        <v>334</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>333</v>
+      </c>
       <c r="I35" s="27"/>
     </row>
     <row r="36" spans="1:9" ht="17.25" thickBot="1">
@@ -13366,13 +13455,13 @@
         <v>13</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>135</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="30" t="s">
@@ -13387,13 +13476,12 @@
     <row r="37" spans="1:9">
       <c r="A37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="G37" s="23"/>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
     </row>
     <row r="39" spans="1:9" ht="17.25" thickBot="1">
       <c r="A39" s="22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="17.25" thickBot="1">
@@ -13410,7 +13498,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F40" s="35" t="s">
         <v>3</v>
@@ -13430,16 +13518,16 @@
         <v>1</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C41" s="38" t="s">
         <v>136</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F41" s="38" t="s">
         <v>168</v>
@@ -13453,16 +13541,16 @@
         <v>2</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>137</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F42" s="26" t="s">
         <v>168</v>
@@ -13476,16 +13564,16 @@
         <v>3</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>126</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>168</v>
@@ -13499,13 +13587,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>138</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="26" t="s">
@@ -13520,13 +13608,13 @@
         <v>5</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>139</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E45" s="25"/>
       <c r="F45" s="26" t="s">
@@ -13541,20 +13629,20 @@
         <v>6</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>123</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="30" t="s">
         <v>168</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H46" s="30"/>
       <c r="I46" s="31"/>
@@ -13583,7 +13671,7 @@
     </row>
     <row r="49" spans="1:9" ht="17.25" thickBot="1">
       <c r="A49" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="17.25" thickBot="1">
@@ -13600,7 +13688,7 @@
         <v>4</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F50" s="35" t="s">
         <v>3</v>
@@ -13618,39 +13706,39 @@
     <row r="51" spans="1:9">
       <c r="A51" s="37"/>
       <c r="B51" s="41" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D51" s="41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F51" s="41" t="s">
         <v>168</v>
       </c>
       <c r="G51" s="39"/>
       <c r="H51" s="38" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I51" s="40"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="24"/>
       <c r="B52" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>168</v>
@@ -13662,16 +13750,16 @@
     <row r="53" spans="1:9">
       <c r="A53" s="24"/>
       <c r="B53" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>168</v>
@@ -13683,16 +13771,16 @@
     <row r="54" spans="1:9">
       <c r="A54" s="24"/>
       <c r="B54" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>168</v>
@@ -13704,10 +13792,10 @@
     <row r="55" spans="1:9">
       <c r="A55" s="24"/>
       <c r="B55" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>177</v>
@@ -13723,17 +13811,17 @@
     <row r="56" spans="1:9">
       <c r="A56" s="24"/>
       <c r="B56" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="26"/>
@@ -13742,20 +13830,20 @@
     <row r="57" spans="1:9" ht="17.25" thickBot="1">
       <c r="A57" s="28"/>
       <c r="B57" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E57" s="29"/>
       <c r="F57" s="2" t="s">
         <v>168</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H57" s="30"/>
       <c r="I57" s="31"/>
@@ -13773,7 +13861,7 @@
     </row>
     <row r="60" spans="1:9" ht="17.25" thickBot="1">
       <c r="A60" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="17.25" thickBot="1">
@@ -13790,7 +13878,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F61" s="35" t="s">
         <v>3</v>
@@ -13810,16 +13898,16 @@
         <v>1</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C62" s="38" t="s">
         <v>126</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E62" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F62" s="38" t="s">
         <v>168</v>
@@ -13833,13 +13921,13 @@
         <v>2</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E63" s="25"/>
       <c r="F63" s="26" t="s">
@@ -13854,17 +13942,17 @@
         <v>3</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E64" s="25"/>
       <c r="F64" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G64" s="25"/>
       <c r="H64" s="26"/>
@@ -13875,13 +13963,13 @@
         <v>4</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E65" s="25"/>
       <c r="F65" s="26" t="s">
@@ -13896,13 +13984,13 @@
         <v>5</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="26" t="s">
@@ -13917,21 +14005,21 @@
         <v>6</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E67" s="25"/>
       <c r="F67" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G67" s="25"/>
       <c r="H67" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I67" s="27"/>
     </row>
@@ -13940,21 +14028,21 @@
         <v>7</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E68" s="25"/>
       <c r="F68" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G68" s="25"/>
       <c r="H68" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I68" s="27"/>
     </row>
@@ -13963,22 +14051,24 @@
         <v>8</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>180</v>
+        <v>332</v>
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="26" t="s">
         <v>168</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="H69" s="26"/>
+        <v>340</v>
+      </c>
+      <c r="H69" s="42" t="s">
+        <v>333</v>
+      </c>
       <c r="I69" s="27"/>
     </row>
     <row r="70" spans="1:9">
@@ -13986,17 +14076,17 @@
         <v>9</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E70" s="25"/>
       <c r="F70" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G70" s="25"/>
       <c r="H70" s="26"/>
@@ -14007,20 +14097,20 @@
         <v>10</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E71" s="25"/>
       <c r="F71" s="26" t="s">
         <v>168</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H71" s="26"/>
       <c r="I71" s="27"/>
@@ -14030,29 +14120,29 @@
         <v>11</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D72" s="30" t="s">
         <v>167</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F72" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G72" s="29"/>
       <c r="H72" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I72" s="31"/>
     </row>
     <row r="75" spans="1:9" ht="17.25" thickBot="1">
       <c r="A75" s="22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="17.25" thickBot="1">
@@ -14069,7 +14159,7 @@
         <v>4</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F76" s="35" t="s">
         <v>3</v>
@@ -14089,16 +14179,16 @@
         <v>1</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>126</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E77" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F77" s="38" t="s">
         <v>168</v>
@@ -14112,7 +14202,7 @@
         <v>2</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>127</v>
@@ -14121,7 +14211,7 @@
         <v>167</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F78" s="26" t="s">
         <v>168</v>
@@ -14135,13 +14225,13 @@
         <v>3</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E79" s="25"/>
       <c r="F79" s="26" t="s">
@@ -14156,27 +14246,27 @@
         <v>4</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C80" s="30" t="s">
         <v>123</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E80" s="29"/>
       <c r="F80" s="30" t="s">
         <v>168</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H80" s="30"/>
       <c r="I80" s="31"/>
     </row>
     <row r="83" spans="1:9" ht="17.25" thickBot="1">
       <c r="A83" s="22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="17.25" thickBot="1">
@@ -14193,7 +14283,7 @@
         <v>4</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F84" s="35" t="s">
         <v>3</v>
@@ -14213,16 +14303,16 @@
         <v>1</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C85" s="38" t="s">
         <v>126</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E85" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F85" s="38" t="s">
         <v>168</v>
@@ -14236,10 +14326,10 @@
         <v>2</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D86" s="26" t="s">
         <v>180</v>
@@ -14257,10 +14347,10 @@
         <v>3</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D87" s="26" t="s">
         <v>171</v>
@@ -14278,27 +14368,27 @@
         <v>4</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C88" s="30" t="s">
         <v>123</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E88" s="29"/>
       <c r="F88" s="30" t="s">
         <v>168</v>
       </c>
       <c r="G88" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H88" s="30"/>
       <c r="I88" s="31"/>
     </row>
     <row r="91" spans="1:9" ht="17.25" thickBot="1">
       <c r="A91" s="22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="17.25" thickBot="1">
@@ -14315,7 +14405,7 @@
         <v>4</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F92" s="35" t="s">
         <v>3</v>
@@ -14330,12 +14420,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="17.25" thickBot="1">
+    <row r="93" spans="1:9">
       <c r="A93" s="37" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C93" s="38" t="s">
         <v>129</v>
@@ -14344,21 +14434,21 @@
         <v>180</v>
       </c>
       <c r="E93" s="39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F93" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="G93" s="38"/>
+      <c r="G93" s="39"/>
       <c r="H93" s="38"/>
       <c r="I93" s="40"/>
     </row>
-    <row r="94" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A94" s="37" t="s">
-        <v>280</v>
+    <row r="94" spans="1:9">
+      <c r="A94" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>130</v>
@@ -14367,26 +14457,26 @@
         <v>180</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F94" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G94" s="26" t="s">
-        <v>303</v>
+      <c r="G94" s="25" t="s">
+        <v>298</v>
       </c>
       <c r="H94" s="26"/>
       <c r="I94" s="27"/>
     </row>
-    <row r="95" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A95" s="37" t="s">
-        <v>281</v>
+    <row r="95" spans="1:9">
+      <c r="A95" s="24" t="s">
+        <v>277</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D95" s="26" t="s">
         <v>167</v>
@@ -14395,16 +14485,16 @@
       <c r="F95" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G95" s="26"/>
+      <c r="G95" s="25"/>
       <c r="H95" s="26"/>
       <c r="I95" s="27"/>
     </row>
-    <row r="96" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A96" s="37" t="s">
-        <v>282</v>
+    <row r="96" spans="1:9">
+      <c r="A96" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C96" s="26" t="s">
         <v>140</v>
@@ -14416,103 +14506,105 @@
       <c r="F96" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G96" s="26"/>
+      <c r="G96" s="25"/>
       <c r="H96" s="26"/>
       <c r="I96" s="27"/>
     </row>
-    <row r="97" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A97" s="37" t="s">
-        <v>283</v>
+    <row r="97" spans="1:9">
+      <c r="A97" s="24" t="s">
+        <v>279</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>123</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E97" s="25"/>
       <c r="F97" s="26" t="s">
         <v>168</v>
       </c>
       <c r="G97" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H97" s="26"/>
       <c r="I97" s="27"/>
     </row>
-    <row r="98" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A98" s="37" t="s">
-        <v>284</v>
+    <row r="98" spans="1:9">
+      <c r="A98" s="24" t="s">
+        <v>280</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C98" s="26" t="s">
         <v>124</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E98" s="25"/>
       <c r="F98" s="26" t="s">
         <v>168</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H98" s="26"/>
       <c r="I98" s="27"/>
     </row>
-    <row r="99" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A99" s="37" t="s">
-        <v>285</v>
+    <row r="99" spans="1:9">
+      <c r="A99" s="24" t="s">
+        <v>281</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>134</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E99" s="25"/>
       <c r="F99" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G99" s="26"/>
+        <v>188</v>
+      </c>
+      <c r="G99" s="25"/>
       <c r="H99" s="26"/>
       <c r="I99" s="27"/>
     </row>
     <row r="100" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A100" s="42" t="s">
-        <v>286</v>
+      <c r="A100" s="28" t="s">
+        <v>282</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C100" s="30" t="s">
         <v>125</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>180</v>
+        <v>332</v>
       </c>
       <c r="E100" s="29"/>
       <c r="F100" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="G100" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="H100" s="30"/>
+      <c r="G100" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="H100" s="57" t="s">
+        <v>333</v>
+      </c>
       <c r="I100" s="31"/>
     </row>
     <row r="103" spans="1:9" ht="17.25" thickBot="1">
       <c r="A103" s="22" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="17.25" thickBot="1">
@@ -14529,7 +14621,7 @@
         <v>4</v>
       </c>
       <c r="E104" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" s="35" t="s">
         <v>3</v>
@@ -14544,115 +14636,119 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="17.25" thickBot="1">
+    <row r="105" spans="1:9">
       <c r="A105" s="37" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B105" s="41" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C105" s="41" t="s">
         <v>126</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E105" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F105" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G105" s="38"/>
+      <c r="G105" s="39"/>
       <c r="H105" s="38"/>
       <c r="I105" s="40"/>
     </row>
-    <row r="106" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A106" s="37" t="s">
-        <v>280</v>
+    <row r="106" spans="1:9">
+      <c r="A106" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E106" s="25"/>
       <c r="F106" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G106" s="26"/>
+      <c r="G106" s="25"/>
       <c r="H106" s="26"/>
       <c r="I106" s="27"/>
     </row>
-    <row r="107" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A107" s="37" t="s">
-        <v>281</v>
+    <row r="107" spans="1:9">
+      <c r="A107" s="24" t="s">
+        <v>277</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>180</v>
+        <v>332</v>
       </c>
       <c r="E107" s="25"/>
       <c r="F107" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G107" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="H107" s="26"/>
+      <c r="G107" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="H107" s="42" t="s">
+        <v>333</v>
+      </c>
       <c r="I107" s="27"/>
     </row>
-    <row r="108" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A108" s="37" t="s">
-        <v>282</v>
+    <row r="108" spans="1:9">
+      <c r="A108" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>180</v>
+        <v>332</v>
       </c>
       <c r="E108" s="25"/>
       <c r="F108" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G108" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="H108" s="26"/>
+      <c r="G108" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="H108" s="42" t="s">
+        <v>333</v>
+      </c>
       <c r="I108" s="27"/>
     </row>
     <row r="109" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A109" s="37" t="s">
-        <v>283</v>
+      <c r="A109" s="28" t="s">
+        <v>279</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E109" s="29"/>
       <c r="F109" s="2" t="s">
         <v>168</v>
       </c>
       <c r="G109" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H109" s="30"/>
       <c r="I109" s="31"/>
@@ -14670,7 +14766,7 @@
     </row>
     <row r="112" spans="1:9" ht="17.25" thickBot="1">
       <c r="A112" s="22" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="17.25" thickBot="1">
@@ -14687,7 +14783,7 @@
         <v>4</v>
       </c>
       <c r="E113" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F113" s="35" t="s">
         <v>3</v>
@@ -14702,38 +14798,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="17.25" thickBot="1">
+    <row r="114" spans="1:9">
       <c r="A114" s="37" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B114" s="41" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C114" s="41" t="s">
         <v>126</v>
       </c>
       <c r="D114" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E114" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G114" s="38"/>
+      <c r="G114" s="39"/>
       <c r="H114" s="38"/>
       <c r="I114" s="40"/>
     </row>
-    <row r="115" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A115" s="37" t="s">
-        <v>280</v>
+    <row r="115" spans="1:9">
+      <c r="A115" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>167</v>
@@ -14742,19 +14838,19 @@
       <c r="F115" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G115" s="26"/>
+      <c r="G115" s="25"/>
       <c r="H115" s="26"/>
       <c r="I115" s="27"/>
     </row>
-    <row r="116" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A116" s="37" t="s">
-        <v>281</v>
+    <row r="116" spans="1:9">
+      <c r="A116" s="24" t="s">
+        <v>277</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>175</v>
@@ -14763,19 +14859,19 @@
       <c r="F116" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G116" s="26"/>
+      <c r="G116" s="25"/>
       <c r="H116" s="26"/>
       <c r="I116" s="27"/>
     </row>
-    <row r="117" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A117" s="37" t="s">
-        <v>282</v>
+    <row r="117" spans="1:9">
+      <c r="A117" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>177</v>
@@ -14784,19 +14880,19 @@
       <c r="F117" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G117" s="26"/>
+      <c r="G117" s="25"/>
       <c r="H117" s="26"/>
       <c r="I117" s="27"/>
     </row>
-    <row r="118" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A118" s="37" t="s">
-        <v>283</v>
+    <row r="118" spans="1:9">
+      <c r="A118" s="24" t="s">
+        <v>279</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>177</v>
@@ -14805,36 +14901,36 @@
       <c r="F118" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G118" s="26"/>
+      <c r="G118" s="25"/>
       <c r="H118" s="26"/>
       <c r="I118" s="27"/>
     </row>
     <row r="119" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A119" s="37" t="s">
-        <v>284</v>
+      <c r="A119" s="28" t="s">
+        <v>280</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E119" s="29"/>
       <c r="F119" s="2" t="s">
         <v>168</v>
       </c>
       <c r="G119" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H119" s="30"/>
       <c r="I119" s="31"/>
     </row>
     <row r="122" spans="1:9" ht="17.25" thickBot="1">
       <c r="A122" s="22" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="17.25" thickBot="1">
@@ -14851,7 +14947,7 @@
         <v>4</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F123" s="35" t="s">
         <v>3</v>
@@ -14868,36 +14964,36 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="37" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B124" s="41" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C124" s="41" t="s">
         <v>137</v>
       </c>
       <c r="D124" s="41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E124" s="39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F124" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G124" s="38"/>
+      <c r="G124" s="39"/>
       <c r="H124" s="38"/>
       <c r="I124" s="40"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>177</v>
@@ -14906,110 +15002,110 @@
       <c r="F125" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G125" s="26"/>
+      <c r="G125" s="25"/>
       <c r="H125" s="26"/>
       <c r="I125" s="27"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="24" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E126" s="25"/>
       <c r="F126" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G126" s="26"/>
+        <v>188</v>
+      </c>
+      <c r="G126" s="25"/>
       <c r="H126" s="26"/>
       <c r="I126" s="27"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="24" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E127" s="25"/>
       <c r="F127" s="1" t="s">
         <v>168</v>
       </c>
       <c r="G127" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H127" s="26"/>
       <c r="I127" s="27"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="24" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E128" s="25"/>
       <c r="F128" s="1" t="s">
         <v>168</v>
       </c>
       <c r="G128" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H128" s="26"/>
       <c r="I128" s="27"/>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="24" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E129" s="25"/>
       <c r="F129" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G129" s="26"/>
+        <v>188</v>
+      </c>
+      <c r="G129" s="25"/>
       <c r="H129" s="26"/>
       <c r="I129" s="27"/>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C130" s="26" t="s">
         <v>135</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E130" s="25"/>
       <c r="F130" s="26" t="s">
@@ -15023,30 +15119,32 @@
     </row>
     <row r="131" spans="1:9" ht="17.25" thickBot="1">
       <c r="A131" s="28" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>180</v>
+        <v>336</v>
       </c>
       <c r="E131" s="29"/>
       <c r="F131" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G131" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H131" s="30"/>
+      <c r="G131" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="57" t="s">
+        <v>333</v>
+      </c>
       <c r="I131" s="31"/>
     </row>
     <row r="134" spans="1:9" ht="17.25" thickBot="1">
       <c r="A134" s="22" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="17.25" thickBot="1">
@@ -15063,7 +15161,7 @@
         <v>4</v>
       </c>
       <c r="E135" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F135" s="35" t="s">
         <v>3</v>
@@ -15078,136 +15176,136 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="17.25" thickBot="1">
+    <row r="136" spans="1:9">
       <c r="A136" s="37" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B136" s="41" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C136" s="41" t="s">
         <v>136</v>
       </c>
       <c r="D136" s="41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E136" s="39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F136" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G136" s="38"/>
+      <c r="G136" s="39"/>
       <c r="H136" s="38"/>
       <c r="I136" s="40"/>
     </row>
-    <row r="137" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A137" s="37" t="s">
-        <v>280</v>
+    <row r="137" spans="1:9">
+      <c r="A137" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>137</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E137" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G137" s="26"/>
+      <c r="G137" s="25"/>
       <c r="H137" s="26"/>
       <c r="I137" s="27"/>
     </row>
-    <row r="138" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A138" s="37" t="s">
-        <v>281</v>
+    <row r="138" spans="1:9">
+      <c r="A138" s="24" t="s">
+        <v>277</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E138" s="25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G138" s="26"/>
+      <c r="G138" s="25"/>
       <c r="H138" s="26"/>
       <c r="I138" s="27"/>
     </row>
-    <row r="139" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A139" s="37" t="s">
-        <v>282</v>
+    <row r="139" spans="1:9">
+      <c r="A139" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E139" s="25"/>
       <c r="F139" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G139" s="26"/>
+        <v>188</v>
+      </c>
+      <c r="G139" s="25"/>
       <c r="H139" s="26"/>
       <c r="I139" s="27"/>
     </row>
-    <row r="140" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A140" s="37" t="s">
-        <v>283</v>
+    <row r="140" spans="1:9">
+      <c r="A140" s="24" t="s">
+        <v>279</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E140" s="25"/>
       <c r="F140" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G140" s="26"/>
+        <v>188</v>
+      </c>
+      <c r="G140" s="25"/>
       <c r="H140" s="26"/>
       <c r="I140" s="27"/>
     </row>
     <row r="141" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A141" s="37" t="s">
-        <v>284</v>
+      <c r="A141" s="28" t="s">
+        <v>280</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E141" s="29"/>
       <c r="F141" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G141" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H141" s="30"/>
       <c r="I141" s="31"/>
@@ -15217,7 +15315,7 @@
     </row>
     <row r="144" spans="1:9" ht="17.25" thickBot="1">
       <c r="A144" s="22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="17.25" thickBot="1">
@@ -15234,7 +15332,7 @@
         <v>4</v>
       </c>
       <c r="E145" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F145" s="35" t="s">
         <v>3</v>
@@ -15249,38 +15347,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="17.25" thickBot="1">
+    <row r="146" spans="1:9">
       <c r="A146" s="37" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B146" s="41" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C146" s="41" t="s">
         <v>137</v>
       </c>
       <c r="D146" s="41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E146" s="39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F146" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G146" s="38"/>
+      <c r="G146" s="39"/>
       <c r="H146" s="38"/>
       <c r="I146" s="40"/>
     </row>
-    <row r="147" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A147" s="37" t="s">
-        <v>280</v>
+    <row r="147" spans="1:9">
+      <c r="A147" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>177</v>
@@ -15289,80 +15387,80 @@
       <c r="F147" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G147" s="26"/>
+      <c r="G147" s="25"/>
       <c r="H147" s="26"/>
       <c r="I147" s="27"/>
     </row>
-    <row r="148" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A148" s="37" t="s">
-        <v>281</v>
+    <row r="148" spans="1:9">
+      <c r="A148" s="24" t="s">
+        <v>277</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E148" s="25"/>
       <c r="F148" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G148" s="26"/>
+        <v>188</v>
+      </c>
+      <c r="G148" s="25"/>
       <c r="H148" s="26"/>
       <c r="I148" s="27"/>
     </row>
-    <row r="149" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A149" s="37" t="s">
-        <v>282</v>
+    <row r="149" spans="1:9">
+      <c r="A149" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E149" s="25"/>
       <c r="F149" s="1" t="s">
         <v>168</v>
       </c>
       <c r="G149" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H149" s="26"/>
       <c r="I149" s="27"/>
     </row>
     <row r="150" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A150" s="37" t="s">
-        <v>283</v>
+      <c r="A150" s="28" t="s">
+        <v>279</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E150" s="29"/>
       <c r="F150" s="2" t="s">
         <v>168</v>
       </c>
       <c r="G150" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H150" s="30"/>
       <c r="I150" s="31"/>
     </row>
     <row r="153" spans="1:9" ht="17.25" thickBot="1">
       <c r="A153" s="22" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="17.25" thickBot="1">
@@ -15379,7 +15477,7 @@
         <v>4</v>
       </c>
       <c r="E154" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F154" s="35" t="s">
         <v>3</v>
@@ -15394,35 +15492,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="17.25" thickBot="1">
+    <row r="155" spans="1:9">
       <c r="A155" s="37" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B155" s="41" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C155" s="41" t="s">
         <v>137</v>
       </c>
       <c r="D155" s="41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E155" s="39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F155" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G155" s="38"/>
+      <c r="G155" s="39"/>
       <c r="H155" s="38"/>
       <c r="I155" s="40"/>
     </row>
-    <row r="156" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A156" s="37" t="s">
-        <v>280</v>
+    <row r="156" spans="1:9">
+      <c r="A156" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>127</v>
@@ -15431,24 +15529,24 @@
         <v>167</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G156" s="26"/>
+      <c r="G156" s="25"/>
       <c r="H156" s="26"/>
       <c r="I156" s="27"/>
     </row>
-    <row r="157" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A157" s="37" t="s">
-        <v>281</v>
+    <row r="157" spans="1:9">
+      <c r="A157" s="24" t="s">
+        <v>277</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>177</v>
@@ -15457,57 +15555,57 @@
       <c r="F157" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G157" s="26"/>
+      <c r="G157" s="25"/>
       <c r="H157" s="26"/>
       <c r="I157" s="27"/>
     </row>
-    <row r="158" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A158" s="37" t="s">
-        <v>282</v>
+    <row r="158" spans="1:9">
+      <c r="A158" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E158" s="25"/>
       <c r="F158" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G158" s="26"/>
+        <v>188</v>
+      </c>
+      <c r="G158" s="25"/>
       <c r="H158" s="26"/>
       <c r="I158" s="27"/>
     </row>
     <row r="159" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A159" s="37" t="s">
-        <v>283</v>
+      <c r="A159" s="28" t="s">
+        <v>279</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E159" s="29"/>
       <c r="F159" s="2" t="s">
         <v>168</v>
       </c>
       <c r="G159" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H159" s="30"/>
       <c r="I159" s="31"/>
     </row>
     <row r="162" spans="1:9" ht="17.25" thickBot="1">
       <c r="A162" s="22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="17.25" thickBot="1">
@@ -15524,7 +15622,7 @@
         <v>4</v>
       </c>
       <c r="E163" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F163" s="35" t="s">
         <v>3</v>
@@ -15539,143 +15637,143 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="17.25" thickBot="1">
+    <row r="164" spans="1:9">
       <c r="A164" s="37" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B164" s="41" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C164" s="41" t="s">
         <v>136</v>
       </c>
       <c r="D164" s="41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E164" s="39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F164" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G164" s="38"/>
+      <c r="G164" s="39"/>
       <c r="H164" s="38"/>
       <c r="I164" s="40"/>
     </row>
-    <row r="165" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A165" s="37" t="s">
-        <v>280</v>
+    <row r="165" spans="1:9">
+      <c r="A165" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>137</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G165" s="26"/>
+      <c r="G165" s="25"/>
       <c r="H165" s="26"/>
       <c r="I165" s="27"/>
     </row>
-    <row r="166" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A166" s="37" t="s">
-        <v>281</v>
+    <row r="166" spans="1:9">
+      <c r="A166" s="24" t="s">
+        <v>277</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="D166" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G166" s="26"/>
+      <c r="G166" s="25"/>
       <c r="H166" s="26"/>
       <c r="I166" s="27"/>
     </row>
-    <row r="167" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A167" s="37" t="s">
-        <v>282</v>
+    <row r="167" spans="1:9">
+      <c r="A167" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E167" s="25"/>
       <c r="F167" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G167" s="26"/>
+      <c r="G167" s="25"/>
       <c r="H167" s="26"/>
       <c r="I167" s="27"/>
     </row>
-    <row r="168" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A168" s="37" t="s">
-        <v>283</v>
+    <row r="168" spans="1:9">
+      <c r="A168" s="24" t="s">
+        <v>279</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E168" s="25"/>
       <c r="F168" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G168" s="26"/>
+      <c r="G168" s="25"/>
       <c r="H168" s="26"/>
       <c r="I168" s="27"/>
     </row>
     <row r="169" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A169" s="37" t="s">
-        <v>284</v>
+      <c r="A169" s="28" t="s">
+        <v>280</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E169" s="29"/>
       <c r="F169" s="2" t="s">
         <v>168</v>
       </c>
       <c r="G169" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H169" s="30"/>
       <c r="I169" s="31"/>
     </row>
     <row r="172" spans="1:9" ht="17.25" thickBot="1">
       <c r="A172" s="22" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="17.25" thickBot="1">
@@ -15692,7 +15790,7 @@
         <v>4</v>
       </c>
       <c r="E173" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F173" s="35" t="s">
         <v>3</v>
@@ -15707,196 +15805,196 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="17.25" thickBot="1">
+    <row r="174" spans="1:9">
       <c r="A174" s="37" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B174" s="41" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C174" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D174" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E174" s="39" t="s">
         <v>316</v>
-      </c>
-      <c r="D174" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E174" s="39" t="s">
-        <v>321</v>
       </c>
       <c r="F174" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G174" s="38"/>
+      <c r="G174" s="39"/>
       <c r="H174" s="38"/>
       <c r="I174" s="40"/>
     </row>
-    <row r="175" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A175" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="B175" s="41" t="s">
+    <row r="175" spans="1:9">
+      <c r="A175" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D175" s="41" t="s">
-        <v>204</v>
+      <c r="D175" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G175" s="26"/>
+      <c r="G175" s="25"/>
       <c r="H175" s="26"/>
       <c r="I175" s="27"/>
     </row>
-    <row r="176" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A176" s="37" t="s">
-        <v>281</v>
+    <row r="176" spans="1:9">
+      <c r="A176" s="24" t="s">
+        <v>277</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E176" s="25"/>
       <c r="F176" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G176" s="26"/>
+        <v>188</v>
+      </c>
+      <c r="G176" s="25"/>
       <c r="H176" s="26"/>
       <c r="I176" s="27"/>
     </row>
-    <row r="177" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A177" s="37" t="s">
-        <v>282</v>
+    <row r="177" spans="1:9">
+      <c r="A177" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C177" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="E177" s="25" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G177" s="26"/>
+      <c r="G177" s="25"/>
       <c r="H177" s="26"/>
       <c r="I177" s="27"/>
     </row>
     <row r="178" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A178" s="42" t="s">
-        <v>283</v>
+      <c r="A178" s="28" t="s">
+        <v>279</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C178" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="E178" s="29"/>
       <c r="F178" s="2" t="s">
         <v>168</v>
       </c>
       <c r="G178" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H178" s="30"/>
       <c r="I178" s="31"/>
     </row>
     <row r="181" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A181" s="22" t="s">
-        <v>300</v>
+      <c r="A181" s="43" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A182" s="34" t="s">
+      <c r="A182" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B182" s="35" t="s">
+      <c r="B182" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C182" s="35" t="s">
+      <c r="C182" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="D182" s="35" t="s">
+      <c r="D182" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E182" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="F182" s="35" t="s">
+      <c r="E182" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="F182" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G182" s="35" t="s">
+      <c r="G182" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H182" s="35" t="s">
+      <c r="H182" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="I182" s="36" t="s">
+      <c r="I182" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="B183" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="C183" s="41" t="s">
+      <c r="A183" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="B183" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="C183" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="D183" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="E183" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="F183" s="41" t="s">
+      <c r="D183" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="E183" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="F183" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="G183" s="38"/>
-      <c r="H183" s="38"/>
-      <c r="I183" s="40"/>
+      <c r="G183" s="49"/>
+      <c r="H183" s="50"/>
+      <c r="I183" s="51"/>
     </row>
     <row r="184" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A184" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C184" s="2" t="s">
+      <c r="A184" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="B184" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="C184" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="E184" s="29"/>
-      <c r="F184" s="2" t="s">
+      <c r="E184" s="54"/>
+      <c r="F184" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="G184" s="30"/>
-      <c r="H184" s="30"/>
-      <c r="I184" s="31"/>
+      <c r="G184" s="54"/>
+      <c r="H184" s="55"/>
+      <c r="I184" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16157,8 +16255,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10243" r:id="rId4" name="ComboBox1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="10241" r:id="rId4" name="TextBox1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10241" r:id="rId4" name="TextBox1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10243" r:id="rId6" name="ComboBox1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16177,32 +16300,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10243" r:id="rId4" name="ComboBox1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId6" name="TextBox1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10241" r:id="rId6" name="TextBox1"/>
+        <control shapeId="10243" r:id="rId6" name="ComboBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">

--- a/ecobay/src/main/webapp/resources/db/분석설계.xlsx
+++ b/ecobay/src/main/webapp/resources/db/분석설계.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="9585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="9585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="분석" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="349">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1215,16 +1215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 에디터(CK) 사용해서 글 등록기능 제공
-- 이미지 등록은 에디터에서 폴더 설정 가능하다고 함
-- 분류 : 대분류코드, 중분류코드, 분류명, 분류구분, 등록일시, 수정일시, 삭제일시, 사용여부( -&gt; 대/중분류명을 분류명으로 단일로 통합하기로 함.(2018-09-12 결정사항)
-- 상품 : 상품코드, 회원ID(판매자ID), 상품명(제목), 대분류코드, 중분류코드, 설명, 상태코드, 상태명, 등록일시, 수정일시, 삭제일시, 사용여부, 조회수
-- 상품이미지 : 이미지코드, 일련번호(int형), 상품코드, 업로드명, 파일명, 등록일시
- -&gt; 상품이미지코드 규칙 : 일련번호형식
- -&gt; 업로드명 규칙 : 분류코드(3자리-PRD) + 이미지코드+일련번호_이미지명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[(2018-09-12 결정사항]]
 1. 대/중분류명을 분류명으로 단일로 통합하기로 함.
 2. 대분류인 경우 중분류를 'XX'으로 기본값 부여</t>
@@ -1443,6 +1433,46 @@
   </si>
   <si>
     <t>FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILENAME_THUMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 올린 실제파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 올라가는 파일명(경로가 붙어있는)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 에디터(CK) 사용해서 글 등록기능 제공
+- 이미지 등록은 에디터에서 폴더 설정 가능하다고 함
+- 분류 : 대분류코드, 중분류코드, 분류명, 분류구분, 등록일시, 수정일시, 삭제일시, 사용여부( -&gt; 대/중분류명을 분류명으로 단일로 통합하기로 함.(2018-09-12 결정사항)
+- 상품 : 상품코드, 회원ID(판매자ID), 상품명(제목), 대분류코드, 중분류코드, 설명, 상태코드, 상태명, 등록일시, 수정일시, 삭제일시, 사용여부, 조회수
+- 상품이미지 : 이미지코드, 일련번호(int형), 상품코드, 업로드명, 파일명, 등록일시
+ -&gt; 상품이미지코드 규칙 : 일련번호형식
+ -&gt; 업로드명 규칙 : 분류코드(3자리-PRD) + 이미지코드+일련번호_이미지명 &lt;- 명칭 규칙은 랜덤으로 변경(2018-09-18)
+ -&gt; 업로드명 : 서버에 올라가는 명칭(경로포함한 파일명) - 2018-09-18
+ -&gt; 썸네일명 추가(2018-09-18) - filename_thumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 올라가는 썸네일파일명(경로가 붙어있는) - 2018-09-18 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1536,7 +1566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1819,13 +1849,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2000,6 +2069,18 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2024,11 +2105,11 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11893,8 +11974,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="C15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12090,10 +12171,10 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H11" s="14"/>
     </row>
@@ -12241,10 +12322,10 @@
         <v>299</v>
       </c>
       <c r="G20" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>300</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="258.75" customHeight="1">
@@ -12443,7 +12524,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H32" s="14"/>
     </row>
@@ -12742,10 +12823,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I184"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13006,17 +13087,17 @@
         <v>122</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="26" t="s">
         <v>168</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I14" s="27"/>
     </row>
@@ -13031,17 +13112,17 @@
         <v>125</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="26" t="s">
         <v>168</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I15" s="27"/>
     </row>
@@ -13050,23 +13131,23 @@
         <v>12</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>171</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I16" s="27"/>
     </row>
@@ -13210,7 +13291,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>128</v>
@@ -13300,7 +13381,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>131</v>
@@ -13443,10 +13524,10 @@
         <v>168</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I35" s="27"/>
     </row>
@@ -13600,7 +13681,9 @@
         <v>168</v>
       </c>
       <c r="G44" s="25"/>
-      <c r="H44" s="26"/>
+      <c r="H44" s="42" t="s">
+        <v>346</v>
+      </c>
       <c r="I44" s="27"/>
     </row>
     <row r="45" spans="1:9">
@@ -13621,42 +13704,56 @@
         <v>168</v>
       </c>
       <c r="G45" s="25"/>
-      <c r="H45" s="26"/>
+      <c r="H45" s="42" t="s">
+        <v>345</v>
+      </c>
       <c r="I45" s="27"/>
     </row>
-    <row r="46" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A46" s="28">
-        <v>6</v>
-      </c>
-      <c r="B46" s="30" t="s">
+    <row r="46" spans="1:9">
+      <c r="A46" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C46" s="59" t="s">
+        <v>344</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" s="60"/>
+      <c r="F46" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" s="60"/>
+      <c r="H46" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="I46" s="61"/>
+    </row>
+    <row r="47" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A47" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="B47" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C47" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D47" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="30" t="s">
+      <c r="E47" s="29"/>
+      <c r="F47" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G47" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="H46" s="30"/>
-      <c r="I46" s="31"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="31"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="33"/>
@@ -13669,97 +13766,87 @@
       <c r="H48" s="33"/>
       <c r="I48" s="33"/>
     </row>
-    <row r="49" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A49" s="22" t="s">
+    <row r="49" spans="1:9">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+    </row>
+    <row r="50" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A50" s="22" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A50" s="34" t="s">
+    <row r="51" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A51" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B51" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C51" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D51" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E51" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="F51" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G50" s="35" t="s">
+      <c r="G51" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="35" t="s">
+      <c r="H51" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I50" s="36" t="s">
+      <c r="I51" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="37"/>
-      <c r="B51" s="41" t="s">
+    <row r="52" spans="1:9">
+      <c r="A52" s="37"/>
+      <c r="B52" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C52" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D52" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E52" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="F51" s="41" t="s">
+      <c r="F52" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G51" s="39"/>
-      <c r="H51" s="38" t="s">
+      <c r="G52" s="39"/>
+      <c r="H52" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="I51" s="40"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="24"/>
-      <c r="B52" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="27"/>
+      <c r="I52" s="40"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="24"/>
       <c r="B53" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>168</v>
@@ -13771,16 +13858,16 @@
     <row r="54" spans="1:9">
       <c r="A54" s="24"/>
       <c r="B54" s="1" t="s">
-        <v>190</v>
+        <v>293</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>168</v>
@@ -13792,15 +13879,17 @@
     <row r="55" spans="1:9">
       <c r="A55" s="24"/>
       <c r="B55" s="1" t="s">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E55" s="25"/>
+        <v>167</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>206</v>
+      </c>
       <c r="F55" s="1" t="s">
         <v>168</v>
       </c>
@@ -13811,148 +13900,146 @@
     <row r="56" spans="1:9">
       <c r="A56" s="24"/>
       <c r="B56" s="1" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="1" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="26"/>
       <c r="I56" s="27"/>
     </row>
-    <row r="57" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A57" s="28"/>
-      <c r="B57" s="2" t="s">
+    <row r="57" spans="1:9">
+      <c r="A57" s="24"/>
+      <c r="B57" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" s="25"/>
+      <c r="F57" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G57" s="25"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="27"/>
+    </row>
+    <row r="58" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A58" s="28"/>
+      <c r="B58" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="2" t="s">
+      <c r="E58" s="29"/>
+      <c r="F58" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G57" s="29" t="s">
+      <c r="G58" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="H57" s="30"/>
-      <c r="I57" s="31"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-    </row>
-    <row r="60" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A60" s="22" t="s">
+      <c r="H58" s="30"/>
+      <c r="I58" s="31"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+    </row>
+    <row r="61" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A61" s="22" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A61" s="34" t="s">
+    <row r="62" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A62" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B62" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C62" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D62" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="35" t="s">
+      <c r="E62" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="F61" s="35" t="s">
+      <c r="F62" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="35" t="s">
+      <c r="G62" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="35" t="s">
+      <c r="H62" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I61" s="36" t="s">
+      <c r="I62" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="37">
+    <row r="63" spans="1:9">
+      <c r="A63" s="37">
         <v>1</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B63" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C63" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D63" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="E62" s="39" t="s">
+      <c r="E63" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F62" s="38" t="s">
+      <c r="F63" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="G62" s="39"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="40"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="24">
-        <v>2</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="E63" s="25"/>
-      <c r="F63" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="G63" s="25"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="27"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="40"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D64" s="26" t="s">
         <v>209</v>
       </c>
       <c r="E64" s="25"/>
       <c r="F64" s="26" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G64" s="25"/>
       <c r="H64" s="26"/>
@@ -13960,20 +14047,20 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>304</v>
+        <v>210</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D65" s="26" t="s">
         <v>209</v>
       </c>
       <c r="E65" s="25"/>
       <c r="F65" s="26" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G65" s="25"/>
       <c r="H65" s="26"/>
@@ -13981,16 +14068,16 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="26" t="s">
@@ -14002,36 +14089,34 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E67" s="25"/>
       <c r="F67" s="26" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G67" s="25"/>
-      <c r="H67" s="26" t="s">
-        <v>216</v>
-      </c>
+      <c r="H67" s="26"/>
       <c r="I67" s="27"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D68" s="26" t="s">
         <v>185</v>
@@ -14048,192 +14133,194 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>332</v>
+        <v>185</v>
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="G69" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="H69" s="42" t="s">
-        <v>333</v>
+        <v>188</v>
+      </c>
+      <c r="G69" s="25"/>
+      <c r="H69" s="26" t="s">
+        <v>216</v>
       </c>
       <c r="I69" s="27"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>209</v>
+        <v>331</v>
       </c>
       <c r="E70" s="25"/>
       <c r="F70" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="G70" s="25"/>
-      <c r="H70" s="26"/>
+        <v>168</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="H70" s="42" t="s">
+        <v>332</v>
+      </c>
       <c r="I70" s="27"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>184</v>
+        <v>307</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="E71" s="25"/>
       <c r="F71" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="G71" s="25" t="s">
-        <v>192</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G71" s="25"/>
       <c r="H71" s="26"/>
       <c r="I71" s="27"/>
     </row>
-    <row r="72" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A72" s="28">
+    <row r="72" spans="1:9">
+      <c r="A72" s="24">
+        <v>10</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E72" s="25"/>
+      <c r="F72" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="H72" s="26"/>
+      <c r="I72" s="27"/>
+    </row>
+    <row r="73" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A73" s="28">
         <v>11</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B73" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="C73" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D73" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E73" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="30" t="s">
+      <c r="F73" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="G72" s="29"/>
-      <c r="H72" s="30" t="s">
+      <c r="G73" s="29"/>
+      <c r="H73" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="I72" s="31"/>
-    </row>
-    <row r="75" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A75" s="22" t="s">
+      <c r="I73" s="31"/>
+    </row>
+    <row r="76" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A76" s="22" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A76" s="34" t="s">
+    <row r="77" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A77" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="35" t="s">
+      <c r="B77" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C77" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D77" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="35" t="s">
+      <c r="E77" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="F76" s="35" t="s">
+      <c r="F77" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G76" s="35" t="s">
+      <c r="G77" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H76" s="35" t="s">
+      <c r="H77" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I76" s="36" t="s">
+      <c r="I77" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="37">
+    <row r="78" spans="1:9">
+      <c r="A78" s="37">
         <v>1</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B78" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C78" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D78" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="E77" s="39" t="s">
+      <c r="E78" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F77" s="38" t="s">
+      <c r="F78" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="G77" s="39"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="40"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="24">
-        <v>2</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="F78" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="G78" s="25"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="27"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="40"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="E79" s="25"/>
+        <v>167</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>205</v>
+      </c>
       <c r="F79" s="26" t="s">
         <v>168</v>
       </c>
@@ -14241,119 +14328,119 @@
       <c r="H79" s="26"/>
       <c r="I79" s="27"/>
     </row>
-    <row r="80" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A80" s="28">
+    <row r="80" spans="1:9">
+      <c r="A80" s="24">
+        <v>3</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E80" s="25"/>
+      <c r="F80" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G80" s="25"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="27"/>
+    </row>
+    <row r="81" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A81" s="28">
         <v>4</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B81" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="C81" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D81" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E80" s="29"/>
-      <c r="F80" s="30" t="s">
+      <c r="E81" s="29"/>
+      <c r="F81" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="G80" s="29" t="s">
+      <c r="G81" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="H80" s="30"/>
-      <c r="I80" s="31"/>
-    </row>
-    <row r="83" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A83" s="22" t="s">
+      <c r="H81" s="30"/>
+      <c r="I81" s="31"/>
+    </row>
+    <row r="84" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A84" s="22" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A84" s="34" t="s">
+    <row r="85" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A85" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="35" t="s">
+      <c r="B85" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="C85" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D84" s="35" t="s">
+      <c r="D85" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E84" s="35" t="s">
+      <c r="E85" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="F84" s="35" t="s">
+      <c r="F85" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G84" s="35" t="s">
+      <c r="G85" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="35" t="s">
+      <c r="H85" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I84" s="36" t="s">
+      <c r="I85" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="37">
+    <row r="86" spans="1:9">
+      <c r="A86" s="37">
         <v>1</v>
       </c>
-      <c r="B85" s="38" t="s">
+      <c r="B86" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C86" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="38" t="s">
+      <c r="D86" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="E85" s="39" t="s">
+      <c r="E86" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F85" s="38" t="s">
+      <c r="F86" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="G85" s="39"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="40"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="24">
-        <v>2</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="E86" s="25"/>
-      <c r="F86" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="G86" s="25"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="27"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="40"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E87" s="25"/>
       <c r="F87" s="26" t="s">
@@ -14363,144 +14450,144 @@
       <c r="H87" s="26"/>
       <c r="I87" s="27"/>
     </row>
-    <row r="88" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A88" s="28">
+    <row r="88" spans="1:9">
+      <c r="A88" s="24">
+        <v>3</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E88" s="25"/>
+      <c r="F88" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G88" s="25"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="27"/>
+    </row>
+    <row r="89" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A89" s="28">
         <v>4</v>
       </c>
-      <c r="B88" s="30" t="s">
+      <c r="B89" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="C89" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D88" s="30" t="s">
+      <c r="D89" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E88" s="29"/>
-      <c r="F88" s="30" t="s">
+      <c r="E89" s="29"/>
+      <c r="F89" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="G88" s="29" t="s">
+      <c r="G89" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="H88" s="30"/>
-      <c r="I88" s="31"/>
-    </row>
-    <row r="91" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A91" s="22" t="s">
+      <c r="H89" s="30"/>
+      <c r="I89" s="31"/>
+    </row>
+    <row r="92" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A92" s="22" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A92" s="34" t="s">
+    <row r="93" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A93" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="B93" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="35" t="s">
+      <c r="C93" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D92" s="35" t="s">
+      <c r="D93" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="35" t="s">
+      <c r="E93" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="F92" s="35" t="s">
+      <c r="F93" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G92" s="35" t="s">
+      <c r="G93" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="35" t="s">
+      <c r="H93" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I92" s="36" t="s">
+      <c r="I93" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="37" t="s">
+    <row r="94" spans="1:9">
+      <c r="A94" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="B93" s="38" t="s">
+      <c r="B94" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="C93" s="38" t="s">
+      <c r="C94" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="D93" s="38" t="s">
+      <c r="D94" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="E93" s="39" t="s">
+      <c r="E94" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="F93" s="38" t="s">
+      <c r="F94" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="G93" s="39"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="40"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D94" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="F94" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="G94" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="H94" s="26"/>
-      <c r="I94" s="27"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="40"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>296</v>
+        <v>130</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="E95" s="25"/>
+        <v>180</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>226</v>
+      </c>
       <c r="F95" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G95" s="25"/>
+      <c r="G95" s="25" t="s">
+        <v>298</v>
+      </c>
       <c r="H95" s="26"/>
       <c r="I95" s="27"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>140</v>
+        <v>296</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E96" s="25"/>
       <c r="F96" s="26" t="s">
@@ -14512,36 +14599,34 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E97" s="25"/>
       <c r="F97" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G97" s="25" t="s">
-        <v>192</v>
-      </c>
+      <c r="G97" s="25"/>
       <c r="H97" s="26"/>
       <c r="I97" s="27"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D98" s="26" t="s">
         <v>185</v>
@@ -14558,165 +14643,163 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D99" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E99" s="25"/>
       <c r="F99" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="G99" s="25"/>
+        <v>168</v>
+      </c>
+      <c r="G99" s="25" t="s">
+        <v>192</v>
+      </c>
       <c r="H99" s="26"/>
       <c r="I99" s="27"/>
     </row>
-    <row r="100" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A100" s="28" t="s">
+    <row r="100" spans="1:9">
+      <c r="A100" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E100" s="25"/>
+      <c r="F100" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G100" s="25"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="27"/>
+    </row>
+    <row r="101" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A101" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B101" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="C100" s="30" t="s">
+      <c r="C101" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D100" s="30" t="s">
+      <c r="D101" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="E101" s="29"/>
+      <c r="F101" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G101" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="H101" s="57" t="s">
         <v>332</v>
       </c>
-      <c r="E100" s="29"/>
-      <c r="F100" s="30" t="s">
+      <c r="I101" s="31"/>
+    </row>
+    <row r="104" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A104" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A105" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D105" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="F105" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G105" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I105" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B106" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D106" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E106" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F106" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G100" s="29" t="s">
-        <v>338</v>
-      </c>
-      <c r="H100" s="57" t="s">
-        <v>333</v>
-      </c>
-      <c r="I100" s="31"/>
-    </row>
-    <row r="103" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A103" s="22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A104" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D104" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E104" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="F104" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G104" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I104" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B105" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="C105" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D105" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E105" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F105" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="G105" s="39"/>
-      <c r="H105" s="38"/>
-      <c r="I105" s="40"/>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E106" s="25"/>
-      <c r="F106" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G106" s="25"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="27"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="40"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>332</v>
+        <v>209</v>
       </c>
       <c r="E107" s="25"/>
       <c r="F107" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G107" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="H107" s="42" t="s">
-        <v>333</v>
-      </c>
+      <c r="G107" s="25"/>
+      <c r="H107" s="26"/>
       <c r="I107" s="27"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E108" s="25"/>
       <c r="F108" s="1" t="s">
@@ -14726,134 +14809,138 @@
         <v>340</v>
       </c>
       <c r="H108" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I108" s="27"/>
     </row>
-    <row r="109" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A109" s="28" t="s">
+    <row r="109" spans="1:9">
+      <c r="A109" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E109" s="25"/>
+      <c r="F109" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G109" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="H109" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="I109" s="27"/>
+    </row>
+    <row r="110" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A110" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E109" s="29"/>
-      <c r="F109" s="2" t="s">
+      <c r="E110" s="29"/>
+      <c r="F110" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G109" s="29" t="s">
+      <c r="G110" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="H109" s="30"/>
-      <c r="I109" s="31"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="33"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="32"/>
-      <c r="H110" s="33"/>
-      <c r="I110" s="33"/>
-    </row>
-    <row r="112" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A112" s="22" t="s">
+      <c r="H110" s="30"/>
+      <c r="I110" s="31"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="33"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="33"/>
+    </row>
+    <row r="113" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A113" s="22" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A113" s="34" t="s">
+    <row r="114" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A114" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="35" t="s">
+      <c r="B114" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="C114" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D113" s="35" t="s">
+      <c r="D114" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E113" s="35" t="s">
+      <c r="E114" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="F113" s="35" t="s">
+      <c r="F114" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G113" s="35" t="s">
+      <c r="G114" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H113" s="35" t="s">
+      <c r="H114" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I113" s="36" t="s">
+      <c r="I114" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="37" t="s">
+    <row r="115" spans="1:9">
+      <c r="A115" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B114" s="41" t="s">
+      <c r="B115" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="C114" s="41" t="s">
+      <c r="C115" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D114" s="41" t="s">
+      <c r="D115" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E114" s="39" t="s">
+      <c r="E115" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F114" s="41" t="s">
+      <c r="F115" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G114" s="39"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="40"/>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E115" s="25"/>
-      <c r="F115" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G115" s="25"/>
-      <c r="H115" s="26"/>
-      <c r="I115" s="27"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="40"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E116" s="25"/>
       <c r="F116" s="1" t="s">
@@ -14865,16 +14952,16 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E117" s="25"/>
       <c r="F117" s="1" t="s">
@@ -14886,13 +14973,13 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>177</v>
@@ -14905,123 +14992,123 @@
       <c r="H118" s="26"/>
       <c r="I118" s="27"/>
     </row>
-    <row r="119" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A119" s="28" t="s">
+    <row r="119" spans="1:9">
+      <c r="A119" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E119" s="25"/>
+      <c r="F119" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G119" s="25"/>
+      <c r="H119" s="26"/>
+      <c r="I119" s="27"/>
+    </row>
+    <row r="120" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A120" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E119" s="29"/>
-      <c r="F119" s="2" t="s">
+      <c r="E120" s="29"/>
+      <c r="F120" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G119" s="29" t="s">
+      <c r="G120" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="H119" s="30"/>
-      <c r="I119" s="31"/>
-    </row>
-    <row r="122" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A122" s="22" t="s">
+      <c r="H120" s="30"/>
+      <c r="I120" s="31"/>
+    </row>
+    <row r="123" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A123" s="22" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A123" s="34" t="s">
+    <row r="124" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A124" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="35" t="s">
+      <c r="B124" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C123" s="35" t="s">
+      <c r="C124" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D123" s="35" t="s">
+      <c r="D124" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E123" s="35" t="s">
+      <c r="E124" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="F123" s="35" t="s">
+      <c r="F124" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G123" s="35" t="s">
+      <c r="G124" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H123" s="35" t="s">
+      <c r="H124" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I123" s="36" t="s">
+      <c r="I124" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="37" t="s">
+    <row r="125" spans="1:9">
+      <c r="A125" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B124" s="41" t="s">
+      <c r="B125" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="C124" s="41" t="s">
+      <c r="C125" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="D124" s="41" t="s">
+      <c r="D125" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="E124" s="39" t="s">
+      <c r="E125" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="F124" s="41" t="s">
+      <c r="F125" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G124" s="39"/>
-      <c r="H124" s="38"/>
-      <c r="I124" s="40"/>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E125" s="25"/>
-      <c r="F125" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G125" s="25"/>
-      <c r="H125" s="26"/>
-      <c r="I125" s="27"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="38"/>
+      <c r="I125" s="40"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="E126" s="25"/>
       <c r="F126" s="1" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G126" s="25"/>
       <c r="H126" s="26"/>
@@ -15029,36 +15116,34 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>123</v>
+        <v>256</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="E127" s="25"/>
       <c r="F127" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G127" s="25" t="s">
-        <v>192</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G127" s="25"/>
       <c r="H127" s="26"/>
       <c r="I127" s="27"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>257</v>
+        <v>123</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>185</v>
@@ -15075,168 +15160,168 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E129" s="25"/>
       <c r="F129" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G129" s="25"/>
+        <v>168</v>
+      </c>
+      <c r="G129" s="25" t="s">
+        <v>192</v>
+      </c>
       <c r="H129" s="26"/>
       <c r="I129" s="27"/>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="B130" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="C130" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D130" s="26" t="s">
-        <v>202</v>
+        <v>280</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E130" s="25"/>
-      <c r="F130" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="G130" s="25">
-        <v>0</v>
-      </c>
+      <c r="F130" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G130" s="25"/>
       <c r="H130" s="26"/>
       <c r="I130" s="27"/>
     </row>
-    <row r="131" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A131" s="28" t="s">
+    <row r="131" spans="1:9">
+      <c r="A131" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E131" s="25"/>
+      <c r="F131" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G131" s="25">
+        <v>0</v>
+      </c>
+      <c r="H131" s="26"/>
+      <c r="I131" s="27"/>
+    </row>
+    <row r="132" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A132" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E131" s="29"/>
-      <c r="F131" s="2" t="s">
+      <c r="D132" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E132" s="29"/>
+      <c r="F132" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G131" s="4" t="b">
+      <c r="G132" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H131" s="57" t="s">
-        <v>333</v>
-      </c>
-      <c r="I131" s="31"/>
-    </row>
-    <row r="134" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A134" s="22" t="s">
+      <c r="H132" s="57" t="s">
+        <v>332</v>
+      </c>
+      <c r="I132" s="31"/>
+    </row>
+    <row r="135" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A135" s="22" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A135" s="34" t="s">
+    <row r="136" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A136" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="35" t="s">
+      <c r="B136" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C135" s="35" t="s">
+      <c r="C136" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D135" s="35" t="s">
+      <c r="D136" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="35" t="s">
+      <c r="E136" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="F135" s="35" t="s">
+      <c r="F136" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G135" s="35" t="s">
+      <c r="G136" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H135" s="35" t="s">
+      <c r="H136" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I135" s="36" t="s">
+      <c r="I136" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="37" t="s">
+    <row r="137" spans="1:9">
+      <c r="A137" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B136" s="41" t="s">
+      <c r="B137" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="C136" s="41" t="s">
+      <c r="C137" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="D136" s="41" t="s">
+      <c r="D137" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="E136" s="39" t="s">
+      <c r="E137" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="F136" s="41" t="s">
+      <c r="F137" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G136" s="39"/>
-      <c r="H136" s="38"/>
-      <c r="I136" s="40"/>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E137" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G137" s="25"/>
-      <c r="H137" s="26"/>
-      <c r="I137" s="27"/>
+      <c r="G137" s="39"/>
+      <c r="H137" s="38"/>
+      <c r="I137" s="40"/>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>202</v>
       </c>
       <c r="E138" s="25" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>168</v>
@@ -15247,20 +15332,22 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>138</v>
+        <v>273</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E139" s="25"/>
+        <v>202</v>
+      </c>
+      <c r="E139" s="25" t="s">
+        <v>221</v>
+      </c>
       <c r="F139" s="1" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G139" s="25"/>
       <c r="H139" s="26"/>
@@ -15268,16 +15355,16 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E140" s="25"/>
       <c r="F140" s="1" t="s">
@@ -15287,126 +15374,126 @@
       <c r="H140" s="26"/>
       <c r="I140" s="27"/>
     </row>
-    <row r="141" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A141" s="28" t="s">
+    <row r="141" spans="1:9">
+      <c r="A141" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E141" s="25"/>
+      <c r="F141" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G141" s="25"/>
+      <c r="H141" s="26"/>
+      <c r="I141" s="27"/>
+    </row>
+    <row r="142" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A142" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D142" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E141" s="29"/>
-      <c r="F141" s="2" t="s">
+      <c r="E142" s="29"/>
+      <c r="F142" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G141" s="29" t="s">
+      <c r="G142" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="H141" s="30"/>
-      <c r="I141" s="31"/>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="F142"/>
-    </row>
-    <row r="144" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A144" s="22" t="s">
+      <c r="H142" s="30"/>
+      <c r="I142" s="31"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="F143"/>
+    </row>
+    <row r="145" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A145" s="22" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A145" s="34" t="s">
+    <row r="146" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A146" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="35" t="s">
+      <c r="B146" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C145" s="35" t="s">
+      <c r="C146" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D145" s="35" t="s">
+      <c r="D146" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E145" s="35" t="s">
+      <c r="E146" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="F145" s="35" t="s">
+      <c r="F146" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G145" s="35" t="s">
+      <c r="G146" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H145" s="35" t="s">
+      <c r="H146" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I145" s="36" t="s">
+      <c r="I146" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="37" t="s">
+    <row r="147" spans="1:9">
+      <c r="A147" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B146" s="41" t="s">
+      <c r="B147" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="C146" s="41" t="s">
+      <c r="C147" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="D146" s="41" t="s">
+      <c r="D147" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="E146" s="39" t="s">
+      <c r="E147" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="F146" s="41" t="s">
+      <c r="F147" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G146" s="39"/>
-      <c r="H146" s="38"/>
-      <c r="I146" s="40"/>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E147" s="25"/>
-      <c r="F147" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G147" s="25"/>
-      <c r="H147" s="26"/>
-      <c r="I147" s="27"/>
+      <c r="G147" s="39"/>
+      <c r="H147" s="38"/>
+      <c r="I147" s="40"/>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="E148" s="25"/>
       <c r="F148" s="1" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G148" s="25"/>
       <c r="H148" s="26"/>
@@ -15414,144 +15501,144 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>123</v>
+        <v>256</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="E149" s="25"/>
       <c r="F149" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G149" s="25" t="s">
-        <v>192</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G149" s="25"/>
       <c r="H149" s="26"/>
       <c r="I149" s="27"/>
     </row>
-    <row r="150" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A150" s="28" t="s">
+    <row r="150" spans="1:9">
+      <c r="A150" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E150" s="25"/>
+      <c r="F150" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G150" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="H150" s="26"/>
+      <c r="I150" s="27"/>
+    </row>
+    <row r="151" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A151" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B151" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E150" s="29"/>
-      <c r="F150" s="2" t="s">
+      <c r="E151" s="29"/>
+      <c r="F151" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G150" s="29" t="s">
+      <c r="G151" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="H150" s="30"/>
-      <c r="I150" s="31"/>
-    </row>
-    <row r="153" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A153" s="22" t="s">
+      <c r="H151" s="30"/>
+      <c r="I151" s="31"/>
+    </row>
+    <row r="154" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A154" s="22" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A154" s="34" t="s">
+    <row r="155" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A155" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="35" t="s">
+      <c r="B155" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C154" s="35" t="s">
+      <c r="C155" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D154" s="35" t="s">
+      <c r="D155" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E154" s="35" t="s">
+      <c r="E155" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="F154" s="35" t="s">
+      <c r="F155" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G154" s="35" t="s">
+      <c r="G155" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H154" s="35" t="s">
+      <c r="H155" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I154" s="36" t="s">
+      <c r="I155" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="37" t="s">
+    <row r="156" spans="1:9">
+      <c r="A156" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B155" s="41" t="s">
+      <c r="B156" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="C155" s="41" t="s">
+      <c r="C156" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="D155" s="41" t="s">
+      <c r="D156" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="E155" s="39" t="s">
+      <c r="E156" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="F155" s="41" t="s">
+      <c r="F156" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G155" s="39"/>
-      <c r="H155" s="38"/>
-      <c r="I155" s="40"/>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E156" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G156" s="25"/>
-      <c r="H156" s="26"/>
-      <c r="I156" s="27"/>
+      <c r="G156" s="39"/>
+      <c r="H156" s="38"/>
+      <c r="I156" s="40"/>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>255</v>
+        <v>127</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E157" s="25"/>
+        <v>167</v>
+      </c>
+      <c r="E157" s="25" t="s">
+        <v>206</v>
+      </c>
       <c r="F157" s="1" t="s">
         <v>168</v>
       </c>
@@ -15561,143 +15648,141 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="E158" s="25"/>
       <c r="F158" s="1" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G158" s="25"/>
       <c r="H158" s="26"/>
       <c r="I158" s="27"/>
     </row>
-    <row r="159" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A159" s="28" t="s">
+    <row r="159" spans="1:9">
+      <c r="A159" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E159" s="25"/>
+      <c r="F159" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G159" s="25"/>
+      <c r="H159" s="26"/>
+      <c r="I159" s="27"/>
+    </row>
+    <row r="160" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A160" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B160" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C160" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D160" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E159" s="29"/>
-      <c r="F159" s="2" t="s">
+      <c r="E160" s="29"/>
+      <c r="F160" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G159" s="29" t="s">
+      <c r="G160" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="H159" s="30"/>
-      <c r="I159" s="31"/>
-    </row>
-    <row r="162" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A162" s="22" t="s">
+      <c r="H160" s="30"/>
+      <c r="I160" s="31"/>
+    </row>
+    <row r="163" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A163" s="22" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A163" s="34" t="s">
+    <row r="164" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A164" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B163" s="35" t="s">
+      <c r="B164" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C163" s="35" t="s">
+      <c r="C164" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D163" s="35" t="s">
+      <c r="D164" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E163" s="35" t="s">
+      <c r="E164" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="F163" s="35" t="s">
+      <c r="F164" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G163" s="35" t="s">
+      <c r="G164" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H163" s="35" t="s">
+      <c r="H164" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I163" s="36" t="s">
+      <c r="I164" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="37" t="s">
+    <row r="165" spans="1:9">
+      <c r="A165" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="B164" s="41" t="s">
+      <c r="B165" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="C164" s="41" t="s">
+      <c r="C165" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="D164" s="41" t="s">
+      <c r="D165" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="E164" s="39" t="s">
+      <c r="E165" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="F164" s="41" t="s">
+      <c r="F165" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G164" s="39"/>
-      <c r="H164" s="38"/>
-      <c r="I164" s="40"/>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E165" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G165" s="25"/>
-      <c r="H165" s="26"/>
-      <c r="I165" s="27"/>
+      <c r="G165" s="39"/>
+      <c r="H165" s="38"/>
+      <c r="I165" s="40"/>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>274</v>
+        <v>137</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>202</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>168</v>
@@ -15708,18 +15793,20 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E167" s="25"/>
+        <v>202</v>
+      </c>
+      <c r="E167" s="25" t="s">
+        <v>221</v>
+      </c>
       <c r="F167" s="1" t="s">
         <v>168</v>
       </c>
@@ -15729,16 +15816,16 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E168" s="25"/>
       <c r="F168" s="1" t="s">
@@ -15748,125 +15835,125 @@
       <c r="H168" s="26"/>
       <c r="I168" s="27"/>
     </row>
-    <row r="169" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A169" s="28" t="s">
+    <row r="169" spans="1:9">
+      <c r="A169" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E169" s="25"/>
+      <c r="F169" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G169" s="25"/>
+      <c r="H169" s="26"/>
+      <c r="I169" s="27"/>
+    </row>
+    <row r="170" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A170" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D170" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E169" s="29"/>
-      <c r="F169" s="2" t="s">
+      <c r="E170" s="29"/>
+      <c r="F170" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G169" s="29" t="s">
+      <c r="G170" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="H169" s="30"/>
-      <c r="I169" s="31"/>
-    </row>
-    <row r="172" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A172" s="22" t="s">
+      <c r="H170" s="30"/>
+      <c r="I170" s="31"/>
+    </row>
+    <row r="173" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A173" s="22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A174" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D174" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="F174" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G174" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I174" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="B175" s="41" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A173" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B173" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C173" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D173" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E173" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="F173" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G173" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H173" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I173" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
-      <c r="A174" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="B174" s="41" t="s">
-        <v>322</v>
-      </c>
-      <c r="C174" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="D174" s="41" t="s">
+      <c r="C175" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="D175" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="E174" s="39" t="s">
-        <v>316</v>
-      </c>
-      <c r="F174" s="41" t="s">
+      <c r="E175" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="F175" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G174" s="39"/>
-      <c r="H174" s="38"/>
-      <c r="I174" s="40"/>
-    </row>
-    <row r="175" spans="1:9">
-      <c r="A175" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E175" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G175" s="25"/>
-      <c r="H175" s="26"/>
-      <c r="I175" s="27"/>
+      <c r="G175" s="39"/>
+      <c r="H175" s="38"/>
+      <c r="I175" s="40"/>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E176" s="25"/>
+        <v>202</v>
+      </c>
+      <c r="E176" s="25" t="s">
+        <v>322</v>
+      </c>
       <c r="F176" s="1" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G176" s="25"/>
       <c r="H176" s="26"/>
@@ -15874,127 +15961,148 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E177" s="25" t="s">
-        <v>312</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="E177" s="25"/>
       <c r="F177" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G177" s="25"/>
       <c r="H177" s="26"/>
       <c r="I177" s="27"/>
     </row>
-    <row r="178" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A178" s="28" t="s">
+    <row r="178" spans="1:9">
+      <c r="A178" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E178" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G178" s="25"/>
+      <c r="H178" s="26"/>
+      <c r="I178" s="27"/>
+    </row>
+    <row r="179" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A179" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E178" s="29"/>
-      <c r="F178" s="2" t="s">
+      <c r="C179" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E179" s="29"/>
+      <c r="F179" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G178" s="29" t="s">
+      <c r="G179" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="H178" s="30"/>
-      <c r="I178" s="31"/>
-    </row>
-    <row r="181" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A181" s="43" t="s">
-        <v>337</v>
-      </c>
+      <c r="H179" s="30"/>
+      <c r="I179" s="31"/>
     </row>
     <row r="182" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A182" s="44" t="s">
+      <c r="A182" s="43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A183" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B182" s="45" t="s">
+      <c r="B183" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C182" s="45" t="s">
+      <c r="C183" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="D182" s="45" t="s">
+      <c r="D183" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E182" s="45" t="s">
+      <c r="E183" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="F182" s="45" t="s">
+      <c r="F183" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G182" s="45" t="s">
+      <c r="G183" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H182" s="45" t="s">
+      <c r="H183" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="I182" s="46" t="s">
+      <c r="I183" s="46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
-      <c r="A183" s="47" t="s">
+    <row r="184" spans="1:9">
+      <c r="A184" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="B183" s="48" t="s">
-        <v>310</v>
-      </c>
-      <c r="C183" s="48" t="s">
+      <c r="B184" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="C184" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="D183" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="E183" s="49" t="s">
+      <c r="D184" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="E184" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="F183" s="48" t="s">
+      <c r="F184" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="G183" s="49"/>
-      <c r="H183" s="50"/>
-      <c r="I183" s="51"/>
-    </row>
-    <row r="184" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A184" s="52" t="s">
+      <c r="G184" s="49"/>
+      <c r="H184" s="50"/>
+      <c r="I184" s="51"/>
+    </row>
+    <row r="185" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A185" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="B184" s="53" t="s">
+      <c r="B185" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="C184" s="53" t="s">
+      <c r="C185" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="D184" s="53" t="s">
+      <c r="D185" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="E184" s="54"/>
-      <c r="F184" s="53" t="s">
+      <c r="E185" s="54"/>
+      <c r="F185" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="G184" s="54"/>
-      <c r="H184" s="55"/>
-      <c r="I184" s="56"/>
+      <c r="G185" s="54"/>
+      <c r="H185" s="55"/>
+      <c r="I185" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16255,8 +16363,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId4" name="TextBox1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="10243" r:id="rId4" name="ComboBox1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10243" r:id="rId4" name="ComboBox1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10241" r:id="rId6" name="TextBox1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -16275,32 +16408,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10241" r:id="rId4" name="TextBox1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10243" r:id="rId6" name="ComboBox1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10243" r:id="rId6" name="ComboBox1"/>
+        <control shapeId="10241" r:id="rId6" name="TextBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">

--- a/ecobay/src/main/webapp/resources/db/분석설계.xlsx
+++ b/ecobay/src/main/webapp/resources/db/분석설계.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="9585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="9585"/>
   </bookViews>
   <sheets>
     <sheet name="분석" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="351">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,10 +664,6 @@
   </si>
   <si>
     <t>- 관리자가 내역에 들어와서 승인 또는 반려만 처리하도록 하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 경매정보 : 상품코드, 시작가, 최종입찰가, 입찰단위, 경매기간, 경매시작일시, 경매종료일시, 즉시구매여부, 즉시구매가, 등록일시, 낙찰자정보(회원ID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -891,9 +887,6 @@
   </si>
   <si>
     <t>경매시작일</t>
-  </si>
-  <si>
-    <t>관리자 승인시 생성</t>
   </si>
   <si>
     <t>ACUTDATE_END</t>
@@ -1473,6 +1466,39 @@
   </si>
   <si>
     <t>서버에 올라가는 썸네일파일명(경로가 붙어있는) - 2018-09-18 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 경매정보 : 상품코드, 시작가, 최종입찰가, 입찰단위, 경매기간, 경매시작일시, 경매종료일시, 즉시구매여부, 즉시구매가, 등록일시, 낙찰자정보(회원ID)
+ -&gt; 경매시작일시 / 경매종료일시 처리(2018-09-20 처리방법에 대해 추가변경)
+    --&gt; 요청시점에서 경매시작일시와 경매기간에 대한 정보를 요청자에게 입력받고 요청에 따른 경매종료일시를 계산하여 저장.
+    --&gt; 관리자가 요청상품정보를 승인할 시점에서 경매시작일시가 승인일시보다 앞인 경우 경매시작일시를 승인일시로 변경하고 경매기간을 기준으로 경매종료일시를 재계산하여 update처리함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">관리자 승인시 생성 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; 1차 상품등록시점 &gt; 2차 승인시점(시작일시가 승일일시보다 앞인 경우만)에서 계산하여 처리하기로 함.(2018-09-20)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호화로 인해 길이 VARCHAR(50) -&gt; VARCHAR(500)으로 변경(2018-09-20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11974,7 +12000,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="C15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -12025,10 +12051,10 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="H2" s="11"/>
     </row>
@@ -12171,10 +12197,10 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H11" s="14"/>
     </row>
@@ -12285,7 +12311,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="14"/>
@@ -12319,13 +12345,13 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="258.75" customHeight="1">
@@ -12337,10 +12363,10 @@
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>155</v>
+        <v>347</v>
       </c>
       <c r="H21" s="16"/>
     </row>
@@ -12524,7 +12550,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H32" s="14"/>
     </row>
@@ -12539,7 +12565,7 @@
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="14"/>
@@ -12555,7 +12581,7 @@
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="14"/>
@@ -12569,7 +12595,7 @@
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="14"/>
@@ -12619,7 +12645,7 @@
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="14"/>
@@ -12628,14 +12654,14 @@
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="14"/>
@@ -12644,14 +12670,14 @@
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>151</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="14"/>
@@ -12661,14 +12687,14 @@
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>163</v>
       </c>
       <c r="H41" s="14"/>
     </row>
@@ -12683,7 +12709,7 @@
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>34</v>
@@ -12825,8 +12851,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12849,7 +12875,7 @@
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1">
       <c r="A3" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1">
@@ -12866,7 +12892,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>3</v>
@@ -12886,23 +12912,23 @@
         <v>1</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>191</v>
-      </c>
       <c r="D5" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I5" s="40"/>
     </row>
@@ -12911,17 +12937,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>114</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="26"/>
@@ -12932,20 +12958,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>115</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>171</v>
+        <v>350</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="H7" s="42" t="s">
+        <v>349</v>
+      </c>
       <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9">
@@ -12953,17 +12981,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="26"/>
@@ -12974,17 +13002,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>117</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="26"/>
@@ -12995,17 +13023,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>118</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="26"/>
@@ -13016,17 +13044,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>119</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
@@ -13037,20 +13065,20 @@
         <v>8</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="27"/>
@@ -13060,17 +13088,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>121</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="26"/>
@@ -13081,23 +13109,23 @@
         <v>10</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>122</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I14" s="27"/>
     </row>
@@ -13106,23 +13134,23 @@
         <v>11</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>125</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I15" s="27"/>
     </row>
@@ -13131,23 +13159,23 @@
         <v>12</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I16" s="27"/>
     </row>
@@ -13156,20 +13184,20 @@
         <v>13</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>123</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="27"/>
@@ -13179,20 +13207,20 @@
         <v>14</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>124</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="27"/>
@@ -13202,17 +13230,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>134</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30"/>
@@ -13231,7 +13259,7 @@
     </row>
     <row r="22" spans="1:9" ht="17.25" thickBot="1">
       <c r="A22" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17.25" thickBot="1">
@@ -13248,7 +13276,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>3</v>
@@ -13268,19 +13296,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G24" s="39"/>
       <c r="H24" s="38"/>
@@ -13291,17 +13319,17 @@
         <v>2</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>128</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="26"/>
@@ -13312,19 +13340,19 @@
         <v>3</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>127</v>
       </c>
       <c r="D26" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="26" t="s">
         <v>167</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>168</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="26"/>
@@ -13335,19 +13363,19 @@
         <v>4</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>129</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
@@ -13358,19 +13386,19 @@
         <v>5</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>130</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="26"/>
@@ -13381,17 +13409,17 @@
         <v>6</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>131</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
@@ -13402,17 +13430,17 @@
         <v>7</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>132</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
@@ -13423,17 +13451,17 @@
         <v>8</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>133</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
@@ -13444,20 +13472,20 @@
         <v>9</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>123</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="27"/>
@@ -13467,20 +13495,20 @@
         <v>10</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>124</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="27"/>
@@ -13490,17 +13518,17 @@
         <v>11</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>134</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="26"/>
@@ -13511,23 +13539,23 @@
         <v>12</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>125</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E35" s="25"/>
       <c r="F35" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I35" s="27"/>
     </row>
@@ -13536,17 +13564,17 @@
         <v>13</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>135</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G36" s="29">
         <v>0</v>
@@ -13562,7 +13590,7 @@
     </row>
     <row r="39" spans="1:9" ht="17.25" thickBot="1">
       <c r="A39" s="22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="17.25" thickBot="1">
@@ -13579,7 +13607,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F40" s="35" t="s">
         <v>3</v>
@@ -13599,19 +13627,19 @@
         <v>1</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C41" s="38" t="s">
         <v>136</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G41" s="39"/>
       <c r="H41" s="38"/>
@@ -13622,19 +13650,19 @@
         <v>2</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>137</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G42" s="25"/>
       <c r="H42" s="26"/>
@@ -13645,19 +13673,19 @@
         <v>3</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>126</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G43" s="25"/>
       <c r="H43" s="26"/>
@@ -13668,21 +13696,21 @@
         <v>4</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>138</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G44" s="25"/>
       <c r="H44" s="42" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I44" s="27"/>
     </row>
@@ -13691,66 +13719,66 @@
         <v>5</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>139</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E45" s="25"/>
       <c r="F45" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G45" s="25"/>
       <c r="H45" s="42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I45" s="27"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="B46" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="B46" s="59" t="s">
-        <v>343</v>
-      </c>
       <c r="C46" s="59" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E46" s="60"/>
       <c r="F46" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G46" s="60"/>
       <c r="H46" s="42" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I46" s="61"/>
     </row>
     <row r="47" spans="1:9" ht="17.25" thickBot="1">
       <c r="A47" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C47" s="30" t="s">
         <v>123</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H47" s="30"/>
       <c r="I47" s="31"/>
@@ -13779,7 +13807,7 @@
     </row>
     <row r="50" spans="1:9" ht="17.25" thickBot="1">
       <c r="A50" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="17.25" thickBot="1">
@@ -13796,7 +13824,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F51" s="35" t="s">
         <v>3</v>
@@ -13814,42 +13842,42 @@
     <row r="52" spans="1:9">
       <c r="A52" s="37"/>
       <c r="B52" s="41" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F52" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G52" s="39"/>
       <c r="H52" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I52" s="40"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="24"/>
       <c r="B53" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="26"/>
@@ -13858,19 +13886,19 @@
     <row r="54" spans="1:9">
       <c r="A54" s="24"/>
       <c r="B54" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="26"/>
@@ -13879,19 +13907,19 @@
     <row r="55" spans="1:9">
       <c r="A55" s="24"/>
       <c r="B55" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="26"/>
@@ -13900,17 +13928,17 @@
     <row r="56" spans="1:9">
       <c r="A56" s="24"/>
       <c r="B56" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="26"/>
@@ -13919,17 +13947,17 @@
     <row r="57" spans="1:9">
       <c r="A57" s="24"/>
       <c r="B57" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="E57" s="25"/>
       <c r="F57" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G57" s="25"/>
       <c r="H57" s="26"/>
@@ -13938,20 +13966,20 @@
     <row r="58" spans="1:9" ht="17.25" thickBot="1">
       <c r="A58" s="28"/>
       <c r="B58" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H58" s="30"/>
       <c r="I58" s="31"/>
@@ -13969,7 +13997,7 @@
     </row>
     <row r="61" spans="1:9" ht="17.25" thickBot="1">
       <c r="A61" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="17.25" thickBot="1">
@@ -13986,7 +14014,7 @@
         <v>4</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F62" s="35" t="s">
         <v>3</v>
@@ -14006,19 +14034,19 @@
         <v>1</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C63" s="38" t="s">
         <v>126</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F63" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G63" s="39"/>
       <c r="H63" s="38"/>
@@ -14029,17 +14057,17 @@
         <v>2</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C64" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" s="26" t="s">
         <v>208</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>209</v>
       </c>
       <c r="E64" s="25"/>
       <c r="F64" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G64" s="25"/>
       <c r="H64" s="26"/>
@@ -14050,17 +14078,17 @@
         <v>3</v>
       </c>
       <c r="B65" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C65" s="26" t="s">
-        <v>211</v>
-      </c>
       <c r="D65" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E65" s="25"/>
       <c r="F65" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G65" s="25"/>
       <c r="H65" s="26"/>
@@ -14071,17 +14099,17 @@
         <v>4</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G66" s="25"/>
       <c r="H66" s="26"/>
@@ -14092,17 +14120,17 @@
         <v>5</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E67" s="25"/>
       <c r="F67" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G67" s="25"/>
       <c r="H67" s="26"/>
@@ -14113,21 +14141,21 @@
         <v>6</v>
       </c>
       <c r="B68" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C68" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C68" s="26" t="s">
-        <v>215</v>
-      </c>
       <c r="D68" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E68" s="25"/>
       <c r="F68" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G68" s="25"/>
       <c r="H68" s="26" t="s">
-        <v>216</v>
+        <v>348</v>
       </c>
       <c r="I68" s="27"/>
     </row>
@@ -14136,21 +14164,21 @@
         <v>7</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G69" s="25"/>
       <c r="H69" s="26" t="s">
-        <v>216</v>
+        <v>348</v>
       </c>
       <c r="I69" s="27"/>
     </row>
@@ -14159,23 +14187,23 @@
         <v>8</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E70" s="25"/>
       <c r="F70" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H70" s="42" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I70" s="27"/>
     </row>
@@ -14184,17 +14212,17 @@
         <v>9</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E71" s="25"/>
       <c r="F71" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G71" s="25"/>
       <c r="H71" s="26"/>
@@ -14205,20 +14233,20 @@
         <v>10</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>123</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E72" s="25"/>
       <c r="F72" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H72" s="26"/>
       <c r="I72" s="27"/>
@@ -14228,29 +14256,29 @@
         <v>11</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G73" s="29"/>
       <c r="H73" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I73" s="31"/>
     </row>
     <row r="76" spans="1:9" ht="17.25" thickBot="1">
       <c r="A76" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="17.25" thickBot="1">
@@ -14267,7 +14295,7 @@
         <v>4</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F77" s="35" t="s">
         <v>3</v>
@@ -14287,19 +14315,19 @@
         <v>1</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>126</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E78" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G78" s="39"/>
       <c r="H78" s="38"/>
@@ -14310,19 +14338,19 @@
         <v>2</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>127</v>
       </c>
       <c r="D79" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="F79" s="26" t="s">
         <v>167</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>168</v>
       </c>
       <c r="G79" s="25"/>
       <c r="H79" s="26"/>
@@ -14333,17 +14361,17 @@
         <v>3</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E80" s="25"/>
       <c r="F80" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G80" s="25"/>
       <c r="H80" s="26"/>
@@ -14354,27 +14382,27 @@
         <v>4</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C81" s="30" t="s">
         <v>123</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H81" s="30"/>
       <c r="I81" s="31"/>
     </row>
     <row r="84" spans="1:9" ht="17.25" thickBot="1">
       <c r="A84" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="17.25" thickBot="1">
@@ -14391,7 +14419,7 @@
         <v>4</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F85" s="35" t="s">
         <v>3</v>
@@ -14411,19 +14439,19 @@
         <v>1</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C86" s="38" t="s">
         <v>126</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E86" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F86" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G86" s="39"/>
       <c r="H86" s="38"/>
@@ -14434,17 +14462,17 @@
         <v>2</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E87" s="25"/>
       <c r="F87" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G87" s="25"/>
       <c r="H87" s="26"/>
@@ -14455,17 +14483,17 @@
         <v>3</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E88" s="25"/>
       <c r="F88" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G88" s="25"/>
       <c r="H88" s="26"/>
@@ -14476,27 +14504,27 @@
         <v>4</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C89" s="30" t="s">
         <v>123</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G89" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="30"/>
       <c r="I89" s="31"/>
     </row>
     <row r="92" spans="1:9" ht="17.25" thickBot="1">
       <c r="A92" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="17.25" thickBot="1">
@@ -14513,7 +14541,7 @@
         <v>4</v>
       </c>
       <c r="E93" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F93" s="35" t="s">
         <v>3</v>
@@ -14530,22 +14558,22 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="37" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B94" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C94" s="38" t="s">
         <v>129</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E94" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F94" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G94" s="39"/>
       <c r="H94" s="38"/>
@@ -14553,45 +14581,45 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C95" s="26" t="s">
         <v>130</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F95" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G95" s="25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H95" s="26"/>
       <c r="I95" s="27"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E96" s="25"/>
       <c r="F96" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G96" s="25"/>
       <c r="H96" s="26"/>
@@ -14599,20 +14627,20 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>140</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E97" s="25"/>
       <c r="F97" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G97" s="25"/>
       <c r="H97" s="26"/>
@@ -14620,66 +14648,66 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C98" s="26" t="s">
         <v>123</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E98" s="25"/>
       <c r="F98" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H98" s="26"/>
       <c r="I98" s="27"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>124</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E99" s="25"/>
       <c r="F99" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G99" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H99" s="26"/>
       <c r="I99" s="27"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>134</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E100" s="25"/>
       <c r="F100" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G100" s="25"/>
       <c r="H100" s="26"/>
@@ -14687,32 +14715,32 @@
     </row>
     <row r="101" spans="1:9" ht="17.25" thickBot="1">
       <c r="A101" s="28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C101" s="30" t="s">
         <v>125</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E101" s="29"/>
       <c r="F101" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G101" s="29" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H101" s="57" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I101" s="31"/>
     </row>
     <row r="104" spans="1:9" ht="17.25" thickBot="1">
       <c r="A104" s="22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="17.25" thickBot="1">
@@ -14729,7 +14757,7 @@
         <v>4</v>
       </c>
       <c r="E105" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F105" s="35" t="s">
         <v>3</v>
@@ -14746,22 +14774,22 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B106" s="41" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C106" s="41" t="s">
         <v>126</v>
       </c>
       <c r="D106" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E106" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F106" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G106" s="39"/>
       <c r="H106" s="38"/>
@@ -14769,20 +14797,20 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E107" s="25"/>
       <c r="F107" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G107" s="25"/>
       <c r="H107" s="26"/>
@@ -14790,73 +14818,73 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E108" s="25"/>
       <c r="F108" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G108" s="25" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H108" s="42" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I108" s="27"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E109" s="25"/>
       <c r="F109" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G109" s="25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H109" s="42" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I109" s="27"/>
     </row>
     <row r="110" spans="1:9" ht="17.25" thickBot="1">
       <c r="A110" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E110" s="29"/>
       <c r="F110" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G110" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H110" s="30"/>
       <c r="I110" s="31"/>
@@ -14874,7 +14902,7 @@
     </row>
     <row r="113" spans="1:9" ht="17.25" thickBot="1">
       <c r="A113" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="17.25" thickBot="1">
@@ -14891,7 +14919,7 @@
         <v>4</v>
       </c>
       <c r="E114" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F114" s="35" t="s">
         <v>3</v>
@@ -14908,22 +14936,22 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B115" s="41" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C115" s="41" t="s">
         <v>126</v>
       </c>
       <c r="D115" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E115" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F115" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G115" s="39"/>
       <c r="H115" s="38"/>
@@ -14931,20 +14959,20 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E116" s="25"/>
       <c r="F116" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G116" s="25"/>
       <c r="H116" s="26"/>
@@ -14952,20 +14980,20 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E117" s="25"/>
       <c r="F117" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G117" s="25"/>
       <c r="H117" s="26"/>
@@ -14973,20 +15001,20 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E118" s="25"/>
       <c r="F118" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G118" s="25"/>
       <c r="H118" s="26"/>
@@ -14994,20 +15022,20 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E119" s="25"/>
       <c r="F119" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G119" s="25"/>
       <c r="H119" s="26"/>
@@ -15015,30 +15043,30 @@
     </row>
     <row r="120" spans="1:9" ht="17.25" thickBot="1">
       <c r="A120" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E120" s="29"/>
       <c r="F120" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G120" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H120" s="30"/>
       <c r="I120" s="31"/>
     </row>
     <row r="123" spans="1:9" ht="17.25" thickBot="1">
       <c r="A123" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="17.25" thickBot="1">
@@ -15055,7 +15083,7 @@
         <v>4</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F124" s="35" t="s">
         <v>3</v>
@@ -15072,22 +15100,22 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B125" s="41" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C125" s="41" t="s">
         <v>137</v>
       </c>
       <c r="D125" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E125" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F125" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G125" s="39"/>
       <c r="H125" s="38"/>
@@ -15095,20 +15123,20 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E126" s="25"/>
       <c r="F126" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G126" s="25"/>
       <c r="H126" s="26"/>
@@ -15116,20 +15144,20 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="E127" s="25"/>
       <c r="F127" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G127" s="25"/>
       <c r="H127" s="26"/>
@@ -15137,66 +15165,66 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E128" s="25"/>
       <c r="F128" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G128" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H128" s="26"/>
       <c r="I128" s="27"/>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E129" s="25"/>
       <c r="F129" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G129" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H129" s="26"/>
       <c r="I129" s="27"/>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E130" s="25"/>
       <c r="F130" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G130" s="25"/>
       <c r="H130" s="26"/>
@@ -15204,20 +15232,20 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C131" s="26" t="s">
         <v>135</v>
       </c>
       <c r="D131" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E131" s="25"/>
       <c r="F131" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G131" s="25">
         <v>0</v>
@@ -15227,32 +15255,32 @@
     </row>
     <row r="132" spans="1:9" ht="17.25" thickBot="1">
       <c r="A132" s="28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E132" s="29"/>
       <c r="F132" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G132" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H132" s="57" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I132" s="31"/>
     </row>
     <row r="135" spans="1:9" ht="17.25" thickBot="1">
       <c r="A135" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="17.25" thickBot="1">
@@ -15269,7 +15297,7 @@
         <v>4</v>
       </c>
       <c r="E136" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F136" s="35" t="s">
         <v>3</v>
@@ -15286,22 +15314,22 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B137" s="41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C137" s="41" t="s">
         <v>136</v>
       </c>
       <c r="D137" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E137" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F137" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G137" s="39"/>
       <c r="H137" s="38"/>
@@ -15309,22 +15337,22 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>137</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E138" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G138" s="25"/>
       <c r="H138" s="26"/>
@@ -15332,22 +15360,22 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E139" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G139" s="25"/>
       <c r="H139" s="26"/>
@@ -15355,20 +15383,20 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E140" s="25"/>
       <c r="F140" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G140" s="25"/>
       <c r="H140" s="26"/>
@@ -15376,20 +15404,20 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E141" s="25"/>
       <c r="F141" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G141" s="25"/>
       <c r="H141" s="26"/>
@@ -15397,23 +15425,23 @@
     </row>
     <row r="142" spans="1:9" ht="17.25" thickBot="1">
       <c r="A142" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E142" s="29"/>
       <c r="F142" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G142" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H142" s="30"/>
       <c r="I142" s="31"/>
@@ -15423,7 +15451,7 @@
     </row>
     <row r="145" spans="1:9" ht="17.25" thickBot="1">
       <c r="A145" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="17.25" thickBot="1">
@@ -15440,7 +15468,7 @@
         <v>4</v>
       </c>
       <c r="E146" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F146" s="35" t="s">
         <v>3</v>
@@ -15457,22 +15485,22 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B147" s="41" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C147" s="41" t="s">
         <v>137</v>
       </c>
       <c r="D147" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E147" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F147" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G147" s="39"/>
       <c r="H147" s="38"/>
@@ -15480,20 +15508,20 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E148" s="25"/>
       <c r="F148" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G148" s="25"/>
       <c r="H148" s="26"/>
@@ -15501,20 +15529,20 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="E149" s="25"/>
       <c r="F149" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G149" s="25"/>
       <c r="H149" s="26"/>
@@ -15522,53 +15550,53 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E150" s="25"/>
       <c r="F150" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H150" s="26"/>
       <c r="I150" s="27"/>
     </row>
     <row r="151" spans="1:9" ht="17.25" thickBot="1">
       <c r="A151" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E151" s="29"/>
       <c r="F151" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G151" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H151" s="30"/>
       <c r="I151" s="31"/>
     </row>
     <row r="154" spans="1:9" ht="17.25" thickBot="1">
       <c r="A154" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="17.25" thickBot="1">
@@ -15585,7 +15613,7 @@
         <v>4</v>
       </c>
       <c r="E155" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F155" s="35" t="s">
         <v>3</v>
@@ -15602,22 +15630,22 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B156" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C156" s="41" t="s">
         <v>137</v>
       </c>
       <c r="D156" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E156" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F156" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G156" s="39"/>
       <c r="H156" s="38"/>
@@ -15625,22 +15653,22 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D157" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E157" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="E157" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="G157" s="25"/>
       <c r="H157" s="26"/>
@@ -15648,20 +15676,20 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E158" s="25"/>
       <c r="F158" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G158" s="25"/>
       <c r="H158" s="26"/>
@@ -15669,20 +15697,20 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="E159" s="25"/>
       <c r="F159" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G159" s="25"/>
       <c r="H159" s="26"/>
@@ -15690,30 +15718,30 @@
     </row>
     <row r="160" spans="1:9" ht="17.25" thickBot="1">
       <c r="A160" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E160" s="29"/>
       <c r="F160" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G160" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H160" s="30"/>
       <c r="I160" s="31"/>
     </row>
     <row r="163" spans="1:9" ht="17.25" thickBot="1">
       <c r="A163" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="17.25" thickBot="1">
@@ -15730,7 +15758,7 @@
         <v>4</v>
       </c>
       <c r="E164" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F164" s="35" t="s">
         <v>3</v>
@@ -15747,22 +15775,22 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="37" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B165" s="41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C165" s="41" t="s">
         <v>136</v>
       </c>
       <c r="D165" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E165" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F165" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G165" s="39"/>
       <c r="H165" s="38"/>
@@ -15770,22 +15798,22 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>137</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G166" s="25"/>
       <c r="H166" s="26"/>
@@ -15793,22 +15821,22 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G167" s="25"/>
       <c r="H167" s="26"/>
@@ -15816,20 +15844,20 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E168" s="25"/>
       <c r="F168" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G168" s="25"/>
       <c r="H168" s="26"/>
@@ -15837,20 +15865,20 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E169" s="25"/>
       <c r="F169" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G169" s="25"/>
       <c r="H169" s="26"/>
@@ -15858,30 +15886,30 @@
     </row>
     <row r="170" spans="1:9" ht="17.25" thickBot="1">
       <c r="A170" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E170" s="29"/>
       <c r="F170" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G170" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H170" s="30"/>
       <c r="I170" s="31"/>
     </row>
     <row r="173" spans="1:9" ht="17.25" thickBot="1">
       <c r="A173" s="22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="17.25" thickBot="1">
@@ -15898,7 +15926,7 @@
         <v>4</v>
       </c>
       <c r="E174" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F174" s="35" t="s">
         <v>3</v>
@@ -15915,22 +15943,22 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="37" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B175" s="41" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C175" s="41" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D175" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E175" s="39" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F175" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G175" s="39"/>
       <c r="H175" s="38"/>
@@ -15938,22 +15966,22 @@
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G176" s="25"/>
       <c r="H176" s="26"/>
@@ -15961,20 +15989,20 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E177" s="25"/>
       <c r="F177" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G177" s="25"/>
       <c r="H177" s="26"/>
@@ -15982,22 +16010,22 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E178" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E178" s="25" t="s">
-        <v>311</v>
-      </c>
       <c r="F178" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G178" s="25"/>
       <c r="H178" s="26"/>
@@ -16005,30 +16033,30 @@
     </row>
     <row r="179" spans="1:9" ht="17.25" thickBot="1">
       <c r="A179" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E179" s="29"/>
       <c r="F179" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G179" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H179" s="30"/>
       <c r="I179" s="31"/>
     </row>
     <row r="182" spans="1:9" ht="17.25" thickBot="1">
       <c r="A182" s="43" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="17.25" thickBot="1">
@@ -16045,7 +16073,7 @@
         <v>4</v>
       </c>
       <c r="E183" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F183" s="45" t="s">
         <v>3</v>
@@ -16062,22 +16090,22 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="47" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B184" s="48" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C184" s="48" t="s">
         <v>113</v>
       </c>
       <c r="D184" s="48" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E184" s="49" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F184" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G184" s="49"/>
       <c r="H184" s="50"/>
@@ -16085,20 +16113,20 @@
     </row>
     <row r="185" spans="1:9" ht="17.25" thickBot="1">
       <c r="A185" s="52" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B185" s="53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C185" s="53" t="s">
         <v>115</v>
       </c>
       <c r="D185" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E185" s="54"/>
       <c r="F185" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G185" s="54"/>
       <c r="H185" s="55"/>

--- a/ecobay/src/main/webapp/resources/db/분석설계.xlsx
+++ b/ecobay/src/main/webapp/resources/db/분석설계.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectWorking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CookSpring\ecobay\ecobay\src\main\webapp\resources\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="9585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="9585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="분석" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="355">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,14 +347,6 @@
   </si>
   <si>
     <t>내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 일련번호 / 제목 / 등록일시 / 이미지정보
-- 게시판 형식으로 출력
-- 페이징 처리
-- 검색처리(제목 / 내용 / 제목+내용)
-- 댓글 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -495,13 +487,6 @@
   </si>
   <si>
     <t>인기상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 공지사항 : 일련번호, 제목, 내용, 등록일시, 변경일시, 삭제일시, 사용여부
-- 공지사항이미지 : 이미지코드, 일련번호(int형), 공지사항일련번호, 업로드명, 파일명, 등록일시
- -&gt; 이미지코드 규칙 : 일련번호형식
- -&gt; 업로드명 규칙 : 분류코드(3자리-NOT) + 이미지코드+일련번호_이미지명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1019,10 +1004,6 @@
   </si>
   <si>
     <t>변경일시</t>
-  </si>
-  <si>
-    <t>공지시항이미지 : NOTICEIMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FAQ : FAQ</t>
@@ -1501,12 +1482,64 @@
     <t>VARCHAR(500)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>- 일련번호 / 제목 / 등록일시 / 파일정보(이미지정보 -&gt;파일정보로 변경[20181002])
+- 게시판 형식으로 출력
+- 페이징 처리
+- 검색처리(제목 / 내용 / 제목+내용)
+- 댓글 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공지사항 : 일련번호, 제목, 내용, 등록일시, 변경일시, 삭제일시, 사용여부
+- 공지사항 파일 : 파일코드, 일련번호(int형), 공지사항일련번호, 업로드명, 파일명, 등록일시
+ -&gt;2파일코드 규칙 : 일련번호형식.
+( 이미지에서 파일로 변경되면서 재정의함[20181002] 
+- 공지사항이미지 : 이미지코드, 일련번호(int형), 공지사항일련번호, 업로드명, 파일명, 등록일시
+ -&gt; 이미지코드 규칙 : 일련번호형식
+ -&gt; 업로드명 규칙 : 분류코드(3자리-NOT) + 이미지코드+일련번호_이미지명 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">공지사항 파일 : NOTICEFILE - [20181002] </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(공지시항이미지 : NOTICEIMG에서 파일로 변경됨.)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMG_CD -&gt; FILE_CD로 변경[20181002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMG_IDX -&gt; FILE_IDX로 변경[20181002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1572,6 +1605,23 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1920,7 +1970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2107,6 +2157,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2131,11 +2190,11 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12000,8 +12059,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12011,7 +12070,7 @@
     <col min="4" max="4" width="17.75" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="88" style="8" customWidth="1"/>
-    <col min="7" max="7" width="76.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="78.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="18.25" style="8" customWidth="1"/>
     <col min="9" max="16384" width="9" style="8"/>
   </cols>
@@ -12051,10 +12110,10 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H2" s="11"/>
     </row>
@@ -12066,7 +12125,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -12092,7 +12151,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H4" s="14"/>
     </row>
@@ -12154,7 +12213,7 @@
         <v>57</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H8" s="14"/>
     </row>
@@ -12197,10 +12256,10 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H11" s="14"/>
     </row>
@@ -12215,7 +12274,7 @@
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
@@ -12311,7 +12370,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="14"/>
@@ -12320,14 +12379,14 @@
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="14"/>
@@ -12345,13 +12404,13 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="258.75" customHeight="1">
@@ -12363,10 +12422,10 @@
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H21" s="16"/>
     </row>
@@ -12382,11 +12441,11 @@
         <v>76</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="82.5">
+    <row r="23" spans="1:8" ht="114" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
         <v>22</v>
@@ -12398,11 +12457,11 @@
         <v>77</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>109</v>
+      <c r="F23" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>349</v>
       </c>
       <c r="H23" s="16"/>
     </row>
@@ -12415,7 +12474,7 @@
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="14"/>
@@ -12424,15 +12483,15 @@
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H25" s="14"/>
     </row>
@@ -12440,15 +12499,15 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H26" s="14"/>
     </row>
@@ -12456,17 +12515,17 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H27" s="14"/>
     </row>
@@ -12475,16 +12534,16 @@
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H28" s="14"/>
     </row>
@@ -12494,33 +12553,33 @@
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" ht="82.5">
       <c r="A30" s="12"/>
       <c r="B30" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>94</v>
-      </c>
       <c r="D30" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H30" s="14"/>
     </row>
@@ -12528,14 +12587,14 @@
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>96</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="14"/>
@@ -12550,7 +12609,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H32" s="14"/>
     </row>
@@ -12565,7 +12624,7 @@
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="14"/>
@@ -12581,7 +12640,7 @@
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="14"/>
@@ -12595,7 +12654,7 @@
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="14"/>
@@ -12609,11 +12668,11 @@
         <v>73</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="14"/>
@@ -12623,11 +12682,11 @@
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="14"/>
@@ -12645,7 +12704,7 @@
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="14"/>
@@ -12654,14 +12713,14 @@
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="14"/>
@@ -12670,14 +12729,14 @@
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="14"/>
@@ -12687,14 +12746,14 @@
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H41" s="14"/>
     </row>
@@ -12709,7 +12768,7 @@
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>34</v>
@@ -12809,35 +12868,35 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -12851,8 +12910,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I185"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12875,7 +12934,7 @@
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1">
       <c r="A3" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1">
@@ -12886,13 +12945,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>3</v>
@@ -12912,23 +12971,23 @@
         <v>1</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I5" s="40"/>
     </row>
@@ -12937,17 +12996,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="26"/>
@@ -12958,21 +13017,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="42" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I7" s="27"/>
     </row>
@@ -12981,17 +13040,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="26"/>
@@ -13002,17 +13061,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="26"/>
@@ -13023,17 +13082,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="26"/>
@@ -13044,17 +13103,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
@@ -13065,20 +13124,20 @@
         <v>8</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="27"/>
@@ -13088,17 +13147,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="26"/>
@@ -13109,23 +13168,23 @@
         <v>10</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I14" s="27"/>
     </row>
@@ -13134,23 +13193,23 @@
         <v>11</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I15" s="27"/>
     </row>
@@ -13159,23 +13218,23 @@
         <v>12</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="26" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I16" s="27"/>
     </row>
@@ -13184,20 +13243,20 @@
         <v>13</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="27"/>
@@ -13207,20 +13266,20 @@
         <v>14</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="27"/>
@@ -13230,17 +13289,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30"/>
@@ -13259,7 +13318,7 @@
     </row>
     <row r="22" spans="1:9" ht="17.25" thickBot="1">
       <c r="A22" s="22" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17.25" thickBot="1">
@@ -13270,13 +13329,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D23" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>3</v>
@@ -13296,19 +13355,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G24" s="39"/>
       <c r="H24" s="38"/>
@@ -13319,17 +13378,17 @@
         <v>2</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="26"/>
@@ -13340,19 +13399,19 @@
         <v>3</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="26"/>
@@ -13363,19 +13422,19 @@
         <v>4</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
@@ -13386,19 +13445,19 @@
         <v>5</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="26"/>
@@ -13409,17 +13468,17 @@
         <v>6</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
@@ -13430,17 +13489,17 @@
         <v>7</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
@@ -13451,17 +13510,17 @@
         <v>8</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
@@ -13472,20 +13531,20 @@
         <v>9</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="27"/>
@@ -13495,20 +13554,20 @@
         <v>10</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="27"/>
@@ -13518,17 +13577,17 @@
         <v>11</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="26"/>
@@ -13539,23 +13598,23 @@
         <v>12</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E35" s="25"/>
       <c r="F35" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I35" s="27"/>
     </row>
@@ -13564,17 +13623,17 @@
         <v>13</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G36" s="29">
         <v>0</v>
@@ -13590,7 +13649,7 @@
     </row>
     <row r="39" spans="1:9" ht="17.25" thickBot="1">
       <c r="A39" s="22" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="17.25" thickBot="1">
@@ -13601,13 +13660,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D40" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F40" s="35" t="s">
         <v>3</v>
@@ -13627,19 +13686,19 @@
         <v>1</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G41" s="39"/>
       <c r="H41" s="38"/>
@@ -13650,19 +13709,19 @@
         <v>2</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G42" s="25"/>
       <c r="H42" s="26"/>
@@ -13673,19 +13732,19 @@
         <v>3</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G43" s="25"/>
       <c r="H43" s="26"/>
@@ -13696,21 +13755,21 @@
         <v>4</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G44" s="25"/>
       <c r="H44" s="42" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I44" s="27"/>
     </row>
@@ -13719,66 +13778,66 @@
         <v>5</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E45" s="25"/>
       <c r="F45" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G45" s="25"/>
       <c r="H45" s="42" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I45" s="27"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>338</v>
+      </c>
+      <c r="C46" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="B46" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="C46" s="59" t="s">
-        <v>342</v>
-      </c>
       <c r="D46" s="26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E46" s="60"/>
       <c r="F46" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G46" s="60"/>
       <c r="H46" s="42" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I46" s="61"/>
     </row>
     <row r="47" spans="1:9" ht="17.25" thickBot="1">
       <c r="A47" s="28" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H47" s="30"/>
       <c r="I47" s="31"/>
@@ -13807,7 +13866,7 @@
     </row>
     <row r="50" spans="1:9" ht="17.25" thickBot="1">
       <c r="A50" s="22" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="17.25" thickBot="1">
@@ -13818,13 +13877,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D51" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F51" s="35" t="s">
         <v>3</v>
@@ -13842,42 +13901,42 @@
     <row r="52" spans="1:9">
       <c r="A52" s="37"/>
       <c r="B52" s="41" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F52" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G52" s="39"/>
       <c r="H52" s="38" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I52" s="40"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="24"/>
       <c r="B53" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="26"/>
@@ -13886,19 +13945,19 @@
     <row r="54" spans="1:9">
       <c r="A54" s="24"/>
       <c r="B54" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="26"/>
@@ -13907,19 +13966,19 @@
     <row r="55" spans="1:9">
       <c r="A55" s="24"/>
       <c r="B55" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="26"/>
@@ -13928,17 +13987,17 @@
     <row r="56" spans="1:9">
       <c r="A56" s="24"/>
       <c r="B56" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="26"/>
@@ -13947,17 +14006,17 @@
     <row r="57" spans="1:9">
       <c r="A57" s="24"/>
       <c r="B57" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E57" s="25"/>
       <c r="F57" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G57" s="25"/>
       <c r="H57" s="26"/>
@@ -13966,20 +14025,20 @@
     <row r="58" spans="1:9" ht="17.25" thickBot="1">
       <c r="A58" s="28"/>
       <c r="B58" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H58" s="30"/>
       <c r="I58" s="31"/>
@@ -13997,7 +14056,7 @@
     </row>
     <row r="61" spans="1:9" ht="17.25" thickBot="1">
       <c r="A61" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="17.25" thickBot="1">
@@ -14008,13 +14067,13 @@
         <v>1</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D62" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F62" s="35" t="s">
         <v>3</v>
@@ -14034,19 +14093,19 @@
         <v>1</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F63" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G63" s="39"/>
       <c r="H63" s="38"/>
@@ -14057,17 +14116,17 @@
         <v>2</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E64" s="25"/>
       <c r="F64" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G64" s="25"/>
       <c r="H64" s="26"/>
@@ -14078,17 +14137,17 @@
         <v>3</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E65" s="25"/>
       <c r="F65" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G65" s="25"/>
       <c r="H65" s="26"/>
@@ -14099,17 +14158,17 @@
         <v>4</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G66" s="25"/>
       <c r="H66" s="26"/>
@@ -14120,17 +14179,17 @@
         <v>5</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E67" s="25"/>
       <c r="F67" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G67" s="25"/>
       <c r="H67" s="26"/>
@@ -14141,21 +14200,21 @@
         <v>6</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E68" s="25"/>
       <c r="F68" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G68" s="25"/>
       <c r="H68" s="26" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I68" s="27"/>
     </row>
@@ -14164,21 +14223,21 @@
         <v>7</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G69" s="25"/>
       <c r="H69" s="26" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I69" s="27"/>
     </row>
@@ -14187,23 +14246,23 @@
         <v>8</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E70" s="25"/>
       <c r="F70" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H70" s="42" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I70" s="27"/>
     </row>
@@ -14212,17 +14271,17 @@
         <v>9</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E71" s="25"/>
       <c r="F71" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G71" s="25"/>
       <c r="H71" s="26"/>
@@ -14233,20 +14292,20 @@
         <v>10</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E72" s="25"/>
       <c r="F72" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H72" s="26"/>
       <c r="I72" s="27"/>
@@ -14256,29 +14315,29 @@
         <v>11</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G73" s="29"/>
       <c r="H73" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I73" s="31"/>
     </row>
     <row r="76" spans="1:9" ht="17.25" thickBot="1">
       <c r="A76" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="17.25" thickBot="1">
@@ -14289,13 +14348,13 @@
         <v>1</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D77" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F77" s="35" t="s">
         <v>3</v>
@@ -14315,19 +14374,19 @@
         <v>1</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E78" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G78" s="39"/>
       <c r="H78" s="38"/>
@@ -14338,19 +14397,19 @@
         <v>2</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G79" s="25"/>
       <c r="H79" s="26"/>
@@ -14361,17 +14420,17 @@
         <v>3</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E80" s="25"/>
       <c r="F80" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G80" s="25"/>
       <c r="H80" s="26"/>
@@ -14382,27 +14441,27 @@
         <v>4</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H81" s="30"/>
       <c r="I81" s="31"/>
     </row>
     <row r="84" spans="1:9" ht="17.25" thickBot="1">
       <c r="A84" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="17.25" thickBot="1">
@@ -14413,13 +14472,13 @@
         <v>1</v>
       </c>
       <c r="C85" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D85" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F85" s="35" t="s">
         <v>3</v>
@@ -14439,19 +14498,19 @@
         <v>1</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E86" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F86" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G86" s="39"/>
       <c r="H86" s="38"/>
@@ -14462,17 +14521,17 @@
         <v>2</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E87" s="25"/>
       <c r="F87" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G87" s="25"/>
       <c r="H87" s="26"/>
@@ -14483,17 +14542,17 @@
         <v>3</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E88" s="25"/>
       <c r="F88" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G88" s="25"/>
       <c r="H88" s="26"/>
@@ -14504,27 +14563,27 @@
         <v>4</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G89" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H89" s="30"/>
       <c r="I89" s="31"/>
     </row>
     <row r="92" spans="1:9" ht="17.25" thickBot="1">
       <c r="A92" s="22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="17.25" thickBot="1">
@@ -14535,13 +14594,13 @@
         <v>1</v>
       </c>
       <c r="C93" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D93" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E93" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F93" s="35" t="s">
         <v>3</v>
@@ -14558,22 +14617,22 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="37" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B94" s="38" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C94" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E94" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F94" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G94" s="39"/>
       <c r="H94" s="38"/>
@@ -14581,45 +14640,45 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F95" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G95" s="25" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H95" s="26"/>
       <c r="I95" s="27"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E96" s="25"/>
       <c r="F96" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G96" s="25"/>
       <c r="H96" s="26"/>
@@ -14627,20 +14686,20 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E97" s="25"/>
       <c r="F97" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G97" s="25"/>
       <c r="H97" s="26"/>
@@ -14648,66 +14707,66 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E98" s="25"/>
       <c r="F98" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H98" s="26"/>
       <c r="I98" s="27"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="24" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E99" s="25"/>
       <c r="F99" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G99" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H99" s="26"/>
       <c r="I99" s="27"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="24" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E100" s="25"/>
       <c r="F100" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G100" s="25"/>
       <c r="H100" s="26"/>
@@ -14715,32 +14774,32 @@
     </row>
     <row r="101" spans="1:9" ht="17.25" thickBot="1">
       <c r="A101" s="28" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E101" s="29"/>
       <c r="F101" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G101" s="29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H101" s="57" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I101" s="31"/>
     </row>
     <row r="104" spans="1:9" ht="17.25" thickBot="1">
       <c r="A104" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="17.25" thickBot="1">
@@ -14751,13 +14810,13 @@
         <v>1</v>
       </c>
       <c r="C105" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D105" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E105" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F105" s="35" t="s">
         <v>3</v>
@@ -14774,22 +14833,22 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="37" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B106" s="41" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D106" s="41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E106" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F106" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G106" s="39"/>
       <c r="H106" s="38"/>
@@ -14797,20 +14856,20 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E107" s="25"/>
       <c r="F107" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G107" s="25"/>
       <c r="H107" s="26"/>
@@ -14818,73 +14877,73 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E108" s="25"/>
       <c r="F108" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G108" s="25" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H108" s="42" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I108" s="27"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E109" s="25"/>
       <c r="F109" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G109" s="25" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H109" s="42" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I109" s="27"/>
     </row>
     <row r="110" spans="1:9" ht="17.25" thickBot="1">
       <c r="A110" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E110" s="29"/>
       <c r="F110" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G110" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H110" s="30"/>
       <c r="I110" s="31"/>
@@ -14902,7 +14961,7 @@
     </row>
     <row r="113" spans="1:9" ht="17.25" thickBot="1">
       <c r="A113" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="17.25" thickBot="1">
@@ -14913,13 +14972,13 @@
         <v>1</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D114" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E114" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F114" s="35" t="s">
         <v>3</v>
@@ -14936,22 +14995,22 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="37" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B115" s="41" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D115" s="41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E115" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F115" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G115" s="39"/>
       <c r="H115" s="38"/>
@@ -14959,20 +15018,20 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E116" s="25"/>
       <c r="F116" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G116" s="25"/>
       <c r="H116" s="26"/>
@@ -14980,20 +15039,20 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E117" s="25"/>
       <c r="F117" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G117" s="25"/>
       <c r="H117" s="26"/>
@@ -15001,20 +15060,20 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E118" s="25"/>
       <c r="F118" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G118" s="25"/>
       <c r="H118" s="26"/>
@@ -15022,20 +15081,20 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E119" s="25"/>
       <c r="F119" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G119" s="25"/>
       <c r="H119" s="26"/>
@@ -15043,30 +15102,30 @@
     </row>
     <row r="120" spans="1:9" ht="17.25" thickBot="1">
       <c r="A120" s="28" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E120" s="29"/>
       <c r="F120" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G120" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H120" s="30"/>
       <c r="I120" s="31"/>
     </row>
     <row r="123" spans="1:9" ht="17.25" thickBot="1">
       <c r="A123" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="17.25" thickBot="1">
@@ -15077,13 +15136,13 @@
         <v>1</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D124" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F124" s="35" t="s">
         <v>3</v>
@@ -15100,22 +15159,22 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="37" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B125" s="41" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D125" s="41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E125" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F125" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G125" s="39"/>
       <c r="H125" s="38"/>
@@ -15123,20 +15182,20 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E126" s="25"/>
       <c r="F126" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G126" s="25"/>
       <c r="H126" s="26"/>
@@ -15144,20 +15203,20 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E127" s="25"/>
       <c r="F127" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G127" s="25"/>
       <c r="H127" s="26"/>
@@ -15165,66 +15224,66 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E128" s="25"/>
       <c r="F128" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G128" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H128" s="26"/>
       <c r="I128" s="27"/>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E129" s="25"/>
       <c r="F129" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G129" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H129" s="26"/>
       <c r="I129" s="27"/>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="24" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E130" s="25"/>
       <c r="F130" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G130" s="25"/>
       <c r="H130" s="26"/>
@@ -15232,20 +15291,20 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="24" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D131" s="26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E131" s="25"/>
       <c r="F131" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G131" s="25">
         <v>0</v>
@@ -15255,32 +15314,32 @@
     </row>
     <row r="132" spans="1:9" ht="17.25" thickBot="1">
       <c r="A132" s="28" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E132" s="29"/>
       <c r="F132" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G132" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H132" s="57" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I132" s="31"/>
     </row>
     <row r="135" spans="1:9" ht="17.25" thickBot="1">
       <c r="A135" s="22" t="s">
-        <v>256</v>
+        <v>350</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="17.25" thickBot="1">
@@ -15291,13 +15350,13 @@
         <v>1</v>
       </c>
       <c r="C136" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D136" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E136" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F136" s="35" t="s">
         <v>3</v>
@@ -15314,89 +15373,93 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="37" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B137" s="41" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="C137" s="41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D137" s="41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E137" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F137" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G137" s="39"/>
-      <c r="H137" s="38"/>
+      <c r="H137" s="63" t="s">
+        <v>351</v>
+      </c>
       <c r="I137" s="40"/>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E138" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G138" s="25"/>
-      <c r="H138" s="26"/>
+      <c r="H138" s="64" t="s">
+        <v>352</v>
+      </c>
       <c r="I138" s="27"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E139" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G139" s="25"/>
-      <c r="H139" s="26"/>
+      <c r="H139" s="64"/>
       <c r="I139" s="27"/>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E140" s="25"/>
       <c r="F140" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G140" s="25"/>
       <c r="H140" s="26"/>
@@ -15404,20 +15467,20 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E141" s="25"/>
       <c r="F141" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G141" s="25"/>
       <c r="H141" s="26"/>
@@ -15425,23 +15488,23 @@
     </row>
     <row r="142" spans="1:9" ht="17.25" thickBot="1">
       <c r="A142" s="28" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E142" s="29"/>
       <c r="F142" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G142" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H142" s="30"/>
       <c r="I142" s="31"/>
@@ -15451,7 +15514,7 @@
     </row>
     <row r="145" spans="1:9" ht="17.25" thickBot="1">
       <c r="A145" s="22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="17.25" thickBot="1">
@@ -15462,13 +15525,13 @@
         <v>1</v>
       </c>
       <c r="C146" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D146" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E146" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F146" s="35" t="s">
         <v>3</v>
@@ -15485,22 +15548,22 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="37" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B147" s="41" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C147" s="41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D147" s="41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E147" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F147" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G147" s="39"/>
       <c r="H147" s="38"/>
@@ -15508,20 +15571,20 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E148" s="25"/>
       <c r="F148" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G148" s="25"/>
       <c r="H148" s="26"/>
@@ -15529,20 +15592,20 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E149" s="25"/>
       <c r="F149" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G149" s="25"/>
       <c r="H149" s="26"/>
@@ -15550,53 +15613,53 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E150" s="25"/>
       <c r="F150" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H150" s="26"/>
       <c r="I150" s="27"/>
     </row>
     <row r="151" spans="1:9" ht="17.25" thickBot="1">
       <c r="A151" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E151" s="29"/>
       <c r="F151" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G151" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H151" s="30"/>
       <c r="I151" s="31"/>
     </row>
     <row r="154" spans="1:9" ht="17.25" thickBot="1">
       <c r="A154" s="22" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="17.25" thickBot="1">
@@ -15607,13 +15670,13 @@
         <v>1</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D155" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E155" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F155" s="35" t="s">
         <v>3</v>
@@ -15630,22 +15693,22 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="37" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B156" s="41" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C156" s="41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D156" s="41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E156" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F156" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G156" s="39"/>
       <c r="H156" s="38"/>
@@ -15653,22 +15716,22 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G157" s="25"/>
       <c r="H157" s="26"/>
@@ -15676,20 +15739,20 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E158" s="25"/>
       <c r="F158" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G158" s="25"/>
       <c r="H158" s="26"/>
@@ -15697,20 +15760,20 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E159" s="25"/>
       <c r="F159" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G159" s="25"/>
       <c r="H159" s="26"/>
@@ -15718,30 +15781,30 @@
     </row>
     <row r="160" spans="1:9" ht="17.25" thickBot="1">
       <c r="A160" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E160" s="29"/>
       <c r="F160" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G160" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H160" s="30"/>
       <c r="I160" s="31"/>
     </row>
     <row r="163" spans="1:9" ht="17.25" thickBot="1">
       <c r="A163" s="22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="17.25" thickBot="1">
@@ -15752,13 +15815,13 @@
         <v>1</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D164" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E164" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F164" s="35" t="s">
         <v>3</v>
@@ -15775,22 +15838,22 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="37" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B165" s="41" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C165" s="41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D165" s="41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E165" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F165" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G165" s="39"/>
       <c r="H165" s="38"/>
@@ -15798,22 +15861,22 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G166" s="25"/>
       <c r="H166" s="26"/>
@@ -15821,22 +15884,22 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G167" s="25"/>
       <c r="H167" s="26"/>
@@ -15844,20 +15907,20 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E168" s="25"/>
       <c r="F168" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G168" s="25"/>
       <c r="H168" s="26"/>
@@ -15865,20 +15928,20 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E169" s="25"/>
       <c r="F169" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G169" s="25"/>
       <c r="H169" s="26"/>
@@ -15886,30 +15949,30 @@
     </row>
     <row r="170" spans="1:9" ht="17.25" thickBot="1">
       <c r="A170" s="28" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E170" s="29"/>
       <c r="F170" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G170" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H170" s="30"/>
       <c r="I170" s="31"/>
     </row>
     <row r="173" spans="1:9" ht="17.25" thickBot="1">
       <c r="A173" s="22" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="17.25" thickBot="1">
@@ -15920,13 +15983,13 @@
         <v>1</v>
       </c>
       <c r="C174" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D174" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E174" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F174" s="35" t="s">
         <v>3</v>
@@ -15943,22 +16006,22 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="37" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B175" s="41" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C175" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D175" s="41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E175" s="39" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F175" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G175" s="39"/>
       <c r="H175" s="38"/>
@@ -15966,22 +16029,22 @@
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G176" s="25"/>
       <c r="H176" s="26"/>
@@ -15989,20 +16052,20 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E177" s="25"/>
       <c r="F177" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G177" s="25"/>
       <c r="H177" s="26"/>
@@ -16010,22 +16073,22 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G178" s="25"/>
       <c r="H178" s="26"/>
@@ -16033,30 +16096,30 @@
     </row>
     <row r="179" spans="1:9" ht="17.25" thickBot="1">
       <c r="A179" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E179" s="29"/>
       <c r="F179" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G179" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H179" s="30"/>
       <c r="I179" s="31"/>
     </row>
     <row r="182" spans="1:9" ht="17.25" thickBot="1">
       <c r="A182" s="43" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="17.25" thickBot="1">
@@ -16067,13 +16130,13 @@
         <v>1</v>
       </c>
       <c r="C183" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D183" s="45" t="s">
         <v>4</v>
       </c>
       <c r="E183" s="45" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F183" s="45" t="s">
         <v>3</v>
@@ -16090,22 +16153,22 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="47" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B184" s="48" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C184" s="48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D184" s="48" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E184" s="49" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F184" s="48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G184" s="49"/>
       <c r="H184" s="50"/>
@@ -16113,20 +16176,20 @@
     </row>
     <row r="185" spans="1:9" ht="17.25" thickBot="1">
       <c r="A185" s="52" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B185" s="53" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C185" s="53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D185" s="53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E185" s="54"/>
       <c r="F185" s="53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G185" s="54"/>
       <c r="H185" s="55"/>
@@ -16391,8 +16454,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10243" r:id="rId4" name="ComboBox1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="10241" r:id="rId4" name="TextBox1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10241" r:id="rId4" name="TextBox1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10243" r:id="rId6" name="ComboBox1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16411,32 +16499,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10243" r:id="rId4" name="ComboBox1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId6" name="TextBox1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10241" r:id="rId6" name="TextBox1"/>
+        <control shapeId="10243" r:id="rId6" name="ComboBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">

--- a/ecobay/src/main/webapp/resources/db/분석설계.xlsx
+++ b/ecobay/src/main/webapp/resources/db/분석설계.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CookSpring\ecobay\ecobay\src\main\webapp\resources\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectWorking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="370">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 배송구분(직거래 / 택배)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,10 +377,6 @@
   </si>
   <si>
     <t>내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 배송정보 : 상품코드 / 배송구분 / 등록일시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -594,10 +586,6 @@
 - 결제완료시 완료메일 발송.
 - 상품결제 : 상품코드/결제금액/승인완료여부/처리완료여부/등록일시
 - 상품배송 : 상품코드/배송자명/배송우편번호/배송주소1/배송주소2/등록일시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 입찰내역 : 상품코드, 입찰자정보(회원ID), 입찰금액, 입찰일시(등록일시)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1532,6 +1520,80 @@
   </si>
   <si>
     <t>FILE_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 배송구분(직거래(1) / 택배(2))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 배송정보 : 상품코드 / 배송구분코드/ 배송구분명 / 등록일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:직거래 / 2:택배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제처리코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼 삭제[20181002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT_PROC_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:대기 / 2: 종료 - 2018-10-02 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 : 승인완료여부/처리완료여부 컬럼 삭제 -&gt; 결제처리전 처리정보는 경매정보테이블에 업데이트되도록 함 -&gt; 결제완료시 경매정보테이블의 결제처리코드 -&gt; 2로 변경됨(2018-10-02) 추가.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 입찰내역 : 상품코드, 입찰자정보(회원ID), 입찰금액, 입찰일시(등록일시)
+- 낙찰시점에 경매정보테이블에 최종입찰가/낙찰자정보/결제처리코드(1)이 업데이트됨.
+ -&gt; 결제처리코드 추가(1:대기 / 2: 완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송정보 등록시 실제배송자 전화번호가 필요하므로 추가 - 20181002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELI_PHONENUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령자전화번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1970,7 +2032,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2020,9 +2082,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2166,6 +2225,45 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2190,11 +2288,11 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12059,8 +12157,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12110,10 +12208,10 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H2" s="11"/>
     </row>
@@ -12125,7 +12223,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -12151,7 +12249,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H4" s="14"/>
     </row>
@@ -12213,7 +12311,7 @@
         <v>57</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H8" s="14"/>
     </row>
@@ -12256,10 +12354,10 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H11" s="14"/>
     </row>
@@ -12274,7 +12372,7 @@
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
@@ -12370,7 +12468,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="14"/>
@@ -12379,14 +12477,14 @@
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="14"/>
@@ -12404,13 +12502,13 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="258.75" customHeight="1">
@@ -12422,10 +12520,10 @@
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H21" s="16"/>
     </row>
@@ -12438,10 +12536,10 @@
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13" t="s">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>87</v>
+        <v>353</v>
       </c>
       <c r="H22" s="16"/>
     </row>
@@ -12454,14 +12552,14 @@
         <v>23</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="62" t="s">
-        <v>348</v>
-      </c>
-      <c r="G23" s="62" t="s">
-        <v>349</v>
+      <c r="F23" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="G23" s="61" t="s">
+        <v>346</v>
       </c>
       <c r="H23" s="16"/>
     </row>
@@ -12470,11 +12568,11 @@
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="14"/>
@@ -12483,15 +12581,15 @@
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H25" s="14"/>
     </row>
@@ -12499,15 +12597,15 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H26" s="14"/>
     </row>
@@ -12515,17 +12613,17 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H27" s="14"/>
     </row>
@@ -12534,16 +12632,16 @@
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>140</v>
+        <v>97</v>
+      </c>
+      <c r="G28" s="71" t="s">
+        <v>362</v>
       </c>
       <c r="H28" s="14"/>
     </row>
@@ -12553,33 +12651,33 @@
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="G29" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" ht="82.5">
       <c r="A30" s="12"/>
       <c r="B30" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H30" s="14"/>
     </row>
@@ -12587,16 +12685,18 @@
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="17"/>
+        <v>94</v>
+      </c>
+      <c r="G31" s="70" t="s">
+        <v>361</v>
+      </c>
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8">
@@ -12609,7 +12709,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H32" s="14"/>
     </row>
@@ -12624,7 +12724,7 @@
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="14"/>
@@ -12640,7 +12740,7 @@
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="14"/>
@@ -12654,7 +12754,7 @@
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="14"/>
@@ -12668,11 +12768,11 @@
         <v>73</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="14"/>
@@ -12682,11 +12782,11 @@
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="14"/>
@@ -12704,7 +12804,7 @@
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="14"/>
@@ -12713,14 +12813,14 @@
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="14"/>
@@ -12729,14 +12829,14 @@
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="14"/>
@@ -12746,14 +12846,14 @@
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H41" s="14"/>
     </row>
@@ -12768,7 +12868,7 @@
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>34</v>
@@ -12836,14 +12936,14 @@
       <c r="H48" s="14"/>
     </row>
     <row r="49" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12868,35 +12968,35 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -12908,3292 +13008,3346 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I185"/>
+  <dimension ref="A1:I186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L119" sqref="L119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="22"/>
-    <col min="2" max="3" width="25.625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="9" style="23"/>
-    <col min="6" max="6" width="12" style="22" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="22" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="9" style="21"/>
+    <col min="2" max="3" width="25.625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9" style="22"/>
+    <col min="6" max="6" width="12" style="21" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="20.25" style="21" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="36">
+        <v>1</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="23">
+        <v>2</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="23">
+        <v>3</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="23">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="23">
+        <v>5</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="23">
+        <v>6</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="23">
+        <v>7</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="23">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="23">
+        <v>9</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="23">
+        <v>10</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="23">
+        <v>11</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="23">
+        <v>12</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="23">
+        <v>13</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="23">
+        <v>14</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A19" s="27">
+        <v>15</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+    </row>
+    <row r="22" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A22" s="21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A23" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="36">
+        <v>1</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="38"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="39"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="23">
+        <v>2</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="23">
+        <v>3</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="23">
+        <v>4</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="23">
+        <v>5</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="23">
+        <v>6</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A4" s="34" t="s">
+      <c r="E29" s="24"/>
+      <c r="F29" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="23">
+        <v>7</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="23">
+        <v>8</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="23">
+        <v>9</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="23">
+        <v>10</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="23">
+        <v>11</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="23">
+        <v>12</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A36" s="27">
+        <v>13</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="28">
         <v>0</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="32"/>
+      <c r="E37" s="31"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="39" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A39" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A40" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="35" t="s">
+      <c r="C40" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E40" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="36">
+        <v>1</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" s="38"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="39"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="23">
+        <v>2</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G42" s="24"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="23">
+        <v>3</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G43" s="24"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="23">
+        <v>4</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="24"/>
+      <c r="H44" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="I44" s="26"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="23">
+        <v>5</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G45" s="24"/>
+      <c r="H45" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="I45" s="26"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="B46" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="C46" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" s="59"/>
+      <c r="F46" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" s="59"/>
+      <c r="H46" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="I46" s="60"/>
+    </row>
+    <row r="47" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A47" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H47" s="29"/>
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A50" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A51" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="36"/>
+      <c r="B52" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G52" s="38"/>
+      <c r="H52" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="I52" s="39"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="23"/>
+      <c r="B53" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G53" s="24"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="26"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="23"/>
+      <c r="B54" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G54" s="24"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="26"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="23"/>
+      <c r="B55" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G55" s="24"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="26"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="23"/>
+      <c r="B56" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" s="24"/>
+      <c r="F56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G56" s="24"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="26"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="23"/>
+      <c r="B57" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E57" s="24"/>
+      <c r="F57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G57" s="24"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="26"/>
+    </row>
+    <row r="58" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A58" s="27"/>
+      <c r="B58" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E58" s="28"/>
+      <c r="F58" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H58" s="29"/>
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+    </row>
+    <row r="61" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A61" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A62" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F62" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G62" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H62" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I62" s="35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="37">
+    <row r="63" spans="1:9">
+      <c r="A63" s="36">
         <v>1</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="38" t="s">
+      <c r="B63" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G63" s="38"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="39"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="23">
+        <v>2</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E64" s="24"/>
+      <c r="F64" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G64" s="24"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="26"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="23">
+        <v>3</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E65" s="24"/>
+      <c r="F65" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="G65" s="24"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="26"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="23">
+        <v>4</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E66" s="24"/>
+      <c r="F66" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G66" s="24"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="26"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="23">
+        <v>5</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E67" s="24"/>
+      <c r="F67" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G67" s="24"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="26"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="23">
+        <v>6</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" s="24"/>
+      <c r="F68" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="G68" s="24"/>
+      <c r="H68" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="I68" s="26"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="23">
+        <v>7</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E69" s="24"/>
+      <c r="F69" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="G69" s="24"/>
+      <c r="H69" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="I69" s="26"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="23">
+        <v>8</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="E70" s="24"/>
+      <c r="F70" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="H70" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="I70" s="26"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="23">
+        <v>9</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E71" s="24"/>
+      <c r="F71" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="G71" s="24"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="26"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="23">
+        <v>10</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E72" s="24"/>
+      <c r="F72" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H72" s="25"/>
+      <c r="I72" s="26"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="23">
+        <v>11</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="G73" s="24"/>
+      <c r="H73" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="I73" s="26"/>
+    </row>
+    <row r="74" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A74" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="B74" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C74" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="D74" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="E74" s="69"/>
+      <c r="F74" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="G74" s="69"/>
+      <c r="H74" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="I74" s="30"/>
+    </row>
+    <row r="76" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A76" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A77" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F77" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I77" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="36">
+        <v>1</v>
+      </c>
+      <c r="B78" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="F78" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G78" s="38"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="39"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="23">
+        <v>2</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G79" s="24"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="26"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="23">
+        <v>3</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G80" s="24"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="26"/>
+    </row>
+    <row r="81" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A81" s="27">
+        <v>4</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E81" s="28"/>
+      <c r="F81" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H81" s="29"/>
+      <c r="I81" s="30"/>
+    </row>
+    <row r="84" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A84" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A85" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F85" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I85" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="36">
+        <v>1</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="F86" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G86" s="38"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="39"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="23">
+        <v>2</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E87" s="24"/>
+      <c r="F87" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G87" s="24"/>
+      <c r="H87" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="I87" s="26"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="23">
+        <v>3</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D88" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="38" t="s">
+      <c r="E88" s="24"/>
+      <c r="F88" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G88" s="24"/>
+      <c r="H88" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="I88" s="26"/>
+    </row>
+    <row r="89" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A89" s="27">
+        <v>4</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E89" s="28"/>
+      <c r="F89" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="G89" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H89" s="29"/>
+      <c r="I89" s="30"/>
+    </row>
+    <row r="92" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A92" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A93" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D93" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F93" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I93" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D94" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E94" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="F94" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G94" s="38"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="39"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="H95" s="25"/>
+      <c r="I95" s="26"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E96" s="24"/>
+      <c r="F96" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G96" s="24"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="26"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E97" s="24"/>
+      <c r="F97" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G97" s="24"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="26"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E98" s="24"/>
+      <c r="F98" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H98" s="25"/>
+      <c r="I98" s="26"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E99" s="24"/>
+      <c r="F99" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H99" s="25"/>
+      <c r="I99" s="26"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E100" s="24"/>
+      <c r="F100" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="G100" s="24"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="26"/>
+    </row>
+    <row r="101" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A101" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B101" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D101" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="E101" s="28"/>
+      <c r="F101" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="G101" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="H101" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="I101" s="30"/>
+    </row>
+    <row r="104" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A104" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A105" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F105" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G105" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I105" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="C106" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D106" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="E106" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="F106" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G106" s="38"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="39"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E107" s="24"/>
+      <c r="F107" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G107" s="24"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="26"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="B108" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="D108" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="E108" s="66"/>
+      <c r="F108" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="G108" s="66" t="s">
+        <v>332</v>
+      </c>
+      <c r="H108" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="I108" s="68" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="B109" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="D109" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="E109" s="66"/>
+      <c r="F109" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="G109" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="H109" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="I109" s="68" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A110" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E110" s="28"/>
+      <c r="F110" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G110" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H110" s="29"/>
+      <c r="I110" s="30"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="32"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+    </row>
+    <row r="113" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A113" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A114" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D114" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F114" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I114" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="B115" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="C115" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D115" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="E115" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="F115" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G115" s="38"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="39"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E116" s="24"/>
+      <c r="F116" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G116" s="24"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="26"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E117" s="24"/>
+      <c r="F117" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G117" s="24"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="26"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E118" s="24"/>
+      <c r="F118" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G118" s="24"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="26"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E119" s="24"/>
+      <c r="F119" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G119" s="24"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="26"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="57" t="s">
+        <v>363</v>
+      </c>
+      <c r="B120" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="C120" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="D120" s="72" t="s">
+        <v>366</v>
+      </c>
+      <c r="E120" s="73"/>
+      <c r="F120" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="G120" s="73"/>
+      <c r="H120" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="I120" s="76"/>
+    </row>
+    <row r="121" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A121" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E121" s="28"/>
+      <c r="F121" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G121" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H121" s="29"/>
+      <c r="I121" s="30"/>
+    </row>
+    <row r="124" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A124" s="21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A125" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D125" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F125" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G125" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I125" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="B126" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C126" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D126" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E126" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="F126" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G126" s="38"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="39"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E127" s="24"/>
+      <c r="F127" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G127" s="24"/>
+      <c r="H127" s="25"/>
+      <c r="I127" s="26"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I5" s="40"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="24">
+      <c r="C128" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E128" s="24"/>
+      <c r="F128" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G128" s="24"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="26"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E129" s="24"/>
+      <c r="F129" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G129" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H129" s="25"/>
+      <c r="I129" s="26"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E130" s="24"/>
+      <c r="F130" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G130" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H130" s="25"/>
+      <c r="I130" s="26"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E131" s="24"/>
+      <c r="F131" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G131" s="24"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="26"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B132" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E132" s="24"/>
+      <c r="F132" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G132" s="24">
+        <v>0</v>
+      </c>
+      <c r="H132" s="25"/>
+      <c r="I132" s="26"/>
+    </row>
+    <row r="133" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A133" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E133" s="28"/>
+      <c r="F133" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G133" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="I133" s="30"/>
+    </row>
+    <row r="136" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A136" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A137" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D137" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F137" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G137" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="24">
+      <c r="I137" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="B138" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="C138" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D138" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E138" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="F138" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G138" s="38"/>
+      <c r="H138" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="I138" s="39"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E139" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G139" s="24"/>
+      <c r="H139" s="63" t="s">
+        <v>349</v>
+      </c>
+      <c r="I139" s="26"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E140" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G140" s="24"/>
+      <c r="H140" s="63"/>
+      <c r="I140" s="26"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E141" s="24"/>
+      <c r="F141" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G141" s="24"/>
+      <c r="H141" s="25"/>
+      <c r="I141" s="26"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E142" s="24"/>
+      <c r="F142" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G142" s="24"/>
+      <c r="H142" s="25"/>
+      <c r="I142" s="26"/>
+    </row>
+    <row r="143" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A143" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E143" s="28"/>
+      <c r="F143" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G143" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H143" s="29"/>
+      <c r="I143" s="30"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="F144"/>
+    </row>
+    <row r="146" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A146" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A147" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D147" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F147" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="24">
+      <c r="G147" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I147" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="B148" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="C148" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D148" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E148" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="F148" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G148" s="38"/>
+      <c r="H148" s="37"/>
+      <c r="I148" s="39"/>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E149" s="24"/>
+      <c r="F149" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G149" s="24"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="26"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E150" s="24"/>
+      <c r="F150" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G150" s="24"/>
+      <c r="H150" s="25"/>
+      <c r="I150" s="26"/>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E151" s="24"/>
+      <c r="F151" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G151" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H151" s="25"/>
+      <c r="I151" s="26"/>
+    </row>
+    <row r="152" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A152" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E152" s="28"/>
+      <c r="F152" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G152" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H152" s="29"/>
+      <c r="I152" s="30"/>
+    </row>
+    <row r="155" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A155" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A156" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D156" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="24">
+      <c r="E156" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F156" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G156" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I156" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="s">
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="B157" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C157" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D157" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E157" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="F157" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G157" s="38"/>
+      <c r="H157" s="37"/>
+      <c r="I157" s="39"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E158" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G158" s="24"/>
+      <c r="H158" s="25"/>
+      <c r="I158" s="26"/>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="24">
-        <v>6</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="24">
-        <v>7</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="24">
-        <v>8</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="24">
-        <v>9</v>
-      </c>
-      <c r="B13" s="26" t="s">
+      <c r="E159" s="24"/>
+      <c r="F159" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G159" s="24"/>
+      <c r="H159" s="25"/>
+      <c r="I159" s="26"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E160" s="24"/>
+      <c r="F160" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G160" s="24"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="26"/>
+    </row>
+    <row r="161" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A161" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C161" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="24">
-        <v>10</v>
-      </c>
-      <c r="B14" s="26" t="s">
+      <c r="D161" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="24">
-        <v>11</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="24">
-        <v>12</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>324</v>
-      </c>
-      <c r="I16" s="27"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="24">
+      <c r="E161" s="28"/>
+      <c r="F161" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G161" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H161" s="29"/>
+      <c r="I161" s="30"/>
+    </row>
+    <row r="164" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A164" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A165" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D165" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F165" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G165" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="26" t="s">
+      <c r="H165" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I165" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="B166" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="C166" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D166" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E166" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="F166" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G166" s="38"/>
+      <c r="H166" s="37"/>
+      <c r="I166" s="39"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E167" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G167" s="24"/>
+      <c r="H167" s="25"/>
+      <c r="I167" s="26"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E168" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G168" s="24"/>
+      <c r="H168" s="25"/>
+      <c r="I168" s="26"/>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E169" s="24"/>
+      <c r="F169" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G169" s="24"/>
+      <c r="H169" s="25"/>
+      <c r="I169" s="26"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E170" s="24"/>
+      <c r="F170" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G170" s="24"/>
+      <c r="H170" s="25"/>
+      <c r="I170" s="26"/>
+    </row>
+    <row r="171" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A171" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E171" s="28"/>
+      <c r="F171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G171" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H171" s="29"/>
+      <c r="I171" s="30"/>
+    </row>
+    <row r="174" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A174" s="21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A175" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D175" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E175" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F175" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G175" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H175" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I175" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="B176" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="C176" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="D176" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E176" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="F176" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G176" s="38"/>
+      <c r="H176" s="37"/>
+      <c r="I176" s="39"/>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E177" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G177" s="24"/>
+      <c r="H177" s="25"/>
+      <c r="I177" s="26"/>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E178" s="24"/>
+      <c r="F178" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="24">
-        <v>14</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-    </row>
-    <row r="19" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A19" s="28">
-        <v>15</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-    </row>
-    <row r="22" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A22" s="22" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A23" s="34" t="s">
+      <c r="G178" s="24"/>
+      <c r="H178" s="25"/>
+      <c r="I178" s="26"/>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E179" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G179" s="24"/>
+      <c r="H179" s="25"/>
+      <c r="I179" s="26"/>
+    </row>
+    <row r="180" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A180" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E180" s="28"/>
+      <c r="F180" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G180" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H180" s="29"/>
+      <c r="I180" s="30"/>
+    </row>
+    <row r="183" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A183" s="42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A184" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B184" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="35" t="s">
+      <c r="C184" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D184" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="F23" s="35" t="s">
+      <c r="E184" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="F184" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G184" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H184" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I184" s="45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="37">
-        <v>1</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="40"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="24">
-        <v>2</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="24">
-        <v>3</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="24">
-        <v>4</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="24">
-        <v>5</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="24">
-        <v>6</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="24">
-        <v>7</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="24">
-        <v>8</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="24">
-        <v>9</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="24">
-        <v>10</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="24">
-        <v>11</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="24">
-        <v>12</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="I35" s="27"/>
-    </row>
-    <row r="36" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A36" s="28">
-        <v>13</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="G36" s="29">
-        <v>0</v>
-      </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="33"/>
-      <c r="E37" s="32"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-    </row>
-    <row r="39" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A39" s="22" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A40" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I40" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="37">
-        <v>1</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="G41" s="39"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="40"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="24">
-        <v>2</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G42" s="25"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="27"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="24">
-        <v>3</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G43" s="25"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="27"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="24">
-        <v>4</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="26" t="s">
+    <row r="185" spans="1:9">
+      <c r="A185" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="B185" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="C185" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D185" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="E185" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="42" t="s">
-        <v>341</v>
-      </c>
-      <c r="I44" s="27"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="24">
-        <v>5</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="42" t="s">
-        <v>340</v>
-      </c>
-      <c r="I45" s="27"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="58" t="s">
-        <v>336</v>
-      </c>
-      <c r="B46" s="59" t="s">
-        <v>338</v>
-      </c>
-      <c r="C46" s="59" t="s">
-        <v>339</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="E46" s="60"/>
-      <c r="F46" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G46" s="60"/>
-      <c r="H46" s="42" t="s">
-        <v>343</v>
-      </c>
-      <c r="I46" s="61"/>
-    </row>
-    <row r="47" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A47" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="G47" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="H47" s="30"/>
-      <c r="I47" s="31"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-    </row>
-    <row r="50" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A50" s="22" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A51" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G51" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I51" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="37"/>
-      <c r="B52" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="D52" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="E52" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="F52" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G52" s="39"/>
-      <c r="H52" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="I52" s="40"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="24"/>
-      <c r="B53" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="27"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="24"/>
-      <c r="B54" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G54" s="25"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="27"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="24"/>
-      <c r="B55" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G55" s="25"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="27"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="24"/>
-      <c r="B56" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G56" s="25"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="27"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="24"/>
-      <c r="B57" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G57" s="25"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="27"/>
-    </row>
-    <row r="58" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A58" s="28"/>
-      <c r="B58" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G58" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="H58" s="30"/>
-      <c r="I58" s="31"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-    </row>
-    <row r="61" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A61" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A62" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="F62" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I62" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="37">
-        <v>1</v>
-      </c>
-      <c r="B63" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="C63" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="F63" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="G63" s="39"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="40"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="24">
-        <v>2</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="E64" s="25"/>
-      <c r="F64" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G64" s="25"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="27"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="24">
-        <v>3</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="E65" s="25"/>
-      <c r="F65" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G65" s="25"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="27"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="24">
-        <v>4</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="E66" s="25"/>
-      <c r="F66" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G66" s="25"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="27"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="24">
-        <v>5</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="E67" s="25"/>
-      <c r="F67" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G67" s="25"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="27"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="24">
-        <v>6</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="E68" s="25"/>
-      <c r="F68" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G68" s="25"/>
-      <c r="H68" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="I68" s="27"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="24">
-        <v>7</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="E69" s="25"/>
-      <c r="F69" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G69" s="25"/>
-      <c r="H69" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="I69" s="27"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="24">
-        <v>8</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="E70" s="25"/>
-      <c r="F70" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G70" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="H70" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="I70" s="27"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="24">
-        <v>9</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="E71" s="25"/>
-      <c r="F71" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G71" s="25"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="27"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="24">
-        <v>10</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="E72" s="25"/>
-      <c r="F72" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G72" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H72" s="26"/>
-      <c r="I72" s="27"/>
-    </row>
-    <row r="73" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A73" s="28">
-        <v>11</v>
-      </c>
-      <c r="B73" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="F73" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="G73" s="29"/>
-      <c r="H73" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="I73" s="31"/>
-    </row>
-    <row r="76" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A76" s="22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A77" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D77" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="F77" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G77" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I77" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="37">
-        <v>1</v>
-      </c>
-      <c r="B78" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="C78" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D78" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="E78" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="F78" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="G78" s="39"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="40"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="24">
-        <v>2</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G79" s="25"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="27"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="24">
-        <v>3</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="C80" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="D80" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="E80" s="25"/>
-      <c r="F80" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G80" s="25"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="27"/>
-    </row>
-    <row r="81" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A81" s="28">
-        <v>4</v>
-      </c>
-      <c r="B81" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="E81" s="29"/>
-      <c r="F81" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="G81" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="H81" s="30"/>
-      <c r="I81" s="31"/>
-    </row>
-    <row r="84" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A84" s="22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A85" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D85" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="F85" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G85" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I85" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="37">
-        <v>1</v>
-      </c>
-      <c r="B86" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="C86" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D86" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="E86" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="F86" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="G86" s="39"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="40"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="24">
-        <v>2</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E87" s="25"/>
-      <c r="F87" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G87" s="25"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="27"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="24">
-        <v>3</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C88" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="D88" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E88" s="25"/>
-      <c r="F88" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G88" s="25"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="27"/>
-    </row>
-    <row r="89" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A89" s="28">
-        <v>4</v>
-      </c>
-      <c r="B89" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D89" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="E89" s="29"/>
-      <c r="F89" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="G89" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="H89" s="30"/>
-      <c r="I89" s="31"/>
-    </row>
-    <row r="92" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A92" s="22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A93" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D93" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E93" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="F93" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G93" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I93" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="B94" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="C94" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D94" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="E94" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="F94" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="G94" s="39"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="40"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D95" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="F95" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G95" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="H95" s="26"/>
-      <c r="I95" s="27"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="C96" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="D96" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="E96" s="25"/>
-      <c r="F96" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G96" s="25"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="27"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="C97" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D97" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E97" s="25"/>
-      <c r="F97" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G97" s="25"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="27"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D98" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="E98" s="25"/>
-      <c r="F98" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G98" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H98" s="26"/>
-      <c r="I98" s="27"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="B99" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C99" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D99" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="E99" s="25"/>
-      <c r="F99" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G99" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H99" s="26"/>
-      <c r="I99" s="27"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="24" t="s">
+      <c r="F185" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="G185" s="48"/>
+      <c r="H185" s="49"/>
+      <c r="I185" s="50"/>
+    </row>
+    <row r="186" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A186" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="B100" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C100" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D100" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="E100" s="25"/>
-      <c r="F100" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G100" s="25"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="27"/>
-    </row>
-    <row r="101" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A101" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="B101" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="C101" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E101" s="29"/>
-      <c r="F101" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="G101" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="H101" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="I101" s="31"/>
-    </row>
-    <row r="104" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A104" s="22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A105" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D105" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="F105" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G105" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I105" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="B106" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="C106" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="D106" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="E106" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="F106" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G106" s="39"/>
-      <c r="H106" s="38"/>
-      <c r="I106" s="40"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E107" s="25"/>
-      <c r="F107" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G107" s="25"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="27"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E108" s="25"/>
-      <c r="F108" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G108" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="H108" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="I108" s="27"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E109" s="25"/>
-      <c r="F109" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G109" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="H109" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="I109" s="27"/>
-    </row>
-    <row r="110" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A110" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E110" s="29"/>
-      <c r="F110" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G110" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="H110" s="30"/>
-      <c r="I110" s="31"/>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="33"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="32"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="32"/>
-      <c r="H111" s="33"/>
-      <c r="I111" s="33"/>
-    </row>
-    <row r="113" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A113" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A114" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C114" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D114" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E114" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="F114" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G114" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I114" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="B115" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="C115" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="D115" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="E115" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="F115" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G115" s="39"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="40"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E116" s="25"/>
-      <c r="F116" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G116" s="25"/>
-      <c r="H116" s="26"/>
-      <c r="I116" s="27"/>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E117" s="25"/>
-      <c r="F117" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G117" s="25"/>
-      <c r="H117" s="26"/>
-      <c r="I117" s="27"/>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E118" s="25"/>
-      <c r="F118" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G118" s="25"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="27"/>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E119" s="25"/>
-      <c r="F119" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G119" s="25"/>
-      <c r="H119" s="26"/>
-      <c r="I119" s="27"/>
-    </row>
-    <row r="120" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A120" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E120" s="29"/>
-      <c r="F120" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G120" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="H120" s="30"/>
-      <c r="I120" s="31"/>
-    </row>
-    <row r="123" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A123" s="22" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A124" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C124" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D124" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E124" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="F124" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G124" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I124" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="B125" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="C125" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="D125" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="E125" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="F125" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G125" s="39"/>
-      <c r="H125" s="38"/>
-      <c r="I125" s="40"/>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E126" s="25"/>
-      <c r="F126" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G126" s="25"/>
-      <c r="H126" s="26"/>
-      <c r="I126" s="27"/>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E127" s="25"/>
-      <c r="F127" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G127" s="25"/>
-      <c r="H127" s="26"/>
-      <c r="I127" s="27"/>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E128" s="25"/>
-      <c r="F128" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G128" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H128" s="26"/>
-      <c r="I128" s="27"/>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E129" s="25"/>
-      <c r="F129" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G129" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H129" s="26"/>
-      <c r="I129" s="27"/>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E130" s="25"/>
-      <c r="F130" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G130" s="25"/>
-      <c r="H130" s="26"/>
-      <c r="I130" s="27"/>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="B131" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C131" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D131" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="E131" s="25"/>
-      <c r="F131" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G131" s="25">
-        <v>0</v>
-      </c>
-      <c r="H131" s="26"/>
-      <c r="I131" s="27"/>
-    </row>
-    <row r="132" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A132" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E132" s="29"/>
-      <c r="F132" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G132" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="I132" s="31"/>
-    </row>
-    <row r="135" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A135" s="22" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A136" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B136" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C136" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D136" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E136" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="F136" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G136" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H136" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I136" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="B137" s="41" t="s">
-        <v>353</v>
-      </c>
-      <c r="C137" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="D137" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="E137" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="F137" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G137" s="39"/>
-      <c r="H137" s="63" t="s">
-        <v>351</v>
-      </c>
-      <c r="I137" s="40"/>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E138" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G138" s="25"/>
-      <c r="H138" s="64" t="s">
-        <v>352</v>
-      </c>
-      <c r="I138" s="27"/>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E139" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G139" s="25"/>
-      <c r="H139" s="64"/>
-      <c r="I139" s="27"/>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E140" s="25"/>
-      <c r="F140" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G140" s="25"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="27"/>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E141" s="25"/>
-      <c r="F141" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G141" s="25"/>
-      <c r="H141" s="26"/>
-      <c r="I141" s="27"/>
-    </row>
-    <row r="142" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A142" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E142" s="29"/>
-      <c r="F142" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G142" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="H142" s="30"/>
-      <c r="I142" s="31"/>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="F143"/>
-    </row>
-    <row r="145" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A145" s="22" t="s">
+      <c r="B186" s="52" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A146" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B146" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C146" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D146" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E146" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="F146" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G146" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H146" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I146" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="B147" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="C147" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="D147" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="E147" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="F147" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G147" s="39"/>
-      <c r="H147" s="38"/>
-      <c r="I147" s="40"/>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E148" s="25"/>
-      <c r="F148" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G148" s="25"/>
-      <c r="H148" s="26"/>
-      <c r="I148" s="27"/>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E149" s="25"/>
-      <c r="F149" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G149" s="25"/>
-      <c r="H149" s="26"/>
-      <c r="I149" s="27"/>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E150" s="25"/>
-      <c r="F150" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G150" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H150" s="26"/>
-      <c r="I150" s="27"/>
-    </row>
-    <row r="151" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A151" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E151" s="29"/>
-      <c r="F151" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G151" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="H151" s="30"/>
-      <c r="I151" s="31"/>
-    </row>
-    <row r="154" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A154" s="22" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A155" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C155" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D155" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E155" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="F155" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G155" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H155" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I155" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="B156" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="C156" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="D156" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="E156" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="F156" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G156" s="39"/>
-      <c r="H156" s="38"/>
-      <c r="I156" s="40"/>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E157" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G157" s="25"/>
-      <c r="H157" s="26"/>
-      <c r="I157" s="27"/>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E158" s="25"/>
-      <c r="F158" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G158" s="25"/>
-      <c r="H158" s="26"/>
-      <c r="I158" s="27"/>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E159" s="25"/>
-      <c r="F159" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G159" s="25"/>
-      <c r="H159" s="26"/>
-      <c r="I159" s="27"/>
-    </row>
-    <row r="160" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A160" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E160" s="29"/>
-      <c r="F160" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G160" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="H160" s="30"/>
-      <c r="I160" s="31"/>
-    </row>
-    <row r="163" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A163" s="22" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A164" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C164" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D164" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E164" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="F164" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G164" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H164" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I164" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="B165" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="C165" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="D165" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="E165" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="F165" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G165" s="39"/>
-      <c r="H165" s="38"/>
-      <c r="I165" s="40"/>
-    </row>
-    <row r="166" spans="1:9">
-      <c r="A166" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E166" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G166" s="25"/>
-      <c r="H166" s="26"/>
-      <c r="I166" s="27"/>
-    </row>
-    <row r="167" spans="1:9">
-      <c r="A167" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E167" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G167" s="25"/>
-      <c r="H167" s="26"/>
-      <c r="I167" s="27"/>
-    </row>
-    <row r="168" spans="1:9">
-      <c r="A168" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E168" s="25"/>
-      <c r="F168" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G168" s="25"/>
-      <c r="H168" s="26"/>
-      <c r="I168" s="27"/>
-    </row>
-    <row r="169" spans="1:9">
-      <c r="A169" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E169" s="25"/>
-      <c r="F169" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G169" s="25"/>
-      <c r="H169" s="26"/>
-      <c r="I169" s="27"/>
-    </row>
-    <row r="170" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A170" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E170" s="29"/>
-      <c r="F170" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G170" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="H170" s="30"/>
-      <c r="I170" s="31"/>
-    </row>
-    <row r="173" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A173" s="22" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A174" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B174" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C174" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D174" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E174" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="F174" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G174" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H174" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I174" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
-      <c r="A175" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="B175" s="41" t="s">
-        <v>316</v>
-      </c>
-      <c r="C175" s="41" t="s">
-        <v>305</v>
-      </c>
-      <c r="D175" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="E175" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="F175" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G175" s="39"/>
-      <c r="H175" s="38"/>
-      <c r="I175" s="40"/>
-    </row>
-    <row r="176" spans="1:9">
-      <c r="A176" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E176" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G176" s="25"/>
-      <c r="H176" s="26"/>
-      <c r="I176" s="27"/>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E177" s="25"/>
-      <c r="F177" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G177" s="25"/>
-      <c r="H177" s="26"/>
-      <c r="I177" s="27"/>
-    </row>
-    <row r="178" spans="1:9">
-      <c r="A178" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E178" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G178" s="25"/>
-      <c r="H178" s="26"/>
-      <c r="I178" s="27"/>
-    </row>
-    <row r="179" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A179" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E179" s="29"/>
-      <c r="F179" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G179" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="H179" s="30"/>
-      <c r="I179" s="31"/>
-    </row>
-    <row r="182" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A182" s="43" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A183" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B183" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C183" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="D183" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="E183" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="F183" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G183" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H183" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="I183" s="46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
-      <c r="A184" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="B184" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="C184" s="48" t="s">
+      <c r="C186" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="D184" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="E184" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="F184" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="G184" s="49"/>
-      <c r="H184" s="50"/>
-      <c r="I184" s="51"/>
-    </row>
-    <row r="185" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A185" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="B185" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="C185" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="D185" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="E185" s="54"/>
-      <c r="F185" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="G185" s="54"/>
-      <c r="H185" s="55"/>
-      <c r="I185" s="56"/>
+      <c r="D186" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="E186" s="53"/>
+      <c r="F186" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="G186" s="53"/>
+      <c r="H186" s="54"/>
+      <c r="I186" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16454,8 +16608,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId4" name="TextBox1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="10243" r:id="rId4" name="ComboBox1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10243" r:id="rId4" name="ComboBox1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10241" r:id="rId6" name="TextBox1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -16474,32 +16653,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10241" r:id="rId4" name="TextBox1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10243" r:id="rId6" name="ComboBox1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10243" r:id="rId6" name="ComboBox1"/>
+        <control shapeId="10241" r:id="rId6" name="TextBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">

--- a/ecobay/src/main/webapp/resources/db/분석설계.xlsx
+++ b/ecobay/src/main/webapp/resources/db/분석설계.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectWorking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CookSpring\ecobay\ecobay\src\main\webapp\resources\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="374">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1131,6 +1131,425 @@
   </si>
   <si>
     <t>XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[(2018-09-12 결정사항]]
+1. 대/중분류명을 분류명으로 단일로 통합하기로 함.
+2. 대분류인 경우 중분류를 'XX'으로 기본값 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONEY_UNIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUCTDATE_UNIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONEY_FIRST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAYNOW_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAYNOW_MONEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELI_DIV_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용(답변)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QNA답변 : QNAREPLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QNARP_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK/FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>관리자 : 아이디, 비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 테이블 삭제(2018-09-14)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">회원(member) - ID, 이름, 비밀번호, 생년월일, 주소(우편번호,주소1, 주소2), 성별, 폰번호, 가입완료여부, 등록일시, 변경일시, 삭제일시, 사용여부, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회원구분(M_type)  - 2018-09-14 추가 - 기본값 : 'ROLE_USER'(VARCHAR(50))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* 회원정보
+- ID, 이름, 비밀번호, 생년월일, 주소(우편번호,주소1, 주소2), 성별, 폰번호, 가입완료여부
+  -&gt; ID : 이메일 형식(중복체크) - ajax 사용 - 고정
+  -&gt; 이름 : 회원이름 - 고정
+  -&gt; 비밀번호 : 비번확인 부분 추가, 8~16자리까지 가능
+  -&gt; 성별 : 라디오버튼 또는 콤보박스로 남/여 선택만 가능하도록 함. - 고정
+  -&gt; 생년월일 : datepicker 또는 캘린더 방식으로 입력(직접 입력 안됨) - 고정
+  -&gt; 폰번호 : 앞자리(3자리 콤보) - 필드1 - 필드2
+  -&gt; 주소 : 우편번호  / 주소1 (직접입력 안됨 - API연동) / 주소2(직접입력)
+  -&gt; 정규식처리 : ID, 이름, 비밀번호, 생년월일, 폰번호
+- 가입완료 버튼 클릭시 ID(이메일)로 가입인증 메일 발송 -&gt; 메일에서 확인클릭시 최종가입완료처리됨. 
+   -&gt; 가입완료여부가 기본적으로 false가 되었다가 확인하면 true로 변경되어 로그인할 수 있도록 함.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 회원구분(M_type) : 회원/관리자 구분('ROLE_USER', 'ROLE_ADMIN' - VARCHAR(50)) - 2018-09-17추가
+-  가입완료여부(기본값:FALSE) / 사용여부(기본값:TRUE) - BOOLEAN형으로 변경(보안처리를 위해 변경함) - 2018-09-17 반영 - 다른 테이블에 들어있는 YN컬럼은 모두 BOOLEAN형으로 변경</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원구분(M_type) : 회원/관리자 구분('ROLE_USER', 'ROLE_ADMIN' - VARCHAR(50) - 2018-09-17 변경반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5) -&gt; BOOLEAN 형변경 - 2018-09-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 : ADMINS : 시큐리티 처리를 위해서 관리자정보를 회원정보와 통합처리하기로 함(2018-09-17 삭제).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILENAME_THUMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 올린 실제파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 올라가는 파일명(경로가 붙어있는)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 올라가는 썸네일파일명(경로가 붙어있는) - 2018-09-18 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 경매정보 : 상품코드, 시작가, 최종입찰가, 입찰단위, 경매기간, 경매시작일시, 경매종료일시, 즉시구매여부, 즉시구매가, 등록일시, 낙찰자정보(회원ID)
+ -&gt; 경매시작일시 / 경매종료일시 처리(2018-09-20 처리방법에 대해 추가변경)
+    --&gt; 요청시점에서 경매시작일시와 경매기간에 대한 정보를 요청자에게 입력받고 요청에 따른 경매종료일시를 계산하여 저장.
+    --&gt; 관리자가 요청상품정보를 승인할 시점에서 경매시작일시가 승인일시보다 앞인 경우 경매시작일시를 승인일시로 변경하고 경매기간을 기준으로 경매종료일시를 재계산하여 update처리함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">관리자 승인시 생성 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; 1차 상품등록시점 &gt; 2차 승인시점(시작일시가 승일일시보다 앞인 경우만)에서 계산하여 처리하기로 함.(2018-09-20)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호화로 인해 길이 VARCHAR(50) -&gt; VARCHAR(500)으로 변경(2018-09-20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 일련번호 / 제목 / 등록일시 / 파일정보(이미지정보 -&gt;파일정보로 변경[20181002])
+- 게시판 형식으로 출력
+- 페이징 처리
+- 검색처리(제목 / 내용 / 제목+내용)
+- 댓글 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공지사항 : 일련번호, 제목, 내용, 등록일시, 변경일시, 삭제일시, 사용여부
+- 공지사항 파일 : 파일코드, 일련번호(int형), 공지사항일련번호, 업로드명, 파일명, 등록일시
+ -&gt;2파일코드 규칙 : 일련번호형식.
+( 이미지에서 파일로 변경되면서 재정의함[20181002] 
+- 공지사항이미지 : 이미지코드, 일련번호(int형), 공지사항일련번호, 업로드명, 파일명, 등록일시
+ -&gt; 이미지코드 규칙 : 일련번호형식
+ -&gt; 업로드명 규칙 : 분류코드(3자리-NOT) + 이미지코드+일련번호_이미지명 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">공지사항 파일 : NOTICEFILE - [20181002] </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(공지시항이미지 : NOTICEIMG에서 파일로 변경됨.)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMG_CD -&gt; FILE_CD로 변경[20181002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMG_IDX -&gt; FILE_IDX로 변경[20181002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 배송구분(직거래(1) / 택배(2))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 배송정보 : 상품코드 / 배송구분코드/ 배송구분명 / 등록일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:직거래 / 2:택배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제처리코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼 삭제[20181002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT_PROC_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:대기 / 2: 종료 - 2018-10-02 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 : 승인완료여부/처리완료여부 컬럼 삭제 -&gt; 결제처리전 처리정보는 경매정보테이블에 업데이트되도록 함 -&gt; 결제완료시 경매정보테이블의 결제처리코드 -&gt; 2로 변경됨(2018-10-02) 추가.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 입찰내역 : 상품코드, 입찰자정보(회원ID), 입찰금액, 입찰일시(등록일시)
+- 낙찰시점에 경매정보테이블에 최종입찰가/낙찰자정보/결제처리코드(1)이 업데이트됨.
+ -&gt; 결제처리코드 추가(1:대기 / 2: 완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송정보 등록시 실제배송자 전화번호가 필요하므로 추가 - 20181002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELI_PHONENUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령자전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK/FK</t>
+  </si>
+  <si>
+    <t>PK/FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1170,255 +1589,10 @@
         - 문화[CT] - 국내도서[KB], 해외도서[FB], DVD[DV], 음반[LP], 기타[ET]
         - 스포츠[SP] - 자동차[MT], 구기용품[BA], 아웃도어[OT], 기타[ET]
         - 수집/예술[CA] - 수집품[CO], 동양예술품[OA], 서양예술품[WA], 기타[ET]
-   -&gt; 상태코드 : 1(요청) / 2(요청취소) / 3(승인) / 4(반려) /5(낙찰) / 6(유찰)
+   -&gt; 상태코드 : 1(요청) / 2(요청취소) / 3(승인) / 4(반려) /5(낙찰) / 6(유찰) / 7(즉시구매)[20181004 추가]
 - 경매상품 정보는 수정이 불가능하며 수정이 필요한 경우에는 관리자에게 취소요청 후에 다시 등록요청하기로 함.
 - 낙찰시 최종입찰한 입찰자에게 낙찰메일 발송.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[(2018-09-12 결정사항]]
-1. 대/중분류명을 분류명으로 단일로 통합하기로 함.
-2. 대분류인 경우 중분류를 'XX'으로 기본값 부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MONEY_UNIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUCTDATE_UNIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MONEY_FIRST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAYNOW_YN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAYNOW_MONEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELI_DIV_CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADMIN_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용(답변)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QNA답변 : QNAREPLY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QNARP_IDX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK/FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>관리자 : 아이디, 비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 테이블 삭제(2018-09-14)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">회원(member) - ID, 이름, 비밀번호, 생년월일, 주소(우편번호,주소1, 주소2), 성별, 폰번호, 가입완료여부, 등록일시, 변경일시, 삭제일시, 사용여부, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>회원구분(M_type)  - 2018-09-14 추가 - 기본값 : 'ROLE_USER'(VARCHAR(50))</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* 회원정보
-- ID, 이름, 비밀번호, 생년월일, 주소(우편번호,주소1, 주소2), 성별, 폰번호, 가입완료여부
-  -&gt; ID : 이메일 형식(중복체크) - ajax 사용 - 고정
-  -&gt; 이름 : 회원이름 - 고정
-  -&gt; 비밀번호 : 비번확인 부분 추가, 8~16자리까지 가능
-  -&gt; 성별 : 라디오버튼 또는 콤보박스로 남/여 선택만 가능하도록 함. - 고정
-  -&gt; 생년월일 : datepicker 또는 캘린더 방식으로 입력(직접 입력 안됨) - 고정
-  -&gt; 폰번호 : 앞자리(3자리 콤보) - 필드1 - 필드2
-  -&gt; 주소 : 우편번호  / 주소1 (직접입력 안됨 - API연동) / 주소2(직접입력)
-  -&gt; 정규식처리 : ID, 이름, 비밀번호, 생년월일, 폰번호
-- 가입완료 버튼 클릭시 ID(이메일)로 가입인증 메일 발송 -&gt; 메일에서 확인클릭시 최종가입완료처리됨. 
-   -&gt; 가입완료여부가 기본적으로 false가 되었다가 확인하면 true로 변경되어 로그인할 수 있도록 함.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- 회원구분(M_type) : 회원/관리자 구분('ROLE_USER', 'ROLE_ADMIN' - VARCHAR(50)) - 2018-09-17추가
--  가입완료여부(기본값:FALSE) / 사용여부(기본값:TRUE) - BOOLEAN형으로 변경(보안처리를 위해 변경함) - 2018-09-17 반영 - 다른 테이블에 들어있는 YN컬럼은 모두 BOOLEAN형으로 변경</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원구분(M_type) : 회원/관리자 구분('ROLE_USER', 'ROLE_ADMIN' - VARCHAR(50) - 2018-09-17 변경반영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5) -&gt; BOOLEAN 형변경 - 2018-09-17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 : ADMINS : 시큐리티 처리를 위해서 관리자정보를 회원정보와 통합처리하기로 함(2018-09-17 삭제).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FALSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FALSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FALSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FILENAME_THUMB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 올린 실제파일명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버에 올라가는 파일명(경로가 붙어있는)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1426,6 +1600,7 @@
 - 이미지 등록은 에디터에서 폴더 설정 가능하다고 함
 - 분류 : 대분류코드, 중분류코드, 분류명, 분류구분, 등록일시, 수정일시, 삭제일시, 사용여부( -&gt; 대/중분류명을 분류명으로 단일로 통합하기로 함.(2018-09-12 결정사항)
 - 상품 : 상품코드, 회원ID(판매자ID), 상품명(제목), 대분류코드, 중분류코드, 설명, 상태코드, 상태명, 등록일시, 수정일시, 삭제일시, 사용여부, 조회수
+  -&gt; 상태코드 - 7(즉시구매)[20181004 추가]
 - 상품이미지 : 이미지코드, 일련번호(int형), 상품코드, 업로드명, 파일명, 등록일시
  -&gt; 상품이미지코드 규칙 : 일련번호형식
  -&gt; 업로드명 규칙 : 분류코드(3자리-PRD) + 이미지코드+일련번호_이미지명 &lt;- 명칭 규칙은 랜덤으로 변경(2018-09-18)
@@ -1434,166 +1609,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서버에 올라가는 썸네일파일명(경로가 붙어있는) - 2018-09-18 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 경매정보 : 상품코드, 시작가, 최종입찰가, 입찰단위, 경매기간, 경매시작일시, 경매종료일시, 즉시구매여부, 즉시구매가, 등록일시, 낙찰자정보(회원ID)
- -&gt; 경매시작일시 / 경매종료일시 처리(2018-09-20 처리방법에 대해 추가변경)
-    --&gt; 요청시점에서 경매시작일시와 경매기간에 대한 정보를 요청자에게 입력받고 요청에 따른 경매종료일시를 계산하여 저장.
-    --&gt; 관리자가 요청상품정보를 승인할 시점에서 경매시작일시가 승인일시보다 앞인 경우 경매시작일시를 승인일시로 변경하고 경매기간을 기준으로 경매종료일시를 재계산하여 update처리함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">관리자 승인시 생성 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-&gt; 1차 상품등록시점 &gt; 2차 승인시점(시작일시가 승일일시보다 앞인 경우만)에서 계산하여 처리하기로 함.(2018-09-20)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암호화로 인해 길이 VARCHAR(50) -&gt; VARCHAR(500)으로 변경(2018-09-20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 일련번호 / 제목 / 등록일시 / 파일정보(이미지정보 -&gt;파일정보로 변경[20181002])
-- 게시판 형식으로 출력
-- 페이징 처리
-- 검색처리(제목 / 내용 / 제목+내용)
-- 댓글 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 공지사항 : 일련번호, 제목, 내용, 등록일시, 변경일시, 삭제일시, 사용여부
-- 공지사항 파일 : 파일코드, 일련번호(int형), 공지사항일련번호, 업로드명, 파일명, 등록일시
- -&gt;2파일코드 규칙 : 일련번호형식.
-( 이미지에서 파일로 변경되면서 재정의함[20181002] 
-- 공지사항이미지 : 이미지코드, 일련번호(int형), 공지사항일련번호, 업로드명, 파일명, 등록일시
- -&gt; 이미지코드 규칙 : 일련번호형식
- -&gt; 업로드명 규칙 : 분류코드(3자리-NOT) + 이미지코드+일련번호_이미지명 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">공지사항 파일 : NOTICEFILE - [20181002] </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(공지시항이미지 : NOTICEIMG에서 파일로 변경됨.)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMG_CD -&gt; FILE_CD로 변경[20181002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMG_IDX -&gt; FILE_IDX로 변경[20181002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FILE_CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FILE_IDX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 배송구분(직거래(1) / 택배(2))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 배송정보 : 상품코드 / 배송구분코드/ 배송구분명 / 등록일시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:직거래 / 2:택배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제처리코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컬럼 삭제[20181002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAYMENT_PROC_CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:대기 / 2: 종료 - 2018-10-02 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 : 승인완료여부/처리완료여부 컬럼 삭제 -&gt; 결제처리전 처리정보는 경매정보테이블에 업데이트되도록 함 -&gt; 결제완료시 경매정보테이블의 결제처리코드 -&gt; 2로 변경됨(2018-10-02) 추가.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 입찰내역 : 상품코드, 입찰자정보(회원ID), 입찰금액, 입찰일시(등록일시)
-- 낙찰시점에 경매정보테이블에 최종입찰가/낙찰자정보/결제처리코드(1)이 업데이트됨.
- -&gt; 결제처리코드 추가(1:대기 / 2: 완료)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송정보 등록시 실제배송자 전화번호가 필요하므로 추가 - 20181002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELI_PHONENUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수령자전화번호</t>
+    <t>상태코드 : 1(요청) / 2(요청취소) / 3(승인) / 4(반려) /5(낙찰) / 6(유찰) / 7(즉시구매)[20181004 추가]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2288,11 +2304,11 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12157,8 +12173,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12354,10 +12370,10 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H11" s="14"/>
     </row>
@@ -12489,7 +12505,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:8" ht="280.5">
+    <row r="20" spans="1:8" ht="260.25" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="13" t="s">
         <v>73</v>
@@ -12502,13 +12518,13 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>291</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="258.75" customHeight="1">
@@ -12523,7 +12539,7 @@
         <v>150</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H21" s="16"/>
     </row>
@@ -12536,10 +12552,10 @@
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H22" s="16"/>
     </row>
@@ -12556,10 +12572,10 @@
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G23" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H23" s="16"/>
     </row>
@@ -12641,7 +12657,7 @@
         <v>97</v>
       </c>
       <c r="G28" s="71" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H28" s="14"/>
     </row>
@@ -12695,7 +12711,7 @@
         <v>94</v>
       </c>
       <c r="G31" s="70" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H31" s="14"/>
     </row>
@@ -12709,7 +12725,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H32" s="14"/>
     </row>
@@ -13010,8 +13026,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L119" sqref="L119"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13123,7 +13139,7 @@
         <v>111</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="25" t="s">
@@ -13131,7 +13147,7 @@
       </c>
       <c r="G7" s="24"/>
       <c r="H7" s="41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I7" s="26"/>
     </row>
@@ -13253,7 +13269,7 @@
         <v>117</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="25" t="s">
@@ -13274,17 +13290,17 @@
         <v>118</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="25" t="s">
         <v>162</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I14" s="26"/>
     </row>
@@ -13299,17 +13315,17 @@
         <v>121</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="25" t="s">
         <v>162</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I15" s="26"/>
     </row>
@@ -13318,23 +13334,23 @@
         <v>12</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>165</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I16" s="26"/>
     </row>
@@ -13478,7 +13494,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>124</v>
@@ -13568,7 +13584,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>127</v>
@@ -13602,7 +13618,9 @@
         <v>162</v>
       </c>
       <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
+      <c r="H30" s="41" t="s">
+        <v>373</v>
+      </c>
       <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:9">
@@ -13711,10 +13729,10 @@
         <v>162</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I35" s="26"/>
     </row>
@@ -13869,7 +13887,7 @@
       </c>
       <c r="G44" s="24"/>
       <c r="H44" s="41" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I44" s="26"/>
     </row>
@@ -13892,19 +13910,19 @@
       </c>
       <c r="G45" s="24"/>
       <c r="H45" s="41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I45" s="26"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B46" s="58" t="s">
+        <v>334</v>
+      </c>
+      <c r="C46" s="58" t="s">
         <v>335</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>336</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>216</v>
@@ -13915,13 +13933,13 @@
       </c>
       <c r="G46" s="59"/>
       <c r="H46" s="41" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I46" s="60"/>
     </row>
     <row r="47" spans="1:9" ht="17.25" thickBot="1">
       <c r="A47" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B47" s="29" t="s">
         <v>178</v>
@@ -14216,7 +14234,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>202</v>
@@ -14258,7 +14276,7 @@
         <v>4</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C66" s="25" t="s">
         <v>206</v>
@@ -14279,7 +14297,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C67" s="25" t="s">
         <v>207</v>
@@ -14314,7 +14332,7 @@
       </c>
       <c r="G68" s="24"/>
       <c r="H68" s="25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I68" s="26"/>
     </row>
@@ -14337,7 +14355,7 @@
       </c>
       <c r="G69" s="24"/>
       <c r="H69" s="25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I69" s="26"/>
     </row>
@@ -14346,23 +14364,23 @@
         <v>8</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C70" s="25" t="s">
         <v>212</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="25" t="s">
         <v>162</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H70" s="41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I70" s="26"/>
     </row>
@@ -14371,7 +14389,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C71" s="25" t="s">
         <v>213</v>
@@ -14437,24 +14455,24 @@
     </row>
     <row r="74" spans="1:9" ht="17.25" thickBot="1">
       <c r="A74" s="27" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B74" s="56" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C74" s="56" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D74" s="56" t="s">
         <v>174</v>
       </c>
       <c r="E74" s="69"/>
       <c r="F74" s="56" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G74" s="69"/>
       <c r="H74" s="56" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I74" s="30"/>
     </row>
@@ -14506,7 +14524,7 @@
         <v>190</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>214</v>
+        <v>369</v>
       </c>
       <c r="F78" s="37" t="s">
         <v>162</v>
@@ -14529,7 +14547,7 @@
         <v>161</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>199</v>
+        <v>368</v>
       </c>
       <c r="F79" s="25" t="s">
         <v>162</v>
@@ -14551,7 +14569,9 @@
       <c r="D80" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="E80" s="24"/>
+      <c r="E80" s="24" t="s">
+        <v>370</v>
+      </c>
       <c r="F80" s="25" t="s">
         <v>162</v>
       </c>
@@ -14644,7 +14664,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C87" s="25" t="s">
         <v>225</v>
@@ -14658,7 +14678,7 @@
       </c>
       <c r="G87" s="24"/>
       <c r="H87" s="25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I87" s="26"/>
     </row>
@@ -14681,7 +14701,7 @@
       </c>
       <c r="G88" s="24"/>
       <c r="H88" s="25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I88" s="26"/>
     </row>
@@ -14910,17 +14930,17 @@
         <v>121</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E101" s="28"/>
       <c r="F101" s="29" t="s">
         <v>162</v>
       </c>
       <c r="G101" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H101" s="56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I101" s="30"/>
     </row>
@@ -15013,20 +15033,20 @@
         <v>234</v>
       </c>
       <c r="D108" s="65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E108" s="66"/>
       <c r="F108" s="65" t="s">
         <v>162</v>
       </c>
       <c r="G108" s="66" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H108" s="67" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I108" s="68" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -15040,20 +15060,20 @@
         <v>236</v>
       </c>
       <c r="D109" s="65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E109" s="66"/>
       <c r="F109" s="65" t="s">
         <v>162</v>
       </c>
       <c r="G109" s="66" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H109" s="67" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I109" s="68" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="17.25" thickBot="1">
@@ -15233,16 +15253,16 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="57" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B120" s="72" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C120" s="72" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D120" s="72" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E120" s="73"/>
       <c r="F120" s="74" t="s">
@@ -15250,13 +15270,13 @@
       </c>
       <c r="G120" s="73"/>
       <c r="H120" s="75" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I120" s="76"/>
     </row>
     <row r="121" spans="1:9" ht="17.25" thickBot="1">
       <c r="A121" s="27" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>178</v>
@@ -15477,7 +15497,7 @@
         <v>121</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E133" s="28"/>
       <c r="F133" s="2" t="s">
@@ -15487,13 +15507,13 @@
         <v>1</v>
       </c>
       <c r="H133" s="56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I133" s="30"/>
     </row>
     <row r="136" spans="1:9" ht="17.25" thickBot="1">
       <c r="A136" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="17.25" thickBot="1">
@@ -15530,7 +15550,7 @@
         <v>275</v>
       </c>
       <c r="B138" s="40" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C138" s="40" t="s">
         <v>132</v>
@@ -15546,7 +15566,7 @@
       </c>
       <c r="G138" s="38"/>
       <c r="H138" s="62" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I138" s="39"/>
     </row>
@@ -15555,7 +15575,7 @@
         <v>268</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>133</v>
@@ -15571,7 +15591,7 @@
       </c>
       <c r="G139" s="24"/>
       <c r="H139" s="63" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I139" s="26"/>
     </row>
@@ -16126,7 +16146,7 @@
     </row>
     <row r="174" spans="1:9" ht="17.25" thickBot="1">
       <c r="A174" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="17.25" thickBot="1">
@@ -16163,16 +16183,16 @@
         <v>267</v>
       </c>
       <c r="B176" s="40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C176" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D176" s="40" t="s">
         <v>196</v>
       </c>
       <c r="E176" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F176" s="40" t="s">
         <v>162</v>
@@ -16195,7 +16215,7 @@
         <v>196</v>
       </c>
       <c r="E177" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>162</v>
@@ -16212,10 +16232,10 @@
         <v>191</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E178" s="24"/>
       <c r="F178" s="1" t="s">
@@ -16230,16 +16250,16 @@
         <v>270</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E179" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>162</v>
@@ -16256,10 +16276,10 @@
         <v>178</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E180" s="28"/>
       <c r="F180" s="2" t="s">
@@ -16273,7 +16293,7 @@
     </row>
     <row r="183" spans="1:9" ht="17.25" thickBot="1">
       <c r="A183" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="17.25" thickBot="1">
@@ -16310,13 +16330,13 @@
         <v>275</v>
       </c>
       <c r="B185" s="47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C185" s="47" t="s">
         <v>109</v>
       </c>
       <c r="D185" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E185" s="48" t="s">
         <v>219</v>
@@ -16608,8 +16628,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10243" r:id="rId4" name="ComboBox1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="10241" r:id="rId4" name="TextBox1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10241" r:id="rId4" name="TextBox1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10243" r:id="rId6" name="ComboBox1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16628,32 +16673,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10243" r:id="rId4" name="ComboBox1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId6" name="TextBox1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10241" r:id="rId6" name="TextBox1"/>
+        <control shapeId="10243" r:id="rId6" name="ComboBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">

--- a/ecobay/src/main/webapp/resources/db/분석설계.xlsx
+++ b/ecobay/src/main/webapp/resources/db/분석설계.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="384">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1610,6 +1610,46 @@
   </si>
   <si>
     <t>상태코드 : 1(요청) / 2(요청취소) / 3(승인) / 4(반려) /5(낙찰) / 6(유찰) / 7(즉시구매)[20181004 추가]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILESIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181004 추가 - 다운로드시 사용하기 위해서...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13024,10 +13064,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I186"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15633,7 +15673,7 @@
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="1" t="s">
-        <v>182</v>
+        <v>380</v>
       </c>
       <c r="G141" s="24"/>
       <c r="H141" s="25"/>
@@ -15654,132 +15694,136 @@
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="1" t="s">
-        <v>182</v>
+        <v>316</v>
       </c>
       <c r="G142" s="24"/>
       <c r="H142" s="25"/>
       <c r="I142" s="26"/>
     </row>
-    <row r="143" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A143" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="B143" s="2" t="s">
+    <row r="143" spans="1:9">
+      <c r="A143" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="B143" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="C143" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D143" s="72" t="s">
+        <v>378</v>
+      </c>
+      <c r="E143" s="73"/>
+      <c r="F143" s="72" t="s">
+        <v>379</v>
+      </c>
+      <c r="G143" s="73" t="s">
+        <v>381</v>
+      </c>
+      <c r="H143" s="75" t="s">
+        <v>382</v>
+      </c>
+      <c r="I143" s="60"/>
+    </row>
+    <row r="144" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A144" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E143" s="28"/>
-      <c r="F143" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G143" s="28" t="s">
+      <c r="E144" s="28"/>
+      <c r="F144" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G144" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="H143" s="29"/>
-      <c r="I143" s="30"/>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="F144"/>
-    </row>
-    <row r="146" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A146" s="21" t="s">
+      <c r="H144" s="29"/>
+      <c r="I144" s="30"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="F145"/>
+    </row>
+    <row r="147" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A147" s="21" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A147" s="33" t="s">
+    <row r="148" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A148" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="34" t="s">
+      <c r="B148" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C147" s="34" t="s">
+      <c r="C148" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D147" s="34" t="s">
+      <c r="D148" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E147" s="34" t="s">
+      <c r="E148" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="F147" s="34" t="s">
+      <c r="F148" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G147" s="34" t="s">
+      <c r="G148" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H147" s="34" t="s">
+      <c r="H148" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I147" s="35" t="s">
+      <c r="I148" s="35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="36" t="s">
+    <row r="149" spans="1:9">
+      <c r="A149" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="B148" s="40" t="s">
+      <c r="B149" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="C148" s="40" t="s">
+      <c r="C149" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="D148" s="40" t="s">
+      <c r="D149" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="E148" s="38" t="s">
+      <c r="E149" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="F148" s="40" t="s">
+      <c r="F149" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="G148" s="38"/>
-      <c r="H148" s="37"/>
-      <c r="I148" s="39"/>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E149" s="24"/>
-      <c r="F149" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G149" s="24"/>
-      <c r="H149" s="25"/>
-      <c r="I149" s="26"/>
+      <c r="G149" s="38"/>
+      <c r="H149" s="37"/>
+      <c r="I149" s="39"/>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="1" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="G150" s="24"/>
       <c r="H150" s="25"/>
@@ -15787,144 +15831,144 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>119</v>
+        <v>249</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G151" s="24" t="s">
-        <v>186</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G151" s="24"/>
       <c r="H151" s="25"/>
       <c r="I151" s="26"/>
     </row>
-    <row r="152" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A152" s="27" t="s">
+    <row r="152" spans="1:9">
+      <c r="A152" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E152" s="24"/>
+      <c r="F152" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G152" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H152" s="25"/>
+      <c r="I152" s="26"/>
+    </row>
+    <row r="153" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A153" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C153" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E152" s="28"/>
-      <c r="F152" s="2" t="s">
+      <c r="E153" s="28"/>
+      <c r="F153" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G152" s="28" t="s">
+      <c r="G153" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="H152" s="29"/>
-      <c r="I152" s="30"/>
-    </row>
-    <row r="155" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A155" s="21" t="s">
+      <c r="H153" s="29"/>
+      <c r="I153" s="30"/>
+    </row>
+    <row r="156" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A156" s="21" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A156" s="33" t="s">
+    <row r="157" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A157" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B156" s="34" t="s">
+      <c r="B157" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C156" s="34" t="s">
+      <c r="C157" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D156" s="34" t="s">
+      <c r="D157" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E156" s="34" t="s">
+      <c r="E157" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="F156" s="34" t="s">
+      <c r="F157" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G156" s="34" t="s">
+      <c r="G157" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H156" s="34" t="s">
+      <c r="H157" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I156" s="35" t="s">
+      <c r="I157" s="35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="36" t="s">
+    <row r="158" spans="1:9">
+      <c r="A158" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="B157" s="40" t="s">
+      <c r="B158" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="C157" s="40" t="s">
+      <c r="C158" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="D157" s="40" t="s">
+      <c r="D158" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="E157" s="38" t="s">
+      <c r="E158" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="F157" s="40" t="s">
+      <c r="F158" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="G157" s="38"/>
-      <c r="H157" s="37"/>
-      <c r="I157" s="39"/>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E158" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G158" s="24"/>
-      <c r="H158" s="25"/>
-      <c r="I158" s="26"/>
+      <c r="G158" s="38"/>
+      <c r="H158" s="37"/>
+      <c r="I158" s="39"/>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E159" s="24"/>
+        <v>161</v>
+      </c>
+      <c r="E159" s="24" t="s">
+        <v>200</v>
+      </c>
       <c r="F159" s="1" t="s">
         <v>162</v>
       </c>
@@ -15934,143 +15978,141 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="1" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="G160" s="24"/>
       <c r="H160" s="25"/>
       <c r="I160" s="26"/>
     </row>
-    <row r="161" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A161" s="27" t="s">
+    <row r="161" spans="1:9">
+      <c r="A161" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E161" s="24"/>
+      <c r="F161" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G161" s="24"/>
+      <c r="H161" s="25"/>
+      <c r="I161" s="26"/>
+    </row>
+    <row r="162" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A162" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B162" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E161" s="28"/>
-      <c r="F161" s="2" t="s">
+      <c r="E162" s="28"/>
+      <c r="F162" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G161" s="28" t="s">
+      <c r="G162" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="H161" s="29"/>
-      <c r="I161" s="30"/>
-    </row>
-    <row r="164" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A164" s="21" t="s">
+      <c r="H162" s="29"/>
+      <c r="I162" s="30"/>
+    </row>
+    <row r="165" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A165" s="21" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A165" s="33" t="s">
+    <row r="166" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A166" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B165" s="34" t="s">
+      <c r="B166" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C165" s="34" t="s">
+      <c r="C166" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D165" s="34" t="s">
+      <c r="D166" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E165" s="34" t="s">
+      <c r="E166" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="F165" s="34" t="s">
+      <c r="F166" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G165" s="34" t="s">
+      <c r="G166" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H165" s="34" t="s">
+      <c r="H166" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I165" s="35" t="s">
+      <c r="I166" s="35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
-      <c r="A166" s="36" t="s">
+    <row r="167" spans="1:9">
+      <c r="A167" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="B166" s="40" t="s">
+      <c r="B167" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="C166" s="40" t="s">
+      <c r="C167" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="D166" s="40" t="s">
+      <c r="D167" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="E166" s="38" t="s">
+      <c r="E167" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="F166" s="40" t="s">
+      <c r="F167" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="G166" s="38"/>
-      <c r="H166" s="37"/>
-      <c r="I166" s="39"/>
-    </row>
-    <row r="167" spans="1:9">
-      <c r="A167" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E167" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G167" s="24"/>
-      <c r="H167" s="25"/>
-      <c r="I167" s="26"/>
+      <c r="G167" s="38"/>
+      <c r="H167" s="37"/>
+      <c r="I167" s="39"/>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E168" s="24" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>162</v>
@@ -16081,18 +16123,20 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E169" s="24"/>
+        <v>196</v>
+      </c>
+      <c r="E169" s="24" t="s">
+        <v>214</v>
+      </c>
       <c r="F169" s="1" t="s">
         <v>162</v>
       </c>
@@ -16102,16 +16146,16 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E170" s="24"/>
       <c r="F170" s="1" t="s">
@@ -16121,125 +16165,125 @@
       <c r="H170" s="25"/>
       <c r="I170" s="26"/>
     </row>
-    <row r="171" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A171" s="27" t="s">
+    <row r="171" spans="1:9">
+      <c r="A171" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E171" s="24"/>
+      <c r="F171" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G171" s="24"/>
+      <c r="H171" s="25"/>
+      <c r="I171" s="26"/>
+    </row>
+    <row r="172" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A172" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C172" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D172" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E171" s="28"/>
-      <c r="F171" s="2" t="s">
+      <c r="E172" s="28"/>
+      <c r="F172" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G171" s="28" t="s">
+      <c r="G172" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="H171" s="29"/>
-      <c r="I171" s="30"/>
-    </row>
-    <row r="174" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A174" s="21" t="s">
+      <c r="H172" s="29"/>
+      <c r="I172" s="30"/>
+    </row>
+    <row r="175" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A175" s="21" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A175" s="33" t="s">
+    <row r="176" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A176" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B175" s="34" t="s">
+      <c r="B176" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C175" s="34" t="s">
+      <c r="C176" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D175" s="34" t="s">
+      <c r="D176" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E175" s="34" t="s">
+      <c r="E176" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="F175" s="34" t="s">
+      <c r="F176" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G175" s="34" t="s">
+      <c r="G176" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H175" s="34" t="s">
+      <c r="H176" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I175" s="35" t="s">
+      <c r="I176" s="35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
-      <c r="A176" s="36" t="s">
+    <row r="177" spans="1:9">
+      <c r="A177" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="B176" s="40" t="s">
+      <c r="B177" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="C176" s="40" t="s">
+      <c r="C177" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="D176" s="40" t="s">
+      <c r="D177" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="E176" s="38" t="s">
+      <c r="E177" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="F176" s="40" t="s">
+      <c r="F177" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="G176" s="38"/>
-      <c r="H176" s="37"/>
-      <c r="I176" s="39"/>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E177" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G177" s="24"/>
-      <c r="H177" s="25"/>
-      <c r="I177" s="26"/>
+      <c r="G177" s="38"/>
+      <c r="H177" s="37"/>
+      <c r="I177" s="39"/>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E178" s="24"/>
+        <v>196</v>
+      </c>
+      <c r="E178" s="24" t="s">
+        <v>313</v>
+      </c>
       <c r="F178" s="1" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="G178" s="24"/>
       <c r="H178" s="25"/>
@@ -16247,127 +16291,148 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>300</v>
+        <v>191</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E179" s="24" t="s">
-        <v>302</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="E179" s="24"/>
       <c r="F179" s="1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G179" s="24"/>
       <c r="H179" s="25"/>
       <c r="I179" s="26"/>
     </row>
-    <row r="180" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A180" s="27" t="s">
+    <row r="180" spans="1:9">
+      <c r="A180" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E180" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G180" s="24"/>
+      <c r="H180" s="25"/>
+      <c r="I180" s="26"/>
+    </row>
+    <row r="181" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A181" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D181" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E180" s="28"/>
-      <c r="F180" s="2" t="s">
+      <c r="E181" s="28"/>
+      <c r="F181" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G180" s="28" t="s">
+      <c r="G181" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="H180" s="29"/>
-      <c r="I180" s="30"/>
-    </row>
-    <row r="183" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A183" s="42" t="s">
+      <c r="H181" s="29"/>
+      <c r="I181" s="30"/>
+    </row>
+    <row r="184" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A184" s="42" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A184" s="43" t="s">
+    <row r="185" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A185" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B184" s="44" t="s">
+      <c r="B185" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C184" s="44" t="s">
+      <c r="C185" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D184" s="44" t="s">
+      <c r="D185" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E184" s="44" t="s">
+      <c r="E185" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="F184" s="44" t="s">
+      <c r="F185" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G184" s="44" t="s">
+      <c r="G185" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H184" s="44" t="s">
+      <c r="H185" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I184" s="45" t="s">
+      <c r="I185" s="45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
-      <c r="A185" s="46" t="s">
+    <row r="186" spans="1:9">
+      <c r="A186" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="B185" s="47" t="s">
+      <c r="B186" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="C185" s="47" t="s">
+      <c r="C186" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="D185" s="47" t="s">
+      <c r="D186" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="E185" s="48" t="s">
+      <c r="E186" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="F185" s="47" t="s">
+      <c r="F186" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="G185" s="48"/>
-      <c r="H185" s="49"/>
-      <c r="I185" s="50"/>
-    </row>
-    <row r="186" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A186" s="51" t="s">
+      <c r="G186" s="48"/>
+      <c r="H186" s="49"/>
+      <c r="I186" s="50"/>
+    </row>
+    <row r="187" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A187" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="B186" s="52" t="s">
+      <c r="B187" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="C186" s="52" t="s">
+      <c r="C187" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="D186" s="52" t="s">
+      <c r="D187" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="E186" s="53"/>
-      <c r="F186" s="52" t="s">
+      <c r="E187" s="53"/>
+      <c r="F187" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="G186" s="53"/>
-      <c r="H186" s="54"/>
-      <c r="I186" s="55"/>
+      <c r="G187" s="53"/>
+      <c r="H187" s="54"/>
+      <c r="I187" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ecobay/src/main/webapp/resources/db/분석설계.xlsx
+++ b/ecobay/src/main/webapp/resources/db/분석설계.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectWorking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CookSpring\ecobay\ecobay\src\main\webapp\resources\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="9585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="9585"/>
   </bookViews>
   <sheets>
     <sheet name="분석" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="393">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,10 +285,6 @@
   </si>
   <si>
     <t>관심상품 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 상품리스트에서 관심상품 클릭한 내역 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1446,10 +1442,6 @@
   </si>
   <si>
     <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 : 승인완료여부/처리완료여부 컬럼 삭제 -&gt; 결제처리전 처리정보는 경매정보테이블에 업데이트되도록 함 -&gt; 결제완료시 경매정보테이블의 결제처리코드 -&gt; 2로 변경됨(2018-10-02) 추가.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1663,6 +1655,25 @@
   </si>
   <si>
     <t>QNA이미지 : QNAIMG : QNA테이블의 CONTENT컬럼에서 에디터로 이미지를 바로 넣을 수 있으므로 별도의 테이블이 필요없어짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심상품 : 회원ID / 상품코드 / 등록일시 - 차후 개발진행하기로 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 상품리스트에서 관심상품 클릭한 내역 출력(2018-10-08 상세분석)
+ =&gt; 상품상세보기폼에서 관심상품 등록처리하기
+ =&gt; 회원 &gt; 마이페이지 &gt; 관심상품 보기 - 리스트 출력
+    =&gt; 항목 : 썸네일 / 상품코드 / 상품명 / 경매진행여부
+ =&gt; 해당 상품클릭시 상품상세보기로 이동하기
+- 관리자페이지에서 상품삭제 -&gt; 관심상품내역에서 해당상품도 삭제되어야 함.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 : 승인완료여부/처리완료여부 컬럼 삭제 -&gt; 결제처리전 처리정보는 경매정보테이블에 업데이트되도록 함 -&gt; 결제완료시 경매정보테이블의 결제처리코드 -&gt; 2로 변경됨(2018-10-02) 추가.
+ =&gt; flag =&gt; 1 : 즉시구매 / 2 : 낙찰상품 결제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2632,8 +2643,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2683,10 +2694,10 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="H2" s="10"/>
     </row>
@@ -2698,7 +2709,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -2724,7 +2735,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="13"/>
     </row>
@@ -2786,7 +2797,7 @@
         <v>57</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -2829,10 +2840,10 @@
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H11" s="13"/>
     </row>
@@ -2847,7 +2858,7 @@
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
@@ -2884,7 +2895,7 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
@@ -2894,10 +2905,12 @@
         <v>64</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="12"/>
+      <c r="F15" s="70" t="s">
+        <v>391</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>390</v>
+      </c>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2905,16 +2918,16 @@
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="13"/>
     </row>
@@ -2927,7 +2940,7 @@
         <v>36</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
@@ -2937,13 +2950,13 @@
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>71</v>
-      </c>
       <c r="F18" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
@@ -2952,14 +2965,14 @@
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="13"/>
@@ -2967,23 +2980,23 @@
     <row r="20" spans="1:8" ht="260.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="244.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2991,14 +3004,14 @@
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H21" s="15"/>
     </row>
@@ -3007,14 +3020,14 @@
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>340</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>341</v>
       </c>
       <c r="H22" s="15"/>
     </row>
@@ -3027,14 +3040,14 @@
         <v>23</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="60" t="s">
+        <v>332</v>
+      </c>
+      <c r="G23" s="70" t="s">
         <v>333</v>
-      </c>
-      <c r="G23" s="70" t="s">
-        <v>334</v>
       </c>
       <c r="H23" s="15"/>
     </row>
@@ -3043,11 +3056,11 @@
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
@@ -3056,15 +3069,15 @@
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H25" s="13"/>
     </row>
@@ -3072,35 +3085,35 @@
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H27" s="13"/>
     </row>
@@ -3109,16 +3122,16 @@
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G28" s="70" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H28" s="13"/>
     </row>
@@ -3128,51 +3141,51 @@
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="D30" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G31" s="69" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="H31" s="13"/>
     </row>
@@ -3186,7 +3199,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H32" s="13"/>
     </row>
@@ -3201,7 +3214,7 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="13"/>
@@ -3217,7 +3230,7 @@
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="13"/>
@@ -3231,7 +3244,7 @@
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="13"/>
@@ -3242,14 +3255,14 @@
         <v>30</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="13"/>
@@ -3259,11 +3272,11 @@
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="13"/>
@@ -3281,7 +3294,7 @@
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="13"/>
@@ -3290,14 +3303,14 @@
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="13"/>
@@ -3306,14 +3319,14 @@
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="13"/>
@@ -3323,14 +3336,14 @@
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="H41" s="13"/>
     </row>
@@ -3345,7 +3358,7 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>34</v>
@@ -3434,7 +3447,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
@@ -3458,7 +3471,7 @@
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3469,13 +3482,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>3</v>
@@ -3495,23 +3508,23 @@
         <v>1</v>
       </c>
       <c r="B5" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>177</v>
-      </c>
       <c r="D5" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="37"/>
       <c r="H5" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I5" s="38"/>
     </row>
@@ -3520,17 +3533,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="24"/>
@@ -3541,21 +3554,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I7" s="25"/>
     </row>
@@ -3564,17 +3577,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>158</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>159</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="24"/>
@@ -3585,17 +3598,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>160</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>161</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="24"/>
@@ -3606,17 +3619,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>162</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
@@ -3627,17 +3640,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="24"/>
@@ -3648,20 +3661,20 @@
         <v>8</v>
       </c>
       <c r="B12" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>166</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
@@ -3671,17 +3684,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
@@ -3692,23 +3705,23 @@
         <v>10</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I14" s="25"/>
     </row>
@@ -3717,23 +3730,23 @@
         <v>11</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I15" s="25"/>
     </row>
@@ -3742,23 +3755,23 @@
         <v>12</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I16" s="25"/>
     </row>
@@ -3767,20 +3780,20 @@
         <v>13</v>
       </c>
       <c r="B17" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>170</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
@@ -3790,20 +3803,20 @@
         <v>14</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
@@ -3813,17 +3826,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
@@ -3842,7 +3855,7 @@
     </row>
     <row r="22" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3853,13 +3866,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>3</v>
@@ -3879,19 +3892,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="36"/>
@@ -3902,17 +3915,17 @@
         <v>2</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="24"/>
@@ -3923,19 +3936,19 @@
         <v>3</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="24"/>
@@ -3946,19 +3959,19 @@
         <v>4</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="24"/>
@@ -3969,19 +3982,19 @@
         <v>5</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="24"/>
@@ -3992,17 +4005,17 @@
         <v>6</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="24"/>
@@ -4013,21 +4026,21 @@
         <v>7</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="40" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I30" s="25"/>
     </row>
@@ -4036,17 +4049,17 @@
         <v>8</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="24"/>
@@ -4057,20 +4070,20 @@
         <v>9</v>
       </c>
       <c r="B32" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="24" t="s">
         <v>170</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
@@ -4080,20 +4093,20 @@
         <v>10</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="25"/>
@@ -4103,17 +4116,17 @@
         <v>11</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="24"/>
@@ -4124,23 +4137,23 @@
         <v>12</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I35" s="25"/>
     </row>
@@ -4149,17 +4162,17 @@
         <v>13</v>
       </c>
       <c r="B36" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="28" t="s">
         <v>187</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>188</v>
       </c>
       <c r="E36" s="27"/>
       <c r="F36" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G36" s="27">
         <v>0</v>
@@ -4175,7 +4188,7 @@
     </row>
     <row r="39" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4186,13 +4199,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D40" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>3</v>
@@ -4212,19 +4225,19 @@
         <v>1</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G41" s="37"/>
       <c r="H41" s="36"/>
@@ -4235,19 +4248,19 @@
         <v>2</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G42" s="23"/>
       <c r="H42" s="24"/>
@@ -4258,19 +4271,19 @@
         <v>3</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G43" s="23"/>
       <c r="H43" s="24"/>
@@ -4281,21 +4294,21 @@
         <v>4</v>
       </c>
       <c r="B44" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="24" t="s">
         <v>207</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>208</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G44" s="23"/>
       <c r="H44" s="40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I44" s="25"/>
     </row>
@@ -4304,66 +4317,66 @@
         <v>5</v>
       </c>
       <c r="B45" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="24" t="s">
         <v>209</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>210</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G45" s="23"/>
       <c r="H45" s="40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="56" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B46" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="C46" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="C46" s="57" t="s">
-        <v>326</v>
-      </c>
       <c r="D46" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E46" s="58"/>
       <c r="F46" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G46" s="58"/>
       <c r="H46" s="40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I46" s="59"/>
     </row>
     <row r="47" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B47" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="28" t="s">
         <v>170</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>171</v>
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H47" s="28"/>
       <c r="I47" s="29"/>
@@ -4392,7 +4405,7 @@
     </row>
     <row r="50" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4403,13 +4416,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D51" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F51" s="33" t="s">
         <v>3</v>
@@ -4427,42 +4440,42 @@
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="35"/>
       <c r="B52" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G52" s="37"/>
       <c r="H52" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I52" s="38"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="22"/>
       <c r="B53" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G53" s="23"/>
       <c r="H53" s="24"/>
@@ -4471,19 +4484,19 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="22"/>
       <c r="B54" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G54" s="23"/>
       <c r="H54" s="24"/>
@@ -4492,19 +4505,19 @@
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="22"/>
       <c r="B55" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G55" s="23"/>
       <c r="H55" s="24"/>
@@ -4513,17 +4526,17 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="22"/>
       <c r="B56" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G56" s="23"/>
       <c r="H56" s="24"/>
@@ -4532,17 +4545,17 @@
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="22"/>
       <c r="B57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G57" s="23"/>
       <c r="H57" s="24"/>
@@ -4551,20 +4564,20 @@
     <row r="58" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="26"/>
       <c r="B58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E58" s="27"/>
       <c r="F58" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H58" s="28"/>
       <c r="I58" s="29"/>
@@ -4582,7 +4595,7 @@
     </row>
     <row r="61" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4593,13 +4606,13 @@
         <v>1</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D62" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F62" s="33" t="s">
         <v>3</v>
@@ -4619,19 +4632,19 @@
         <v>1</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D63" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F63" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G63" s="37"/>
       <c r="H63" s="36"/>
@@ -4642,17 +4655,17 @@
         <v>2</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C64" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" s="24" t="s">
         <v>194</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>195</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G64" s="23"/>
       <c r="H64" s="24"/>
@@ -4663,17 +4676,17 @@
         <v>3</v>
       </c>
       <c r="B65" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C65" s="24" t="s">
-        <v>197</v>
-      </c>
       <c r="D65" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G65" s="23"/>
       <c r="H65" s="24"/>
@@ -4684,17 +4697,17 @@
         <v>4</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G66" s="23"/>
       <c r="H66" s="24"/>
@@ -4705,17 +4718,17 @@
         <v>5</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G67" s="23"/>
       <c r="H67" s="24"/>
@@ -4726,21 +4739,21 @@
         <v>6</v>
       </c>
       <c r="B68" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="24" t="s">
-        <v>201</v>
-      </c>
       <c r="D68" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G68" s="23"/>
       <c r="H68" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I68" s="25"/>
     </row>
@@ -4749,21 +4762,21 @@
         <v>7</v>
       </c>
       <c r="B69" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="C69" s="24" t="s">
-        <v>203</v>
-      </c>
       <c r="D69" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E69" s="23"/>
       <c r="F69" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G69" s="23"/>
       <c r="H69" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I69" s="25"/>
     </row>
@@ -4772,23 +4785,23 @@
         <v>8</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E70" s="23"/>
       <c r="F70" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H70" s="40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I70" s="25"/>
     </row>
@@ -4797,17 +4810,17 @@
         <v>9</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G71" s="23"/>
       <c r="H71" s="24"/>
@@ -4818,20 +4831,20 @@
         <v>10</v>
       </c>
       <c r="B72" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="24" t="s">
         <v>170</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H72" s="24"/>
       <c r="I72" s="25"/>
@@ -4841,52 +4854,52 @@
         <v>11</v>
       </c>
       <c r="B73" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="C73" s="24" t="s">
-        <v>255</v>
-      </c>
       <c r="D73" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G73" s="23"/>
       <c r="H73" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I73" s="25"/>
     </row>
     <row r="74" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="B74" s="55" t="s">
         <v>345</v>
       </c>
-      <c r="B74" s="55" t="s">
-        <v>346</v>
-      </c>
       <c r="C74" s="55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D74" s="55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E74" s="68"/>
       <c r="F74" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G74" s="68"/>
       <c r="H74" s="55" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I74" s="29"/>
     </row>
     <row r="76" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4897,13 +4910,13 @@
         <v>1</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D77" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F77" s="33" t="s">
         <v>3</v>
@@ -4923,19 +4936,19 @@
         <v>1</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C78" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D78" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F78" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G78" s="37"/>
       <c r="H78" s="36"/>
@@ -4946,19 +4959,19 @@
         <v>2</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G79" s="23"/>
       <c r="H79" s="24"/>
@@ -4969,19 +4982,19 @@
         <v>3</v>
       </c>
       <c r="B80" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="C80" s="24" t="s">
-        <v>216</v>
-      </c>
       <c r="D80" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G80" s="23"/>
       <c r="H80" s="24"/>
@@ -4992,27 +5005,27 @@
         <v>4</v>
       </c>
       <c r="B81" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" s="28" t="s">
         <v>170</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>171</v>
       </c>
       <c r="E81" s="27"/>
       <c r="F81" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H81" s="28"/>
       <c r="I81" s="29"/>
     </row>
     <row r="84" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5023,13 +5036,13 @@
         <v>1</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D85" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F85" s="33" t="s">
         <v>3</v>
@@ -5049,19 +5062,19 @@
         <v>1</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C86" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D86" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E86" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F86" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G86" s="37"/>
       <c r="H86" s="36"/>
@@ -5072,21 +5085,21 @@
         <v>2</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E87" s="23"/>
       <c r="F87" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G87" s="23"/>
       <c r="H87" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I87" s="25"/>
     </row>
@@ -5095,21 +5108,21 @@
         <v>3</v>
       </c>
       <c r="B88" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C88" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="C88" s="24" t="s">
-        <v>219</v>
-      </c>
       <c r="D88" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E88" s="23"/>
       <c r="F88" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G88" s="23"/>
       <c r="H88" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I88" s="25"/>
     </row>
@@ -5118,27 +5131,27 @@
         <v>4</v>
       </c>
       <c r="B89" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" s="28" t="s">
         <v>170</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D89" s="28" t="s">
-        <v>171</v>
       </c>
       <c r="E89" s="27"/>
       <c r="F89" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H89" s="28"/>
       <c r="I89" s="29"/>
     </row>
     <row r="92" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5149,13 +5162,13 @@
         <v>1</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D93" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F93" s="33" t="s">
         <v>3</v>
@@ -5172,22 +5185,22 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C94" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D94" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E94" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G94" s="37"/>
       <c r="H94" s="36"/>
@@ -5195,45 +5208,45 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F95" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G95" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H95" s="24"/>
       <c r="I95" s="25"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E96" s="23"/>
       <c r="F96" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G96" s="23"/>
       <c r="H96" s="24"/>
@@ -5241,20 +5254,20 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E97" s="23"/>
       <c r="F97" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G97" s="23"/>
       <c r="H97" s="24"/>
@@ -5262,66 +5275,66 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B98" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98" s="24" t="s">
         <v>170</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D98" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="E98" s="23"/>
       <c r="F98" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G98" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H98" s="24"/>
       <c r="I98" s="25"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E99" s="23"/>
       <c r="F99" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G99" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H99" s="24"/>
       <c r="I99" s="25"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E100" s="23"/>
       <c r="F100" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G100" s="23"/>
       <c r="H100" s="24"/>
@@ -5329,32 +5342,32 @@
     </row>
     <row r="101" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E101" s="27"/>
       <c r="F101" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G101" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H101" s="55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I101" s="29"/>
     </row>
     <row r="104" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5365,13 +5378,13 @@
         <v>1</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D105" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E105" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F105" s="33" t="s">
         <v>3</v>
@@ -5388,22 +5401,22 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B106" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C106" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D106" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E106" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F106" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G106" s="37"/>
       <c r="H106" s="36"/>
@@ -5411,20 +5424,20 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="D107" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G107" s="23"/>
       <c r="H107" s="24"/>
@@ -5432,77 +5445,77 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="63" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B108" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="C108" s="64" t="s">
-        <v>226</v>
-      </c>
       <c r="D108" s="64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E108" s="65"/>
       <c r="F108" s="64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G108" s="65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H108" s="66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I108" s="67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="63" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B109" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="C109" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="C109" s="64" t="s">
-        <v>228</v>
-      </c>
       <c r="D109" s="64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E109" s="65"/>
       <c r="F109" s="64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G109" s="65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H109" s="66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I109" s="67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E110" s="27"/>
       <c r="F110" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G110" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H110" s="28"/>
       <c r="I110" s="29"/>
@@ -5520,7 +5533,7 @@
     </row>
     <row r="113" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5531,13 +5544,13 @@
         <v>1</v>
       </c>
       <c r="C114" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D114" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E114" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F114" s="33" t="s">
         <v>3</v>
@@ -5554,22 +5567,22 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B115" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D115" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E115" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F115" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G115" s="37"/>
       <c r="H115" s="36"/>
@@ -5577,20 +5590,20 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="D116" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E116" s="23"/>
       <c r="F116" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G116" s="23"/>
       <c r="H116" s="24"/>
@@ -5598,20 +5611,20 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="D117" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E117" s="23"/>
       <c r="F117" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G117" s="23"/>
       <c r="H117" s="24"/>
@@ -5619,20 +5632,20 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="D118" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E118" s="23"/>
       <c r="F118" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G118" s="23"/>
       <c r="H118" s="24"/>
@@ -5640,20 +5653,20 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="D119" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E119" s="23"/>
       <c r="F119" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G119" s="23"/>
       <c r="H119" s="24"/>
@@ -5661,53 +5674,53 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="56" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B120" s="71" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C120" s="71" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D120" s="71" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E120" s="72"/>
       <c r="F120" s="73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G120" s="72"/>
       <c r="H120" s="74" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I120" s="75"/>
     </row>
     <row r="121" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E121" s="27"/>
       <c r="F121" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G121" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H121" s="28"/>
       <c r="I121" s="29"/>
     </row>
     <row r="124" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5718,13 +5731,13 @@
         <v>1</v>
       </c>
       <c r="C125" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D125" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F125" s="33" t="s">
         <v>3</v>
@@ -5741,22 +5754,22 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B126" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C126" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D126" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E126" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F126" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G126" s="37"/>
       <c r="H126" s="36"/>
@@ -5764,20 +5777,20 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="D127" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E127" s="23"/>
       <c r="F127" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G127" s="23"/>
       <c r="H127" s="24"/>
@@ -5785,20 +5798,20 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E128" s="23"/>
       <c r="F128" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G128" s="23"/>
       <c r="H128" s="24"/>
@@ -5806,66 +5819,66 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="E129" s="23"/>
       <c r="F129" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G129" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H129" s="24"/>
       <c r="I129" s="25"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E130" s="23"/>
       <c r="F130" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G130" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H130" s="24"/>
       <c r="I130" s="25"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E131" s="23"/>
       <c r="F131" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G131" s="23"/>
       <c r="H131" s="24"/>
@@ -5873,20 +5886,20 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B132" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C132" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D132" s="24" t="s">
         <v>187</v>
-      </c>
-      <c r="C132" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D132" s="24" t="s">
-        <v>188</v>
       </c>
       <c r="E132" s="23"/>
       <c r="F132" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G132" s="23">
         <v>0</v>
@@ -5896,32 +5909,32 @@
     </row>
     <row r="133" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E133" s="27"/>
       <c r="F133" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G133" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H133" s="55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I133" s="29"/>
     </row>
     <row r="136" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5932,13 +5945,13 @@
         <v>1</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D137" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E137" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F137" s="33" t="s">
         <v>3</v>
@@ -5955,72 +5968,72 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B138" s="39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C138" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D138" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E138" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F138" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G138" s="37"/>
       <c r="H138" s="61" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I138" s="38"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E139" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G139" s="23"/>
       <c r="H139" s="62" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I139" s="25"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E140" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G140" s="23"/>
       <c r="H140" s="62"/>
@@ -6028,20 +6041,20 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="E141" s="23"/>
       <c r="F141" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G141" s="23"/>
       <c r="H141" s="24"/>
@@ -6049,20 +6062,20 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E142" s="23"/>
       <c r="F142" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G142" s="23"/>
       <c r="H142" s="24"/>
@@ -6070,48 +6083,48 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="56" t="s">
+        <v>361</v>
+      </c>
+      <c r="B143" s="71" t="s">
         <v>363</v>
       </c>
-      <c r="B143" s="71" t="s">
+      <c r="C143" s="71" t="s">
+        <v>364</v>
+      </c>
+      <c r="D143" s="71" t="s">
         <v>365</v>
-      </c>
-      <c r="C143" s="71" t="s">
-        <v>366</v>
-      </c>
-      <c r="D143" s="71" t="s">
-        <v>367</v>
       </c>
       <c r="E143" s="72"/>
       <c r="F143" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="G143" s="72" t="s">
         <v>368</v>
       </c>
-      <c r="G143" s="72" t="s">
-        <v>370</v>
-      </c>
       <c r="H143" s="74" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I143" s="59"/>
     </row>
     <row r="144" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="26" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E144" s="27"/>
       <c r="F144" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G144" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H144" s="28"/>
       <c r="I144" s="29"/>
@@ -6121,7 +6134,7 @@
     </row>
     <row r="147" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6132,13 +6145,13 @@
         <v>1</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D148" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E148" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F148" s="33" t="s">
         <v>3</v>
@@ -6155,22 +6168,22 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B149" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C149" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D149" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E149" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F149" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G149" s="37"/>
       <c r="H149" s="36"/>
@@ -6178,20 +6191,20 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="D150" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E150" s="23"/>
       <c r="F150" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G150" s="23"/>
       <c r="H150" s="24"/>
@@ -6199,20 +6212,20 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E151" s="23"/>
       <c r="F151" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G151" s="23"/>
       <c r="H151" s="24"/>
@@ -6220,53 +6233,53 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="E152" s="23"/>
       <c r="F152" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G152" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H152" s="24"/>
       <c r="I152" s="25"/>
     </row>
     <row r="153" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E153" s="27"/>
       <c r="F153" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G153" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H153" s="28"/>
       <c r="I153" s="29"/>
     </row>
     <row r="156" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6277,13 +6290,13 @@
         <v>1</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D157" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E157" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F157" s="33" t="s">
         <v>3</v>
@@ -6300,22 +6313,22 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B158" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C158" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D158" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E158" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F158" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G158" s="37"/>
       <c r="H158" s="36"/>
@@ -6323,22 +6336,22 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E159" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G159" s="23"/>
       <c r="H159" s="24"/>
@@ -6346,20 +6359,20 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="D160" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E160" s="23"/>
       <c r="F160" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G160" s="23"/>
       <c r="H160" s="24"/>
@@ -6367,20 +6380,20 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E161" s="23"/>
       <c r="F161" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G161" s="23"/>
       <c r="H161" s="24"/>
@@ -6388,30 +6401,30 @@
     </row>
     <row r="162" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E162" s="27"/>
       <c r="F162" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G162" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H162" s="28"/>
       <c r="I162" s="29"/>
     </row>
     <row r="165" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="41" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B165" s="76"/>
       <c r="C165" s="76"/>
@@ -6430,13 +6443,13 @@
         <v>1</v>
       </c>
       <c r="C166" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D166" s="43" t="s">
         <v>4</v>
       </c>
       <c r="E166" s="43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F166" s="43" t="s">
         <v>3</v>
@@ -6453,22 +6466,22 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B167" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C167" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D167" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E167" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F167" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G167" s="47"/>
       <c r="H167" s="48"/>
@@ -6476,22 +6489,22 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B168" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C168" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D168" s="64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E168" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F168" s="64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G168" s="65"/>
       <c r="H168" s="78"/>
@@ -6499,22 +6512,22 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="63" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B169" s="64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C169" s="64" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D169" s="64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E169" s="65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F169" s="64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G169" s="65"/>
       <c r="H169" s="78"/>
@@ -6522,20 +6535,20 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="63" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B170" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C170" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D170" s="64" t="s">
         <v>207</v>
-      </c>
-      <c r="C170" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="D170" s="64" t="s">
-        <v>208</v>
       </c>
       <c r="E170" s="65"/>
       <c r="F170" s="64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G170" s="65"/>
       <c r="H170" s="78"/>
@@ -6543,20 +6556,20 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B171" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C171" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="D171" s="64" t="s">
         <v>209</v>
-      </c>
-      <c r="C171" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="D171" s="64" t="s">
-        <v>210</v>
       </c>
       <c r="E171" s="65"/>
       <c r="F171" s="64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G171" s="65"/>
       <c r="H171" s="78"/>
@@ -6564,30 +6577,30 @@
     </row>
     <row r="172" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B172" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C172" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D172" s="51" t="s">
         <v>170</v>
-      </c>
-      <c r="C172" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D172" s="51" t="s">
-        <v>171</v>
       </c>
       <c r="E172" s="52"/>
       <c r="F172" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G172" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H172" s="53"/>
       <c r="I172" s="54"/>
     </row>
     <row r="175" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6598,13 +6611,13 @@
         <v>1</v>
       </c>
       <c r="C176" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D176" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E176" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F176" s="33" t="s">
         <v>3</v>
@@ -6621,22 +6634,22 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B177" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C177" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D177" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E177" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F177" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G177" s="37"/>
       <c r="H177" s="36"/>
@@ -6644,22 +6657,22 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E178" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G178" s="23"/>
       <c r="H178" s="24"/>
@@ -6667,20 +6680,20 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E179" s="23"/>
       <c r="F179" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G179" s="23"/>
       <c r="H179" s="24"/>
@@ -6688,22 +6701,22 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E180" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G180" s="23"/>
       <c r="H180" s="24"/>
@@ -6711,30 +6724,30 @@
     </row>
     <row r="181" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E181" s="27"/>
       <c r="F181" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G181" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H181" s="28"/>
       <c r="I181" s="29"/>
     </row>
     <row r="184" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6745,13 +6758,13 @@
         <v>1</v>
       </c>
       <c r="C185" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D185" s="43" t="s">
         <v>4</v>
       </c>
       <c r="E185" s="43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F185" s="43" t="s">
         <v>3</v>
@@ -6768,22 +6781,22 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B186" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C186" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D186" s="46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E186" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F186" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G186" s="47"/>
       <c r="H186" s="48"/>
@@ -6791,20 +6804,20 @@
     </row>
     <row r="187" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="50" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B187" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C187" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D187" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E187" s="52"/>
       <c r="F187" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G187" s="52"/>
       <c r="H187" s="53"/>
@@ -6832,72 +6845,72 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/ecobay/src/main/webapp/resources/db/분석설계.xlsx
+++ b/ecobay/src/main/webapp/resources/db/분석설계.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="9585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="9585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="분석" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="394">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1438,10 +1438,6 @@
   </si>
   <si>
     <t>PAYMENT_PROC_CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1676,12 +1672,20 @@
  =&gt; flag =&gt; 1 : 즉시구매 / 2 : 낙찰상품 결제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2081,7 +2085,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2321,6 +2325,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2643,11 +2650,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9.375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="7" bestFit="1" customWidth="1"/>
@@ -2659,7 +2666,7 @@
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2685,7 +2692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="33">
       <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
@@ -2701,7 +2708,7 @@
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="49.5">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -2721,7 +2728,7 @@
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
@@ -2739,7 +2746,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="33">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -2755,7 +2762,7 @@
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="33">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -2769,7 +2776,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -2783,7 +2790,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="33">
       <c r="A8" s="11"/>
       <c r="B8" s="12" t="s">
         <v>15</v>
@@ -2801,7 +2808,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="33">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -2817,7 +2824,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="33">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -2831,7 +2838,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="264" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="264">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
@@ -2847,7 +2854,7 @@
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="33">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
@@ -2863,7 +2870,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="33">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -2877,7 +2884,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
@@ -2895,7 +2902,7 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="104.25" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
@@ -2906,14 +2913,14 @@
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="70" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G15" s="70" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -2931,7 +2938,7 @@
       </c>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -2945,7 +2952,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="82.5">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -2961,7 +2968,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
@@ -2977,7 +2984,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" ht="260.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="260.25" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="12" t="s">
         <v>72</v>
@@ -2990,16 +2997,16 @@
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>358</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>359</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="244.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="244.5" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -3011,11 +3018,11 @@
         <v>141</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -3031,7 +3038,7 @@
       </c>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="114" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="12" t="s">
         <v>22</v>
@@ -3051,7 +3058,7 @@
       </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="66">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -3065,7 +3072,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
@@ -3081,7 +3088,7 @@
       </c>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="99">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
@@ -3096,10 +3103,10 @@
         <v>105</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="66">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
@@ -3117,7 +3124,7 @@
       </c>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="132">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -3131,11 +3138,11 @@
         <v>95</v>
       </c>
       <c r="G28" s="70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="82.5">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -3151,7 +3158,7 @@
       </c>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="82.5">
       <c r="A30" s="11"/>
       <c r="B30" s="12" t="s">
         <v>89</v>
@@ -3171,7 +3178,7 @@
       </c>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="66">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12" t="s">
@@ -3182,14 +3189,14 @@
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G31" s="69" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
         <v>24</v>
       </c>
@@ -3203,7 +3210,7 @@
       </c>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
         <v>25</v>
@@ -3219,7 +3226,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12" t="s">
@@ -3235,7 +3242,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3249,7 +3256,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="66">
       <c r="A36" s="11"/>
       <c r="B36" s="12" t="s">
         <v>30</v>
@@ -3267,7 +3274,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3281,7 +3288,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="11"/>
       <c r="B38" s="12" t="s">
         <v>22</v>
@@ -3299,7 +3306,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12" t="s">
@@ -3315,7 +3322,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="33">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12" t="s">
@@ -3331,7 +3338,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="13"/>
     </row>
-    <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="33">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3347,7 +3354,7 @@
       </c>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="11"/>
       <c r="B42" s="12" t="s">
         <v>32</v>
@@ -3365,7 +3372,7 @@
       </c>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3375,7 +3382,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3385,7 +3392,7 @@
       <c r="G44" s="12"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -3395,7 +3402,7 @@
       <c r="G45" s="12"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -3405,7 +3412,7 @@
       <c r="G46" s="12"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -3415,7 +3422,7 @@
       <c r="G47" s="12"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -3425,7 +3432,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="17.25" thickBot="1">
       <c r="A49" s="16"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -3447,11 +3454,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
     <col min="2" max="3" width="25.625" style="20" customWidth="1"/>
@@ -3464,17 +3471,17 @@
     <col min="10" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="17.25" thickBot="1">
       <c r="A3" s="20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="17.25" thickBot="1">
       <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
@@ -3503,7 +3510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="35">
         <v>1</v>
       </c>
@@ -3528,7 +3535,7 @@
       </c>
       <c r="I5" s="38"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="22">
         <v>2</v>
       </c>
@@ -3549,7 +3556,7 @@
       <c r="H6" s="24"/>
       <c r="I6" s="25"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="22">
         <v>3</v>
       </c>
@@ -3572,7 +3579,7 @@
       </c>
       <c r="I7" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="22">
         <v>4</v>
       </c>
@@ -3593,7 +3600,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="22">
         <v>5</v>
       </c>
@@ -3614,7 +3621,7 @@
       <c r="H9" s="24"/>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="22">
         <v>6</v>
       </c>
@@ -3635,7 +3642,7 @@
       <c r="H10" s="24"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="22">
         <v>7</v>
       </c>
@@ -3656,7 +3663,7 @@
       <c r="H11" s="24"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="22">
         <v>8</v>
       </c>
@@ -3679,7 +3686,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="22">
         <v>9</v>
       </c>
@@ -3690,7 +3697,7 @@
         <v>115</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="24" t="s">
@@ -3700,7 +3707,7 @@
       <c r="H13" s="24"/>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="22">
         <v>10</v>
       </c>
@@ -3725,7 +3732,7 @@
       </c>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="22">
         <v>11</v>
       </c>
@@ -3750,7 +3757,7 @@
       </c>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="22">
         <v>12</v>
       </c>
@@ -3775,7 +3782,7 @@
       </c>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="22">
         <v>13</v>
       </c>
@@ -3798,7 +3805,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="22">
         <v>14</v>
       </c>
@@ -3821,7 +3828,7 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="17.25" thickBot="1">
       <c r="A19" s="26">
         <v>15</v>
       </c>
@@ -3842,7 +3849,7 @@
       <c r="H19" s="28"/>
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -3853,12 +3860,12 @@
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="22" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="17.25" thickBot="1">
       <c r="A22" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="17.25" thickBot="1">
       <c r="A23" s="32" t="s">
         <v>0</v>
       </c>
@@ -3887,7 +3894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="35">
         <v>1</v>
       </c>
@@ -3910,7 +3917,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="38"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="22">
         <v>2</v>
       </c>
@@ -3931,7 +3938,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="22">
         <v>3</v>
       </c>
@@ -3954,7 +3961,7 @@
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="22">
         <v>4</v>
       </c>
@@ -3977,7 +3984,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="22">
         <v>5</v>
       </c>
@@ -4000,7 +4007,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="22">
         <v>6</v>
       </c>
@@ -4021,7 +4028,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="22">
         <v>7</v>
       </c>
@@ -4040,11 +4047,11 @@
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I30" s="25"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="22">
         <v>8</v>
       </c>
@@ -4065,7 +4072,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="22">
         <v>9</v>
       </c>
@@ -4088,7 +4095,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="22">
         <v>10</v>
       </c>
@@ -4111,7 +4118,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="25"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="22">
         <v>11</v>
       </c>
@@ -4132,7 +4139,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="25"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="22">
         <v>12</v>
       </c>
@@ -4157,7 +4164,7 @@
       </c>
       <c r="I35" s="25"/>
     </row>
-    <row r="36" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="17.25" thickBot="1">
       <c r="A36" s="26">
         <v>13</v>
       </c>
@@ -4180,18 +4187,18 @@
       <c r="H36" s="28"/>
       <c r="I36" s="29"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="31"/>
       <c r="E37" s="30"/>
       <c r="H37" s="31"/>
       <c r="I37" s="31"/>
     </row>
-    <row r="39" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="17.25" thickBot="1">
       <c r="A39" s="20" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="17.25" thickBot="1">
       <c r="A40" s="32" t="s">
         <v>0</v>
       </c>
@@ -4220,7 +4227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="35">
         <v>1</v>
       </c>
@@ -4243,7 +4250,7 @@
       <c r="H41" s="36"/>
       <c r="I41" s="38"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="22">
         <v>2</v>
       </c>
@@ -4266,7 +4273,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="25"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="22">
         <v>3</v>
       </c>
@@ -4289,7 +4296,7 @@
       <c r="H43" s="24"/>
       <c r="I43" s="25"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="22">
         <v>4</v>
       </c>
@@ -4312,7 +4319,7 @@
       </c>
       <c r="I44" s="25"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" s="22">
         <v>5</v>
       </c>
@@ -4335,7 +4342,7 @@
       </c>
       <c r="I45" s="25"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" s="56" t="s">
         <v>322</v>
       </c>
@@ -4358,7 +4365,7 @@
       </c>
       <c r="I46" s="59"/>
     </row>
-    <row r="47" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="17.25" thickBot="1">
       <c r="A47" s="26" t="s">
         <v>323</v>
       </c>
@@ -4381,7 +4388,7 @@
       <c r="H47" s="28"/>
       <c r="I47" s="29"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
@@ -4392,7 +4399,7 @@
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
@@ -4403,12 +4410,12 @@
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
     </row>
-    <row r="50" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="17.25" thickBot="1">
       <c r="A50" s="20" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="17.25" thickBot="1">
       <c r="A51" s="32" t="s">
         <v>0</v>
       </c>
@@ -4437,7 +4444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" s="35"/>
       <c r="B52" s="39" t="s">
         <v>273</v>
@@ -4460,7 +4467,7 @@
       </c>
       <c r="I52" s="38"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53" s="22"/>
       <c r="B53" s="1" t="s">
         <v>274</v>
@@ -4481,7 +4488,7 @@
       <c r="H53" s="24"/>
       <c r="I53" s="25"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54" s="22"/>
       <c r="B54" s="1" t="s">
         <v>275</v>
@@ -4502,7 +4509,7 @@
       <c r="H54" s="24"/>
       <c r="I54" s="25"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55" s="22"/>
       <c r="B55" s="1" t="s">
         <v>175</v>
@@ -4523,7 +4530,7 @@
       <c r="H55" s="24"/>
       <c r="I55" s="25"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56" s="22"/>
       <c r="B56" s="1" t="s">
         <v>238</v>
@@ -4542,7 +4549,7 @@
       <c r="H56" s="24"/>
       <c r="I56" s="25"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57" s="22"/>
       <c r="B57" s="1" t="s">
         <v>182</v>
@@ -4561,7 +4568,7 @@
       <c r="H57" s="24"/>
       <c r="I57" s="25"/>
     </row>
-    <row r="58" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="17.25" thickBot="1">
       <c r="A58" s="26"/>
       <c r="B58" s="2" t="s">
         <v>169</v>
@@ -4582,7 +4589,7 @@
       <c r="H58" s="28"/>
       <c r="I58" s="29"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9">
       <c r="A59" s="31"/>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
@@ -4593,12 +4600,12 @@
       <c r="H59" s="31"/>
       <c r="I59" s="31"/>
     </row>
-    <row r="61" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="17.25" thickBot="1">
       <c r="A61" s="20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="17.25" thickBot="1">
       <c r="A62" s="32" t="s">
         <v>0</v>
       </c>
@@ -4627,7 +4634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="35">
         <v>1</v>
       </c>
@@ -4650,7 +4657,7 @@
       <c r="H63" s="36"/>
       <c r="I63" s="38"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" s="22">
         <v>2</v>
       </c>
@@ -4671,7 +4678,7 @@
       <c r="H64" s="24"/>
       <c r="I64" s="25"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="22">
         <v>3</v>
       </c>
@@ -4692,7 +4699,7 @@
       <c r="H65" s="24"/>
       <c r="I65" s="25"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="22">
         <v>4</v>
       </c>
@@ -4713,7 +4720,7 @@
       <c r="H66" s="24"/>
       <c r="I66" s="25"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="22">
         <v>5</v>
       </c>
@@ -4734,7 +4741,7 @@
       <c r="H67" s="24"/>
       <c r="I67" s="25"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" s="22">
         <v>6</v>
       </c>
@@ -4757,7 +4764,7 @@
       </c>
       <c r="I68" s="25"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" s="22">
         <v>7</v>
       </c>
@@ -4780,7 +4787,7 @@
       </c>
       <c r="I69" s="25"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="22">
         <v>8</v>
       </c>
@@ -4805,7 +4812,7 @@
       </c>
       <c r="I70" s="25"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="22">
         <v>9</v>
       </c>
@@ -4826,7 +4833,7 @@
       <c r="H71" s="24"/>
       <c r="I71" s="25"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" s="22">
         <v>10</v>
       </c>
@@ -4841,7 +4848,7 @@
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="24" t="s">
-        <v>153</v>
+        <v>392</v>
       </c>
       <c r="G72" s="23" t="s">
         <v>177</v>
@@ -4849,7 +4856,7 @@
       <c r="H72" s="24"/>
       <c r="I72" s="25"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="22">
         <v>11</v>
       </c>
@@ -4874,7 +4881,7 @@
       </c>
       <c r="I73" s="25"/>
     </row>
-    <row r="74" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="17.25" thickBot="1">
       <c r="A74" s="26" t="s">
         <v>344</v>
       </c>
@@ -4889,20 +4896,22 @@
       </c>
       <c r="E74" s="68"/>
       <c r="F74" s="55" t="s">
-        <v>346</v>
-      </c>
-      <c r="G74" s="68"/>
+        <v>306</v>
+      </c>
+      <c r="G74" s="80" t="s">
+        <v>393</v>
+      </c>
       <c r="H74" s="55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I74" s="29"/>
     </row>
-    <row r="76" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" ht="17.25" thickBot="1">
       <c r="A76" s="20" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" ht="17.25" thickBot="1">
       <c r="A77" s="32" t="s">
         <v>0</v>
       </c>
@@ -4931,7 +4940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" s="35">
         <v>1</v>
       </c>
@@ -4945,7 +4954,7 @@
         <v>181</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F78" s="36" t="s">
         <v>153</v>
@@ -4954,7 +4963,7 @@
       <c r="H78" s="36"/>
       <c r="I78" s="38"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" s="22">
         <v>2</v>
       </c>
@@ -4968,7 +4977,7 @@
         <v>152</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F79" s="24" t="s">
         <v>153</v>
@@ -4977,7 +4986,7 @@
       <c r="H79" s="24"/>
       <c r="I79" s="25"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="22">
         <v>3</v>
       </c>
@@ -4991,7 +5000,7 @@
         <v>194</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F80" s="24" t="s">
         <v>153</v>
@@ -5000,7 +5009,7 @@
       <c r="H80" s="24"/>
       <c r="I80" s="25"/>
     </row>
-    <row r="81" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="17.25" thickBot="1">
       <c r="A81" s="26">
         <v>4</v>
       </c>
@@ -5023,12 +5032,12 @@
       <c r="H81" s="28"/>
       <c r="I81" s="29"/>
     </row>
-    <row r="84" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" ht="17.25" thickBot="1">
       <c r="A84" s="20" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" ht="17.25" thickBot="1">
       <c r="A85" s="32" t="s">
         <v>0</v>
       </c>
@@ -5057,7 +5066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9">
       <c r="A86" s="35">
         <v>1</v>
       </c>
@@ -5080,7 +5089,7 @@
       <c r="H86" s="36"/>
       <c r="I86" s="38"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87" s="22">
         <v>2</v>
       </c>
@@ -5103,7 +5112,7 @@
       </c>
       <c r="I87" s="25"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9">
       <c r="A88" s="22">
         <v>3</v>
       </c>
@@ -5126,7 +5135,7 @@
       </c>
       <c r="I88" s="25"/>
     </row>
-    <row r="89" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" ht="17.25" thickBot="1">
       <c r="A89" s="26">
         <v>4</v>
       </c>
@@ -5149,12 +5158,12 @@
       <c r="H89" s="28"/>
       <c r="I89" s="29"/>
     </row>
-    <row r="92" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" ht="17.25" thickBot="1">
       <c r="A92" s="20" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" ht="17.25" thickBot="1">
       <c r="A93" s="32" t="s">
         <v>0</v>
       </c>
@@ -5183,7 +5192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9">
       <c r="A94" s="35" t="s">
         <v>257</v>
       </c>
@@ -5206,7 +5215,7 @@
       <c r="H94" s="36"/>
       <c r="I94" s="38"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9">
       <c r="A95" s="22" t="s">
         <v>258</v>
       </c>
@@ -5231,7 +5240,7 @@
       <c r="H95" s="24"/>
       <c r="I95" s="25"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9">
       <c r="A96" s="22" t="s">
         <v>259</v>
       </c>
@@ -5252,7 +5261,7 @@
       <c r="H96" s="24"/>
       <c r="I96" s="25"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9">
       <c r="A97" s="22" t="s">
         <v>260</v>
       </c>
@@ -5273,7 +5282,7 @@
       <c r="H97" s="24"/>
       <c r="I97" s="25"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9">
       <c r="A98" s="22" t="s">
         <v>261</v>
       </c>
@@ -5296,7 +5305,7 @@
       <c r="H98" s="24"/>
       <c r="I98" s="25"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9">
       <c r="A99" s="22" t="s">
         <v>262</v>
       </c>
@@ -5319,7 +5328,7 @@
       <c r="H99" s="24"/>
       <c r="I99" s="25"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9">
       <c r="A100" s="22" t="s">
         <v>263</v>
       </c>
@@ -5340,7 +5349,7 @@
       <c r="H100" s="24"/>
       <c r="I100" s="25"/>
     </row>
-    <row r="101" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" ht="17.25" thickBot="1">
       <c r="A101" s="26" t="s">
         <v>264</v>
       </c>
@@ -5365,12 +5374,12 @@
       </c>
       <c r="I101" s="29"/>
     </row>
-    <row r="104" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" ht="17.25" thickBot="1">
       <c r="A104" s="20" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" ht="17.25" thickBot="1">
       <c r="A105" s="32" t="s">
         <v>0</v>
       </c>
@@ -5399,7 +5408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="A106" s="35" t="s">
         <v>265</v>
       </c>
@@ -5422,7 +5431,7 @@
       <c r="H106" s="36"/>
       <c r="I106" s="38"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" s="22" t="s">
         <v>258</v>
       </c>
@@ -5443,7 +5452,7 @@
       <c r="H107" s="24"/>
       <c r="I107" s="25"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9">
       <c r="A108" s="63" t="s">
         <v>259</v>
       </c>
@@ -5470,7 +5479,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" s="63" t="s">
         <v>260</v>
       </c>
@@ -5497,7 +5506,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" ht="17.25" thickBot="1">
       <c r="A110" s="26" t="s">
         <v>261</v>
       </c>
@@ -5520,7 +5529,7 @@
       <c r="H110" s="28"/>
       <c r="I110" s="29"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="A111" s="31"/>
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
@@ -5531,12 +5540,12 @@
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="113" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" ht="17.25" thickBot="1">
       <c r="A113" s="20" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" ht="17.25" thickBot="1">
       <c r="A114" s="32" t="s">
         <v>0</v>
       </c>
@@ -5565,7 +5574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9">
       <c r="A115" s="35" t="s">
         <v>265</v>
       </c>
@@ -5588,7 +5597,7 @@
       <c r="H115" s="36"/>
       <c r="I115" s="38"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9">
       <c r="A116" s="22" t="s">
         <v>258</v>
       </c>
@@ -5609,7 +5618,7 @@
       <c r="H116" s="24"/>
       <c r="I116" s="25"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9">
       <c r="A117" s="22" t="s">
         <v>259</v>
       </c>
@@ -5630,7 +5639,7 @@
       <c r="H117" s="24"/>
       <c r="I117" s="25"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9">
       <c r="A118" s="22" t="s">
         <v>260</v>
       </c>
@@ -5651,7 +5660,7 @@
       <c r="H118" s="24"/>
       <c r="I118" s="25"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9">
       <c r="A119" s="22" t="s">
         <v>261</v>
       </c>
@@ -5672,18 +5681,18 @@
       <c r="H119" s="24"/>
       <c r="I119" s="25"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="A120" s="56" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B120" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="C120" s="71" t="s">
         <v>353</v>
       </c>
-      <c r="C120" s="71" t="s">
-        <v>354</v>
-      </c>
       <c r="D120" s="71" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E120" s="72"/>
       <c r="F120" s="73" t="s">
@@ -5691,13 +5700,13 @@
       </c>
       <c r="G120" s="72"/>
       <c r="H120" s="74" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I120" s="75"/>
     </row>
-    <row r="121" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" ht="17.25" thickBot="1">
       <c r="A121" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>169</v>
@@ -5718,12 +5727,12 @@
       <c r="H121" s="28"/>
       <c r="I121" s="29"/>
     </row>
-    <row r="124" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" ht="17.25" thickBot="1">
       <c r="A124" s="20" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" ht="17.25" thickBot="1">
       <c r="A125" s="32" t="s">
         <v>0</v>
       </c>
@@ -5752,7 +5761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9">
       <c r="A126" s="35" t="s">
         <v>265</v>
       </c>
@@ -5775,7 +5784,7 @@
       <c r="H126" s="36"/>
       <c r="I126" s="38"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9">
       <c r="A127" s="22" t="s">
         <v>258</v>
       </c>
@@ -5796,7 +5805,7 @@
       <c r="H127" s="24"/>
       <c r="I127" s="25"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9">
       <c r="A128" s="22" t="s">
         <v>259</v>
       </c>
@@ -5817,7 +5826,7 @@
       <c r="H128" s="24"/>
       <c r="I128" s="25"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9">
       <c r="A129" s="22" t="s">
         <v>260</v>
       </c>
@@ -5840,7 +5849,7 @@
       <c r="H129" s="24"/>
       <c r="I129" s="25"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9">
       <c r="A130" s="22" t="s">
         <v>261</v>
       </c>
@@ -5863,7 +5872,7 @@
       <c r="H130" s="24"/>
       <c r="I130" s="25"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9">
       <c r="A131" s="22" t="s">
         <v>262</v>
       </c>
@@ -5884,7 +5893,7 @@
       <c r="H131" s="24"/>
       <c r="I131" s="25"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9">
       <c r="A132" s="22" t="s">
         <v>263</v>
       </c>
@@ -5907,7 +5916,7 @@
       <c r="H132" s="24"/>
       <c r="I132" s="25"/>
     </row>
-    <row r="133" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" ht="17.25" thickBot="1">
       <c r="A133" s="26" t="s">
         <v>264</v>
       </c>
@@ -5932,12 +5941,12 @@
       </c>
       <c r="I133" s="29"/>
     </row>
-    <row r="136" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" ht="17.25" thickBot="1">
       <c r="A136" s="20" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" ht="17.25" thickBot="1">
       <c r="A137" s="32" t="s">
         <v>0</v>
       </c>
@@ -5966,7 +5975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9">
       <c r="A138" s="35" t="s">
         <v>265</v>
       </c>
@@ -5991,7 +6000,7 @@
       </c>
       <c r="I138" s="38"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9">
       <c r="A139" s="22" t="s">
         <v>258</v>
       </c>
@@ -6016,7 +6025,7 @@
       </c>
       <c r="I139" s="25"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9">
       <c r="A140" s="22" t="s">
         <v>259</v>
       </c>
@@ -6039,7 +6048,7 @@
       <c r="H140" s="62"/>
       <c r="I140" s="25"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9">
       <c r="A141" s="22" t="s">
         <v>260</v>
       </c>
@@ -6054,13 +6063,13 @@
       </c>
       <c r="E141" s="23"/>
       <c r="F141" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G141" s="23"/>
       <c r="H141" s="24"/>
       <c r="I141" s="25"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9">
       <c r="A142" s="22" t="s">
         <v>261</v>
       </c>
@@ -6081,34 +6090,34 @@
       <c r="H142" s="24"/>
       <c r="I142" s="25"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9">
       <c r="A143" s="56" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B143" s="71" t="s">
+        <v>362</v>
+      </c>
+      <c r="C143" s="71" t="s">
         <v>363</v>
       </c>
-      <c r="C143" s="71" t="s">
+      <c r="D143" s="71" t="s">
         <v>364</v>
-      </c>
-      <c r="D143" s="71" t="s">
-        <v>365</v>
       </c>
       <c r="E143" s="72"/>
       <c r="F143" s="71" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G143" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="H143" s="74" t="s">
         <v>368</v>
       </c>
-      <c r="H143" s="74" t="s">
-        <v>369</v>
-      </c>
       <c r="I143" s="59"/>
     </row>
-    <row r="144" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" ht="17.25" thickBot="1">
       <c r="A144" s="26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>169</v>
@@ -6121,7 +6130,7 @@
       </c>
       <c r="E144" s="27"/>
       <c r="F144" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G144" s="27" t="s">
         <v>177</v>
@@ -6129,15 +6138,15 @@
       <c r="H144" s="28"/>
       <c r="I144" s="29"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9">
       <c r="F145"/>
     </row>
-    <row r="147" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" ht="17.25" thickBot="1">
       <c r="A147" s="20" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" ht="17.25" thickBot="1">
       <c r="A148" s="32" t="s">
         <v>0</v>
       </c>
@@ -6166,7 +6175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9">
       <c r="A149" s="35" t="s">
         <v>265</v>
       </c>
@@ -6189,7 +6198,7 @@
       <c r="H149" s="36"/>
       <c r="I149" s="38"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9">
       <c r="A150" s="22" t="s">
         <v>258</v>
       </c>
@@ -6210,7 +6219,7 @@
       <c r="H150" s="24"/>
       <c r="I150" s="25"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9">
       <c r="A151" s="22" t="s">
         <v>259</v>
       </c>
@@ -6231,7 +6240,7 @@
       <c r="H151" s="24"/>
       <c r="I151" s="25"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9">
       <c r="A152" s="22" t="s">
         <v>260</v>
       </c>
@@ -6254,7 +6263,7 @@
       <c r="H152" s="24"/>
       <c r="I152" s="25"/>
     </row>
-    <row r="153" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" ht="17.25" thickBot="1">
       <c r="A153" s="26" t="s">
         <v>261</v>
       </c>
@@ -6277,12 +6286,12 @@
       <c r="H153" s="28"/>
       <c r="I153" s="29"/>
     </row>
-    <row r="156" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" ht="17.25" thickBot="1">
       <c r="A156" s="20" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" ht="17.25" thickBot="1">
       <c r="A157" s="32" t="s">
         <v>0</v>
       </c>
@@ -6311,7 +6320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9">
       <c r="A158" s="35" t="s">
         <v>265</v>
       </c>
@@ -6334,7 +6343,7 @@
       <c r="H158" s="36"/>
       <c r="I158" s="38"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9">
       <c r="A159" s="22" t="s">
         <v>258</v>
       </c>
@@ -6357,7 +6366,7 @@
       <c r="H159" s="24"/>
       <c r="I159" s="25"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9">
       <c r="A160" s="22" t="s">
         <v>259</v>
       </c>
@@ -6378,7 +6387,7 @@
       <c r="H160" s="24"/>
       <c r="I160" s="25"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9">
       <c r="A161" s="22" t="s">
         <v>260</v>
       </c>
@@ -6399,7 +6408,7 @@
       <c r="H161" s="24"/>
       <c r="I161" s="25"/>
     </row>
-    <row r="162" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" ht="17.25" thickBot="1">
       <c r="A162" s="26" t="s">
         <v>261</v>
       </c>
@@ -6422,9 +6431,9 @@
       <c r="H162" s="28"/>
       <c r="I162" s="29"/>
     </row>
-    <row r="165" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" ht="17.25" thickBot="1">
       <c r="A165" s="41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B165" s="76"/>
       <c r="C165" s="76"/>
@@ -6435,7 +6444,7 @@
       <c r="H165" s="76"/>
       <c r="I165" s="76"/>
     </row>
-    <row r="166" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" ht="17.25" thickBot="1">
       <c r="A166" s="42" t="s">
         <v>0</v>
       </c>
@@ -6464,7 +6473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9">
       <c r="A167" s="45" t="s">
         <v>257</v>
       </c>
@@ -6487,7 +6496,7 @@
       <c r="H167" s="48"/>
       <c r="I167" s="49"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9">
       <c r="A168" s="63" t="s">
         <v>258</v>
       </c>
@@ -6510,7 +6519,7 @@
       <c r="H168" s="78"/>
       <c r="I168" s="79"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9">
       <c r="A169" s="63" t="s">
         <v>259</v>
       </c>
@@ -6533,7 +6542,7 @@
       <c r="H169" s="78"/>
       <c r="I169" s="79"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9">
       <c r="A170" s="63" t="s">
         <v>260</v>
       </c>
@@ -6554,7 +6563,7 @@
       <c r="H170" s="78"/>
       <c r="I170" s="79"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9">
       <c r="A171" s="63" t="s">
         <v>261</v>
       </c>
@@ -6575,7 +6584,7 @@
       <c r="H171" s="78"/>
       <c r="I171" s="79"/>
     </row>
-    <row r="172" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" ht="17.25" thickBot="1">
       <c r="A172" s="50" t="s">
         <v>262</v>
       </c>
@@ -6598,12 +6607,12 @@
       <c r="H172" s="53"/>
       <c r="I172" s="54"/>
     </row>
-    <row r="175" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" ht="17.25" thickBot="1">
       <c r="A175" s="20" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" ht="17.25" thickBot="1">
       <c r="A176" s="32" t="s">
         <v>0</v>
       </c>
@@ -6632,7 +6641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9">
       <c r="A177" s="35" t="s">
         <v>257</v>
       </c>
@@ -6655,7 +6664,7 @@
       <c r="H177" s="36"/>
       <c r="I177" s="38"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9">
       <c r="A178" s="22" t="s">
         <v>258</v>
       </c>
@@ -6678,7 +6687,7 @@
       <c r="H178" s="24"/>
       <c r="I178" s="25"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9">
       <c r="A179" s="22" t="s">
         <v>259</v>
       </c>
@@ -6699,7 +6708,7 @@
       <c r="H179" s="24"/>
       <c r="I179" s="25"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9">
       <c r="A180" s="22" t="s">
         <v>260</v>
       </c>
@@ -6722,7 +6731,7 @@
       <c r="H180" s="24"/>
       <c r="I180" s="25"/>
     </row>
-    <row r="181" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" ht="17.25" thickBot="1">
       <c r="A181" s="26" t="s">
         <v>261</v>
       </c>
@@ -6745,12 +6754,12 @@
       <c r="H181" s="28"/>
       <c r="I181" s="29"/>
     </row>
-    <row r="184" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" ht="17.25" thickBot="1">
       <c r="A184" s="41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" ht="17.25" thickBot="1">
       <c r="A185" s="42" t="s">
         <v>0</v>
       </c>
@@ -6779,7 +6788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9">
       <c r="A186" s="45" t="s">
         <v>265</v>
       </c>
@@ -6802,7 +6811,7 @@
       <c r="H186" s="48"/>
       <c r="I186" s="49"/>
     </row>
-    <row r="187" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" ht="17.25" thickBot="1">
       <c r="A187" s="50" t="s">
         <v>266</v>
       </c>
@@ -6838,79 +6847,79 @@
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="13" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="4" spans="1:6">
+      <c r="C4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="5" spans="1:6">
+      <c r="D5" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
+    <row r="6" spans="1:6">
+      <c r="E6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
+    <row r="7" spans="1:6">
+      <c r="E7" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
+    <row r="8" spans="1:6">
+      <c r="F8" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F8" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="12" spans="1:6">
+      <c r="C12" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+    <row r="13" spans="1:6">
+      <c r="C13" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="14" spans="1:6">
+      <c r="D14" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
+    <row r="15" spans="1:6">
+      <c r="D15" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
-        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/ecobay/src/main/webapp/resources/db/분석설계.xlsx
+++ b/ecobay/src/main/webapp/resources/db/분석설계.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="401">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1678,6 +1678,34 @@
   </si>
   <si>
     <t>0'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심상품 : PRODUCTWISH - 20181008 - 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(14)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2085,7 +2113,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2328,6 +2356,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3452,10 +3483,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3943,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>174</v>
+        <v>396</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>121</v>
@@ -4284,7 +4315,7 @@
         <v>120</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>181</v>
+        <v>400</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>211</v>
@@ -4370,7 +4401,7 @@
         <v>323</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>169</v>
+        <v>395</v>
       </c>
       <c r="C47" s="28" t="s">
         <v>117</v>
@@ -4411,8 +4442,8 @@
       <c r="I49" s="31"/>
     </row>
     <row r="50" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A50" s="20" t="s">
-        <v>268</v>
+      <c r="A50" s="81" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="17.25" thickBot="1">
@@ -4445,389 +4476,359 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="35"/>
-      <c r="B52" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="C52" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>187</v>
+      <c r="A52" s="35">
+        <v>1</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>400</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F52" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" s="36" t="s">
         <v>153</v>
       </c>
       <c r="G52" s="37"/>
-      <c r="H52" s="36" t="s">
-        <v>277</v>
-      </c>
+      <c r="H52" s="36"/>
       <c r="I52" s="38"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="22"/>
-      <c r="B53" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>181</v>
+      <c r="A53" s="22">
+        <v>2</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="F53" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53" s="24" t="s">
         <v>153</v>
       </c>
       <c r="G53" s="23"/>
       <c r="H53" s="24"/>
       <c r="I53" s="25"/>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="22"/>
-      <c r="B54" s="1" t="s">
+    <row r="54" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A54" s="26">
+        <v>3</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="27"/>
+      <c r="F54" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H54" s="28"/>
+      <c r="I54" s="29"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+    </row>
+    <row r="57" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A57" s="20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A58" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I58" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="35"/>
+      <c r="B59" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F59" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G59" s="37"/>
+      <c r="H59" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="I59" s="38"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="22"/>
+      <c r="B60" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G60" s="23"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="25"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="22"/>
+      <c r="B61" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E61" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G54" s="23"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="25"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="22"/>
-      <c r="B55" s="1" t="s">
+      <c r="F61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="25"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="22"/>
+      <c r="B62" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E62" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G55" s="23"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="25"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="22"/>
-      <c r="B56" s="1" t="s">
+      <c r="F62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G62" s="23"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="25"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="22"/>
+      <c r="B63" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G56" s="23"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="25"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="22"/>
-      <c r="B57" s="1" t="s">
+      <c r="E63" s="23"/>
+      <c r="F63" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G63" s="23"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="25"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="22"/>
+      <c r="B64" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="1" t="s">
+      <c r="E64" s="23"/>
+      <c r="F64" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="G57" s="23"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="25"/>
-    </row>
-    <row r="58" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A58" s="26"/>
-      <c r="B58" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E58" s="27"/>
-      <c r="F58" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="H58" s="28"/>
-      <c r="I58" s="29"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-    </row>
-    <row r="61" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A61" s="20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A62" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D62" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F62" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I62" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="35">
-        <v>1</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="F63" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="G63" s="37"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="38"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="22">
-        <v>2</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E64" s="23"/>
-      <c r="F64" s="24" t="s">
-        <v>153</v>
       </c>
       <c r="G64" s="23"/>
       <c r="H64" s="24"/>
       <c r="I64" s="25"/>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="22">
+    <row r="65" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A65" s="26"/>
+      <c r="B65" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" s="27"/>
+      <c r="F65" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G65" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H65" s="28"/>
+      <c r="I65" s="29"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+    </row>
+    <row r="68" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A68" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A69" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F69" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E65" s="23"/>
-      <c r="F65" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="G65" s="23"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="25"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="22">
-        <v>4</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E66" s="23"/>
-      <c r="F66" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="25"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="22">
+      <c r="G69" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G67" s="23"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="25"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="22">
-        <v>6</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E68" s="23"/>
-      <c r="F68" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="G68" s="23"/>
-      <c r="H68" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="I68" s="25"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="22">
-        <v>7</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="G69" s="23"/>
-      <c r="H69" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="I69" s="25"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="22">
-        <v>8</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="E70" s="23"/>
-      <c r="F70" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G70" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="H70" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="I70" s="25"/>
+      <c r="A70" s="35">
+        <v>1</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E70" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="F70" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G70" s="37"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="38"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="22">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D71" s="24" t="s">
         <v>194</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="24" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="G71" s="23"/>
       <c r="H71" s="24"/>
@@ -4835,2002 +4836,2157 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="22">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="G72" s="23" t="s">
-        <v>177</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G72" s="23"/>
       <c r="H72" s="24"/>
       <c r="I72" s="25"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="22">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>191</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E73" s="23"/>
       <c r="F73" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G73" s="23"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="25"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="22">
+        <v>5</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" s="23"/>
+      <c r="F74" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G74" s="23"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="25"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="22">
+        <v>6</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E75" s="23"/>
+      <c r="F75" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="G73" s="23"/>
-      <c r="H73" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I73" s="25"/>
-    </row>
-    <row r="74" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A74" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="B74" s="55" t="s">
-        <v>345</v>
-      </c>
-      <c r="C74" s="55" t="s">
-        <v>342</v>
-      </c>
-      <c r="D74" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="E74" s="68"/>
-      <c r="F74" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="G74" s="80" t="s">
-        <v>393</v>
-      </c>
-      <c r="H74" s="55" t="s">
-        <v>370</v>
-      </c>
-      <c r="I74" s="29"/>
-    </row>
-    <row r="76" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A76" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A77" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D77" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G77" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I77" s="34" t="s">
-        <v>5</v>
-      </c>
+      <c r="G75" s="23"/>
+      <c r="H75" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="I75" s="25"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="22">
+        <v>7</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E76" s="23"/>
+      <c r="F76" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G76" s="23"/>
+      <c r="H76" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="I76" s="25"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="22">
+        <v>8</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="E77" s="23"/>
+      <c r="F77" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H77" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="I77" s="25"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="35">
-        <v>1</v>
-      </c>
-      <c r="B78" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="C78" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D78" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E78" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="F78" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="G78" s="37"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="38"/>
+      <c r="A78" s="22">
+        <v>9</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" s="23"/>
+      <c r="F78" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G78" s="23"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="25"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>354</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E79" s="23"/>
       <c r="F79" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G79" s="23"/>
+        <v>392</v>
+      </c>
+      <c r="G79" s="23" t="s">
+        <v>177</v>
+      </c>
       <c r="H79" s="24"/>
       <c r="I79" s="25"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="22">
+        <v>11</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G80" s="23"/>
+      <c r="H80" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="I80" s="25"/>
+    </row>
+    <row r="81" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A81" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="B81" s="55" t="s">
+        <v>345</v>
+      </c>
+      <c r="C81" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="D81" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="E81" s="68"/>
+      <c r="F81" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="G81" s="80" t="s">
+        <v>393</v>
+      </c>
+      <c r="H81" s="55" t="s">
+        <v>370</v>
+      </c>
+      <c r="I81" s="29"/>
+    </row>
+    <row r="83" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A83" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A84" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F84" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="D80" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G80" s="23"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="25"/>
-    </row>
-    <row r="81" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A81" s="26">
-        <v>4</v>
-      </c>
-      <c r="B81" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="E81" s="27"/>
-      <c r="F81" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="G81" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="H81" s="28"/>
-      <c r="I81" s="29"/>
-    </row>
-    <row r="84" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A84" s="20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A85" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="33" t="s">
+      <c r="G84" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I84" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="35">
         <v>1</v>
       </c>
-      <c r="C85" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D85" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F85" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G85" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="33" t="s">
+      <c r="B85" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D85" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E85" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="F85" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G85" s="37"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="38"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="22">
         <v>2</v>
       </c>
-      <c r="I85" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="35">
-        <v>1</v>
-      </c>
-      <c r="B86" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="C86" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D86" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E86" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="F86" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="G86" s="37"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="38"/>
+      <c r="B86" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G86" s="23"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="25"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="22">
+        <v>3</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G87" s="23"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="25"/>
+    </row>
+    <row r="88" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A88" s="26">
+        <v>4</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E88" s="27"/>
+      <c r="F88" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G88" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H88" s="28"/>
+      <c r="I88" s="29"/>
+    </row>
+    <row r="91" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A91" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A92" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F92" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="24" t="s">
+      <c r="I92" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="35">
+        <v>1</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C93" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D93" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E93" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="F93" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G93" s="37"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="38"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="22">
+        <v>2</v>
+      </c>
+      <c r="B94" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="C94" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D94" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="E87" s="23"/>
-      <c r="F87" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G87" s="23"/>
-      <c r="H87" s="24" t="s">
+      <c r="E94" s="23"/>
+      <c r="F94" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G94" s="23"/>
+      <c r="H94" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="I87" s="25"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="22">
+      <c r="I94" s="25"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="22">
         <v>3</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="B95" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C95" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D95" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E88" s="23"/>
-      <c r="F88" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G88" s="23"/>
-      <c r="H88" s="24" t="s">
+      <c r="E95" s="23"/>
+      <c r="F95" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G95" s="23"/>
+      <c r="H95" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="I88" s="25"/>
-    </row>
-    <row r="89" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A89" s="26">
+      <c r="I95" s="25"/>
+    </row>
+    <row r="96" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A96" s="26">
         <v>4</v>
       </c>
-      <c r="B89" s="28" t="s">
+      <c r="B96" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="C96" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D89" s="28" t="s">
+      <c r="D96" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="E89" s="27"/>
-      <c r="F89" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="G89" s="27" t="s">
+      <c r="E96" s="27"/>
+      <c r="F96" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G96" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="H89" s="28"/>
-      <c r="I89" s="29"/>
-    </row>
-    <row r="92" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A92" s="20" t="s">
+      <c r="H96" s="28"/>
+      <c r="I96" s="29"/>
+    </row>
+    <row r="99" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A99" s="20" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A93" s="32" t="s">
+    <row r="100" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A100" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B100" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="33" t="s">
+      <c r="C100" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="D93" s="33" t="s">
+      <c r="D100" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E93" s="33" t="s">
+      <c r="E100" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="F93" s="33" t="s">
+      <c r="F100" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G93" s="33" t="s">
+      <c r="G100" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H93" s="33" t="s">
+      <c r="H100" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I93" s="34" t="s">
+      <c r="I100" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="35" t="s">
+    <row r="101" spans="1:9">
+      <c r="A101" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="B94" s="36" t="s">
+      <c r="B101" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="C94" s="36" t="s">
+      <c r="C101" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D94" s="36" t="s">
+      <c r="D101" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="E94" s="37" t="s">
+      <c r="E101" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="F94" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="G94" s="37"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="38"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="22" t="s">
+      <c r="F101" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G101" s="37"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="38"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B95" s="24" t="s">
+      <c r="B102" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C102" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D95" s="24" t="s">
+      <c r="D102" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="E95" s="23" t="s">
+      <c r="E102" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="F95" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G95" s="23" t="s">
+      <c r="F102" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G102" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="H95" s="24"/>
-      <c r="I95" s="25"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="22" t="s">
+      <c r="H102" s="24"/>
+      <c r="I102" s="25"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="B96" s="24" t="s">
+      <c r="B103" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C103" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="D96" s="24" t="s">
+      <c r="D103" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E96" s="23"/>
-      <c r="F96" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G96" s="23"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="25"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="22" t="s">
+      <c r="E103" s="23"/>
+      <c r="F103" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G103" s="23"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="25"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="B97" s="24" t="s">
+      <c r="B104" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="C104" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D97" s="24" t="s">
+      <c r="D104" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="E97" s="23"/>
-      <c r="F97" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G97" s="23"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="25"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="22" t="s">
+      <c r="E104" s="23"/>
+      <c r="F104" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G104" s="23"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="25"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="B98" s="24" t="s">
+      <c r="B105" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="C105" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="24" t="s">
+      <c r="D105" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E98" s="23"/>
-      <c r="F98" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G98" s="23" t="s">
+      <c r="E105" s="23"/>
+      <c r="F105" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G105" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="H98" s="24"/>
-      <c r="I98" s="25"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="22" t="s">
+      <c r="H105" s="24"/>
+      <c r="I105" s="25"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="B99" s="24" t="s">
+      <c r="B106" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="C106" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D106" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E99" s="23"/>
-      <c r="F99" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G99" s="23" t="s">
+      <c r="E106" s="23"/>
+      <c r="F106" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G106" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="H99" s="24"/>
-      <c r="I99" s="25"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="B100" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="C100" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D100" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E100" s="23"/>
-      <c r="F100" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="G100" s="23"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="25"/>
-    </row>
-    <row r="101" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A101" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C101" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D101" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="E101" s="27"/>
-      <c r="F101" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="G101" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="H101" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="I101" s="29"/>
-    </row>
-    <row r="104" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A104" s="20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A105" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D105" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F105" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G105" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I105" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="B106" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="C106" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D106" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="E106" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="F106" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="G106" s="37"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="38"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="25"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>194</v>
+        <v>263</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>170</v>
       </c>
       <c r="E107" s="23"/>
-      <c r="F107" s="1" t="s">
-        <v>153</v>
+      <c r="F107" s="24" t="s">
+        <v>173</v>
       </c>
       <c r="G107" s="23"/>
       <c r="H107" s="24"/>
       <c r="I107" s="25"/>
     </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="63" t="s">
+    <row r="108" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A108" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B108" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="E108" s="27"/>
+      <c r="F108" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G108" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="H108" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="I108" s="29"/>
+    </row>
+    <row r="111" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A111" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A112" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D112" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E112" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F112" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G112" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I112" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B113" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="C113" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D113" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="E113" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="F113" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G113" s="37"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="38"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E114" s="23"/>
+      <c r="F114" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G114" s="23"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="25"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="B108" s="64" t="s">
+      <c r="B115" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="C108" s="64" t="s">
+      <c r="C115" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="D108" s="64" t="s">
+      <c r="D115" s="64" t="s">
         <v>312</v>
       </c>
-      <c r="E108" s="65"/>
-      <c r="F108" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="G108" s="65" t="s">
+      <c r="E115" s="65"/>
+      <c r="F115" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="G115" s="65" t="s">
         <v>321</v>
       </c>
-      <c r="H108" s="66" t="s">
+      <c r="H115" s="66" t="s">
         <v>313</v>
       </c>
-      <c r="I108" s="67" t="s">
+      <c r="I115" s="67" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="63" t="s">
+    <row r="116" spans="1:9">
+      <c r="A116" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="B109" s="64" t="s">
+      <c r="B116" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="C109" s="64" t="s">
+      <c r="C116" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="D109" s="64" t="s">
+      <c r="D116" s="64" t="s">
         <v>312</v>
       </c>
-      <c r="E109" s="65"/>
-      <c r="F109" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="G109" s="65" t="s">
+      <c r="E116" s="65"/>
+      <c r="F116" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="G116" s="65" t="s">
         <v>320</v>
       </c>
-      <c r="H109" s="66" t="s">
+      <c r="H116" s="66" t="s">
         <v>313</v>
       </c>
-      <c r="I109" s="67" t="s">
+      <c r="I116" s="67" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A110" s="26" t="s">
+    <row r="117" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A117" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E110" s="27"/>
-      <c r="F110" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G110" s="27" t="s">
+      <c r="E117" s="27"/>
+      <c r="F117" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G117" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="H110" s="28"/>
-      <c r="I110" s="29"/>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="31"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="31"/>
-      <c r="I111" s="31"/>
-    </row>
-    <row r="113" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A113" s="20" t="s">
+      <c r="H117" s="28"/>
+      <c r="I117" s="29"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="31"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="31"/>
+    </row>
+    <row r="120" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A120" s="20" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A114" s="32" t="s">
+    <row r="121" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A121" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="33" t="s">
+      <c r="B121" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C114" s="33" t="s">
+      <c r="C121" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="D114" s="33" t="s">
+      <c r="D121" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E114" s="33" t="s">
+      <c r="E121" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="F114" s="33" t="s">
+      <c r="F121" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G114" s="33" t="s">
+      <c r="G121" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H114" s="33" t="s">
+      <c r="H121" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I114" s="34" t="s">
+      <c r="I121" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="35" t="s">
+    <row r="122" spans="1:9">
+      <c r="A122" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="B115" s="39" t="s">
+      <c r="B122" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="C115" s="39" t="s">
+      <c r="C122" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D115" s="39" t="s">
+      <c r="D122" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="E115" s="37" t="s">
+      <c r="E122" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="F115" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="G115" s="37"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="38"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="22" t="s">
+      <c r="F122" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G122" s="37"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="38"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E116" s="23"/>
-      <c r="F116" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G116" s="23"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="25"/>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="22" t="s">
+      <c r="E123" s="23"/>
+      <c r="F123" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G123" s="23"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="25"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E117" s="23"/>
-      <c r="F117" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G117" s="23"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="25"/>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="22" t="s">
+      <c r="E124" s="23"/>
+      <c r="F124" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G124" s="23"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="25"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E118" s="23"/>
-      <c r="F118" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G118" s="23"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="25"/>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="22" t="s">
+      <c r="E125" s="23"/>
+      <c r="F125" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G125" s="23"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="25"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E119" s="23"/>
-      <c r="F119" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G119" s="23"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="25"/>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="56" t="s">
+      <c r="E126" s="23"/>
+      <c r="F126" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G126" s="23"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="25"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="56" t="s">
         <v>347</v>
       </c>
-      <c r="B120" s="71" t="s">
+      <c r="B127" s="71" t="s">
         <v>352</v>
       </c>
-      <c r="C120" s="71" t="s">
+      <c r="C127" s="71" t="s">
         <v>353</v>
       </c>
-      <c r="D120" s="71" t="s">
+      <c r="D127" s="71" t="s">
         <v>350</v>
       </c>
-      <c r="E120" s="72"/>
-      <c r="F120" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="G120" s="72"/>
-      <c r="H120" s="74" t="s">
+      <c r="E127" s="72"/>
+      <c r="F127" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="G127" s="72"/>
+      <c r="H127" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="I120" s="75"/>
-    </row>
-    <row r="121" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A121" s="26" t="s">
+      <c r="I127" s="75"/>
+    </row>
+    <row r="128" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A128" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D128" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E121" s="27"/>
-      <c r="F121" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G121" s="27" t="s">
+      <c r="E128" s="27"/>
+      <c r="F128" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G128" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="H121" s="28"/>
-      <c r="I121" s="29"/>
-    </row>
-    <row r="124" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A124" s="20" t="s">
+      <c r="H128" s="28"/>
+      <c r="I128" s="29"/>
+    </row>
+    <row r="131" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A131" s="20" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A125" s="32" t="s">
+    <row r="132" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A132" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B125" s="33" t="s">
+      <c r="B132" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C125" s="33" t="s">
+      <c r="C132" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="D125" s="33" t="s">
+      <c r="D132" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E125" s="33" t="s">
+      <c r="E132" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="F125" s="33" t="s">
+      <c r="F132" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G125" s="33" t="s">
+      <c r="G132" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H125" s="33" t="s">
+      <c r="H132" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I125" s="34" t="s">
+      <c r="I132" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="35" t="s">
+    <row r="133" spans="1:9">
+      <c r="A133" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="B126" s="39" t="s">
+      <c r="B133" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="C126" s="39" t="s">
+      <c r="C133" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D126" s="39" t="s">
+      <c r="D133" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="E126" s="37" t="s">
+      <c r="E133" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="F126" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="G126" s="37"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="38"/>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="22" t="s">
+      <c r="F133" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G133" s="37"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="38"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E127" s="23"/>
-      <c r="F127" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G127" s="23"/>
-      <c r="H127" s="24"/>
-      <c r="I127" s="25"/>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="22" t="s">
+      <c r="E134" s="23"/>
+      <c r="F134" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G134" s="23"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="25"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E128" s="23"/>
-      <c r="F128" s="1" t="s">
+      <c r="E135" s="23"/>
+      <c r="F135" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G128" s="23"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="25"/>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="22" t="s">
+      <c r="G135" s="23"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="25"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E129" s="23"/>
-      <c r="F129" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G129" s="23" t="s">
+      <c r="E136" s="23"/>
+      <c r="F136" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G136" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="H129" s="24"/>
-      <c r="I129" s="25"/>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="22" t="s">
+      <c r="H136" s="24"/>
+      <c r="I136" s="25"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E130" s="23"/>
-      <c r="F130" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G130" s="23" t="s">
+      <c r="E137" s="23"/>
+      <c r="F137" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G137" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="H130" s="24"/>
-      <c r="I130" s="25"/>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="22" t="s">
+      <c r="H137" s="24"/>
+      <c r="I137" s="25"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E131" s="23"/>
-      <c r="F131" s="1" t="s">
+      <c r="E138" s="23"/>
+      <c r="F138" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G131" s="23"/>
-      <c r="H131" s="24"/>
-      <c r="I131" s="25"/>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="B132" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C132" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D132" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E132" s="23"/>
-      <c r="F132" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G132" s="23">
-        <v>0</v>
-      </c>
-      <c r="H132" s="24"/>
-      <c r="I132" s="25"/>
-    </row>
-    <row r="133" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A133" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E133" s="27"/>
-      <c r="F133" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G133" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="I133" s="29"/>
-    </row>
-    <row r="136" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A136" s="20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A137" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D137" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E137" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F137" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G137" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H137" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I137" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="B138" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="C138" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="D138" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="E138" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F138" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="G138" s="37"/>
-      <c r="H138" s="61" t="s">
-        <v>335</v>
-      </c>
-      <c r="I138" s="38"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="24"/>
+      <c r="I138" s="25"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E139" s="23"/>
+      <c r="F139" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G139" s="23">
+        <v>0</v>
+      </c>
+      <c r="H139" s="24"/>
+      <c r="I139" s="25"/>
+    </row>
+    <row r="140" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A140" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E140" s="27"/>
+      <c r="F140" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G140" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="I140" s="29"/>
+    </row>
+    <row r="143" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A143" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A144" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D144" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F144" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G144" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I144" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B145" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="C145" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D145" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E145" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F145" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G145" s="37"/>
+      <c r="H145" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="I145" s="38"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E139" s="23" t="s">
+      <c r="E146" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G139" s="23"/>
-      <c r="H139" s="62" t="s">
+      <c r="F146" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G146" s="23"/>
+      <c r="H146" s="62" t="s">
         <v>336</v>
       </c>
-      <c r="I139" s="25"/>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="22" t="s">
+      <c r="I146" s="25"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E140" s="23" t="s">
+      <c r="E147" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G140" s="23"/>
-      <c r="H140" s="62"/>
-      <c r="I140" s="25"/>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="22" t="s">
+      <c r="F147" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G147" s="23"/>
+      <c r="H147" s="62"/>
+      <c r="I147" s="25"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E141" s="23"/>
-      <c r="F141" s="1" t="s">
+      <c r="E148" s="23"/>
+      <c r="F148" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G141" s="23"/>
-      <c r="H141" s="24"/>
-      <c r="I141" s="25"/>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="22" t="s">
+      <c r="G148" s="23"/>
+      <c r="H148" s="24"/>
+      <c r="I148" s="25"/>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E142" s="23"/>
-      <c r="F142" s="1" t="s">
+      <c r="E149" s="23"/>
+      <c r="F149" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G142" s="23"/>
-      <c r="H142" s="24"/>
-      <c r="I142" s="25"/>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="56" t="s">
+      <c r="G149" s="23"/>
+      <c r="H149" s="24"/>
+      <c r="I149" s="25"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="56" t="s">
         <v>360</v>
       </c>
-      <c r="B143" s="71" t="s">
+      <c r="B150" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="C143" s="71" t="s">
+      <c r="C150" s="71" t="s">
         <v>363</v>
       </c>
-      <c r="D143" s="71" t="s">
+      <c r="D150" s="71" t="s">
         <v>364</v>
       </c>
-      <c r="E143" s="72"/>
-      <c r="F143" s="71" t="s">
+      <c r="E150" s="72"/>
+      <c r="F150" s="71" t="s">
         <v>365</v>
       </c>
-      <c r="G143" s="72" t="s">
+      <c r="G150" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="H143" s="74" t="s">
+      <c r="H150" s="74" t="s">
         <v>368</v>
       </c>
-      <c r="I143" s="59"/>
-    </row>
-    <row r="144" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A144" s="26" t="s">
+      <c r="I150" s="59"/>
+    </row>
+    <row r="151" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A151" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B151" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E144" s="27"/>
-      <c r="F144" s="2" t="s">
+      <c r="E151" s="27"/>
+      <c r="F151" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="G144" s="27" t="s">
+      <c r="G151" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="H144" s="28"/>
-      <c r="I144" s="29"/>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="F145"/>
-    </row>
-    <row r="147" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A147" s="20" t="s">
+      <c r="H151" s="28"/>
+      <c r="I151" s="29"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="F152"/>
+    </row>
+    <row r="154" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A154" s="20" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A148" s="32" t="s">
+    <row r="155" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A155" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B148" s="33" t="s">
+      <c r="B155" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C148" s="33" t="s">
+      <c r="C155" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="D148" s="33" t="s">
+      <c r="D155" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E148" s="33" t="s">
+      <c r="E155" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="F148" s="33" t="s">
+      <c r="F155" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G148" s="33" t="s">
+      <c r="G155" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H148" s="33" t="s">
+      <c r="H155" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I148" s="34" t="s">
+      <c r="I155" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="35" t="s">
+    <row r="156" spans="1:9">
+      <c r="A156" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="B149" s="39" t="s">
+      <c r="B156" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="C149" s="39" t="s">
+      <c r="C156" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D149" s="39" t="s">
+      <c r="D156" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="E149" s="37" t="s">
+      <c r="E156" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="F149" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="G149" s="37"/>
-      <c r="H149" s="36"/>
-      <c r="I149" s="38"/>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="22" t="s">
+      <c r="F156" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G156" s="37"/>
+      <c r="H156" s="36"/>
+      <c r="I156" s="38"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E150" s="23"/>
-      <c r="F150" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G150" s="23"/>
-      <c r="H150" s="24"/>
-      <c r="I150" s="25"/>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="22" t="s">
+      <c r="E157" s="23"/>
+      <c r="F157" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G157" s="23"/>
+      <c r="H157" s="24"/>
+      <c r="I157" s="25"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E151" s="23"/>
-      <c r="F151" s="1" t="s">
+      <c r="E158" s="23"/>
+      <c r="F158" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G151" s="23"/>
-      <c r="H151" s="24"/>
-      <c r="I151" s="25"/>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E152" s="23"/>
-      <c r="F152" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G152" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="H152" s="24"/>
-      <c r="I152" s="25"/>
-    </row>
-    <row r="153" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A153" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E153" s="27"/>
-      <c r="F153" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G153" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="H153" s="28"/>
-      <c r="I153" s="29"/>
-    </row>
-    <row r="156" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A156" s="20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A157" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C157" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D157" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E157" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F157" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G157" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H157" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I157" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="B158" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="C158" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D158" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="E158" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F158" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="G158" s="37"/>
-      <c r="H158" s="36"/>
-      <c r="I158" s="38"/>
+      <c r="G158" s="23"/>
+      <c r="H158" s="24"/>
+      <c r="I158" s="25"/>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="22" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E159" s="23" t="s">
-        <v>191</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E159" s="23"/>
       <c r="F159" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G159" s="23"/>
+      <c r="G159" s="23" t="s">
+        <v>177</v>
+      </c>
       <c r="H159" s="24"/>
       <c r="I159" s="25"/>
     </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="22" t="s">
+    <row r="160" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A160" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E160" s="27"/>
+      <c r="F160" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G160" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H160" s="28"/>
+      <c r="I160" s="29"/>
+    </row>
+    <row r="163" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A163" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A164" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D164" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F164" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G164" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I164" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B165" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C165" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D165" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E165" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F165" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G165" s="37"/>
+      <c r="H165" s="36"/>
+      <c r="I165" s="38"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E166" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G166" s="23"/>
+      <c r="H166" s="24"/>
+      <c r="I166" s="25"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E160" s="23"/>
-      <c r="F160" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G160" s="23"/>
-      <c r="H160" s="24"/>
-      <c r="I160" s="25"/>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="22" t="s">
+      <c r="E167" s="23"/>
+      <c r="F167" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G167" s="23"/>
+      <c r="H167" s="24"/>
+      <c r="I167" s="25"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E161" s="23"/>
-      <c r="F161" s="1" t="s">
+      <c r="E168" s="23"/>
+      <c r="F168" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G161" s="23"/>
-      <c r="H161" s="24"/>
-      <c r="I161" s="25"/>
-    </row>
-    <row r="162" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A162" s="26" t="s">
+      <c r="G168" s="23"/>
+      <c r="H168" s="24"/>
+      <c r="I168" s="25"/>
+    </row>
+    <row r="169" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A169" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B169" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D169" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E162" s="27"/>
-      <c r="F162" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G162" s="27" t="s">
+      <c r="E169" s="27"/>
+      <c r="F169" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G169" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="H162" s="28"/>
-      <c r="I162" s="29"/>
-    </row>
-    <row r="165" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A165" s="41" t="s">
+      <c r="H169" s="28"/>
+      <c r="I169" s="29"/>
+    </row>
+    <row r="172" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A172" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="B165" s="76"/>
-      <c r="C165" s="76"/>
-      <c r="D165" s="76"/>
-      <c r="E165" s="77"/>
-      <c r="F165" s="76"/>
-      <c r="G165" s="77"/>
-      <c r="H165" s="76"/>
-      <c r="I165" s="76"/>
-    </row>
-    <row r="166" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A166" s="42" t="s">
+      <c r="B172" s="76"/>
+      <c r="C172" s="76"/>
+      <c r="D172" s="76"/>
+      <c r="E172" s="77"/>
+      <c r="F172" s="76"/>
+      <c r="G172" s="77"/>
+      <c r="H172" s="76"/>
+      <c r="I172" s="76"/>
+    </row>
+    <row r="173" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A173" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="43" t="s">
+      <c r="B173" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C166" s="43" t="s">
+      <c r="C173" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D166" s="43" t="s">
+      <c r="D173" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E166" s="43" t="s">
+      <c r="E173" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="F166" s="43" t="s">
+      <c r="F173" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G166" s="43" t="s">
+      <c r="G173" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H166" s="43" t="s">
+      <c r="H173" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I166" s="44" t="s">
+      <c r="I173" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
-      <c r="A167" s="45" t="s">
+    <row r="174" spans="1:9">
+      <c r="A174" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="B167" s="46" t="s">
+      <c r="B174" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="C167" s="46" t="s">
+      <c r="C174" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="D167" s="46" t="s">
+      <c r="D174" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="E167" s="47" t="s">
+      <c r="E174" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="F167" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="G167" s="47"/>
-      <c r="H167" s="48"/>
-      <c r="I167" s="49"/>
-    </row>
-    <row r="168" spans="1:9">
-      <c r="A168" s="63" t="s">
+      <c r="F174" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="G174" s="47"/>
+      <c r="H174" s="48"/>
+      <c r="I174" s="49"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="B168" s="64" t="s">
+      <c r="B175" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="C168" s="64" t="s">
+      <c r="C175" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="D168" s="64" t="s">
+      <c r="D175" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="E168" s="65" t="s">
+      <c r="E175" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="F168" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="G168" s="65"/>
-      <c r="H168" s="78"/>
-      <c r="I168" s="79"/>
-    </row>
-    <row r="169" spans="1:9">
-      <c r="A169" s="63" t="s">
+      <c r="F175" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="G175" s="65"/>
+      <c r="H175" s="78"/>
+      <c r="I175" s="79"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="B169" s="64" t="s">
+      <c r="B176" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="C169" s="64" t="s">
+      <c r="C176" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="D169" s="64" t="s">
+      <c r="D176" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="E169" s="65" t="s">
+      <c r="E176" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="F169" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="G169" s="65"/>
-      <c r="H169" s="78"/>
-      <c r="I169" s="79"/>
-    </row>
-    <row r="170" spans="1:9">
-      <c r="A170" s="63" t="s">
+      <c r="F176" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="G176" s="65"/>
+      <c r="H176" s="78"/>
+      <c r="I176" s="79"/>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="B170" s="64" t="s">
+      <c r="B177" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="C170" s="64" t="s">
+      <c r="C177" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="D170" s="64" t="s">
+      <c r="D177" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="E170" s="65"/>
-      <c r="F170" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="G170" s="65"/>
-      <c r="H170" s="78"/>
-      <c r="I170" s="79"/>
-    </row>
-    <row r="171" spans="1:9">
-      <c r="A171" s="63" t="s">
+      <c r="E177" s="65"/>
+      <c r="F177" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="G177" s="65"/>
+      <c r="H177" s="78"/>
+      <c r="I177" s="79"/>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="B171" s="64" t="s">
+      <c r="B178" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="C171" s="64" t="s">
+      <c r="C178" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="D171" s="64" t="s">
+      <c r="D178" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="E171" s="65"/>
-      <c r="F171" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="G171" s="65"/>
-      <c r="H171" s="78"/>
-      <c r="I171" s="79"/>
-    </row>
-    <row r="172" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A172" s="50" t="s">
+      <c r="E178" s="65"/>
+      <c r="F178" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="G178" s="65"/>
+      <c r="H178" s="78"/>
+      <c r="I178" s="79"/>
+    </row>
+    <row r="179" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A179" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="B172" s="51" t="s">
+      <c r="B179" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="C172" s="51" t="s">
+      <c r="C179" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D172" s="51" t="s">
+      <c r="D179" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="E172" s="52"/>
-      <c r="F172" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="G172" s="52" t="s">
+      <c r="E179" s="52"/>
+      <c r="F179" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="G179" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="H172" s="53"/>
-      <c r="I172" s="54"/>
-    </row>
-    <row r="175" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A175" s="20" t="s">
+      <c r="H179" s="53"/>
+      <c r="I179" s="54"/>
+    </row>
+    <row r="182" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A182" s="20" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A176" s="32" t="s">
+    <row r="183" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A183" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B176" s="33" t="s">
+      <c r="B183" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C176" s="33" t="s">
+      <c r="C183" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="D176" s="33" t="s">
+      <c r="D183" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E176" s="33" t="s">
+      <c r="E183" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="F176" s="33" t="s">
+      <c r="F183" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G176" s="33" t="s">
+      <c r="G183" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H176" s="33" t="s">
+      <c r="H183" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I176" s="34" t="s">
+      <c r="I183" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="35" t="s">
+    <row r="184" spans="1:9">
+      <c r="A184" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="B177" s="39" t="s">
+      <c r="B184" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="C177" s="39" t="s">
+      <c r="C184" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="D177" s="39" t="s">
+      <c r="D184" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="E177" s="37" t="s">
+      <c r="E184" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="F177" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="G177" s="37"/>
-      <c r="H177" s="36"/>
-      <c r="I177" s="38"/>
-    </row>
-    <row r="178" spans="1:9">
-      <c r="A178" s="22" t="s">
+      <c r="F184" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G184" s="37"/>
+      <c r="H184" s="36"/>
+      <c r="I184" s="38"/>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E178" s="23" t="s">
+      <c r="E185" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G178" s="23"/>
-      <c r="H178" s="24"/>
-      <c r="I178" s="25"/>
-    </row>
-    <row r="179" spans="1:9">
-      <c r="A179" s="22" t="s">
+      <c r="F185" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G185" s="23"/>
+      <c r="H185" s="24"/>
+      <c r="I185" s="25"/>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E179" s="23"/>
-      <c r="F179" s="1" t="s">
+      <c r="E186" s="23"/>
+      <c r="F186" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G179" s="23"/>
-      <c r="H179" s="24"/>
-      <c r="I179" s="25"/>
-    </row>
-    <row r="180" spans="1:9">
-      <c r="A180" s="22" t="s">
+      <c r="G186" s="23"/>
+      <c r="H186" s="24"/>
+      <c r="I186" s="25"/>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E180" s="23" t="s">
+      <c r="E187" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G180" s="23"/>
-      <c r="H180" s="24"/>
-      <c r="I180" s="25"/>
-    </row>
-    <row r="181" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A181" s="26" t="s">
+      <c r="F187" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G187" s="23"/>
+      <c r="H187" s="24"/>
+      <c r="I187" s="25"/>
+    </row>
+    <row r="188" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A188" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B188" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C188" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D188" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E181" s="27"/>
-      <c r="F181" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G181" s="27" t="s">
+      <c r="E188" s="27"/>
+      <c r="F188" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G188" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="H181" s="28"/>
-      <c r="I181" s="29"/>
-    </row>
-    <row r="184" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A184" s="41" t="s">
+      <c r="H188" s="28"/>
+      <c r="I188" s="29"/>
+    </row>
+    <row r="191" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A191" s="41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A185" s="42" t="s">
+    <row r="192" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A192" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B185" s="43" t="s">
+      <c r="B192" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C185" s="43" t="s">
+      <c r="C192" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D185" s="43" t="s">
+      <c r="D192" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E185" s="43" t="s">
+      <c r="E192" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="F185" s="43" t="s">
+      <c r="F192" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G185" s="43" t="s">
+      <c r="G192" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H185" s="43" t="s">
+      <c r="H192" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I185" s="44" t="s">
+      <c r="I192" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="45" t="s">
+    <row r="193" spans="1:9">
+      <c r="A193" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="B186" s="46" t="s">
+      <c r="B193" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="C186" s="46" t="s">
+      <c r="C193" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D186" s="46" t="s">
+      <c r="D193" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="E186" s="47" t="s">
+      <c r="E193" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="F186" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="G186" s="47"/>
-      <c r="H186" s="48"/>
-      <c r="I186" s="49"/>
-    </row>
-    <row r="187" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A187" s="50" t="s">
+      <c r="F193" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="G193" s="47"/>
+      <c r="H193" s="48"/>
+      <c r="I193" s="49"/>
+    </row>
+    <row r="194" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A194" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="B187" s="51" t="s">
+      <c r="B194" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="C187" s="51" t="s">
+      <c r="C194" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D187" s="51" t="s">
+      <c r="D194" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="E187" s="52"/>
-      <c r="F187" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="G187" s="52"/>
-      <c r="H187" s="53"/>
-      <c r="I187" s="54"/>
+      <c r="E194" s="52"/>
+      <c r="F194" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="G194" s="52"/>
+      <c r="H194" s="53"/>
+      <c r="I194" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ecobay/src/main/webapp/resources/db/분석설계.xlsx
+++ b/ecobay/src/main/webapp/resources/db/분석설계.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="402">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1706,6 +1706,10 @@
   </si>
   <si>
     <t>VARCHAR(14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동추가 옵션 추가 - 209181010 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2113,7 +2117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2358,6 +2362,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3485,8 +3492,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H186" sqref="H186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6817,7 +6824,9 @@
         <v>153</v>
       </c>
       <c r="G184" s="37"/>
-      <c r="H184" s="36"/>
+      <c r="H184" s="82" t="s">
+        <v>401</v>
+      </c>
       <c r="I184" s="38"/>
     </row>
     <row r="185" spans="1:9">
@@ -6840,7 +6849,7 @@
         <v>153</v>
       </c>
       <c r="G185" s="23"/>
-      <c r="H185" s="24"/>
+      <c r="H185" s="40"/>
       <c r="I185" s="25"/>
     </row>
     <row r="186" spans="1:9">

--- a/ecobay/src/main/webapp/resources/db/분석설계.xlsx
+++ b/ecobay/src/main/webapp/resources/db/분석설계.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="415">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,10 +374,6 @@
 - 관리자사이트에서만 관리자가 등록/수정/삭제 가능 - 삭제시 완전 삭제됨.
 - 공지사항에 항목 출력하기
 - 등록된 이미지 출력되도록 하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- FAQ : 일련번호, 제목, 내용, 등록일시, 변경일시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,14 +463,6 @@
   </si>
   <si>
     <t>1:1 문의(Q&amp;A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 에디터(CK / 서머노트) 사용해서 글 등록기능 제공
-- 1:1문의 : 일련번호 / 회원ID(작성자) / 제목 / 내용 / 등록일시
-- 문의이미지 : 이미지코드, 일련번호(int형), 문의일련번호, 업로드명, 파일명, 등록일시
- -&gt; 이미지코드 규칙 : 일련번호형식
- -&gt; 업로드명 규칙 : 분류코드(3자리-QNA) + 이미지코드+일련번호_이미지명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1712,12 +1700,78 @@
     <t>자동추가 옵션 추가 - 209181010 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>회원아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리(CATEGORY) - 2018-10-11 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 에디터(CK / 서머노트) 사용해서 글 등록기능 제공
+- 1:1문의 : 일련번호 / 회원ID(작성자) / 제목 / 내용 / 등록일시 / 카테고리코드(추가)
+- 문의이미지 : 이미지코드, 일련번호(int형), 문의일련번호, 업로드명, 파일명, 등록일시
+ -&gt; 이미지코드 규칙 : 일련번호형식
+ -&gt; 업로드명 규칙 : 분류코드(3자리-QNA) + 이미지코드+일련번호_이미지명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- FAQ : 일련번호, 제목, 내용, 등록일시, 변경일시 / 카테고리코드(추가)
+ -&gt; 카테고리테이블 연동(20181011-추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 문의 - 카테고리 테이블 추가(2018-10-11 추가)
+   -&gt; 카테고리코드 / 카테고리명 / 등록일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 1번 / 2번 프로시저를 이벤트(스케쥴링)에 일괄적으로 실행시키기 위해서 프로시저 추가.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>** 스케쥴링 처리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 일정시간마다 프로시저를 실행하는 이벤트 처리하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1806,7 +1860,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2111,13 +2165,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2365,6 +2445,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2688,11 +2795,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="7" bestFit="1" customWidth="1"/>
@@ -2704,7 +2811,7 @@
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2730,7 +2837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33">
+    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
@@ -2739,14 +2846,14 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="49.5">
+    <row r="3" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -2754,7 +2861,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -2766,7 +2873,7 @@
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
@@ -2780,11 +2887,11 @@
         <v>48</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="33">
+    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -2800,7 +2907,7 @@
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="33">
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -2814,7 +2921,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -2828,7 +2935,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="33">
+    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="12" t="s">
         <v>15</v>
@@ -2842,11 +2949,11 @@
         <v>57</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="33">
+    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -2862,7 +2969,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="33">
+    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -2876,7 +2983,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="264">
+    <row r="11" spans="1:8" ht="264" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
@@ -2885,14 +2992,14 @@
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="33">
+    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
@@ -2903,12 +3010,12 @@
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="33">
+    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -2922,7 +3029,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
@@ -2940,7 +3047,7 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" ht="104.25" customHeight="1">
+    <row r="15" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
@@ -2951,14 +3058,14 @@
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="70" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G15" s="70" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -2976,7 +3083,7 @@
       </c>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -2990,7 +3097,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" ht="82.5">
+    <row r="18" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -3001,12 +3108,12 @@
         <v>70</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
@@ -3019,10 +3126,12 @@
       <c r="F19" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="12"/>
+      <c r="G19" s="70" t="s">
+        <v>409</v>
+      </c>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" ht="260.25" customHeight="1">
+    <row r="20" spans="1:8" ht="260.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="12" t="s">
         <v>72</v>
@@ -3035,16 +3144,16 @@
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="244.5" customHeight="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="244.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -3053,14 +3162,14 @@
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -3069,14 +3178,14 @@
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="114" customHeight="1">
+    <row r="23" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="12" t="s">
         <v>22</v>
@@ -3089,14 +3198,14 @@
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="60" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G23" s="70" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" ht="66">
+    <row r="24" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -3110,11 +3219,11 @@
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -3122,15 +3231,15 @@
         <v>77</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>86</v>
+        <v>408</v>
       </c>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" ht="99">
+    <row r="26" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -3138,13 +3247,13 @@
         <v>81</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>105</v>
+        <v>407</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="66">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
@@ -3155,14 +3264,14 @@
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="132">
+    <row r="28" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -3170,71 +3279,71 @@
         <v>84</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G28" s="70" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" ht="82.5">
+    <row r="29" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" ht="82.5">
+    <row r="30" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="D30" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" ht="66">
+    <row r="31" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G31" s="69" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>24</v>
       </c>
@@ -3244,11 +3353,11 @@
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
         <v>25</v>
@@ -3259,12 +3368,12 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12" t="s">
@@ -3275,12 +3384,12 @@
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3289,12 +3398,12 @@
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" ht="66">
+    <row r="36" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="12" t="s">
         <v>30</v>
@@ -3303,30 +3412,30 @@
         <v>72</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="12" t="s">
         <v>22</v>
@@ -3339,60 +3448,60 @@
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" ht="33">
+    <row r="40" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="13"/>
     </row>
-    <row r="41" spans="1:8" ht="33">
+    <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="12" t="s">
         <v>32</v>
@@ -3403,14 +3512,14 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3420,7 +3529,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3430,7 +3539,7 @@
       <c r="G44" s="12"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -3440,7 +3549,7 @@
       <c r="G45" s="12"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -3450,7 +3559,7 @@
       <c r="G46" s="12"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -3460,7 +3569,7 @@
       <c r="G47" s="12"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -3470,7 +3579,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8" ht="17.25" thickBot="1">
+    <row r="49" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -3490,13 +3599,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H186" sqref="H186"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
     <col min="2" max="3" width="25.625" style="20" customWidth="1"/>
@@ -3509,17 +3618,17 @@
     <col min="10" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" thickBot="1">
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" thickBot="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
@@ -3527,13 +3636,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>3</v>
@@ -3548,346 +3657,346 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="35">
         <v>1</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G5" s="37"/>
       <c r="H5" s="36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I5" s="38"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
         <v>2</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="24"/>
       <c r="I6" s="25"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>3</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="40" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I7" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>4</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="24"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>5</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="24"/>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>6</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>7</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="24"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>8</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>9</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
         <v>10</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>11</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>12</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>13</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>14</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" ht="17.25" thickBot="1">
+    <row r="19" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26">
         <v>15</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -3898,12 +4007,12 @@
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="22" spans="1:9" ht="17.25" thickBot="1">
+    <row r="22" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="17.25" thickBot="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>0</v>
       </c>
@@ -3911,13 +4020,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>3</v>
@@ -3932,292 +4041,292 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="35">
         <v>1</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="36"/>
       <c r="I24" s="38"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>2</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>3</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>4</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="24"/>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>5</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="24"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>6</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
         <v>7</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="40" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I30" s="25"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
         <v>8</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
         <v>9</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
         <v>10</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="25"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
         <v>11</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="24"/>
       <c r="I34" s="25"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
         <v>12</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I35" s="25"/>
     </row>
-    <row r="36" spans="1:9" ht="17.25" thickBot="1">
+    <row r="36" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="26">
         <v>13</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E36" s="27"/>
       <c r="F36" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G36" s="27">
         <v>0</v>
@@ -4225,18 +4334,18 @@
       <c r="H36" s="28"/>
       <c r="I36" s="29"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="31"/>
       <c r="E37" s="30"/>
       <c r="H37" s="31"/>
       <c r="I37" s="31"/>
     </row>
-    <row r="39" spans="1:9" ht="17.25" thickBot="1">
+    <row r="39" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="17.25" thickBot="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="s">
         <v>0</v>
       </c>
@@ -4244,13 +4353,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D40" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>3</v>
@@ -4265,168 +4374,168 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="35">
         <v>1</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G41" s="37"/>
       <c r="H41" s="36"/>
       <c r="I41" s="38"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="22">
         <v>2</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G42" s="23"/>
       <c r="H42" s="24"/>
       <c r="I42" s="25"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="22">
         <v>3</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G43" s="23"/>
       <c r="H43" s="24"/>
       <c r="I43" s="25"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="22">
         <v>4</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G44" s="23"/>
       <c r="H44" s="40" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I44" s="25"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="22">
         <v>5</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G45" s="23"/>
       <c r="H45" s="40" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I45" s="25"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="B46" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="B46" s="57" t="s">
-        <v>324</v>
-      </c>
       <c r="C46" s="57" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E46" s="58"/>
       <c r="F46" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G46" s="58"/>
       <c r="H46" s="40" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I46" s="59"/>
     </row>
-    <row r="47" spans="1:9" ht="17.25" thickBot="1">
+    <row r="47" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H47" s="28"/>
       <c r="I47" s="29"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
@@ -4437,7 +4546,7 @@
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
@@ -4448,12 +4557,12 @@
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
     </row>
-    <row r="50" spans="1:9" ht="17.25" thickBot="1">
+    <row r="50" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="81" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="17.25" thickBot="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="32" t="s">
         <v>0</v>
       </c>
@@ -4461,13 +4570,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D51" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F51" s="33" t="s">
         <v>3</v>
@@ -4482,76 +4591,76 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
         <v>1</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G52" s="37"/>
       <c r="H52" s="36"/>
       <c r="I52" s="38"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="22">
         <v>2</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>131</v>
+        <v>400</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G53" s="23"/>
       <c r="H53" s="24"/>
       <c r="I53" s="25"/>
     </row>
-    <row r="54" spans="1:9" ht="17.25" thickBot="1">
+    <row r="54" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="26">
         <v>3</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E54" s="27"/>
       <c r="F54" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H54" s="28"/>
       <c r="I54" s="29"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="31"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
@@ -4562,7 +4671,7 @@
       <c r="H55" s="31"/>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
@@ -4573,12 +4682,12 @@
       <c r="H56" s="31"/>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:9" ht="17.25" thickBot="1">
+    <row r="57" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="17.25" thickBot="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="s">
         <v>0</v>
       </c>
@@ -4586,13 +4695,13 @@
         <v>1</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D58" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F58" s="33" t="s">
         <v>3</v>
@@ -4607,152 +4716,152 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="35"/>
       <c r="B59" s="39" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D59" s="39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F59" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G59" s="37"/>
       <c r="H59" s="36" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I59" s="38"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="22"/>
       <c r="B60" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G60" s="23"/>
       <c r="H60" s="24"/>
       <c r="I60" s="25"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="22"/>
       <c r="B61" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G61" s="23"/>
       <c r="H61" s="24"/>
       <c r="I61" s="25"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
       <c r="B62" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G62" s="23"/>
       <c r="H62" s="24"/>
       <c r="I62" s="25"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="22"/>
       <c r="B63" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G63" s="23"/>
       <c r="H63" s="24"/>
       <c r="I63" s="25"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="22"/>
       <c r="B64" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G64" s="23"/>
       <c r="H64" s="24"/>
       <c r="I64" s="25"/>
     </row>
-    <row r="65" spans="1:9" ht="17.25" thickBot="1">
+    <row r="65" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26"/>
       <c r="B65" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E65" s="27"/>
       <c r="F65" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H65" s="28"/>
       <c r="I65" s="29"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="31"/>
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
@@ -4763,12 +4872,12 @@
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="17.25" thickBot="1">
+    <row r="68" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="17.25" thickBot="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="32" t="s">
         <v>0</v>
       </c>
@@ -4776,13 +4885,13 @@
         <v>1</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D69" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F69" s="33" t="s">
         <v>3</v>
@@ -4797,284 +4906,284 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="35">
         <v>1</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E70" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F70" s="36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G70" s="37"/>
       <c r="H70" s="36"/>
       <c r="I70" s="38"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="22">
         <v>2</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G71" s="23"/>
       <c r="H71" s="24"/>
       <c r="I71" s="25"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="22">
         <v>3</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G72" s="23"/>
       <c r="H72" s="24"/>
       <c r="I72" s="25"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="22">
         <v>4</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G73" s="23"/>
       <c r="H73" s="24"/>
       <c r="I73" s="25"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="22">
         <v>5</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G74" s="23"/>
       <c r="H74" s="24"/>
       <c r="I74" s="25"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="22">
         <v>6</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E75" s="23"/>
       <c r="F75" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G75" s="23"/>
       <c r="H75" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I75" s="25"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="22">
         <v>7</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E76" s="23"/>
       <c r="F76" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G76" s="23"/>
       <c r="H76" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I76" s="25"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="22">
         <v>8</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E77" s="23"/>
       <c r="F77" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H77" s="40" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I77" s="25"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="22">
         <v>9</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G78" s="23"/>
       <c r="H78" s="24"/>
       <c r="I78" s="25"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="22">
         <v>10</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H79" s="24"/>
       <c r="I79" s="25"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="22">
         <v>11</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G80" s="23"/>
       <c r="H80" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I80" s="25"/>
     </row>
-    <row r="81" spans="1:9" ht="17.25" thickBot="1">
+    <row r="81" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B81" s="55" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C81" s="55" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D81" s="55" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E81" s="68"/>
       <c r="F81" s="55" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G81" s="80" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H81" s="55" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I81" s="29"/>
     </row>
-    <row r="83" spans="1:9" ht="17.25" thickBot="1">
+    <row r="83" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="17.25" thickBot="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="32" t="s">
         <v>0</v>
       </c>
@@ -5082,13 +5191,13 @@
         <v>1</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D84" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E84" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F84" s="33" t="s">
         <v>3</v>
@@ -5103,104 +5212,104 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="35">
         <v>1</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D85" s="36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E85" s="37" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F85" s="36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G85" s="37"/>
       <c r="H85" s="36"/>
       <c r="I85" s="38"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="22">
         <v>2</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G86" s="23"/>
       <c r="H86" s="24"/>
       <c r="I86" s="25"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="22">
         <v>3</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G87" s="23"/>
       <c r="H87" s="24"/>
       <c r="I87" s="25"/>
     </row>
-    <row r="88" spans="1:9" ht="17.25" thickBot="1">
+    <row r="88" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="26">
         <v>4</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E88" s="27"/>
       <c r="F88" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H88" s="28"/>
       <c r="I88" s="29"/>
     </row>
-    <row r="91" spans="1:9" ht="17.25" thickBot="1">
+    <row r="91" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="17.25" thickBot="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="32" t="s">
         <v>0</v>
       </c>
@@ -5208,13 +5317,13 @@
         <v>1</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D92" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F92" s="33" t="s">
         <v>3</v>
@@ -5229,104 +5338,104 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="35">
         <v>1</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D93" s="36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E93" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F93" s="36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G93" s="37"/>
       <c r="H93" s="36"/>
       <c r="I93" s="38"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="22">
         <v>2</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E94" s="23"/>
       <c r="F94" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G94" s="23"/>
       <c r="H94" s="24" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I94" s="25"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="22">
         <v>3</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G95" s="23"/>
       <c r="H95" s="24" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I95" s="25"/>
     </row>
-    <row r="96" spans="1:9" ht="17.25" thickBot="1">
+    <row r="96" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="26">
         <v>4</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E96" s="27"/>
       <c r="F96" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G96" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H96" s="28"/>
       <c r="I96" s="29"/>
     </row>
-    <row r="99" spans="1:9" ht="17.25" thickBot="1">
+    <row r="99" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="17.25" thickBot="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="32" t="s">
         <v>0</v>
       </c>
@@ -5334,13 +5443,13 @@
         <v>1</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D100" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E100" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F100" s="33" t="s">
         <v>3</v>
@@ -5355,194 +5464,224 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C101" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D101" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E101" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F101" s="36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G101" s="37"/>
       <c r="H101" s="36"/>
       <c r="I101" s="38"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F102" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H102" s="24"/>
       <c r="I102" s="25"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E103" s="23"/>
       <c r="F103" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G103" s="23"/>
       <c r="H103" s="24"/>
       <c r="I103" s="25"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E104" s="23"/>
       <c r="F104" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G104" s="23"/>
       <c r="H104" s="24"/>
       <c r="I104" s="25"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E105" s="23"/>
       <c r="F105" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H105" s="24"/>
       <c r="I105" s="25"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H106" s="24"/>
       <c r="I106" s="25"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G107" s="23"/>
       <c r="H107" s="24"/>
       <c r="I107" s="25"/>
     </row>
-    <row r="108" spans="1:9" ht="17.25" thickBot="1">
+    <row r="108" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E108" s="27"/>
       <c r="F108" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H108" s="55" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I108" s="29"/>
     </row>
-    <row r="111" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A111" s="20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="17.25" thickBot="1">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="31"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="83"/>
+      <c r="I109" s="31"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="31"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="83"/>
+      <c r="I110" s="31"/>
+    </row>
+    <row r="111" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="83" t="s">
+        <v>402</v>
+      </c>
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="83"/>
+      <c r="I111" s="31"/>
+    </row>
+    <row r="112" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="32" t="s">
         <v>0</v>
       </c>
@@ -5550,13 +5689,13 @@
         <v>1</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D112" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F112" s="33" t="s">
         <v>3</v>
@@ -5571,1431 +5710,1572 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="B113" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="C113" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D113" s="39" t="s">
-        <v>181</v>
+        <v>255</v>
+      </c>
+      <c r="B113" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>401</v>
       </c>
       <c r="E113" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="F113" s="39" t="s">
-        <v>153</v>
+        <v>12</v>
+      </c>
+      <c r="F113" s="36" t="s">
+        <v>151</v>
       </c>
       <c r="G113" s="37"/>
       <c r="H113" s="36"/>
       <c r="I113" s="38"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>194</v>
+        <v>256</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D114" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="E114" s="23"/>
-      <c r="F114" s="1" t="s">
-        <v>153</v>
+      <c r="F114" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="G114" s="23"/>
       <c r="H114" s="24"/>
       <c r="I114" s="25"/>
     </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="63" t="s">
+    <row r="115" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B115" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E115" s="27"/>
+      <c r="F115" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G115" s="27"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="29"/>
+    </row>
+    <row r="118" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F119" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G119" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I119" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B120" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="C120" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D120" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E120" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="F120" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="G120" s="37"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="38"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E121" s="23"/>
+      <c r="F121" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G121" s="23"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="25"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="B122" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="C122" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="D122" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="E122" s="65"/>
+      <c r="F122" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="G122" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="H122" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="I122" s="67" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="B123" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="C123" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="D123" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="E123" s="65"/>
+      <c r="F123" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="G123" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="H123" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="I123" s="67" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="B115" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="C115" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="D115" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="E115" s="65"/>
-      <c r="F115" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="G115" s="65" t="s">
-        <v>321</v>
-      </c>
-      <c r="H115" s="66" t="s">
-        <v>313</v>
-      </c>
-      <c r="I115" s="67" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="63" t="s">
+      <c r="B124" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E124" s="27"/>
+      <c r="F124" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G124" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="H124" s="28"/>
+      <c r="I124" s="29"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="31"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="31"/>
+    </row>
+    <row r="127" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F128" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I128" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="C129" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D129" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E129" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="F129" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="G129" s="37"/>
+      <c r="H129" s="36"/>
+      <c r="I129" s="38"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E130" s="23"/>
+      <c r="F130" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G130" s="23"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="25"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E131" s="23"/>
+      <c r="F131" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G131" s="23"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="25"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E132" s="23"/>
+      <c r="F132" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G132" s="23"/>
+      <c r="H132" s="24"/>
+      <c r="I132" s="25"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E133" s="23"/>
+      <c r="F133" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G133" s="23"/>
+      <c r="H133" s="24"/>
+      <c r="I133" s="25"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="B134" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="C134" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="D134" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="E134" s="72"/>
+      <c r="F134" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="G134" s="72"/>
+      <c r="H134" s="74" t="s">
+        <v>349</v>
+      </c>
+      <c r="I134" s="75"/>
+    </row>
+    <row r="135" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E135" s="27"/>
+      <c r="F135" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G135" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="H135" s="28"/>
+      <c r="I135" s="29"/>
+    </row>
+    <row r="138" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D139" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F139" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G139" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I139" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B140" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C140" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D140" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E140" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="F140" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="G140" s="37"/>
+      <c r="H140" s="36"/>
+      <c r="I140" s="38"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E141" s="23"/>
+      <c r="F141" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G141" s="23"/>
+      <c r="H141" s="24"/>
+      <c r="I141" s="25"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E142" s="23"/>
+      <c r="F142" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G142" s="23"/>
+      <c r="H142" s="24"/>
+      <c r="I142" s="25"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E143" s="23"/>
+      <c r="F143" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G143" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H143" s="24"/>
+      <c r="I143" s="25"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E144" s="23"/>
+      <c r="F144" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G144" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H144" s="24"/>
+      <c r="I144" s="25"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="B116" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="C116" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="D116" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="E116" s="65"/>
-      <c r="F116" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="G116" s="65" t="s">
-        <v>320</v>
-      </c>
-      <c r="H116" s="66" t="s">
-        <v>313</v>
-      </c>
-      <c r="I116" s="67" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A117" s="26" t="s">
+      <c r="B145" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E145" s="23"/>
+      <c r="F145" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G145" s="23"/>
+      <c r="H145" s="24"/>
+      <c r="I145" s="25"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C117" s="2" t="s">
+      <c r="B146" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D146" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E146" s="23"/>
+      <c r="F146" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G146" s="23">
+        <v>0</v>
+      </c>
+      <c r="H146" s="24"/>
+      <c r="I146" s="25"/>
+    </row>
+    <row r="147" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E117" s="27"/>
-      <c r="F117" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G117" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="H117" s="28"/>
-      <c r="I117" s="29"/>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="31"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="30"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="31"/>
-    </row>
-    <row r="120" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A120" s="20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A121" s="32" t="s">
+      <c r="D147" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E147" s="27"/>
+      <c r="F147" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G147" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="I147" s="29"/>
+    </row>
+    <row r="150" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="33" t="s">
+      <c r="B151" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C121" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D121" s="33" t="s">
+      <c r="C151" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D151" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E121" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F121" s="33" t="s">
+      <c r="E151" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F151" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G121" s="33" t="s">
+      <c r="G151" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H121" s="33" t="s">
+      <c r="H151" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I121" s="34" t="s">
+      <c r="I151" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="B122" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="C122" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D122" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="E122" s="37" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B152" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="C152" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D152" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E152" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="F152" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="G152" s="37"/>
+      <c r="H152" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="I152" s="38"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E153" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G153" s="23"/>
+      <c r="H153" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="I153" s="25"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E154" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G154" s="23"/>
+      <c r="H154" s="62"/>
+      <c r="I154" s="25"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F122" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="G122" s="37"/>
-      <c r="H122" s="36"/>
-      <c r="I122" s="38"/>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E123" s="23"/>
-      <c r="F123" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G123" s="23"/>
-      <c r="H123" s="24"/>
-      <c r="I123" s="25"/>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="22" t="s">
+      <c r="E155" s="23"/>
+      <c r="F155" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G155" s="23"/>
+      <c r="H155" s="24"/>
+      <c r="I155" s="25"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="B156" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E156" s="23"/>
+      <c r="F156" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G156" s="23"/>
+      <c r="H156" s="24"/>
+      <c r="I156" s="25"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="B157" s="71" t="s">
+        <v>360</v>
+      </c>
+      <c r="C157" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="D157" s="71" t="s">
+        <v>362</v>
+      </c>
+      <c r="E157" s="72"/>
+      <c r="F157" s="71" t="s">
+        <v>363</v>
+      </c>
+      <c r="G157" s="72" t="s">
+        <v>365</v>
+      </c>
+      <c r="H157" s="74" t="s">
+        <v>366</v>
+      </c>
+      <c r="I157" s="59"/>
+    </row>
+    <row r="158" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E158" s="27"/>
+      <c r="F158" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G158" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="H158" s="28"/>
+      <c r="I158" s="29"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F159"/>
+    </row>
+    <row r="161" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="D162" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="F162" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G162" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="I162" s="87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="B163" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="C163" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E163" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G163" s="23"/>
+      <c r="H163" s="24"/>
+      <c r="I163" s="25"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B164" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="C164" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E164" s="23"/>
+      <c r="F164" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G164" s="23"/>
+      <c r="H164" s="24"/>
+      <c r="I164" s="25"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E124" s="23"/>
-      <c r="F124" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G124" s="23"/>
-      <c r="H124" s="24"/>
-      <c r="I124" s="25"/>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E125" s="23"/>
-      <c r="F125" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G125" s="23"/>
-      <c r="H125" s="24"/>
-      <c r="I125" s="25"/>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E126" s="23"/>
-      <c r="F126" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G126" s="23"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="25"/>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="56" t="s">
-        <v>347</v>
-      </c>
-      <c r="B127" s="71" t="s">
-        <v>352</v>
-      </c>
-      <c r="C127" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="D127" s="71" t="s">
-        <v>350</v>
-      </c>
-      <c r="E127" s="72"/>
-      <c r="F127" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="G127" s="72"/>
-      <c r="H127" s="74" t="s">
-        <v>351</v>
-      </c>
-      <c r="I127" s="75"/>
-    </row>
-    <row r="128" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A128" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E128" s="27"/>
-      <c r="F128" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G128" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="H128" s="28"/>
-      <c r="I128" s="29"/>
-    </row>
-    <row r="131" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A131" s="20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A132" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C132" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D132" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E132" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F132" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G132" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H132" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I132" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="B133" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="C133" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D133" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="E133" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F133" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="G133" s="37"/>
-      <c r="H133" s="36"/>
-      <c r="I133" s="38"/>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E134" s="23"/>
-      <c r="F134" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G134" s="23"/>
-      <c r="H134" s="24"/>
-      <c r="I134" s="25"/>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E135" s="23"/>
-      <c r="F135" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G135" s="23"/>
-      <c r="H135" s="24"/>
-      <c r="I135" s="25"/>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E136" s="23"/>
-      <c r="F136" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G136" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="H136" s="24"/>
-      <c r="I136" s="25"/>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E137" s="23"/>
-      <c r="F137" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G137" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="H137" s="24"/>
-      <c r="I137" s="25"/>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E138" s="23"/>
-      <c r="F138" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G138" s="23"/>
-      <c r="H138" s="24"/>
-      <c r="I138" s="25"/>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="B139" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C139" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D139" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E139" s="23"/>
-      <c r="F139" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G139" s="23">
-        <v>0</v>
-      </c>
-      <c r="H139" s="24"/>
-      <c r="I139" s="25"/>
-    </row>
-    <row r="140" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A140" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E140" s="27"/>
-      <c r="F140" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G140" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="I140" s="29"/>
-    </row>
-    <row r="143" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A143" s="20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A144" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C144" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D144" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E144" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F144" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G144" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H144" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I144" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="B145" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="C145" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="D145" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="E145" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F145" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="G145" s="37"/>
-      <c r="H145" s="61" t="s">
-        <v>335</v>
-      </c>
-      <c r="I145" s="38"/>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E146" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G146" s="23"/>
-      <c r="H146" s="62" t="s">
-        <v>336</v>
-      </c>
-      <c r="I146" s="25"/>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E147" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G147" s="23"/>
-      <c r="H147" s="62"/>
-      <c r="I147" s="25"/>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E148" s="23"/>
-      <c r="F148" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G148" s="23"/>
-      <c r="H148" s="24"/>
-      <c r="I148" s="25"/>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E149" s="23"/>
-      <c r="F149" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G149" s="23"/>
-      <c r="H149" s="24"/>
-      <c r="I149" s="25"/>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="56" t="s">
-        <v>360</v>
-      </c>
-      <c r="B150" s="71" t="s">
-        <v>362</v>
-      </c>
-      <c r="C150" s="71" t="s">
-        <v>363</v>
-      </c>
-      <c r="D150" s="71" t="s">
-        <v>364</v>
-      </c>
-      <c r="E150" s="72"/>
-      <c r="F150" s="71" t="s">
-        <v>365</v>
-      </c>
-      <c r="G150" s="72" t="s">
-        <v>367</v>
-      </c>
-      <c r="H150" s="74" t="s">
-        <v>368</v>
-      </c>
-      <c r="I150" s="59"/>
-    </row>
-    <row r="151" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A151" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E151" s="27"/>
-      <c r="F151" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G151" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="H151" s="28"/>
-      <c r="I151" s="29"/>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="F152"/>
-    </row>
-    <row r="154" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A154" s="20" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A155" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C155" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D155" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E155" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F155" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G155" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H155" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I155" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="B156" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="C156" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D156" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="E156" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F156" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="G156" s="37"/>
-      <c r="H156" s="36"/>
-      <c r="I156" s="38"/>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E157" s="23"/>
-      <c r="F157" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G157" s="23"/>
-      <c r="H157" s="24"/>
-      <c r="I157" s="25"/>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E158" s="23"/>
-      <c r="F158" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G158" s="23"/>
-      <c r="H158" s="24"/>
-      <c r="I158" s="25"/>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E159" s="23"/>
-      <c r="F159" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G159" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="H159" s="24"/>
-      <c r="I159" s="25"/>
-    </row>
-    <row r="160" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A160" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E160" s="27"/>
-      <c r="F160" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G160" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="H160" s="28"/>
-      <c r="I160" s="29"/>
-    </row>
-    <row r="163" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A163" s="20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A164" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C164" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D164" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E164" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F164" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G164" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H164" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I164" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="B165" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="C165" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D165" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="E165" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F165" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="G165" s="37"/>
-      <c r="H165" s="36"/>
-      <c r="I165" s="38"/>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="E165" s="23"/>
+      <c r="F165" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G165" s="23"/>
+      <c r="H165" s="24"/>
+      <c r="I165" s="25"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="22" t="s">
         <v>258</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>121</v>
+        <v>238</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E166" s="23" t="s">
-        <v>191</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E166" s="23"/>
       <c r="F166" s="1" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G166" s="23"/>
       <c r="H166" s="24"/>
       <c r="I166" s="25"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="22" t="s">
         <v>259</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>238</v>
+        <v>167</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E167" s="23"/>
       <c r="F167" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G167" s="23"/>
+        <v>151</v>
+      </c>
+      <c r="G167" s="23" t="s">
+        <v>175</v>
+      </c>
       <c r="H167" s="24"/>
       <c r="I167" s="25"/>
     </row>
-    <row r="168" spans="1:9">
-      <c r="A168" s="22" t="s">
+    <row r="168" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E168" s="23"/>
-      <c r="F168" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G168" s="23"/>
-      <c r="H168" s="24"/>
-      <c r="I168" s="25"/>
-    </row>
-    <row r="169" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A169" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="B169" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E169" s="27"/>
-      <c r="F169" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G169" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="H169" s="28"/>
-      <c r="I169" s="29"/>
-    </row>
-    <row r="172" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A172" s="41" t="s">
-        <v>388</v>
-      </c>
-      <c r="B172" s="76"/>
-      <c r="C172" s="76"/>
-      <c r="D172" s="76"/>
-      <c r="E172" s="77"/>
-      <c r="F172" s="76"/>
-      <c r="G172" s="77"/>
-      <c r="H172" s="76"/>
-      <c r="I172" s="76"/>
-    </row>
-    <row r="173" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A173" s="42" t="s">
+      <c r="C168" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E168" s="27"/>
+      <c r="F168" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G168" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="H168" s="28"/>
+      <c r="I168" s="29"/>
+    </row>
+    <row r="171" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="43" t="s">
+      <c r="B172" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C173" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D173" s="43" t="s">
+      <c r="C172" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D172" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E173" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="F173" s="43" t="s">
+      <c r="E172" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F172" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G173" s="43" t="s">
+      <c r="G172" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H173" s="43" t="s">
+      <c r="H172" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I173" s="44" t="s">
+      <c r="I172" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
-      <c r="A174" s="45" t="s">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B173" s="90" t="s">
+        <v>250</v>
+      </c>
+      <c r="C173" s="90" t="s">
+        <v>129</v>
+      </c>
+      <c r="D173" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E173" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="F173" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="G173" s="37"/>
+      <c r="H173" s="36"/>
+      <c r="I173" s="38"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="88" t="s">
+        <v>256</v>
+      </c>
+      <c r="B174" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C174" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="D174" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="E174" s="23"/>
+      <c r="F174" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G174" s="23"/>
+      <c r="H174" s="24"/>
+      <c r="I174" s="25"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="B174" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="C174" s="46" t="s">
+      <c r="B175" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="C175" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E175" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G175" s="23"/>
+      <c r="H175" s="24"/>
+      <c r="I175" s="25"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E176" s="23"/>
+      <c r="F176" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G176" s="23"/>
+      <c r="H176" s="24"/>
+      <c r="I176" s="25"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E177" s="23"/>
+      <c r="F177" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G177" s="23"/>
+      <c r="H177" s="24"/>
+      <c r="I177" s="25"/>
+    </row>
+    <row r="178" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E178" s="27"/>
+      <c r="F178" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G178" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="H178" s="28"/>
+      <c r="I178" s="29"/>
+    </row>
+    <row r="181" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="B181" s="76"/>
+      <c r="C181" s="76"/>
+      <c r="D181" s="76"/>
+      <c r="E181" s="77"/>
+      <c r="F181" s="76"/>
+      <c r="G181" s="77"/>
+      <c r="H181" s="76"/>
+      <c r="I181" s="76"/>
+    </row>
+    <row r="182" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D182" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E182" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="F182" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G182" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H182" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I182" s="44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="B183" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C183" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D183" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E183" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="F183" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="G183" s="47"/>
+      <c r="H183" s="48"/>
+      <c r="I183" s="49"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="B184" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="C184" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D184" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="E184" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="F184" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="G184" s="65"/>
+      <c r="H184" s="78"/>
+      <c r="I184" s="79"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="B185" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="C185" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="D185" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="E185" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="F185" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="G185" s="65"/>
+      <c r="H185" s="78"/>
+      <c r="I185" s="79"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="B186" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="C186" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="D174" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="E174" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="F174" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="G174" s="47"/>
-      <c r="H174" s="48"/>
-      <c r="I174" s="49"/>
-    </row>
-    <row r="175" spans="1:9">
-      <c r="A175" s="63" t="s">
+      <c r="D186" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="E186" s="65"/>
+      <c r="F186" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="G186" s="65"/>
+      <c r="H186" s="78"/>
+      <c r="I186" s="79"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="B187" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C187" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D187" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="E187" s="65"/>
+      <c r="F187" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="G187" s="65"/>
+      <c r="H187" s="78"/>
+      <c r="I187" s="79"/>
+    </row>
+    <row r="188" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="B188" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C188" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D188" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="E188" s="52"/>
+      <c r="F188" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G188" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="H188" s="53"/>
+      <c r="I188" s="54"/>
+    </row>
+    <row r="191" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D192" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E192" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F192" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G192" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H192" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I192" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B193" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="C193" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="D193" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E193" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F193" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="G193" s="37"/>
+      <c r="H193" s="82" t="s">
+        <v>399</v>
+      </c>
+      <c r="I193" s="38"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E194" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G194" s="23"/>
+      <c r="H194" s="40"/>
+      <c r="I194" s="25"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E195" s="23"/>
+      <c r="F195" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G195" s="23"/>
+      <c r="H195" s="24"/>
+      <c r="I195" s="25"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B175" s="64" t="s">
-        <v>247</v>
-      </c>
-      <c r="C175" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D175" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="E175" s="65" t="s">
-        <v>210</v>
-      </c>
-      <c r="F175" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="G175" s="65"/>
-      <c r="H175" s="78"/>
-      <c r="I175" s="79"/>
-    </row>
-    <row r="176" spans="1:9">
-      <c r="A176" s="63" t="s">
+      <c r="B196" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E196" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G196" s="23"/>
+      <c r="H196" s="24"/>
+      <c r="I196" s="25"/>
+    </row>
+    <row r="197" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="B176" s="64" t="s">
-        <v>252</v>
-      </c>
-      <c r="C176" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="D176" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="E176" s="65" t="s">
-        <v>205</v>
-      </c>
-      <c r="F176" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="G176" s="65"/>
-      <c r="H176" s="78"/>
-      <c r="I176" s="79"/>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="63" t="s">
-        <v>260</v>
-      </c>
-      <c r="B177" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="C177" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="D177" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="E177" s="65"/>
-      <c r="F177" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="G177" s="65"/>
-      <c r="H177" s="78"/>
-      <c r="I177" s="79"/>
-    </row>
-    <row r="178" spans="1:9">
-      <c r="A178" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="B178" s="64" t="s">
+      <c r="B197" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E197" s="27"/>
+      <c r="F197" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G197" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="H197" s="28"/>
+      <c r="I197" s="29"/>
+    </row>
+    <row r="200" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D201" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E201" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="F201" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G201" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H201" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I201" s="44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="B202" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="C202" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D202" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="E202" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="C178" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="D178" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="E178" s="65"/>
-      <c r="F178" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="G178" s="65"/>
-      <c r="H178" s="78"/>
-      <c r="I178" s="79"/>
-    </row>
-    <row r="179" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A179" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="B179" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="C179" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D179" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="E179" s="52"/>
-      <c r="F179" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="G179" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="H179" s="53"/>
-      <c r="I179" s="54"/>
-    </row>
-    <row r="182" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A182" s="20" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A183" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B183" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C183" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D183" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E183" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F183" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G183" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H183" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I183" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
-      <c r="A184" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="B184" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="C184" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="D184" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="E184" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="F184" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="G184" s="37"/>
-      <c r="H184" s="82" t="s">
-        <v>401</v>
-      </c>
-      <c r="I184" s="38"/>
-    </row>
-    <row r="185" spans="1:9">
-      <c r="A185" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E185" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G185" s="23"/>
-      <c r="H185" s="40"/>
-      <c r="I185" s="25"/>
-    </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E186" s="23"/>
-      <c r="F186" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G186" s="23"/>
-      <c r="H186" s="24"/>
-      <c r="I186" s="25"/>
-    </row>
-    <row r="187" spans="1:9">
-      <c r="A187" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E187" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G187" s="23"/>
-      <c r="H187" s="24"/>
-      <c r="I187" s="25"/>
-    </row>
-    <row r="188" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A188" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E188" s="27"/>
-      <c r="F188" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G188" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="H188" s="28"/>
-      <c r="I188" s="29"/>
-    </row>
-    <row r="191" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A191" s="41" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A192" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B192" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C192" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D192" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E192" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="F192" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G192" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H192" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I192" s="44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
-      <c r="A193" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="B193" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="C193" s="46" t="s">
+      <c r="F202" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="G202" s="47"/>
+      <c r="H202" s="48"/>
+      <c r="I202" s="49"/>
+    </row>
+    <row r="203" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="B203" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="C203" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D193" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="E193" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="F193" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="G193" s="47"/>
-      <c r="H193" s="48"/>
-      <c r="I193" s="49"/>
-    </row>
-    <row r="194" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A194" s="50" t="s">
-        <v>266</v>
-      </c>
-      <c r="B194" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="C194" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="D194" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="E194" s="52"/>
-      <c r="F194" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="G194" s="52"/>
-      <c r="H194" s="53"/>
-      <c r="I194" s="54"/>
+      <c r="D203" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="E203" s="52"/>
+      <c r="F203" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G203" s="52"/>
+      <c r="H203" s="53"/>
+      <c r="I203" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7006,85 +7286,101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="3.875" customWidth="1"/>
+    <col min="1" max="13" width="3.875" style="20" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="20" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="20" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="C4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="20" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="D5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="20" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="E6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="20" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="E7" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="F8" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="20" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="20" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="C12" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="20" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="C13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="20" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="D14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="D15" t="s">
-        <v>384</v>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/ecobay/src/main/webapp/resources/db/분석설계.xlsx
+++ b/ecobay/src/main/webapp/resources/db/분석설계.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CookSpring\ecobay\ecobay\src\main\webapp\resources\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectWorking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="415">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1771,7 +1771,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2799,7 +2799,7 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9.375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="7" bestFit="1" customWidth="1"/>
@@ -2811,7 +2811,7 @@
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="33">
       <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="49.5">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="33">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="33">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -2921,7 +2921,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -2935,7 +2935,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="33">
       <c r="A8" s="11"/>
       <c r="B8" s="12" t="s">
         <v>15</v>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="33">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -2969,7 +2969,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="33">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -2983,7 +2983,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="264" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="264">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="33">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
@@ -3015,7 +3015,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="33">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -3029,7 +3029,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="104.25" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -3097,7 +3097,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="82.5">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -3113,7 +3113,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="33">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" ht="260.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="260.25" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="12" t="s">
         <v>72</v>
@@ -3153,7 +3153,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="244.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="244.5" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="114" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="12" t="s">
         <v>22</v>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="66">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -3219,7 +3219,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="33">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="99">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
@@ -3253,7 +3253,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="66">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="132">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="82.5">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="82.5">
       <c r="A30" s="11"/>
       <c r="B30" s="12" t="s">
         <v>88</v>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="66">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12" t="s">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
         <v>24</v>
       </c>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
         <v>25</v>
@@ -3373,7 +3373,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12" t="s">
@@ -3389,7 +3389,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3403,7 +3403,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="66">
       <c r="A36" s="11"/>
       <c r="B36" s="12" t="s">
         <v>30</v>
@@ -3421,7 +3421,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3435,7 +3435,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="11"/>
       <c r="B38" s="12" t="s">
         <v>22</v>
@@ -3453,7 +3453,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12" t="s">
@@ -3469,7 +3469,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="33">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12" t="s">
@@ -3485,7 +3485,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="13"/>
     </row>
-    <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="33">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="11"/>
       <c r="B42" s="12" t="s">
         <v>32</v>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3529,7 +3529,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3539,7 +3539,7 @@
       <c r="G44" s="12"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -3549,7 +3549,7 @@
       <c r="G45" s="12"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -3559,7 +3559,7 @@
       <c r="G46" s="12"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -3569,7 +3569,7 @@
       <c r="G47" s="12"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -3579,7 +3579,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="17.25" thickBot="1">
       <c r="A49" s="16"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -3599,13 +3599,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
     <col min="2" max="3" width="25.625" style="20" customWidth="1"/>
@@ -3618,17 +3618,17 @@
     <col min="10" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="17.25" thickBot="1">
       <c r="A3" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="17.25" thickBot="1">
       <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="35">
         <v>1</v>
       </c>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="I5" s="38"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="22">
         <v>2</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="H6" s="24"/>
       <c r="I6" s="25"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="22">
         <v>3</v>
       </c>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="I7" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="22">
         <v>4</v>
       </c>
@@ -3747,7 +3747,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="22">
         <v>5</v>
       </c>
@@ -3768,7 +3768,7 @@
       <c r="H9" s="24"/>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="22">
         <v>6</v>
       </c>
@@ -3789,7 +3789,7 @@
       <c r="H10" s="24"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="22">
         <v>7</v>
       </c>
@@ -3810,7 +3810,7 @@
       <c r="H11" s="24"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="22">
         <v>8</v>
       </c>
@@ -3833,7 +3833,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="22">
         <v>9</v>
       </c>
@@ -3854,7 +3854,7 @@
       <c r="H13" s="24"/>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="22">
         <v>10</v>
       </c>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="22">
         <v>11</v>
       </c>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="22">
         <v>12</v>
       </c>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="22">
         <v>13</v>
       </c>
@@ -3952,7 +3952,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="22">
         <v>14</v>
       </c>
@@ -3975,7 +3975,7 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="17.25" thickBot="1">
       <c r="A19" s="26">
         <v>15</v>
       </c>
@@ -3996,7 +3996,7 @@
       <c r="H19" s="28"/>
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -4007,12 +4007,12 @@
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="22" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="17.25" thickBot="1">
       <c r="A22" s="20" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="17.25" thickBot="1">
       <c r="A23" s="32" t="s">
         <v>0</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="35">
         <v>1</v>
       </c>
@@ -4064,7 +4064,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="38"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="22">
         <v>2</v>
       </c>
@@ -4085,7 +4085,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="22">
         <v>3</v>
       </c>
@@ -4108,7 +4108,7 @@
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="22">
         <v>4</v>
       </c>
@@ -4131,7 +4131,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="22">
         <v>5</v>
       </c>
@@ -4154,7 +4154,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="22">
         <v>6</v>
       </c>
@@ -4175,7 +4175,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="22">
         <v>7</v>
       </c>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="I30" s="25"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="22">
         <v>8</v>
       </c>
@@ -4219,7 +4219,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="22">
         <v>9</v>
       </c>
@@ -4242,7 +4242,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="22">
         <v>10</v>
       </c>
@@ -4265,7 +4265,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="25"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="22">
         <v>11</v>
       </c>
@@ -4286,7 +4286,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="25"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="22">
         <v>12</v>
       </c>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="I35" s="25"/>
     </row>
-    <row r="36" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="17.25" thickBot="1">
       <c r="A36" s="26">
         <v>13</v>
       </c>
@@ -4334,18 +4334,18 @@
       <c r="H36" s="28"/>
       <c r="I36" s="29"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="31"/>
       <c r="E37" s="30"/>
       <c r="H37" s="31"/>
       <c r="I37" s="31"/>
     </row>
-    <row r="39" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="17.25" thickBot="1">
       <c r="A39" s="20" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="17.25" thickBot="1">
       <c r="A40" s="32" t="s">
         <v>0</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="35">
         <v>1</v>
       </c>
@@ -4397,7 +4397,7 @@
       <c r="H41" s="36"/>
       <c r="I41" s="38"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="22">
         <v>2</v>
       </c>
@@ -4420,7 +4420,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="25"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="22">
         <v>3</v>
       </c>
@@ -4443,7 +4443,7 @@
       <c r="H43" s="24"/>
       <c r="I43" s="25"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="22">
         <v>4</v>
       </c>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="I44" s="25"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" s="22">
         <v>5</v>
       </c>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I45" s="25"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" s="56" t="s">
         <v>320</v>
       </c>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="I46" s="59"/>
     </row>
-    <row r="47" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="17.25" thickBot="1">
       <c r="A47" s="26" t="s">
         <v>321</v>
       </c>
@@ -4535,7 +4535,7 @@
       <c r="H47" s="28"/>
       <c r="I47" s="29"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
@@ -4546,7 +4546,7 @@
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
@@ -4557,12 +4557,12 @@
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
     </row>
-    <row r="50" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="17.25" thickBot="1">
       <c r="A50" s="81" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="17.25" thickBot="1">
       <c r="A51" s="32" t="s">
         <v>0</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" s="35">
         <v>1</v>
       </c>
@@ -4614,7 +4614,7 @@
       <c r="H52" s="36"/>
       <c r="I52" s="38"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53" s="22">
         <v>2</v>
       </c>
@@ -4637,7 +4637,7 @@
       <c r="H53" s="24"/>
       <c r="I53" s="25"/>
     </row>
-    <row r="54" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="17.25" thickBot="1">
       <c r="A54" s="26">
         <v>3</v>
       </c>
@@ -4660,7 +4660,7 @@
       <c r="H54" s="28"/>
       <c r="I54" s="29"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55" s="31"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
@@ -4671,7 +4671,7 @@
       <c r="H55" s="31"/>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
@@ -4682,12 +4682,12 @@
       <c r="H56" s="31"/>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="17.25" thickBot="1">
       <c r="A57" s="20" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="17.25" thickBot="1">
       <c r="A58" s="32" t="s">
         <v>0</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9">
       <c r="A59" s="35"/>
       <c r="B59" s="39" t="s">
         <v>271</v>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="I59" s="38"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9">
       <c r="A60" s="22"/>
       <c r="B60" s="1" t="s">
         <v>272</v>
@@ -4760,7 +4760,7 @@
       <c r="H60" s="24"/>
       <c r="I60" s="25"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9">
       <c r="A61" s="22"/>
       <c r="B61" s="1" t="s">
         <v>273</v>
@@ -4781,7 +4781,7 @@
       <c r="H61" s="24"/>
       <c r="I61" s="25"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="A62" s="22"/>
       <c r="B62" s="1" t="s">
         <v>173</v>
@@ -4802,7 +4802,7 @@
       <c r="H62" s="24"/>
       <c r="I62" s="25"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="22"/>
       <c r="B63" s="1" t="s">
         <v>236</v>
@@ -4821,7 +4821,7 @@
       <c r="H63" s="24"/>
       <c r="I63" s="25"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" s="22"/>
       <c r="B64" s="1" t="s">
         <v>180</v>
@@ -4840,7 +4840,7 @@
       <c r="H64" s="24"/>
       <c r="I64" s="25"/>
     </row>
-    <row r="65" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="17.25" thickBot="1">
       <c r="A65" s="26"/>
       <c r="B65" s="2" t="s">
         <v>167</v>
@@ -4861,7 +4861,7 @@
       <c r="H65" s="28"/>
       <c r="I65" s="29"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="31"/>
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
@@ -4872,12 +4872,12 @@
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="17.25" thickBot="1">
       <c r="A68" s="20" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="17.25" thickBot="1">
       <c r="A69" s="32" t="s">
         <v>0</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="35">
         <v>1</v>
       </c>
@@ -4929,7 +4929,7 @@
       <c r="H70" s="36"/>
       <c r="I70" s="38"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="22">
         <v>2</v>
       </c>
@@ -4950,7 +4950,7 @@
       <c r="H71" s="24"/>
       <c r="I71" s="25"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" s="22">
         <v>3</v>
       </c>
@@ -4971,7 +4971,7 @@
       <c r="H72" s="24"/>
       <c r="I72" s="25"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="22">
         <v>4</v>
       </c>
@@ -4992,7 +4992,7 @@
       <c r="H73" s="24"/>
       <c r="I73" s="25"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="22">
         <v>5</v>
       </c>
@@ -5013,7 +5013,7 @@
       <c r="H74" s="24"/>
       <c r="I74" s="25"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="22">
         <v>6</v>
       </c>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="I75" s="25"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" s="22">
         <v>7</v>
       </c>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="I76" s="25"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" s="22">
         <v>8</v>
       </c>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="I77" s="25"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" s="22">
         <v>9</v>
       </c>
@@ -5105,7 +5105,7 @@
       <c r="H78" s="24"/>
       <c r="I78" s="25"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" s="22">
         <v>10</v>
       </c>
@@ -5128,7 +5128,7 @@
       <c r="H79" s="24"/>
       <c r="I79" s="25"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="22">
         <v>11</v>
       </c>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="I80" s="25"/>
     </row>
-    <row r="81" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="17.25" thickBot="1">
       <c r="A81" s="26" t="s">
         <v>342</v>
       </c>
@@ -5178,12 +5178,12 @@
       </c>
       <c r="I81" s="29"/>
     </row>
-    <row r="83" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" ht="17.25" thickBot="1">
       <c r="A83" s="20" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" ht="17.25" thickBot="1">
       <c r="A84" s="32" t="s">
         <v>0</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9">
       <c r="A85" s="35">
         <v>1</v>
       </c>
@@ -5235,7 +5235,7 @@
       <c r="H85" s="36"/>
       <c r="I85" s="38"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9">
       <c r="A86" s="22">
         <v>2</v>
       </c>
@@ -5258,7 +5258,7 @@
       <c r="H86" s="24"/>
       <c r="I86" s="25"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87" s="22">
         <v>3</v>
       </c>
@@ -5281,7 +5281,7 @@
       <c r="H87" s="24"/>
       <c r="I87" s="25"/>
     </row>
-    <row r="88" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" ht="17.25" thickBot="1">
       <c r="A88" s="26">
         <v>4</v>
       </c>
@@ -5304,12 +5304,12 @@
       <c r="H88" s="28"/>
       <c r="I88" s="29"/>
     </row>
-    <row r="91" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="17.25" thickBot="1">
       <c r="A91" s="20" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" ht="17.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>0</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9">
       <c r="A93" s="35">
         <v>1</v>
       </c>
@@ -5361,7 +5361,7 @@
       <c r="H93" s="36"/>
       <c r="I93" s="38"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9">
       <c r="A94" s="22">
         <v>2</v>
       </c>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="I94" s="25"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9">
       <c r="A95" s="22">
         <v>3</v>
       </c>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="I95" s="25"/>
     </row>
-    <row r="96" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" ht="17.25" thickBot="1">
       <c r="A96" s="26">
         <v>4</v>
       </c>
@@ -5430,12 +5430,12 @@
       <c r="H96" s="28"/>
       <c r="I96" s="29"/>
     </row>
-    <row r="99" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" ht="17.25" thickBot="1">
       <c r="A99" s="20" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" ht="17.25" thickBot="1">
       <c r="A100" s="32" t="s">
         <v>0</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9">
       <c r="A101" s="35" t="s">
         <v>255</v>
       </c>
@@ -5487,7 +5487,7 @@
       <c r="H101" s="36"/>
       <c r="I101" s="38"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9">
       <c r="A102" s="22" t="s">
         <v>256</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="H102" s="24"/>
       <c r="I102" s="25"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103" s="22" t="s">
         <v>257</v>
       </c>
@@ -5533,7 +5533,7 @@
       <c r="H103" s="24"/>
       <c r="I103" s="25"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9">
       <c r="A104" s="22" t="s">
         <v>258</v>
       </c>
@@ -5554,7 +5554,7 @@
       <c r="H104" s="24"/>
       <c r="I104" s="25"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="A105" s="22" t="s">
         <v>259</v>
       </c>
@@ -5577,7 +5577,7 @@
       <c r="H105" s="24"/>
       <c r="I105" s="25"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="A106" s="22" t="s">
         <v>260</v>
       </c>
@@ -5600,7 +5600,7 @@
       <c r="H106" s="24"/>
       <c r="I106" s="25"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" s="22" t="s">
         <v>261</v>
       </c>
@@ -5621,7 +5621,7 @@
       <c r="H107" s="24"/>
       <c r="I107" s="25"/>
     </row>
-    <row r="108" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" ht="17.25" thickBot="1">
       <c r="A108" s="26" t="s">
         <v>262</v>
       </c>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="I108" s="29"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" s="31"/>
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
@@ -5657,7 +5657,7 @@
       <c r="H109" s="83"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9">
       <c r="A110" s="31"/>
       <c r="B110" s="31"/>
       <c r="C110" s="31"/>
@@ -5668,7 +5668,7 @@
       <c r="H110" s="83"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" ht="17.25" thickBot="1">
       <c r="A111" s="83" t="s">
         <v>402</v>
       </c>
@@ -5681,7 +5681,7 @@
       <c r="H111" s="83"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" ht="17.25" thickBot="1">
       <c r="A112" s="32" t="s">
         <v>0</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9">
       <c r="A113" s="35" t="s">
         <v>255</v>
       </c>
@@ -5733,7 +5733,7 @@
       <c r="H113" s="36"/>
       <c r="I113" s="38"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9">
       <c r="A114" s="22" t="s">
         <v>256</v>
       </c>
@@ -5754,7 +5754,7 @@
       <c r="H114" s="24"/>
       <c r="I114" s="25"/>
     </row>
-    <row r="115" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" ht="17.25" thickBot="1">
       <c r="A115" s="26" t="s">
         <v>257</v>
       </c>
@@ -5775,12 +5775,12 @@
       <c r="H115" s="28"/>
       <c r="I115" s="29"/>
     </row>
-    <row r="118" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" ht="17.25" thickBot="1">
       <c r="A118" s="20" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" ht="17.25" thickBot="1">
       <c r="A119" s="32" t="s">
         <v>0</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="A120" s="35" t="s">
         <v>263</v>
       </c>
@@ -5832,7 +5832,7 @@
       <c r="H120" s="36"/>
       <c r="I120" s="38"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9">
       <c r="A121" s="22" t="s">
         <v>256</v>
       </c>
@@ -5853,7 +5853,7 @@
       <c r="H121" s="24"/>
       <c r="I121" s="25"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9">
       <c r="A122" s="63" t="s">
         <v>257</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9">
       <c r="A123" s="63" t="s">
         <v>258</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" ht="17.25" thickBot="1">
       <c r="A124" s="26" t="s">
         <v>259</v>
       </c>
@@ -5930,7 +5930,7 @@
       <c r="H124" s="28"/>
       <c r="I124" s="29"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9">
       <c r="A125" s="31"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
@@ -5941,12 +5941,12 @@
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="127" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" ht="17.25" thickBot="1">
       <c r="A127" s="20" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" ht="17.25" thickBot="1">
       <c r="A128" s="32" t="s">
         <v>0</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9">
       <c r="A129" s="35" t="s">
         <v>263</v>
       </c>
@@ -5998,7 +5998,7 @@
       <c r="H129" s="36"/>
       <c r="I129" s="38"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9">
       <c r="A130" s="22" t="s">
         <v>256</v>
       </c>
@@ -6019,7 +6019,7 @@
       <c r="H130" s="24"/>
       <c r="I130" s="25"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9">
       <c r="A131" s="22" t="s">
         <v>257</v>
       </c>
@@ -6040,7 +6040,7 @@
       <c r="H131" s="24"/>
       <c r="I131" s="25"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9">
       <c r="A132" s="22" t="s">
         <v>258</v>
       </c>
@@ -6061,7 +6061,7 @@
       <c r="H132" s="24"/>
       <c r="I132" s="25"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9">
       <c r="A133" s="22" t="s">
         <v>259</v>
       </c>
@@ -6082,7 +6082,7 @@
       <c r="H133" s="24"/>
       <c r="I133" s="25"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9">
       <c r="A134" s="56" t="s">
         <v>345</v>
       </c>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="I134" s="75"/>
     </row>
-    <row r="135" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" ht="17.25" thickBot="1">
       <c r="A135" s="26" t="s">
         <v>346</v>
       </c>
@@ -6128,12 +6128,12 @@
       <c r="H135" s="28"/>
       <c r="I135" s="29"/>
     </row>
-    <row r="138" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" ht="17.25" thickBot="1">
       <c r="A138" s="20" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" ht="17.25" thickBot="1">
       <c r="A139" s="32" t="s">
         <v>0</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9">
       <c r="A140" s="35" t="s">
         <v>263</v>
       </c>
@@ -6185,7 +6185,7 @@
       <c r="H140" s="36"/>
       <c r="I140" s="38"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9">
       <c r="A141" s="22" t="s">
         <v>256</v>
       </c>
@@ -6206,7 +6206,7 @@
       <c r="H141" s="24"/>
       <c r="I141" s="25"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9">
       <c r="A142" s="22" t="s">
         <v>257</v>
       </c>
@@ -6227,7 +6227,7 @@
       <c r="H142" s="24"/>
       <c r="I142" s="25"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9">
       <c r="A143" s="22" t="s">
         <v>258</v>
       </c>
@@ -6250,7 +6250,7 @@
       <c r="H143" s="24"/>
       <c r="I143" s="25"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9">
       <c r="A144" s="22" t="s">
         <v>259</v>
       </c>
@@ -6273,7 +6273,7 @@
       <c r="H144" s="24"/>
       <c r="I144" s="25"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9">
       <c r="A145" s="22" t="s">
         <v>260</v>
       </c>
@@ -6294,7 +6294,7 @@
       <c r="H145" s="24"/>
       <c r="I145" s="25"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9">
       <c r="A146" s="22" t="s">
         <v>261</v>
       </c>
@@ -6317,7 +6317,7 @@
       <c r="H146" s="24"/>
       <c r="I146" s="25"/>
     </row>
-    <row r="147" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" ht="17.25" thickBot="1">
       <c r="A147" s="26" t="s">
         <v>262</v>
       </c>
@@ -6342,12 +6342,12 @@
       </c>
       <c r="I147" s="29"/>
     </row>
-    <row r="150" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" ht="17.25" thickBot="1">
       <c r="A150" s="20" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" ht="17.25" thickBot="1">
       <c r="A151" s="32" t="s">
         <v>0</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9">
       <c r="A152" s="35" t="s">
         <v>263</v>
       </c>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="I152" s="38"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9">
       <c r="A153" s="22" t="s">
         <v>256</v>
       </c>
@@ -6426,7 +6426,7 @@
       </c>
       <c r="I153" s="25"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9">
       <c r="A154" s="22" t="s">
         <v>257</v>
       </c>
@@ -6449,7 +6449,7 @@
       <c r="H154" s="62"/>
       <c r="I154" s="25"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9">
       <c r="A155" s="22" t="s">
         <v>258</v>
       </c>
@@ -6470,7 +6470,7 @@
       <c r="H155" s="24"/>
       <c r="I155" s="25"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9">
       <c r="A156" s="22" t="s">
         <v>259</v>
       </c>
@@ -6491,7 +6491,7 @@
       <c r="H156" s="24"/>
       <c r="I156" s="25"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9">
       <c r="A157" s="56" t="s">
         <v>358</v>
       </c>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="I157" s="59"/>
     </row>
-    <row r="158" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" ht="17.25" thickBot="1">
       <c r="A158" s="26" t="s">
         <v>359</v>
       </c>
@@ -6539,15 +6539,15 @@
       <c r="H158" s="28"/>
       <c r="I158" s="29"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9">
       <c r="F159"/>
     </row>
-    <row r="161" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" ht="17.25" thickBot="1">
       <c r="A161" s="20" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9">
       <c r="A162" s="85" t="s">
         <v>0</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9">
       <c r="A163" s="22" t="s">
         <v>263</v>
       </c>
@@ -6599,7 +6599,7 @@
       <c r="H163" s="24"/>
       <c r="I163" s="25"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9">
       <c r="A164" s="22" t="s">
         <v>256</v>
       </c>
@@ -6620,7 +6620,7 @@
       <c r="H164" s="24"/>
       <c r="I164" s="25"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9">
       <c r="A165" s="22" t="s">
         <v>257</v>
       </c>
@@ -6641,7 +6641,7 @@
       <c r="H165" s="24"/>
       <c r="I165" s="25"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9">
       <c r="A166" s="22" t="s">
         <v>258</v>
       </c>
@@ -6662,146 +6662,146 @@
       <c r="H166" s="24"/>
       <c r="I166" s="25"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9">
       <c r="A167" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>168</v>
+      <c r="B167" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C167" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D167" s="24" t="s">
+        <v>185</v>
       </c>
       <c r="E167" s="23"/>
-      <c r="F167" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G167" s="23" t="s">
-        <v>175</v>
+      <c r="F167" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G167" s="23">
+        <v>0</v>
       </c>
       <c r="H167" s="24"/>
       <c r="I167" s="25"/>
     </row>
-    <row r="168" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="26" t="s">
+    <row r="168" spans="1:9">
+      <c r="A168" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E168" s="23"/>
+      <c r="F168" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G168" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H168" s="24"/>
+      <c r="I168" s="25"/>
+    </row>
+    <row r="169" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A169" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D169" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E168" s="27"/>
-      <c r="F168" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G168" s="27" t="s">
+      <c r="E169" s="27"/>
+      <c r="F169" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G169" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="H168" s="28"/>
-      <c r="I168" s="29"/>
-    </row>
-    <row r="171" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="20" t="s">
+      <c r="H169" s="28"/>
+      <c r="I169" s="29"/>
+    </row>
+    <row r="172" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A172" s="20" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="32" t="s">
+    <row r="173" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A173" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B172" s="33" t="s">
+      <c r="B173" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C172" s="33" t="s">
+      <c r="C173" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D172" s="33" t="s">
+      <c r="D173" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E172" s="33" t="s">
+      <c r="E173" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="F172" s="33" t="s">
+      <c r="F173" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G172" s="33" t="s">
+      <c r="G173" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H172" s="33" t="s">
+      <c r="H173" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I172" s="34" t="s">
+      <c r="I173" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="35" t="s">
+    <row r="174" spans="1:9">
+      <c r="A174" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="B173" s="90" t="s">
+      <c r="B174" s="90" t="s">
         <v>250</v>
       </c>
-      <c r="C173" s="90" t="s">
+      <c r="C174" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="D173" s="39" t="s">
+      <c r="D174" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="E173" s="37" t="s">
+      <c r="E174" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="F173" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="G173" s="37"/>
-      <c r="H173" s="36"/>
-      <c r="I173" s="38"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" s="88" t="s">
+      <c r="F174" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="G174" s="37"/>
+      <c r="H174" s="36"/>
+      <c r="I174" s="38"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="88" t="s">
         <v>256</v>
       </c>
-      <c r="B174" s="24" t="s">
+      <c r="B175" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="C174" s="24" t="s">
+      <c r="C175" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="D174" s="89" t="s">
+      <c r="D175" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="E174" s="23"/>
-      <c r="F174" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G174" s="23"/>
-      <c r="H174" s="24"/>
-      <c r="I174" s="25"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A175" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="B175" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="C175" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E175" s="23" t="s">
-        <v>189</v>
-      </c>
+      <c r="E175" s="23"/>
       <c r="F175" s="1" t="s">
         <v>151</v>
       </c>
@@ -6809,20 +6809,22 @@
       <c r="H175" s="24"/>
       <c r="I175" s="25"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9">
       <c r="A176" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>237</v>
+        <v>257</v>
+      </c>
+      <c r="B176" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="C176" s="84" t="s">
+        <v>119</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E176" s="23"/>
+        <v>150</v>
+      </c>
+      <c r="E176" s="23" t="s">
+        <v>189</v>
+      </c>
       <c r="F176" s="1" t="s">
         <v>151</v>
       </c>
@@ -6830,153 +6832,151 @@
       <c r="H176" s="24"/>
       <c r="I176" s="25"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9">
       <c r="A177" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="E177" s="23"/>
       <c r="F177" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="G177" s="23"/>
       <c r="H177" s="24"/>
       <c r="I177" s="25"/>
     </row>
-    <row r="178" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="26" t="s">
+    <row r="178" spans="1:9">
+      <c r="A178" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E178" s="23"/>
+      <c r="F178" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G178" s="23"/>
+      <c r="H178" s="24"/>
+      <c r="I178" s="25"/>
+    </row>
+    <row r="179" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A179" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E178" s="27"/>
-      <c r="F178" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G178" s="27" t="s">
+      <c r="E179" s="27"/>
+      <c r="F179" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G179" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="H178" s="28"/>
-      <c r="I178" s="29"/>
-    </row>
-    <row r="181" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="41" t="s">
+      <c r="H179" s="28"/>
+      <c r="I179" s="29"/>
+    </row>
+    <row r="182" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A182" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="B181" s="76"/>
-      <c r="C181" s="76"/>
-      <c r="D181" s="76"/>
-      <c r="E181" s="77"/>
-      <c r="F181" s="76"/>
-      <c r="G181" s="77"/>
-      <c r="H181" s="76"/>
-      <c r="I181" s="76"/>
-    </row>
-    <row r="182" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="42" t="s">
+      <c r="B182" s="76"/>
+      <c r="C182" s="76"/>
+      <c r="D182" s="76"/>
+      <c r="E182" s="77"/>
+      <c r="F182" s="76"/>
+      <c r="G182" s="77"/>
+      <c r="H182" s="76"/>
+      <c r="I182" s="76"/>
+    </row>
+    <row r="183" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A183" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B182" s="43" t="s">
+      <c r="B183" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C182" s="43" t="s">
+      <c r="C183" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D182" s="43" t="s">
+      <c r="D183" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E182" s="43" t="s">
+      <c r="E183" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="F182" s="43" t="s">
+      <c r="F183" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G182" s="43" t="s">
+      <c r="G183" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H182" s="43" t="s">
+      <c r="H183" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I182" s="44" t="s">
+      <c r="I183" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A183" s="45" t="s">
+    <row r="184" spans="1:9">
+      <c r="A184" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="B183" s="46" t="s">
+      <c r="B184" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="C183" s="46" t="s">
+      <c r="C184" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D183" s="46" t="s">
+      <c r="D184" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="E183" s="47" t="s">
+      <c r="E184" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="F183" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="G183" s="47"/>
-      <c r="H183" s="48"/>
-      <c r="I183" s="49"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" s="63" t="s">
+      <c r="F184" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="G184" s="47"/>
+      <c r="H184" s="48"/>
+      <c r="I184" s="49"/>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="B184" s="64" t="s">
+      <c r="B185" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="C184" s="64" t="s">
+      <c r="C185" s="64" t="s">
         <v>129</v>
-      </c>
-      <c r="D184" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="E184" s="65" t="s">
-        <v>208</v>
-      </c>
-      <c r="F184" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="G184" s="65"/>
-      <c r="H184" s="78"/>
-      <c r="I184" s="79"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="63" t="s">
-        <v>257</v>
-      </c>
-      <c r="B185" s="64" t="s">
-        <v>250</v>
-      </c>
-      <c r="C185" s="64" t="s">
-        <v>254</v>
       </c>
       <c r="D185" s="64" t="s">
         <v>185</v>
       </c>
       <c r="E185" s="65" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F185" s="64" t="s">
         <v>151</v>
@@ -6985,20 +6985,22 @@
       <c r="H185" s="78"/>
       <c r="I185" s="79"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9">
       <c r="A186" s="63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B186" s="64" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="C186" s="64" t="s">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="D186" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="E186" s="65"/>
+        <v>185</v>
+      </c>
+      <c r="E186" s="65" t="s">
+        <v>203</v>
+      </c>
       <c r="F186" s="64" t="s">
         <v>151</v>
       </c>
@@ -7006,18 +7008,18 @@
       <c r="H186" s="78"/>
       <c r="I186" s="79"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9">
       <c r="A187" s="63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B187" s="64" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C187" s="64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D187" s="64" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E187" s="65"/>
       <c r="F187" s="64" t="s">
@@ -7027,255 +7029,276 @@
       <c r="H187" s="78"/>
       <c r="I187" s="79"/>
     </row>
-    <row r="188" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="50" t="s">
+    <row r="188" spans="1:9">
+      <c r="A188" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="B188" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C188" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D188" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="E188" s="65"/>
+      <c r="F188" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="G188" s="65"/>
+      <c r="H188" s="78"/>
+      <c r="I188" s="79"/>
+    </row>
+    <row r="189" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A189" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="B188" s="51" t="s">
+      <c r="B189" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C188" s="51" t="s">
+      <c r="C189" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D188" s="51" t="s">
+      <c r="D189" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="E188" s="52"/>
-      <c r="F188" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G188" s="52" t="s">
+      <c r="E189" s="52"/>
+      <c r="F189" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G189" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="H188" s="53"/>
-      <c r="I188" s="54"/>
-    </row>
-    <row r="191" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="20" t="s">
+      <c r="H189" s="53"/>
+      <c r="I189" s="54"/>
+    </row>
+    <row r="192" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A192" s="20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="32" t="s">
+    <row r="193" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A193" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B192" s="33" t="s">
+      <c r="B193" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C192" s="33" t="s">
+      <c r="C193" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D192" s="33" t="s">
+      <c r="D193" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E192" s="33" t="s">
+      <c r="E193" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="F192" s="33" t="s">
+      <c r="F193" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G192" s="33" t="s">
+      <c r="G193" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H192" s="33" t="s">
+      <c r="H193" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I192" s="34" t="s">
+      <c r="I193" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="35" t="s">
+    <row r="194" spans="1:9">
+      <c r="A194" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="B193" s="39" t="s">
+      <c r="B194" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="C193" s="39" t="s">
+      <c r="C194" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="D193" s="39" t="s">
+      <c r="D194" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="E193" s="37" t="s">
+      <c r="E194" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="F193" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="G193" s="37"/>
-      <c r="H193" s="82" t="s">
+      <c r="F194" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="G194" s="37"/>
+      <c r="H194" s="82" t="s">
         <v>399</v>
       </c>
-      <c r="I193" s="38"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A194" s="22" t="s">
+      <c r="I194" s="38"/>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C195" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E194" s="23" t="s">
+      <c r="E195" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G194" s="23"/>
-      <c r="H194" s="40"/>
-      <c r="I194" s="25"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" s="22" t="s">
+      <c r="F195" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G195" s="23"/>
+      <c r="H195" s="40"/>
+      <c r="I195" s="25"/>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E195" s="23"/>
-      <c r="F195" s="1" t="s">
+      <c r="E196" s="23"/>
+      <c r="F196" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="G195" s="23"/>
-      <c r="H195" s="24"/>
-      <c r="I195" s="25"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E196" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="G196" s="23"/>
       <c r="H196" s="24"/>
       <c r="I196" s="25"/>
     </row>
-    <row r="197" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="26" t="s">
+    <row r="197" spans="1:9">
+      <c r="A197" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E197" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G197" s="23"/>
+      <c r="H197" s="24"/>
+      <c r="I197" s="25"/>
+    </row>
+    <row r="198" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A198" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B198" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C198" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D198" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E197" s="27"/>
-      <c r="F197" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G197" s="27" t="s">
+      <c r="E198" s="27"/>
+      <c r="F198" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G198" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="H197" s="28"/>
-      <c r="I197" s="29"/>
-    </row>
-    <row r="200" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="41" t="s">
+      <c r="H198" s="28"/>
+      <c r="I198" s="29"/>
+    </row>
+    <row r="201" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A201" s="41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="42" t="s">
+    <row r="202" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A202" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B201" s="43" t="s">
+      <c r="B202" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C201" s="43" t="s">
+      <c r="C202" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D201" s="43" t="s">
+      <c r="D202" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E201" s="43" t="s">
+      <c r="E202" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="F201" s="43" t="s">
+      <c r="F202" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G201" s="43" t="s">
+      <c r="G202" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H201" s="43" t="s">
+      <c r="H202" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I201" s="44" t="s">
+      <c r="I202" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" s="45" t="s">
+    <row r="203" spans="1:9">
+      <c r="A203" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="B202" s="46" t="s">
+      <c r="B203" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="C202" s="46" t="s">
+      <c r="C203" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="D202" s="46" t="s">
+      <c r="D203" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="E202" s="47" t="s">
+      <c r="E203" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="F202" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="G202" s="47"/>
-      <c r="H202" s="48"/>
-      <c r="I202" s="49"/>
-    </row>
-    <row r="203" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="50" t="s">
+      <c r="F203" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="G203" s="47"/>
+      <c r="H203" s="48"/>
+      <c r="I203" s="49"/>
+    </row>
+    <row r="204" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A204" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="B203" s="51" t="s">
+      <c r="B204" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="C203" s="51" t="s">
+      <c r="C204" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D203" s="51" t="s">
+      <c r="D204" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="E203" s="52"/>
-      <c r="F203" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G203" s="52"/>
-      <c r="H203" s="53"/>
-      <c r="I203" s="54"/>
+      <c r="E204" s="52"/>
+      <c r="F204" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G204" s="52"/>
+      <c r="H204" s="53"/>
+      <c r="I204" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7292,93 +7315,93 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="13" width="3.875" style="20" customWidth="1"/>
     <col min="14" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="20" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="20" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="B3" s="20" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="C4" s="20" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="D5" s="20" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="E6" s="20" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="E7" s="20" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="F8" s="20" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="20" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="B11" s="20" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="C12" s="20" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="C13" s="20" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="D14" s="20" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="D15" s="20" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="20" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="20" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="20" t="s">
         <v>412</v>
       </c>

--- a/ecobay/src/main/webapp/resources/db/분석설계.xlsx
+++ b/ecobay/src/main/webapp/resources/db/분석설계.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="438">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1137,10 +1137,6 @@
   </si>
   <si>
     <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1766,12 +1762,110 @@
     <t>CATEGORY_NM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>자동추가 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDX_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGCONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANCLECONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLACK_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20181012 추가]
+블랙리스트 : 일련번호 / 회원아이디 / 사유 / 취소사유 / 사용여부 / 등록날짜 / 취소날짜 
+ - 회원아이디는 취소된 경우엔 별도의 행으로 중복되어 추가등록 가능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙리스트 : BLACKLIST - 20181012 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2197,7 +2291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2472,6 +2566,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2795,11 +2892,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="7" bestFit="1" customWidth="1"/>
@@ -2811,7 +2908,7 @@
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2837,7 +2934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33">
+    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
@@ -2853,7 +2950,7 @@
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="49.5">
+    <row r="3" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -2873,7 +2970,7 @@
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
@@ -2891,7 +2988,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="33">
+    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -2907,7 +3004,7 @@
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="33">
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -2921,7 +3018,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -2935,7 +3032,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="33">
+    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="12" t="s">
         <v>15</v>
@@ -2953,7 +3050,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="33">
+    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -2969,7 +3066,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="33">
+    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -2983,7 +3080,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="264">
+    <row r="11" spans="1:8" ht="264" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
@@ -2992,14 +3089,14 @@
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="33">
+    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
@@ -3015,7 +3112,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="33">
+    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -3029,7 +3126,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
@@ -3047,7 +3144,7 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" ht="104.25" customHeight="1">
+    <row r="15" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
@@ -3058,14 +3155,14 @@
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="70" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G15" s="70" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -3083,7 +3180,7 @@
       </c>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -3097,7 +3194,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" ht="82.5">
+    <row r="18" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -3113,7 +3210,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" ht="33">
+    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
@@ -3127,11 +3224,11 @@
         <v>80</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" ht="260.25" customHeight="1">
+    <row r="20" spans="1:8" ht="260.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="12" t="s">
         <v>72</v>
@@ -3144,16 +3241,16 @@
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>356</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="244.5" customHeight="1">
+    <row r="21" spans="1:8" ht="244.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -3165,11 +3262,11 @@
         <v>139</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -3178,14 +3275,14 @@
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>338</v>
-      </c>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="114" customHeight="1">
+    <row r="23" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="12" t="s">
         <v>22</v>
@@ -3198,14 +3295,14 @@
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="G23" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="G23" s="70" t="s">
-        <v>331</v>
-      </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" ht="66">
+    <row r="24" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -3219,7 +3316,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" ht="33">
+    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
@@ -3231,11 +3328,11 @@
         <v>77</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" ht="99">
+    <row r="26" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
@@ -3247,13 +3344,13 @@
         <v>81</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="66">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
@@ -3271,7 +3368,7 @@
       </c>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="132">
+    <row r="28" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -3285,11 +3382,11 @@
         <v>94</v>
       </c>
       <c r="G28" s="70" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" ht="82.5">
+    <row r="29" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -3305,7 +3402,7 @@
       </c>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" ht="82.5">
+    <row r="30" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="12" t="s">
         <v>88</v>
@@ -3325,7 +3422,7 @@
       </c>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" ht="66">
+    <row r="31" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12" t="s">
@@ -3336,14 +3433,14 @@
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G31" s="69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>24</v>
       </c>
@@ -3353,11 +3450,11 @@
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
         <v>25</v>
@@ -3370,10 +3467,12 @@
       <c r="F33" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="G33" s="12"/>
+      <c r="G33" s="70" t="s">
+        <v>434</v>
+      </c>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12" t="s">
@@ -3389,7 +3488,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3403,7 +3502,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" ht="66">
+    <row r="36" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="12" t="s">
         <v>30</v>
@@ -3421,7 +3520,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3435,7 +3534,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="12" t="s">
         <v>22</v>
@@ -3453,7 +3552,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12" t="s">
@@ -3469,7 +3568,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" ht="33">
+    <row r="40" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12" t="s">
@@ -3485,7 +3584,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="13"/>
     </row>
-    <row r="41" spans="1:8" ht="33">
+    <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3501,7 +3600,7 @@
       </c>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="12" t="s">
         <v>32</v>
@@ -3519,7 +3618,7 @@
       </c>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3529,7 +3628,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3539,7 +3638,7 @@
       <c r="G44" s="12"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -3549,7 +3648,7 @@
       <c r="G45" s="12"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -3559,7 +3658,7 @@
       <c r="G46" s="12"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -3569,7 +3668,7 @@
       <c r="G47" s="12"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -3579,7 +3678,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8" ht="17.25" thickBot="1">
+    <row r="49" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -3599,13 +3698,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I204"/>
+  <dimension ref="A1:I215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G214" sqref="G214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
     <col min="2" max="3" width="25.625" style="20" customWidth="1"/>
@@ -3618,17 +3717,17 @@
     <col min="10" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" thickBot="1">
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickBot="1">
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
@@ -3657,7 +3756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="35">
         <v>1</v>
       </c>
@@ -3682,7 +3781,7 @@
       </c>
       <c r="I5" s="38"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
         <v>2</v>
       </c>
@@ -3703,7 +3802,7 @@
       <c r="H6" s="24"/>
       <c r="I6" s="25"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>3</v>
       </c>
@@ -3714,7 +3813,7 @@
         <v>107</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="24" t="s">
@@ -3722,11 +3821,11 @@
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I7" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>4</v>
       </c>
@@ -3747,7 +3846,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>5</v>
       </c>
@@ -3768,7 +3867,7 @@
       <c r="H9" s="24"/>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>6</v>
       </c>
@@ -3789,7 +3888,7 @@
       <c r="H10" s="24"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>7</v>
       </c>
@@ -3810,7 +3909,7 @@
       <c r="H11" s="24"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>8</v>
       </c>
@@ -3833,7 +3932,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>9</v>
       </c>
@@ -3844,7 +3943,7 @@
         <v>113</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="24" t="s">
@@ -3854,7 +3953,7 @@
       <c r="H13" s="24"/>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
         <v>10</v>
       </c>
@@ -3865,21 +3964,21 @@
         <v>114</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24" t="s">
         <v>151</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>11</v>
       </c>
@@ -3890,46 +3989,46 @@
         <v>117</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="24" t="s">
         <v>151</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>12</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>154</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>13</v>
       </c>
@@ -3952,7 +4051,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>14</v>
       </c>
@@ -3975,7 +4074,7 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" ht="17.25" thickBot="1">
+    <row r="19" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26">
         <v>15</v>
       </c>
@@ -3996,7 +4095,7 @@
       <c r="H19" s="28"/>
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -4007,12 +4106,12 @@
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="22" spans="1:9" ht="17.25" thickBot="1">
+    <row r="22" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.25" thickBot="1">
+    <row r="23" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>0</v>
       </c>
@@ -4041,7 +4140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="35">
         <v>1</v>
       </c>
@@ -4064,7 +4163,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="38"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>2</v>
       </c>
@@ -4085,12 +4184,12 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>3</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>119</v>
@@ -4108,7 +4207,7 @@
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>4</v>
       </c>
@@ -4131,7 +4230,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>5</v>
       </c>
@@ -4154,7 +4253,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>6</v>
       </c>
@@ -4175,7 +4274,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
         <v>7</v>
       </c>
@@ -4194,11 +4293,11 @@
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I30" s="25"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
         <v>8</v>
       </c>
@@ -4219,7 +4318,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
         <v>9</v>
       </c>
@@ -4242,7 +4341,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
         <v>10</v>
       </c>
@@ -4265,7 +4364,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="25"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
         <v>11</v>
       </c>
@@ -4286,7 +4385,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="25"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
         <v>12</v>
       </c>
@@ -4304,14 +4403,14 @@
         <v>151</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I35" s="25"/>
     </row>
-    <row r="36" spans="1:9" ht="17.25" thickBot="1">
+    <row r="36" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="26">
         <v>13</v>
       </c>
@@ -4334,18 +4433,18 @@
       <c r="H36" s="28"/>
       <c r="I36" s="29"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="31"/>
       <c r="E37" s="30"/>
       <c r="H37" s="31"/>
       <c r="I37" s="31"/>
     </row>
-    <row r="39" spans="1:9" ht="17.25" thickBot="1">
+    <row r="39" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17.25" thickBot="1">
+    <row r="40" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="s">
         <v>0</v>
       </c>
@@ -4374,7 +4473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="35">
         <v>1</v>
       </c>
@@ -4397,7 +4496,7 @@
       <c r="H41" s="36"/>
       <c r="I41" s="38"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="22">
         <v>2</v>
       </c>
@@ -4420,7 +4519,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="25"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="22">
         <v>3</v>
       </c>
@@ -4431,7 +4530,7 @@
         <v>118</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>209</v>
@@ -4443,7 +4542,7 @@
       <c r="H43" s="24"/>
       <c r="I43" s="25"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="22">
         <v>4</v>
       </c>
@@ -4462,11 +4561,11 @@
       </c>
       <c r="G44" s="23"/>
       <c r="H44" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I44" s="25"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="22">
         <v>5</v>
       </c>
@@ -4485,19 +4584,19 @@
       </c>
       <c r="G45" s="23"/>
       <c r="H45" s="40" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I45" s="25"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B46" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="C46" s="57" t="s">
         <v>322</v>
-      </c>
-      <c r="C46" s="57" t="s">
-        <v>323</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>205</v>
@@ -4508,16 +4607,16 @@
       </c>
       <c r="G46" s="58"/>
       <c r="H46" s="40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I46" s="59"/>
     </row>
-    <row r="47" spans="1:9" ht="17.25" thickBot="1">
+    <row r="47" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C47" s="28" t="s">
         <v>115</v>
@@ -4535,7 +4634,7 @@
       <c r="H47" s="28"/>
       <c r="I47" s="29"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
@@ -4546,7 +4645,7 @@
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
@@ -4557,12 +4656,12 @@
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
     </row>
-    <row r="50" spans="1:9" ht="17.25" thickBot="1">
+    <row r="50" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="81" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="17.25" thickBot="1">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="32" t="s">
         <v>0</v>
       </c>
@@ -4591,18 +4690,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
         <v>1</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E52" s="37" t="s">
         <v>203</v>
@@ -4614,15 +4713,15 @@
       <c r="H52" s="36"/>
       <c r="I52" s="38"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="22">
         <v>2</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>150</v>
@@ -4637,15 +4736,15 @@
       <c r="H53" s="24"/>
       <c r="I53" s="25"/>
     </row>
-    <row r="54" spans="1:9" ht="17.25" thickBot="1">
+    <row r="54" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="26">
         <v>3</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D54" s="28" t="s">
         <v>179</v>
@@ -4660,7 +4759,7 @@
       <c r="H54" s="28"/>
       <c r="I54" s="29"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="31"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
@@ -4671,7 +4770,7 @@
       <c r="H55" s="31"/>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
@@ -4682,12 +4781,12 @@
       <c r="H56" s="31"/>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:9" ht="17.25" thickBot="1">
+    <row r="57" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="20" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="17.25" thickBot="1">
+    <row r="58" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="s">
         <v>0</v>
       </c>
@@ -4716,7 +4815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="35"/>
       <c r="B59" s="39" t="s">
         <v>271</v>
@@ -4739,7 +4838,7 @@
       </c>
       <c r="I59" s="38"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="22"/>
       <c r="B60" s="1" t="s">
         <v>272</v>
@@ -4760,7 +4859,7 @@
       <c r="H60" s="24"/>
       <c r="I60" s="25"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="22"/>
       <c r="B61" s="1" t="s">
         <v>273</v>
@@ -4781,7 +4880,7 @@
       <c r="H61" s="24"/>
       <c r="I61" s="25"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
       <c r="B62" s="1" t="s">
         <v>173</v>
@@ -4802,7 +4901,7 @@
       <c r="H62" s="24"/>
       <c r="I62" s="25"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="22"/>
       <c r="B63" s="1" t="s">
         <v>236</v>
@@ -4821,7 +4920,7 @@
       <c r="H63" s="24"/>
       <c r="I63" s="25"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="22"/>
       <c r="B64" s="1" t="s">
         <v>180</v>
@@ -4840,7 +4939,7 @@
       <c r="H64" s="24"/>
       <c r="I64" s="25"/>
     </row>
-    <row r="65" spans="1:9" ht="17.25" thickBot="1">
+    <row r="65" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26"/>
       <c r="B65" s="2" t="s">
         <v>167</v>
@@ -4861,7 +4960,7 @@
       <c r="H65" s="28"/>
       <c r="I65" s="29"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="31"/>
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
@@ -4872,12 +4971,12 @@
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="17.25" thickBot="1">
+    <row r="68" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="20" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="17.25" thickBot="1">
+    <row r="69" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="32" t="s">
         <v>0</v>
       </c>
@@ -4906,7 +5005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="35">
         <v>1</v>
       </c>
@@ -4929,7 +5028,7 @@
       <c r="H70" s="36"/>
       <c r="I70" s="38"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="22">
         <v>2</v>
       </c>
@@ -4950,7 +5049,7 @@
       <c r="H71" s="24"/>
       <c r="I71" s="25"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="22">
         <v>3</v>
       </c>
@@ -4971,7 +5070,7 @@
       <c r="H72" s="24"/>
       <c r="I72" s="25"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="22">
         <v>4</v>
       </c>
@@ -4992,7 +5091,7 @@
       <c r="H73" s="24"/>
       <c r="I73" s="25"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="22">
         <v>5</v>
       </c>
@@ -5013,7 +5112,7 @@
       <c r="H74" s="24"/>
       <c r="I74" s="25"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="22">
         <v>6</v>
       </c>
@@ -5032,11 +5131,11 @@
       </c>
       <c r="G75" s="23"/>
       <c r="H75" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I75" s="25"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="22">
         <v>7</v>
       </c>
@@ -5055,11 +5154,11 @@
       </c>
       <c r="G76" s="23"/>
       <c r="H76" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I76" s="25"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="22">
         <v>8</v>
       </c>
@@ -5070,21 +5169,21 @@
         <v>201</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E77" s="23"/>
       <c r="F77" s="24" t="s">
         <v>151</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H77" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I77" s="25"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="22">
         <v>9</v>
       </c>
@@ -5105,7 +5204,7 @@
       <c r="H78" s="24"/>
       <c r="I78" s="25"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="22">
         <v>10</v>
       </c>
@@ -5120,7 +5219,7 @@
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G79" s="23" t="s">
         <v>175</v>
@@ -5128,7 +5227,7 @@
       <c r="H79" s="24"/>
       <c r="I79" s="25"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="22">
         <v>11</v>
       </c>
@@ -5153,37 +5252,37 @@
       </c>
       <c r="I80" s="25"/>
     </row>
-    <row r="81" spans="1:9" ht="17.25" thickBot="1">
+    <row r="81" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="B81" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="B81" s="55" t="s">
-        <v>343</v>
-      </c>
       <c r="C81" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D81" s="55" t="s">
         <v>163</v>
       </c>
       <c r="E81" s="68"/>
       <c r="F81" s="55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G81" s="80" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H81" s="55" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I81" s="29"/>
     </row>
-    <row r="83" spans="1:9" ht="17.25" thickBot="1">
+    <row r="83" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="20" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="17.25" thickBot="1">
+    <row r="84" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="32" t="s">
         <v>0</v>
       </c>
@@ -5212,7 +5311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="35">
         <v>1</v>
       </c>
@@ -5226,7 +5325,7 @@
         <v>179</v>
       </c>
       <c r="E85" s="37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F85" s="36" t="s">
         <v>151</v>
@@ -5235,7 +5334,7 @@
       <c r="H85" s="36"/>
       <c r="I85" s="38"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="22">
         <v>2</v>
       </c>
@@ -5249,7 +5348,7 @@
         <v>150</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F86" s="24" t="s">
         <v>151</v>
@@ -5258,7 +5357,7 @@
       <c r="H86" s="24"/>
       <c r="I86" s="25"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="22">
         <v>3</v>
       </c>
@@ -5272,7 +5371,7 @@
         <v>192</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F87" s="24" t="s">
         <v>151</v>
@@ -5281,7 +5380,7 @@
       <c r="H87" s="24"/>
       <c r="I87" s="25"/>
     </row>
-    <row r="88" spans="1:9" ht="17.25" thickBot="1">
+    <row r="88" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="26">
         <v>4</v>
       </c>
@@ -5304,12 +5403,12 @@
       <c r="H88" s="28"/>
       <c r="I88" s="29"/>
     </row>
-    <row r="91" spans="1:9" ht="17.25" thickBot="1">
+    <row r="91" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="20" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="17.25" thickBot="1">
+    <row r="92" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="32" t="s">
         <v>0</v>
       </c>
@@ -5338,7 +5437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="35">
         <v>1</v>
       </c>
@@ -5361,7 +5460,7 @@
       <c r="H93" s="36"/>
       <c r="I93" s="38"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="22">
         <v>2</v>
       </c>
@@ -5380,11 +5479,11 @@
       </c>
       <c r="G94" s="23"/>
       <c r="H94" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I94" s="25"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="22">
         <v>3</v>
       </c>
@@ -5403,11 +5502,11 @@
       </c>
       <c r="G95" s="23"/>
       <c r="H95" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I95" s="25"/>
     </row>
-    <row r="96" spans="1:9" ht="17.25" thickBot="1">
+    <row r="96" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="26">
         <v>4</v>
       </c>
@@ -5430,12 +5529,12 @@
       <c r="H96" s="28"/>
       <c r="I96" s="29"/>
     </row>
-    <row r="99" spans="1:9" ht="17.25" thickBot="1">
+    <row r="99" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="20" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="17.25" thickBot="1">
+    <row r="100" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="32" t="s">
         <v>0</v>
       </c>
@@ -5464,7 +5563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="35" t="s">
         <v>255</v>
       </c>
@@ -5487,7 +5586,7 @@
       <c r="H101" s="36"/>
       <c r="I101" s="38"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="22" t="s">
         <v>256</v>
       </c>
@@ -5512,7 +5611,7 @@
       <c r="H102" s="24"/>
       <c r="I102" s="25"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
         <v>257</v>
       </c>
@@ -5533,7 +5632,7 @@
       <c r="H103" s="24"/>
       <c r="I103" s="25"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="22" t="s">
         <v>258</v>
       </c>
@@ -5554,7 +5653,7 @@
       <c r="H104" s="24"/>
       <c r="I104" s="25"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="22" t="s">
         <v>259</v>
       </c>
@@ -5577,7 +5676,7 @@
       <c r="H105" s="24"/>
       <c r="I105" s="25"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="22" t="s">
         <v>260</v>
       </c>
@@ -5600,7 +5699,7 @@
       <c r="H106" s="24"/>
       <c r="I106" s="25"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="22" t="s">
         <v>261</v>
       </c>
@@ -5621,7 +5720,7 @@
       <c r="H107" s="24"/>
       <c r="I107" s="25"/>
     </row>
-    <row r="108" spans="1:9" ht="17.25" thickBot="1">
+    <row r="108" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="26" t="s">
         <v>262</v>
       </c>
@@ -5632,21 +5731,21 @@
         <v>117</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>310</v>
+        <v>428</v>
       </c>
       <c r="E108" s="27"/>
       <c r="F108" s="28" t="s">
         <v>151</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H108" s="55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I108" s="29"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="31"/>
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
@@ -5657,7 +5756,7 @@
       <c r="H109" s="83"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="31"/>
       <c r="B110" s="31"/>
       <c r="C110" s="31"/>
@@ -5668,9 +5767,9 @@
       <c r="H110" s="83"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:9" ht="17.25" thickBot="1">
+    <row r="111" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="83" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B111" s="31"/>
       <c r="C111" s="31"/>
@@ -5681,7 +5780,7 @@
       <c r="H111" s="83"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:9" ht="17.25" thickBot="1">
+    <row r="112" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="32" t="s">
         <v>0</v>
       </c>
@@ -5710,18 +5809,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="35" t="s">
         <v>255</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C113" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D113" s="36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E113" s="37" t="s">
         <v>12</v>
@@ -5733,15 +5832,15 @@
       <c r="H113" s="36"/>
       <c r="I113" s="38"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
         <v>256</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D114" s="24" t="s">
         <v>150</v>
@@ -5754,7 +5853,7 @@
       <c r="H114" s="24"/>
       <c r="I114" s="25"/>
     </row>
-    <row r="115" spans="1:9" ht="17.25" thickBot="1">
+    <row r="115" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="26" t="s">
         <v>257</v>
       </c>
@@ -5775,12 +5874,12 @@
       <c r="H115" s="28"/>
       <c r="I115" s="29"/>
     </row>
-    <row r="118" spans="1:9" ht="17.25" thickBot="1">
+    <row r="118" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="20" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="17.25" thickBot="1">
+    <row r="119" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="32" t="s">
         <v>0</v>
       </c>
@@ -5809,7 +5908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="35" t="s">
         <v>263</v>
       </c>
@@ -5832,7 +5931,7 @@
       <c r="H120" s="36"/>
       <c r="I120" s="38"/>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="22" t="s">
         <v>256</v>
       </c>
@@ -5853,7 +5952,7 @@
       <c r="H121" s="24"/>
       <c r="I121" s="25"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="63" t="s">
         <v>257</v>
       </c>
@@ -5864,23 +5963,23 @@
         <v>223</v>
       </c>
       <c r="D122" s="64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E122" s="65"/>
       <c r="F122" s="64" t="s">
         <v>151</v>
       </c>
       <c r="G122" s="65" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H122" s="66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I122" s="67" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="63" t="s">
         <v>258</v>
       </c>
@@ -5891,23 +5990,23 @@
         <v>225</v>
       </c>
       <c r="D123" s="64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E123" s="65"/>
       <c r="F123" s="64" t="s">
         <v>151</v>
       </c>
       <c r="G123" s="65" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H123" s="66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I123" s="67" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="17.25" thickBot="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="26" t="s">
         <v>259</v>
       </c>
@@ -5930,7 +6029,7 @@
       <c r="H124" s="28"/>
       <c r="I124" s="29"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="31"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
@@ -5941,12 +6040,12 @@
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="127" spans="1:9" ht="17.25" thickBot="1">
+    <row r="127" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="20" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="17.25" thickBot="1">
+    <row r="128" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="32" t="s">
         <v>0</v>
       </c>
@@ -5975,7 +6074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="35" t="s">
         <v>263</v>
       </c>
@@ -5998,7 +6097,7 @@
       <c r="H129" s="36"/>
       <c r="I129" s="38"/>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="22" t="s">
         <v>256</v>
       </c>
@@ -6019,7 +6118,7 @@
       <c r="H130" s="24"/>
       <c r="I130" s="25"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="22" t="s">
         <v>257</v>
       </c>
@@ -6040,7 +6139,7 @@
       <c r="H131" s="24"/>
       <c r="I131" s="25"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
         <v>258</v>
       </c>
@@ -6061,7 +6160,7 @@
       <c r="H132" s="24"/>
       <c r="I132" s="25"/>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="22" t="s">
         <v>259</v>
       </c>
@@ -6082,18 +6181,18 @@
       <c r="H133" s="24"/>
       <c r="I133" s="25"/>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="56" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B134" s="71" t="s">
+        <v>349</v>
+      </c>
+      <c r="C134" s="71" t="s">
         <v>350</v>
       </c>
-      <c r="C134" s="71" t="s">
-        <v>351</v>
-      </c>
       <c r="D134" s="71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E134" s="72"/>
       <c r="F134" s="73" t="s">
@@ -6101,13 +6200,13 @@
       </c>
       <c r="G134" s="72"/>
       <c r="H134" s="74" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I134" s="75"/>
     </row>
-    <row r="135" spans="1:9" ht="17.25" thickBot="1">
+    <row r="135" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>167</v>
@@ -6128,12 +6227,12 @@
       <c r="H135" s="28"/>
       <c r="I135" s="29"/>
     </row>
-    <row r="138" spans="1:9" ht="17.25" thickBot="1">
+    <row r="138" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="20" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="17.25" thickBot="1">
+    <row r="139" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="32" t="s">
         <v>0</v>
       </c>
@@ -6162,7 +6261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="35" t="s">
         <v>263</v>
       </c>
@@ -6185,7 +6284,7 @@
       <c r="H140" s="36"/>
       <c r="I140" s="38"/>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="22" t="s">
         <v>256</v>
       </c>
@@ -6206,7 +6305,7 @@
       <c r="H141" s="24"/>
       <c r="I141" s="25"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="22" t="s">
         <v>257</v>
       </c>
@@ -6227,7 +6326,7 @@
       <c r="H142" s="24"/>
       <c r="I142" s="25"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="22" t="s">
         <v>258</v>
       </c>
@@ -6250,7 +6349,7 @@
       <c r="H143" s="24"/>
       <c r="I143" s="25"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="22" t="s">
         <v>259</v>
       </c>
@@ -6273,7 +6372,7 @@
       <c r="H144" s="24"/>
       <c r="I144" s="25"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="22" t="s">
         <v>260</v>
       </c>
@@ -6294,7 +6393,7 @@
       <c r="H145" s="24"/>
       <c r="I145" s="25"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="22" t="s">
         <v>261</v>
       </c>
@@ -6317,7 +6416,7 @@
       <c r="H146" s="24"/>
       <c r="I146" s="25"/>
     </row>
-    <row r="147" spans="1:9" ht="17.25" thickBot="1">
+    <row r="147" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="26" t="s">
         <v>262</v>
       </c>
@@ -6328,7 +6427,7 @@
         <v>117</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E147" s="27"/>
       <c r="F147" s="2" t="s">
@@ -6338,16 +6437,16 @@
         <v>1</v>
       </c>
       <c r="H147" s="55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I147" s="29"/>
     </row>
-    <row r="150" spans="1:9" ht="17.25" thickBot="1">
+    <row r="150" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="20" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="17.25" thickBot="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="32" t="s">
         <v>0</v>
       </c>
@@ -6376,12 +6475,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="35" t="s">
         <v>263</v>
       </c>
       <c r="B152" s="39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C152" s="39" t="s">
         <v>128</v>
@@ -6397,16 +6496,16 @@
       </c>
       <c r="G152" s="37"/>
       <c r="H152" s="61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I152" s="38"/>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="22" t="s">
         <v>256</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>129</v>
@@ -6422,11 +6521,11 @@
       </c>
       <c r="G153" s="23"/>
       <c r="H153" s="62" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I153" s="25"/>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="22" t="s">
         <v>257</v>
       </c>
@@ -6449,7 +6548,7 @@
       <c r="H154" s="62"/>
       <c r="I154" s="25"/>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="22" t="s">
         <v>258</v>
       </c>
@@ -6464,13 +6563,13 @@
       </c>
       <c r="E155" s="23"/>
       <c r="F155" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G155" s="23"/>
       <c r="H155" s="24"/>
       <c r="I155" s="25"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="22" t="s">
         <v>259</v>
       </c>
@@ -6485,40 +6584,40 @@
       </c>
       <c r="E156" s="23"/>
       <c r="F156" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G156" s="23"/>
       <c r="H156" s="24"/>
       <c r="I156" s="25"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B157" s="71" t="s">
+        <v>359</v>
+      </c>
+      <c r="C157" s="71" t="s">
         <v>360</v>
       </c>
-      <c r="C157" s="71" t="s">
+      <c r="D157" s="71" t="s">
         <v>361</v>
-      </c>
-      <c r="D157" s="71" t="s">
-        <v>362</v>
       </c>
       <c r="E157" s="72"/>
       <c r="F157" s="71" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G157" s="72" t="s">
+        <v>364</v>
+      </c>
+      <c r="H157" s="74" t="s">
         <v>365</v>
       </c>
-      <c r="H157" s="74" t="s">
-        <v>366</v>
-      </c>
       <c r="I157" s="59"/>
     </row>
-    <row r="158" spans="1:9" ht="17.25" thickBot="1">
+    <row r="158" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>167</v>
@@ -6531,7 +6630,7 @@
       </c>
       <c r="E158" s="27"/>
       <c r="F158" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G158" s="27" t="s">
         <v>175</v>
@@ -6539,15 +6638,15 @@
       <c r="H158" s="28"/>
       <c r="I158" s="29"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F159"/>
     </row>
-    <row r="161" spans="1:9" ht="17.25" thickBot="1">
+    <row r="161" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="20" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="85" t="s">
         <v>0</v>
       </c>
@@ -6576,7 +6675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="22" t="s">
         <v>263</v>
       </c>
@@ -6599,15 +6698,15 @@
       <c r="H163" s="24"/>
       <c r="I163" s="25"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="22" t="s">
         <v>256</v>
       </c>
       <c r="B164" s="24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>163</v>
@@ -6620,7 +6719,7 @@
       <c r="H164" s="24"/>
       <c r="I164" s="25"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="22" t="s">
         <v>257</v>
       </c>
@@ -6641,7 +6740,7 @@
       <c r="H165" s="24"/>
       <c r="I165" s="25"/>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="22" t="s">
         <v>258</v>
       </c>
@@ -6662,7 +6761,7 @@
       <c r="H166" s="24"/>
       <c r="I166" s="25"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="22" t="s">
         <v>259</v>
       </c>
@@ -6685,7 +6784,7 @@
       <c r="H167" s="24"/>
       <c r="I167" s="25"/>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="22" t="s">
         <v>260</v>
       </c>
@@ -6708,7 +6807,7 @@
       <c r="H168" s="24"/>
       <c r="I168" s="25"/>
     </row>
-    <row r="169" spans="1:9" ht="17.25" thickBot="1">
+    <row r="169" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="26" t="s">
         <v>261</v>
       </c>
@@ -6731,12 +6830,12 @@
       <c r="H169" s="28"/>
       <c r="I169" s="29"/>
     </row>
-    <row r="172" spans="1:9" ht="17.25" thickBot="1">
+    <row r="172" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="20" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="17.25" thickBot="1">
+    <row r="173" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="32" t="s">
         <v>0</v>
       </c>
@@ -6765,7 +6864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="35" t="s">
         <v>263</v>
       </c>
@@ -6788,15 +6887,15 @@
       <c r="H174" s="36"/>
       <c r="I174" s="38"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="88" t="s">
         <v>256</v>
       </c>
       <c r="B175" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="C175" s="24" t="s">
         <v>403</v>
-      </c>
-      <c r="C175" s="24" t="s">
-        <v>404</v>
       </c>
       <c r="D175" s="89" t="s">
         <v>163</v>
@@ -6809,7 +6908,7 @@
       <c r="H175" s="24"/>
       <c r="I175" s="25"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="22" t="s">
         <v>257</v>
       </c>
@@ -6832,7 +6931,7 @@
       <c r="H176" s="24"/>
       <c r="I176" s="25"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="22" t="s">
         <v>258</v>
       </c>
@@ -6853,7 +6952,7 @@
       <c r="H177" s="24"/>
       <c r="I177" s="25"/>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="22" t="s">
         <v>259</v>
       </c>
@@ -6874,7 +6973,7 @@
       <c r="H178" s="24"/>
       <c r="I178" s="25"/>
     </row>
-    <row r="179" spans="1:9" ht="17.25" thickBot="1">
+    <row r="179" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="26" t="s">
         <v>260</v>
       </c>
@@ -6897,9 +6996,9 @@
       <c r="H179" s="28"/>
       <c r="I179" s="29"/>
     </row>
-    <row r="182" spans="1:9" ht="17.25" thickBot="1">
+    <row r="182" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B182" s="76"/>
       <c r="C182" s="76"/>
@@ -6910,7 +7009,7 @@
       <c r="H182" s="76"/>
       <c r="I182" s="76"/>
     </row>
-    <row r="183" spans="1:9" ht="17.25" thickBot="1">
+    <row r="183" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="42" t="s">
         <v>0</v>
       </c>
@@ -6939,7 +7038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="45" t="s">
         <v>255</v>
       </c>
@@ -6962,7 +7061,7 @@
       <c r="H184" s="48"/>
       <c r="I184" s="49"/>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="63" t="s">
         <v>256</v>
       </c>
@@ -6985,7 +7084,7 @@
       <c r="H185" s="78"/>
       <c r="I185" s="79"/>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="63" t="s">
         <v>257</v>
       </c>
@@ -7008,7 +7107,7 @@
       <c r="H186" s="78"/>
       <c r="I186" s="79"/>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="63" t="s">
         <v>258</v>
       </c>
@@ -7029,7 +7128,7 @@
       <c r="H187" s="78"/>
       <c r="I187" s="79"/>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="63" t="s">
         <v>259</v>
       </c>
@@ -7050,7 +7149,7 @@
       <c r="H188" s="78"/>
       <c r="I188" s="79"/>
     </row>
-    <row r="189" spans="1:9" ht="17.25" thickBot="1">
+    <row r="189" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="50" t="s">
         <v>260</v>
       </c>
@@ -7073,12 +7172,12 @@
       <c r="H189" s="53"/>
       <c r="I189" s="54"/>
     </row>
-    <row r="192" spans="1:9" ht="17.25" thickBot="1">
+    <row r="192" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="17.25" thickBot="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="32" t="s">
         <v>0</v>
       </c>
@@ -7107,12 +7206,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="35" t="s">
         <v>255</v>
       </c>
       <c r="B194" s="39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C194" s="39" t="s">
         <v>289</v>
@@ -7128,11 +7227,11 @@
       </c>
       <c r="G194" s="37"/>
       <c r="H194" s="82" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I194" s="38"/>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="22" t="s">
         <v>256</v>
       </c>
@@ -7146,7 +7245,7 @@
         <v>185</v>
       </c>
       <c r="E195" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>151</v>
@@ -7155,7 +7254,7 @@
       <c r="H195" s="40"/>
       <c r="I195" s="25"/>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="22" t="s">
         <v>257</v>
       </c>
@@ -7166,7 +7265,7 @@
         <v>291</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>295</v>
+        <v>432</v>
       </c>
       <c r="E196" s="23"/>
       <c r="F196" s="1" t="s">
@@ -7176,7 +7275,7 @@
       <c r="H196" s="24"/>
       <c r="I196" s="25"/>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="22" t="s">
         <v>258</v>
       </c>
@@ -7187,7 +7286,7 @@
         <v>292</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E197" s="23" t="s">
         <v>290</v>
@@ -7199,7 +7298,7 @@
       <c r="H197" s="24"/>
       <c r="I197" s="25"/>
     </row>
-    <row r="198" spans="1:9" ht="17.25" thickBot="1">
+    <row r="198" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="26" t="s">
         <v>259</v>
       </c>
@@ -7210,7 +7309,7 @@
         <v>293</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>298</v>
+        <v>430</v>
       </c>
       <c r="E198" s="27"/>
       <c r="F198" s="2" t="s">
@@ -7222,12 +7321,12 @@
       <c r="H198" s="28"/>
       <c r="I198" s="29"/>
     </row>
-    <row r="201" spans="1:9" ht="17.25" thickBot="1">
+    <row r="201" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="41" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="17.25" thickBot="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="42" t="s">
         <v>0</v>
       </c>
@@ -7256,7 +7355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="45" t="s">
         <v>263</v>
       </c>
@@ -7267,7 +7366,7 @@
         <v>105</v>
       </c>
       <c r="D203" s="46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E203" s="47" t="s">
         <v>208</v>
@@ -7279,7 +7378,7 @@
       <c r="H203" s="48"/>
       <c r="I203" s="49"/>
     </row>
-    <row r="204" spans="1:9" ht="17.25" thickBot="1">
+    <row r="204" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="50" t="s">
         <v>264</v>
       </c>
@@ -7299,6 +7398,195 @@
       <c r="G204" s="52"/>
       <c r="H204" s="53"/>
       <c r="I204" s="54"/>
+    </row>
+    <row r="207" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="81" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="D208" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E208" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="F208" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G208" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H208" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="I208" s="87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E209" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G209" s="23"/>
+      <c r="H209" s="92" t="s">
+        <v>414</v>
+      </c>
+      <c r="I209" s="25"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E210" s="23"/>
+      <c r="F210" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G210" s="23"/>
+      <c r="H210" s="92"/>
+      <c r="I210" s="25"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E211" s="23"/>
+      <c r="F211" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G211" s="23"/>
+      <c r="H211" s="92"/>
+      <c r="I211" s="25"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E212" s="23"/>
+      <c r="F212" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G212" s="23"/>
+      <c r="H212" s="92"/>
+      <c r="I212" s="25"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E213" s="23"/>
+      <c r="F213" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G213" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="H213" s="92"/>
+      <c r="I213" s="25"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E214" s="23"/>
+      <c r="F214" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G214" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="H214" s="92"/>
+      <c r="I214" s="25"/>
+    </row>
+    <row r="215" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E215" s="27"/>
+      <c r="F215" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G215" s="27"/>
+      <c r="H215" s="28"/>
+      <c r="I215" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7315,95 +7603,95 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="13" width="3.875" style="20" customWidth="1"/>
     <col min="14" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="20" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="20" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="20" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="C4" s="20" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="20" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="D5" s="20" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="20" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="E6" s="20" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="20" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="E7" s="20" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="20" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="F8" s="20" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="20" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="20" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="20" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="C12" s="20" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="20" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="C13" s="20" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="20" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="D14" s="20" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="20" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="D15" s="20" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="20" t="s">
-        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/ecobay/src/main/webapp/resources/db/분석설계.xlsx
+++ b/ecobay/src/main/webapp/resources/db/분석설계.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="446">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1530,14 +1530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FILESIZE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1858,6 +1850,45 @@
   </si>
   <si>
     <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>DEL_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181018 추가 - 수정시 사용하기 위해서...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제일시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2291,7 +2322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2570,6 +2601,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2893,7 +2927,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3155,10 +3189,10 @@
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="70" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G15" s="70" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H15" s="13"/>
     </row>
@@ -3224,7 +3258,7 @@
         <v>80</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H19" s="13"/>
     </row>
@@ -3262,7 +3296,7 @@
         <v>139</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H21" s="15"/>
     </row>
@@ -3328,7 +3362,7 @@
         <v>77</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H25" s="13"/>
     </row>
@@ -3344,10 +3378,10 @@
         <v>81</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -3433,10 +3467,10 @@
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G31" s="69" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H31" s="13"/>
     </row>
@@ -3468,7 +3502,7 @@
         <v>141</v>
       </c>
       <c r="G33" s="70" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H33" s="13"/>
     </row>
@@ -3698,10 +3732,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I215"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G214" sqref="G214"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4189,7 +4223,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>119</v>
@@ -4530,7 +4564,7 @@
         <v>118</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>209</v>
@@ -4616,7 +4650,7 @@
         <v>320</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C47" s="28" t="s">
         <v>115</v>
@@ -4658,7 +4692,7 @@
     </row>
     <row r="50" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="81" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4695,13 +4729,13 @@
         <v>1</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E52" s="37" t="s">
         <v>203</v>
@@ -4718,10 +4752,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>150</v>
@@ -4741,10 +4775,10 @@
         <v>3</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D54" s="28" t="s">
         <v>179</v>
@@ -5219,7 +5253,7 @@
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G79" s="23" t="s">
         <v>175</v>
@@ -5270,10 +5304,10 @@
         <v>303</v>
       </c>
       <c r="G81" s="80" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H81" s="55" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I81" s="29"/>
     </row>
@@ -5731,7 +5765,7 @@
         <v>117</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E108" s="27"/>
       <c r="F108" s="28" t="s">
@@ -5769,7 +5803,7 @@
     </row>
     <row r="111" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="83" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B111" s="31"/>
       <c r="C111" s="31"/>
@@ -5814,13 +5848,13 @@
         <v>255</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C113" s="36" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D113" s="36" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E113" s="37" t="s">
         <v>12</v>
@@ -5837,10 +5871,10 @@
         <v>256</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D114" s="24" t="s">
         <v>150</v>
@@ -6427,7 +6461,7 @@
         <v>117</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E147" s="27"/>
       <c r="F147" s="2" t="s">
@@ -6563,7 +6597,7 @@
       </c>
       <c r="E155" s="23"/>
       <c r="F155" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G155" s="23"/>
       <c r="H155" s="24"/>
@@ -6591,148 +6625,154 @@
       <c r="I156" s="25"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="56" t="s">
+      <c r="A157" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B157" s="73" t="s">
         <v>357</v>
       </c>
-      <c r="B157" s="71" t="s">
+      <c r="C157" s="73" t="s">
+        <v>358</v>
+      </c>
+      <c r="D157" s="73" t="s">
         <v>359</v>
       </c>
-      <c r="C157" s="71" t="s">
+      <c r="E157" s="93"/>
+      <c r="F157" s="73" t="s">
         <v>360</v>
       </c>
-      <c r="D157" s="71" t="s">
-        <v>361</v>
-      </c>
-      <c r="E157" s="72"/>
-      <c r="F157" s="71" t="s">
+      <c r="G157" s="93" t="s">
         <v>362</v>
       </c>
-      <c r="G157" s="72" t="s">
+      <c r="H157" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="I157" s="25"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B158" s="73" t="s">
+        <v>437</v>
+      </c>
+      <c r="C158" s="73" t="s">
+        <v>444</v>
+      </c>
+      <c r="D158" s="73" t="s">
+        <v>440</v>
+      </c>
+      <c r="E158" s="93"/>
+      <c r="F158" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="G158" s="93" t="s">
+        <v>441</v>
+      </c>
+      <c r="H158" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="I158" s="25"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B159" s="73" t="s">
+        <v>438</v>
+      </c>
+      <c r="C159" s="73" t="s">
+        <v>445</v>
+      </c>
+      <c r="D159" s="73" t="s">
+        <v>443</v>
+      </c>
+      <c r="E159" s="93"/>
+      <c r="F159" s="73" t="s">
+        <v>442</v>
+      </c>
+      <c r="G159" s="93"/>
+      <c r="H159" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="I159" s="25"/>
+    </row>
+    <row r="160" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E160" s="27"/>
+      <c r="F160" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H157" s="74" t="s">
-        <v>365</v>
-      </c>
-      <c r="I157" s="59"/>
-    </row>
-    <row r="158" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E158" s="27"/>
-      <c r="F158" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="G158" s="27" t="s">
+      <c r="G160" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="H158" s="28"/>
-      <c r="I158" s="29"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F159"/>
-    </row>
-    <row r="161" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="20" t="s">
+      <c r="H160" s="28"/>
+      <c r="I160" s="29"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F161"/>
+    </row>
+    <row r="163" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="20" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A162" s="85" t="s">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="86" t="s">
+      <c r="B164" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C162" s="86" t="s">
+      <c r="C164" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="D162" s="86" t="s">
+      <c r="D164" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="E162" s="86" t="s">
+      <c r="E164" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="F162" s="86" t="s">
+      <c r="F164" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="G162" s="86" t="s">
+      <c r="G164" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H162" s="86" t="s">
+      <c r="H164" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="I162" s="87" t="s">
+      <c r="I164" s="87" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="B163" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="C163" s="91" t="s">
-        <v>129</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E163" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G163" s="23"/>
-      <c r="H163" s="24"/>
-      <c r="I163" s="25"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="B164" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="C164" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E164" s="23"/>
-      <c r="F164" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G164" s="23"/>
-      <c r="H164" s="24"/>
-      <c r="I164" s="25"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>237</v>
+        <v>263</v>
+      </c>
+      <c r="B165" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="C165" s="91" t="s">
+        <v>129</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E165" s="23"/>
+        <v>185</v>
+      </c>
+      <c r="E165" s="23" t="s">
+        <v>208</v>
+      </c>
       <c r="F165" s="1" t="s">
         <v>151</v>
       </c>
@@ -6742,20 +6782,20 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
+      </c>
+      <c r="B166" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C166" s="24" t="s">
+        <v>401</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E166" s="23"/>
       <c r="F166" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="G166" s="23"/>
       <c r="H166" s="24"/>
@@ -6763,186 +6803,184 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="B167" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="C167" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D167" s="24" t="s">
-        <v>185</v>
+        <v>257</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="E167" s="23"/>
-      <c r="F167" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="G167" s="23">
-        <v>0</v>
-      </c>
+      <c r="F167" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G167" s="23"/>
       <c r="H167" s="24"/>
       <c r="I167" s="25"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E168" s="23"/>
       <c r="F168" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G168" s="23" t="s">
-        <v>175</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G168" s="23"/>
       <c r="H168" s="24"/>
       <c r="I168" s="25"/>
     </row>
-    <row r="169" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="26" t="s">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B169" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C169" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D169" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E169" s="23"/>
+      <c r="F169" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G169" s="23">
+        <v>0</v>
+      </c>
+      <c r="H169" s="24"/>
+      <c r="I169" s="25"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E170" s="23"/>
+      <c r="F170" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G170" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H170" s="24"/>
+      <c r="I170" s="25"/>
+    </row>
+    <row r="171" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C171" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D171" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E169" s="27"/>
-      <c r="F169" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G169" s="27" t="s">
+      <c r="E171" s="27"/>
+      <c r="F171" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G171" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="H169" s="28"/>
-      <c r="I169" s="29"/>
-    </row>
-    <row r="172" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="20" t="s">
+      <c r="H171" s="28"/>
+      <c r="I171" s="29"/>
+    </row>
+    <row r="174" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="20" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="32" t="s">
+    <row r="175" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="33" t="s">
+      <c r="B175" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C173" s="33" t="s">
+      <c r="C175" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D173" s="33" t="s">
+      <c r="D175" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E173" s="33" t="s">
+      <c r="E175" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="F173" s="33" t="s">
+      <c r="F175" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G173" s="33" t="s">
+      <c r="G175" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H173" s="33" t="s">
+      <c r="H175" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I173" s="34" t="s">
+      <c r="I175" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" s="35" t="s">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="B174" s="90" t="s">
+      <c r="B176" s="90" t="s">
         <v>250</v>
       </c>
-      <c r="C174" s="90" t="s">
+      <c r="C176" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="D174" s="39" t="s">
+      <c r="D176" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="E174" s="37" t="s">
+      <c r="E176" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="F174" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="G174" s="37"/>
-      <c r="H174" s="36"/>
-      <c r="I174" s="38"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A175" s="88" t="s">
+      <c r="F176" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="G176" s="37"/>
+      <c r="H176" s="36"/>
+      <c r="I176" s="38"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" s="88" t="s">
         <v>256</v>
       </c>
-      <c r="B175" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="C175" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="D175" s="89" t="s">
+      <c r="B177" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="C177" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D177" s="89" t="s">
         <v>163</v>
-      </c>
-      <c r="E175" s="23"/>
-      <c r="F175" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G175" s="23"/>
-      <c r="H175" s="24"/>
-      <c r="I175" s="25"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A176" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="B176" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="C176" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E176" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G176" s="23"/>
-      <c r="H176" s="24"/>
-      <c r="I176" s="25"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="E177" s="23"/>
       <c r="F177" s="1" t="s">
@@ -6954,173 +6992,173 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
+      </c>
+      <c r="B178" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="C178" s="84" t="s">
+        <v>119</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E178" s="23"/>
+        <v>150</v>
+      </c>
+      <c r="E178" s="23" t="s">
+        <v>189</v>
+      </c>
       <c r="F178" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="G178" s="23"/>
       <c r="H178" s="24"/>
       <c r="I178" s="25"/>
     </row>
-    <row r="179" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="26" t="s">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E179" s="23"/>
+      <c r="F179" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G179" s="23"/>
+      <c r="H179" s="24"/>
+      <c r="I179" s="25"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E180" s="23"/>
+      <c r="F180" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G180" s="23"/>
+      <c r="H180" s="24"/>
+      <c r="I180" s="25"/>
+    </row>
+    <row r="181" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D181" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E179" s="27"/>
-      <c r="F179" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G179" s="27" t="s">
+      <c r="E181" s="27"/>
+      <c r="F181" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G181" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="H179" s="28"/>
-      <c r="I179" s="29"/>
-    </row>
-    <row r="182" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="B182" s="76"/>
-      <c r="C182" s="76"/>
-      <c r="D182" s="76"/>
-      <c r="E182" s="77"/>
-      <c r="F182" s="76"/>
-      <c r="G182" s="77"/>
-      <c r="H182" s="76"/>
-      <c r="I182" s="76"/>
-    </row>
-    <row r="183" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="42" t="s">
+      <c r="H181" s="28"/>
+      <c r="I181" s="29"/>
+    </row>
+    <row r="184" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="B184" s="76"/>
+      <c r="C184" s="76"/>
+      <c r="D184" s="76"/>
+      <c r="E184" s="77"/>
+      <c r="F184" s="76"/>
+      <c r="G184" s="77"/>
+      <c r="H184" s="76"/>
+      <c r="I184" s="76"/>
+    </row>
+    <row r="185" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B183" s="43" t="s">
+      <c r="B185" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C183" s="43" t="s">
+      <c r="C185" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D183" s="43" t="s">
+      <c r="D185" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E183" s="43" t="s">
+      <c r="E185" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="F183" s="43" t="s">
+      <c r="F185" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G183" s="43" t="s">
+      <c r="G185" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H183" s="43" t="s">
+      <c r="H185" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I183" s="44" t="s">
+      <c r="I185" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" s="45" t="s">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="B184" s="46" t="s">
+      <c r="B186" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="C184" s="46" t="s">
+      <c r="C186" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D184" s="46" t="s">
+      <c r="D186" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="E184" s="47" t="s">
+      <c r="E186" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="F184" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="G184" s="47"/>
-      <c r="H184" s="48"/>
-      <c r="I184" s="49"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="63" t="s">
-        <v>256</v>
-      </c>
-      <c r="B185" s="64" t="s">
-        <v>245</v>
-      </c>
-      <c r="C185" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="D185" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="E185" s="65" t="s">
-        <v>208</v>
-      </c>
-      <c r="F185" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="G185" s="65"/>
-      <c r="H185" s="78"/>
-      <c r="I185" s="79"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="63" t="s">
-        <v>257</v>
-      </c>
-      <c r="B186" s="64" t="s">
-        <v>250</v>
-      </c>
-      <c r="C186" s="64" t="s">
-        <v>254</v>
-      </c>
-      <c r="D186" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="E186" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="F186" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="G186" s="65"/>
-      <c r="H186" s="78"/>
-      <c r="I186" s="79"/>
+      <c r="F186" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="G186" s="47"/>
+      <c r="H186" s="48"/>
+      <c r="I186" s="49"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="63" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B187" s="64" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="C187" s="64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D187" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="E187" s="65"/>
+        <v>185</v>
+      </c>
+      <c r="E187" s="65" t="s">
+        <v>208</v>
+      </c>
       <c r="F187" s="64" t="s">
         <v>151</v>
       </c>
@@ -7130,18 +7168,20 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="63" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B188" s="64" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="C188" s="64" t="s">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="D188" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="E188" s="65"/>
+        <v>185</v>
+      </c>
+      <c r="E188" s="65" t="s">
+        <v>203</v>
+      </c>
       <c r="F188" s="64" t="s">
         <v>151</v>
       </c>
@@ -7149,373 +7189,373 @@
       <c r="H188" s="78"/>
       <c r="I188" s="79"/>
     </row>
-    <row r="189" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="50" t="s">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="B189" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="C189" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D189" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="E189" s="65"/>
+      <c r="F189" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="G189" s="65"/>
+      <c r="H189" s="78"/>
+      <c r="I189" s="79"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="B190" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C190" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D190" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="E190" s="65"/>
+      <c r="F190" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="G190" s="65"/>
+      <c r="H190" s="78"/>
+      <c r="I190" s="79"/>
+    </row>
+    <row r="191" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="B189" s="51" t="s">
+      <c r="B191" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C189" s="51" t="s">
+      <c r="C191" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D189" s="51" t="s">
+      <c r="D191" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="E189" s="52"/>
-      <c r="F189" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G189" s="52" t="s">
+      <c r="E191" s="52"/>
+      <c r="F191" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G191" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="H189" s="53"/>
-      <c r="I189" s="54"/>
-    </row>
-    <row r="192" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="20" t="s">
+      <c r="H191" s="53"/>
+      <c r="I191" s="54"/>
+    </row>
+    <row r="194" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="20" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="32" t="s">
+    <row r="195" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B193" s="33" t="s">
+      <c r="B195" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C193" s="33" t="s">
+      <c r="C195" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D193" s="33" t="s">
+      <c r="D195" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E193" s="33" t="s">
+      <c r="E195" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="F193" s="33" t="s">
+      <c r="F195" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G193" s="33" t="s">
+      <c r="G195" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H193" s="33" t="s">
+      <c r="H195" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I193" s="34" t="s">
+      <c r="I195" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A194" s="35" t="s">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="B194" s="39" t="s">
+      <c r="B196" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="C194" s="39" t="s">
+      <c r="C196" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="D194" s="39" t="s">
+      <c r="D196" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="E194" s="37" t="s">
+      <c r="E196" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="F194" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="G194" s="37"/>
-      <c r="H194" s="82" t="s">
-        <v>398</v>
-      </c>
-      <c r="I194" s="38"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E195" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G195" s="23"/>
-      <c r="H195" s="40"/>
-      <c r="I195" s="25"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E196" s="23"/>
-      <c r="F196" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G196" s="23"/>
-      <c r="H196" s="24"/>
-      <c r="I196" s="25"/>
+      <c r="F196" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="G196" s="37"/>
+      <c r="H196" s="82" t="s">
+        <v>396</v>
+      </c>
+      <c r="I196" s="38"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E197" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G197" s="23"/>
+      <c r="H197" s="40"/>
+      <c r="I197" s="25"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E198" s="23"/>
+      <c r="F198" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G198" s="23"/>
+      <c r="H198" s="24"/>
+      <c r="I198" s="25"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E197" s="23" t="s">
+      <c r="E199" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G197" s="23"/>
-      <c r="H197" s="24"/>
-      <c r="I197" s="25"/>
-    </row>
-    <row r="198" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="26" t="s">
+      <c r="F199" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G199" s="23"/>
+      <c r="H199" s="24"/>
+      <c r="I199" s="25"/>
+    </row>
+    <row r="200" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B200" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C200" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E198" s="27"/>
-      <c r="F198" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G198" s="27" t="s">
+      <c r="D200" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E200" s="27"/>
+      <c r="F200" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G200" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="H198" s="28"/>
-      <c r="I198" s="29"/>
-    </row>
-    <row r="201" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="41" t="s">
+      <c r="H200" s="28"/>
+      <c r="I200" s="29"/>
+    </row>
+    <row r="203" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="41" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="42" t="s">
+    <row r="204" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B202" s="43" t="s">
+      <c r="B204" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C202" s="43" t="s">
+      <c r="C204" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D202" s="43" t="s">
+      <c r="D204" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E202" s="43" t="s">
+      <c r="E204" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="F202" s="43" t="s">
+      <c r="F204" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G202" s="43" t="s">
+      <c r="G204" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H202" s="43" t="s">
+      <c r="H204" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I202" s="44" t="s">
+      <c r="I204" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203" s="45" t="s">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="B203" s="46" t="s">
+      <c r="B205" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="C203" s="46" t="s">
+      <c r="C205" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="D203" s="46" t="s">
+      <c r="D205" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="E203" s="47" t="s">
+      <c r="E205" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="F203" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="G203" s="47"/>
-      <c r="H203" s="48"/>
-      <c r="I203" s="49"/>
-    </row>
-    <row r="204" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="50" t="s">
+      <c r="F205" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="G205" s="47"/>
+      <c r="H205" s="48"/>
+      <c r="I205" s="49"/>
+    </row>
+    <row r="206" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="B204" s="51" t="s">
+      <c r="B206" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="C204" s="51" t="s">
+      <c r="C206" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D204" s="51" t="s">
+      <c r="D206" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="E204" s="52"/>
-      <c r="F204" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G204" s="52"/>
-      <c r="H204" s="53"/>
-      <c r="I204" s="54"/>
-    </row>
-    <row r="207" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="81" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A208" s="85" t="s">
+      <c r="E206" s="52"/>
+      <c r="F206" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G206" s="52"/>
+      <c r="H206" s="53"/>
+      <c r="I206" s="54"/>
+    </row>
+    <row r="209" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="81" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B208" s="86" t="s">
+      <c r="B210" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C208" s="86" t="s">
+      <c r="C210" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="D208" s="86" t="s">
+      <c r="D210" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="E208" s="86" t="s">
+      <c r="E210" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="F208" s="86" t="s">
+      <c r="F210" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="G208" s="86" t="s">
+      <c r="G210" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H208" s="86" t="s">
+      <c r="H210" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="I208" s="87" t="s">
+      <c r="I210" s="87" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A209" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E209" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G209" s="23"/>
-      <c r="H209" s="92" t="s">
-        <v>414</v>
-      </c>
-      <c r="I209" s="25"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A210" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E210" s="23"/>
-      <c r="F210" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G210" s="23"/>
-      <c r="H210" s="92"/>
-      <c r="I210" s="25"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>426</v>
+        <v>267</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E211" s="23"/>
+        <v>185</v>
+      </c>
+      <c r="E211" s="23" t="s">
+        <v>187</v>
+      </c>
       <c r="F211" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="G211" s="23"/>
-      <c r="H211" s="92"/>
+      <c r="H211" s="92" t="s">
+        <v>412</v>
+      </c>
       <c r="I211" s="25"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>425</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>432</v>
+        <v>150</v>
       </c>
       <c r="E212" s="23"/>
       <c r="F212" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="G212" s="23"/>
       <c r="H212" s="92"/>
@@ -7523,70 +7563,112 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>424</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E213" s="23"/>
       <c r="F213" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G213" s="23" t="s">
-        <v>437</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G213" s="23"/>
       <c r="H213" s="92"/>
       <c r="I213" s="25"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>423</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E214" s="23"/>
       <c r="F214" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G214" s="23" t="s">
-        <v>433</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G214" s="23"/>
       <c r="H214" s="92"/>
       <c r="I214" s="25"/>
     </row>
-    <row r="215" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="26" t="s">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E215" s="23"/>
+      <c r="F215" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G215" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="H215" s="92"/>
+      <c r="I215" s="25"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E216" s="23"/>
+      <c r="F216" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G216" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="H216" s="92"/>
+      <c r="I216" s="25"/>
+    </row>
+    <row r="217" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D215" s="2" t="s">
+      <c r="B217" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E215" s="27"/>
-      <c r="F215" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="G215" s="27"/>
-      <c r="H215" s="28"/>
-      <c r="I215" s="29"/>
+      <c r="E217" s="27"/>
+      <c r="F217" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G217" s="27"/>
+      <c r="H217" s="28"/>
+      <c r="I217" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7611,87 +7693,87 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" s="20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D5" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F8" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" s="20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
